--- a/manual/output_1223_chunk_3.xlsx
+++ b/manual/output_1223_chunk_3.xlsx
@@ -1288,7 +1288,7 @@
     <t>زينة مناديل وجه 2 طبقة سيزون 500 منديل</t>
   </si>
   <si>
-    <t>حبوية  ذرة  فيشار تركي  - 25 كجم</t>
+    <t>حبوية   ذرة   فيشار  تركي  - 25 كجم</t>
   </si>
   <si>
     <t>الكوثر دقيق - 25 كجم</t>
@@ -1297,7 +1297,7 @@
     <t>الكوثر دقيق - 50 كجم</t>
   </si>
   <si>
-    <t>حبوية فول بلدي عريض- 25 كجم</t>
+    <t>حبوية فول  بلدي  عريض - 25 كجم</t>
   </si>
   <si>
     <t>حبة حبة فيشار روسي   - 20 كجم</t>
@@ -6202,10 +6202,10 @@
     <t>ميني جولي - 12 قطعه</t>
   </si>
   <si>
-    <t>حبوبة عدس أصفر كندي - 25 كيلو</t>
-  </si>
-  <si>
-    <t>حبوبة فاصوليا بيضاء بلدى - 25 كجم</t>
+    <t>حبوبة  عدس  أصفر  كندي - 25 كيلو</t>
+  </si>
+  <si>
+    <t>حبوبة  فاصوليا ب يضاء  بلدى - 25 كجم</t>
   </si>
   <si>
     <t>برانش كرواسون شيكولاته بندق جامبو - 24 قطعه</t>
@@ -7005,7 +7005,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>45.40167009306872</v>
+        <v>45.41321595984462</v>
       </c>
       <c r="E20" t="s">
         <v>2095</v>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>544.8200411168247</v>
+        <v>544.9585915181354</v>
       </c>
       <c r="E21" t="s">
         <v>2094</v>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>334.5</v>
+        <v>334</v>
       </c>
       <c r="E53" t="s">
         <v>2094</v>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>609.3552087586859</v>
+        <v>609.355022376889</v>
       </c>
       <c r="E54" t="s">
         <v>2094</v>
@@ -7600,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>588.1921380451729</v>
+        <v>588.1920513058345</v>
       </c>
       <c r="E55" t="s">
         <v>2094</v>
@@ -7770,7 +7770,7 @@
         <v>2</v>
       </c>
       <c r="D65">
-        <v>225.75</v>
+        <v>227</v>
       </c>
       <c r="E65" t="s">
         <v>2094</v>
@@ -7957,7 +7957,7 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>19.12262908953302</v>
+        <v>19.12268024998345</v>
       </c>
       <c r="E76" t="s">
         <v>2095</v>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>382.4525817906605</v>
+        <v>382.4536049996689</v>
       </c>
       <c r="E77" t="s">
         <v>2094</v>
@@ -8739,7 +8739,7 @@
         <v>29</v>
       </c>
       <c r="D122">
-        <v>569.5</v>
+        <v>575</v>
       </c>
       <c r="E122" t="s">
         <v>2094</v>
@@ -8756,7 +8756,7 @@
         <v>29</v>
       </c>
       <c r="D123">
-        <v>280.25</v>
+        <v>282.75</v>
       </c>
       <c r="E123" t="s">
         <v>2094</v>
@@ -8807,7 +8807,7 @@
         <v>2</v>
       </c>
       <c r="D126">
-        <v>150.5</v>
+        <v>152</v>
       </c>
       <c r="E126" t="s">
         <v>2094</v>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>166.5</v>
+        <v>168.75</v>
       </c>
       <c r="E134" t="s">
         <v>2094</v>
@@ -8960,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>164.75</v>
+        <v>166.25</v>
       </c>
       <c r="E135" t="s">
         <v>2094</v>
@@ -9079,7 +9079,7 @@
         <v>29</v>
       </c>
       <c r="D142">
-        <v>311.75</v>
+        <v>314</v>
       </c>
       <c r="E142" t="s">
         <v>2094</v>
@@ -9198,7 +9198,7 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>307.7865939831212</v>
+        <v>309.4947203369575</v>
       </c>
       <c r="E149" t="s">
         <v>2094</v>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>308.1039478679365</v>
+        <v>309.8138354438166</v>
       </c>
       <c r="E150" t="s">
         <v>2094</v>
@@ -9232,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>309.256952418947</v>
+        <v>310.9732388357715</v>
       </c>
       <c r="E151" t="s">
         <v>2094</v>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>320</v>
+        <v>321.75</v>
       </c>
       <c r="E152" t="s">
         <v>2094</v>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E153" t="s">
         <v>2094</v>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E154" t="s">
         <v>2094</v>
@@ -9657,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E176" t="s">
         <v>2094</v>
@@ -9759,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="D182">
-        <v>94.94951625917909</v>
+        <v>95.7280249858931</v>
       </c>
       <c r="E182" t="s">
         <v>2095</v>
@@ -9776,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>759.5961300734327</v>
+        <v>765.8241998871448</v>
       </c>
       <c r="E183" t="s">
         <v>2094</v>
@@ -9793,7 +9793,7 @@
         <v>2</v>
       </c>
       <c r="D184">
-        <v>94.96695852369336</v>
+        <v>95.74575447443191</v>
       </c>
       <c r="E184" t="s">
         <v>2095</v>
@@ -9810,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>759.7356681895469</v>
+        <v>765.9660357954552</v>
       </c>
       <c r="E185" t="s">
         <v>2094</v>
@@ -9827,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="D186">
-        <v>94.94877726274699</v>
+        <v>95.72727382149056</v>
       </c>
       <c r="E186" t="s">
         <v>2095</v>
@@ -9844,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>759.5902181019759</v>
+        <v>765.8181905719244</v>
       </c>
       <c r="E187" t="s">
         <v>2094</v>
@@ -10099,7 +10099,7 @@
         <v>3</v>
       </c>
       <c r="D202">
-        <v>48.02629310215841</v>
+        <v>47.95966556153502</v>
       </c>
       <c r="E202" t="s">
         <v>2095</v>
@@ -10116,7 +10116,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>576.3155172259009</v>
+        <v>575.5159867384202</v>
       </c>
       <c r="E203" t="s">
         <v>2094</v>
@@ -10337,7 +10337,7 @@
         <v>3</v>
       </c>
       <c r="D216">
-        <v>94.29584196262226</v>
+        <v>94.30293547607421</v>
       </c>
       <c r="E216" t="s">
         <v>2095</v>
@@ -10354,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>565.7750517757336</v>
+        <v>565.8176128564453</v>
       </c>
       <c r="E217" t="s">
         <v>2094</v>
@@ -10405,7 +10405,7 @@
         <v>3</v>
       </c>
       <c r="D220">
-        <v>23</v>
+        <v>23.25</v>
       </c>
       <c r="E220" t="s">
         <v>2095</v>
@@ -10422,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E221" t="s">
         <v>2094</v>
@@ -10524,7 +10524,7 @@
         <v>29</v>
       </c>
       <c r="D227">
-        <v>434.25</v>
+        <v>437.25</v>
       </c>
       <c r="E227" t="s">
         <v>2094</v>
@@ -10541,7 +10541,7 @@
         <v>29</v>
       </c>
       <c r="D228">
-        <v>420.5</v>
+        <v>423.75</v>
       </c>
       <c r="E228" t="s">
         <v>2094</v>
@@ -10558,7 +10558,7 @@
         <v>29</v>
       </c>
       <c r="D229">
-        <v>288</v>
+        <v>290.25</v>
       </c>
       <c r="E229" t="s">
         <v>2094</v>
@@ -11119,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>130.75</v>
+        <v>131</v>
       </c>
       <c r="E262" t="s">
         <v>2094</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>240.3450769581863</v>
+        <v>240.3229610113075</v>
       </c>
       <c r="E263" t="s">
         <v>2094</v>
@@ -11170,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>239.409036180909</v>
+        <v>239.3872302747118</v>
       </c>
       <c r="E265" t="s">
         <v>2094</v>
@@ -11374,7 +11374,7 @@
         <v>2</v>
       </c>
       <c r="D277">
-        <v>297.25</v>
+        <v>299</v>
       </c>
       <c r="E277" t="s">
         <v>2094</v>
@@ -11391,7 +11391,7 @@
         <v>2</v>
       </c>
       <c r="D278">
-        <v>309</v>
+        <v>310.75</v>
       </c>
       <c r="E278" t="s">
         <v>2094</v>
@@ -11629,7 +11629,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>122.75</v>
+        <v>123.75</v>
       </c>
       <c r="E292" t="s">
         <v>2094</v>
@@ -12037,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="D316">
-        <v>107.1318519839595</v>
+        <v>106.9920081058178</v>
       </c>
       <c r="E316" t="s">
         <v>2094</v>
@@ -12054,7 +12054,7 @@
         <v>2</v>
       </c>
       <c r="D317">
-        <v>107.0534158024538</v>
+        <v>106.9911069442075</v>
       </c>
       <c r="E317" t="s">
         <v>2094</v>
@@ -12071,7 +12071,7 @@
         <v>2</v>
       </c>
       <c r="D318">
-        <v>107.0116137576073</v>
+        <v>106.9665993084535</v>
       </c>
       <c r="E318" t="s">
         <v>2094</v>
@@ -12088,7 +12088,7 @@
         <v>2</v>
       </c>
       <c r="D319">
-        <v>107.0834337004091</v>
+        <v>107.0235043987697</v>
       </c>
       <c r="E319" t="s">
         <v>2094</v>
@@ -12122,7 +12122,7 @@
         <v>1</v>
       </c>
       <c r="D321">
-        <v>214.75</v>
+        <v>216.5</v>
       </c>
       <c r="E321" t="s">
         <v>2094</v>
@@ -12156,7 +12156,7 @@
         <v>2</v>
       </c>
       <c r="D323">
-        <v>104.5</v>
+        <v>105</v>
       </c>
       <c r="E323" t="s">
         <v>2094</v>
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <v>377.25</v>
+        <v>377.5</v>
       </c>
       <c r="E380" t="s">
         <v>2094</v>
@@ -13193,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="D384">
-        <v>309.1618426008475</v>
+        <v>309.7413553526497</v>
       </c>
       <c r="E384" t="s">
         <v>2094</v>
@@ -13210,7 +13210,7 @@
         <v>2</v>
       </c>
       <c r="D385">
-        <v>305</v>
+        <v>308.5842444886508</v>
       </c>
       <c r="E385" t="s">
         <v>2094</v>
@@ -13227,7 +13227,7 @@
         <v>2</v>
       </c>
       <c r="D386">
-        <v>309.2201444265074</v>
+        <v>309.7741750355979</v>
       </c>
       <c r="E386" t="s">
         <v>2094</v>
@@ -13244,7 +13244,7 @@
         <v>2</v>
       </c>
       <c r="D387">
-        <v>312</v>
+        <v>312.25</v>
       </c>
       <c r="E387" t="s">
         <v>2094</v>
@@ -13499,7 +13499,7 @@
         <v>3</v>
       </c>
       <c r="D402">
-        <v>32.5</v>
+        <v>32.25</v>
       </c>
       <c r="E402" t="s">
         <v>2095</v>
@@ -13516,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="D403">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="E403" t="s">
         <v>2094</v>
@@ -13635,7 +13635,7 @@
         <v>1</v>
       </c>
       <c r="D410">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E410" t="s">
         <v>2094</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="D411">
-        <v>157.5</v>
+        <v>155.75</v>
       </c>
       <c r="E411" t="s">
         <v>2094</v>
@@ -13839,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="D422">
-        <v>187.002463062253</v>
+        <v>187.0024956789144</v>
       </c>
       <c r="E422" t="s">
         <v>2094</v>
@@ -13941,7 +13941,7 @@
         <v>29</v>
       </c>
       <c r="D428">
-        <v>289.25</v>
+        <v>292</v>
       </c>
       <c r="E428" t="s">
         <v>2094</v>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="D441">
-        <v>144.5</v>
+        <v>144.75</v>
       </c>
       <c r="E441" t="s">
         <v>2094</v>
@@ -14281,7 +14281,7 @@
         <v>3</v>
       </c>
       <c r="D448">
-        <v>54.25</v>
+        <v>54.5</v>
       </c>
       <c r="E448" t="s">
         <v>2095</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="D449">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E449" t="s">
         <v>2094</v>
@@ -14315,7 +14315,7 @@
         <v>1</v>
       </c>
       <c r="D450">
-        <v>668.25</v>
+        <v>667.5</v>
       </c>
       <c r="E450" t="s">
         <v>2094</v>
@@ -15063,7 +15063,7 @@
         <v>2</v>
       </c>
       <c r="D494">
-        <v>96.73807183788085</v>
+        <v>97.03807183788085</v>
       </c>
       <c r="E494" t="s">
         <v>2094</v>
@@ -15080,7 +15080,7 @@
         <v>2</v>
       </c>
       <c r="D495">
-        <v>100.3872377716879</v>
+        <v>101.6770616470067</v>
       </c>
       <c r="E495" t="s">
         <v>2094</v>
@@ -15097,7 +15097,7 @@
         <v>2</v>
       </c>
       <c r="D496">
-        <v>96.74536992509154</v>
+        <v>97.04536992509153</v>
       </c>
       <c r="E496" t="s">
         <v>2094</v>
@@ -15114,7 +15114,7 @@
         <v>2</v>
       </c>
       <c r="D497">
-        <v>100.387237771688</v>
+        <v>101.6770616470067</v>
       </c>
       <c r="E497" t="s">
         <v>2094</v>
@@ -15148,7 +15148,7 @@
         <v>2</v>
       </c>
       <c r="D499">
-        <v>103.3401890621979</v>
+        <v>104.6679538866024</v>
       </c>
       <c r="E499" t="s">
         <v>2094</v>
@@ -15165,7 +15165,7 @@
         <v>2</v>
       </c>
       <c r="D500">
-        <v>103.3399451024496</v>
+        <v>104.667706792341</v>
       </c>
       <c r="E500" t="s">
         <v>2094</v>
@@ -15182,7 +15182,7 @@
         <v>2</v>
       </c>
       <c r="D501">
-        <v>103.3406186028858</v>
+        <v>104.6683889462372</v>
       </c>
       <c r="E501" t="s">
         <v>2094</v>
@@ -15199,7 +15199,7 @@
         <v>2</v>
       </c>
       <c r="D502">
-        <v>103.3401038278671</v>
+        <v>104.6678675571396</v>
       </c>
       <c r="E502" t="s">
         <v>2094</v>
@@ -15216,7 +15216,7 @@
         <v>2</v>
       </c>
       <c r="D503">
-        <v>103.3417237118652</v>
+        <v>104.6695082541922</v>
       </c>
       <c r="E503" t="s">
         <v>2094</v>
@@ -15233,7 +15233,7 @@
         <v>2</v>
       </c>
       <c r="D504">
-        <v>103.340947520826</v>
+        <v>104.6687220902745</v>
       </c>
       <c r="E504" t="s">
         <v>2094</v>
@@ -15454,7 +15454,7 @@
         <v>2</v>
       </c>
       <c r="D517">
-        <v>50.39294198925293</v>
+        <v>50.88665412018911</v>
       </c>
       <c r="E517" t="s">
         <v>2094</v>
@@ -15471,7 +15471,7 @@
         <v>2</v>
       </c>
       <c r="D518">
-        <v>50.39284176859831</v>
+        <v>50.88655291764792</v>
       </c>
       <c r="E518" t="s">
         <v>2094</v>
@@ -15488,7 +15488,7 @@
         <v>2</v>
       </c>
       <c r="D519">
-        <v>50.39284216998924</v>
+        <v>50.88655332297138</v>
       </c>
       <c r="E519" t="s">
         <v>2094</v>
@@ -15505,7 +15505,7 @@
         <v>2</v>
       </c>
       <c r="D520">
-        <v>50.39284097840471</v>
+        <v>50.8865521197126</v>
       </c>
       <c r="E520" t="s">
         <v>2094</v>
@@ -15522,7 +15522,7 @@
         <v>2</v>
       </c>
       <c r="D521">
-        <v>50.3928409784047</v>
+        <v>50.88655211971258</v>
       </c>
       <c r="E521" t="s">
         <v>2094</v>
@@ -15573,7 +15573,7 @@
         <v>3</v>
       </c>
       <c r="D524">
-        <v>98.78456867665835</v>
+        <v>98.78456909986319</v>
       </c>
       <c r="E524" t="s">
         <v>2095</v>
@@ -15590,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="D525">
-        <v>1580.553098826534</v>
+        <v>1580.553105597811</v>
       </c>
       <c r="E525" t="s">
         <v>2094</v>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="D556">
-        <v>633</v>
+        <v>633.25</v>
       </c>
       <c r="E556" t="s">
         <v>2094</v>
@@ -16321,7 +16321,7 @@
         <v>1</v>
       </c>
       <c r="D568">
-        <v>1246.75</v>
+        <v>1245.25</v>
       </c>
       <c r="E568" t="s">
         <v>2094</v>
@@ -16389,7 +16389,7 @@
         <v>2</v>
       </c>
       <c r="D572">
-        <v>130</v>
+        <v>130.25</v>
       </c>
       <c r="E572" t="s">
         <v>2095</v>
@@ -16406,7 +16406,7 @@
         <v>1</v>
       </c>
       <c r="D573">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="E573" t="s">
         <v>2094</v>
@@ -16593,7 +16593,7 @@
         <v>29</v>
       </c>
       <c r="D584">
-        <v>359.75</v>
+        <v>362.5</v>
       </c>
       <c r="E584" t="s">
         <v>2094</v>
@@ -16780,7 +16780,7 @@
         <v>29</v>
       </c>
       <c r="D595">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E595" t="s">
         <v>2094</v>
@@ -16984,7 +16984,7 @@
         <v>2</v>
       </c>
       <c r="D607">
-        <v>262.75</v>
+        <v>262.5</v>
       </c>
       <c r="E607" t="s">
         <v>2094</v>
@@ -17018,7 +17018,7 @@
         <v>2</v>
       </c>
       <c r="D609">
-        <v>190.25</v>
+        <v>191.5</v>
       </c>
       <c r="E609" t="s">
         <v>2094</v>
@@ -18786,7 +18786,7 @@
         <v>2</v>
       </c>
       <c r="D713">
-        <v>165.1683375278922</v>
+        <v>166.6059578727993</v>
       </c>
       <c r="E713" t="s">
         <v>2094</v>
@@ -19194,7 +19194,7 @@
         <v>2</v>
       </c>
       <c r="D737">
-        <v>95.3120942493242</v>
+        <v>95.27442719602691</v>
       </c>
       <c r="E737" t="s">
         <v>2095</v>
@@ -19211,7 +19211,7 @@
         <v>1</v>
       </c>
       <c r="D738">
-        <v>762.4967539945936</v>
+        <v>762.1954175682152</v>
       </c>
       <c r="E738" t="s">
         <v>2094</v>
@@ -19364,7 +19364,7 @@
         <v>2</v>
       </c>
       <c r="D747">
-        <v>159.2807686321378</v>
+        <v>160.6671437507911</v>
       </c>
       <c r="E747" t="s">
         <v>2094</v>
@@ -19415,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="D750">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E750" t="s">
         <v>2094</v>
@@ -19432,7 +19432,7 @@
         <v>1</v>
       </c>
       <c r="D751">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E751" t="s">
         <v>2094</v>
@@ -19449,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="D752">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E752" t="s">
         <v>2094</v>
@@ -19466,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="D753">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E753" t="s">
         <v>2094</v>
@@ -19483,7 +19483,7 @@
         <v>1</v>
       </c>
       <c r="D754">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E754" t="s">
         <v>2094</v>
@@ -19976,7 +19976,7 @@
         <v>3</v>
       </c>
       <c r="D783">
-        <v>45.75</v>
+        <v>45.5</v>
       </c>
       <c r="E783" t="s">
         <v>2095</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="D784">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E784" t="s">
         <v>2094</v>
@@ -20078,7 +20078,7 @@
         <v>1</v>
       </c>
       <c r="D789">
-        <v>52.57757246576085</v>
+        <v>52.92796888030174</v>
       </c>
       <c r="E789" t="s">
         <v>2094</v>
@@ -20095,7 +20095,7 @@
         <v>1</v>
       </c>
       <c r="D790">
-        <v>187.0019264891617</v>
+        <v>187.0019571353554</v>
       </c>
       <c r="E790" t="s">
         <v>2094</v>
@@ -20401,7 +20401,7 @@
         <v>3</v>
       </c>
       <c r="D808">
-        <v>47.8283425806843</v>
+        <v>47.82834258068431</v>
       </c>
       <c r="E808" t="s">
         <v>2095</v>
@@ -20418,7 +20418,7 @@
         <v>1</v>
       </c>
       <c r="D809">
-        <v>191.3133703227372</v>
+        <v>191.3133703227373</v>
       </c>
       <c r="E809" t="s">
         <v>2094</v>
@@ -20724,7 +20724,7 @@
         <v>3</v>
       </c>
       <c r="D827">
-        <v>47.8283425806843</v>
+        <v>47.82834258068431</v>
       </c>
       <c r="E827" t="s">
         <v>2095</v>
@@ -20741,7 +20741,7 @@
         <v>1</v>
       </c>
       <c r="D828">
-        <v>191.3133703227372</v>
+        <v>191.3133703227373</v>
       </c>
       <c r="E828" t="s">
         <v>2094</v>
@@ -21013,7 +21013,7 @@
         <v>5</v>
       </c>
       <c r="D844">
-        <v>492.75</v>
+        <v>496.75</v>
       </c>
       <c r="E844" t="s">
         <v>2094</v>
@@ -21030,7 +21030,7 @@
         <v>5</v>
       </c>
       <c r="D845">
-        <v>515</v>
+        <v>517.5</v>
       </c>
       <c r="E845" t="s">
         <v>2094</v>
@@ -21047,7 +21047,7 @@
         <v>5</v>
       </c>
       <c r="D846">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E846" t="s">
         <v>2094</v>
@@ -21064,7 +21064,7 @@
         <v>5</v>
       </c>
       <c r="D847">
-        <v>253.75</v>
+        <v>254.75</v>
       </c>
       <c r="E847" t="s">
         <v>2094</v>
@@ -21081,7 +21081,7 @@
         <v>5</v>
       </c>
       <c r="D848">
-        <v>217</v>
+        <v>216.75</v>
       </c>
       <c r="E848" t="s">
         <v>2094</v>
@@ -22305,7 +22305,7 @@
         <v>3</v>
       </c>
       <c r="D920">
-        <v>48.68681825208881</v>
+        <v>48.59570753613102</v>
       </c>
       <c r="E920" t="s">
         <v>2095</v>
@@ -22322,7 +22322,7 @@
         <v>1</v>
       </c>
       <c r="D921">
-        <v>486.8681825208881</v>
+        <v>485.9570753613102</v>
       </c>
       <c r="E921" t="s">
         <v>2094</v>
@@ -22492,7 +22492,7 @@
         <v>1</v>
       </c>
       <c r="D931">
-        <v>340.25</v>
+        <v>342</v>
       </c>
       <c r="E931" t="s">
         <v>2094</v>
@@ -22560,7 +22560,7 @@
         <v>1</v>
       </c>
       <c r="D935">
-        <v>284</v>
+        <v>285.5</v>
       </c>
       <c r="E935" t="s">
         <v>2094</v>
@@ -22628,7 +22628,7 @@
         <v>2</v>
       </c>
       <c r="D939">
-        <v>50.39284097840471</v>
+        <v>50.8865521197126</v>
       </c>
       <c r="E939" t="s">
         <v>2094</v>
@@ -22645,7 +22645,7 @@
         <v>2</v>
       </c>
       <c r="D940">
-        <v>50.39284097840471</v>
+        <v>50.8865521197126</v>
       </c>
       <c r="E940" t="s">
         <v>2094</v>
@@ -24056,7 +24056,7 @@
         <v>2</v>
       </c>
       <c r="D1023">
-        <v>687</v>
+        <v>690.75</v>
       </c>
       <c r="E1023" t="s">
         <v>2094</v>
@@ -24158,7 +24158,7 @@
         <v>1</v>
       </c>
       <c r="D1029">
-        <v>285.7013446318001</v>
+        <v>287.270184622462</v>
       </c>
       <c r="E1029" t="s">
         <v>2094</v>
@@ -24192,7 +24192,7 @@
         <v>1</v>
       </c>
       <c r="D1031">
-        <v>285.2322422009734</v>
+        <v>286.7985062616755</v>
       </c>
       <c r="E1031" t="s">
         <v>2094</v>
@@ -24277,7 +24277,7 @@
         <v>1</v>
       </c>
       <c r="D1036">
-        <v>230.5</v>
+        <v>233.75</v>
       </c>
       <c r="E1036" t="s">
         <v>2094</v>
@@ -24855,7 +24855,7 @@
         <v>1</v>
       </c>
       <c r="D1070">
-        <v>355</v>
+        <v>354.75</v>
       </c>
       <c r="E1070" t="s">
         <v>2094</v>
@@ -25654,7 +25654,7 @@
         <v>1</v>
       </c>
       <c r="D1117">
-        <v>94.94609240241954</v>
+        <v>94.94609240241951</v>
       </c>
       <c r="E1117" t="s">
         <v>2094</v>
@@ -25705,7 +25705,7 @@
         <v>1</v>
       </c>
       <c r="D1120">
-        <v>94.94609240241951</v>
+        <v>94.9460924024195</v>
       </c>
       <c r="E1120" t="s">
         <v>2094</v>
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="D1146">
-        <v>44.5</v>
+        <v>36.5</v>
       </c>
       <c r="E1146" t="s">
         <v>2095</v>
@@ -26164,7 +26164,7 @@
         <v>1</v>
       </c>
       <c r="D1147">
-        <v>534</v>
+        <v>438</v>
       </c>
       <c r="E1147" t="s">
         <v>2094</v>
@@ -26453,7 +26453,7 @@
         <v>29</v>
       </c>
       <c r="D1164">
-        <v>280.5</v>
+        <v>282.5</v>
       </c>
       <c r="E1164" t="s">
         <v>2094</v>
@@ -26572,7 +26572,7 @@
         <v>12</v>
       </c>
       <c r="D1171">
-        <v>857</v>
+        <v>857.25</v>
       </c>
       <c r="E1171" t="s">
         <v>2094</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="D1188">
-        <v>49.10585566140112</v>
+        <v>49.56038533135148</v>
       </c>
       <c r="E1188" t="s">
         <v>2094</v>
@@ -26878,7 +26878,7 @@
         <v>1</v>
       </c>
       <c r="D1189">
-        <v>49.10567084938044</v>
+        <v>49.52951056454415</v>
       </c>
       <c r="E1189" t="s">
         <v>2094</v>
@@ -26895,7 +26895,7 @@
         <v>1</v>
       </c>
       <c r="D1190">
-        <v>49.1056839984448</v>
+        <v>49.61720154009527</v>
       </c>
       <c r="E1190" t="s">
         <v>2094</v>
@@ -26912,7 +26912,7 @@
         <v>1</v>
       </c>
       <c r="D1191">
-        <v>49.11779957962242</v>
+        <v>49.40317212846404</v>
       </c>
       <c r="E1191" t="s">
         <v>2094</v>
@@ -26929,7 +26929,7 @@
         <v>1</v>
       </c>
       <c r="D1192">
-        <v>49.22604002560688</v>
+        <v>49.28398987960517</v>
       </c>
       <c r="E1192" t="s">
         <v>2094</v>
@@ -26946,7 +26946,7 @@
         <v>1</v>
       </c>
       <c r="D1193">
-        <v>49.14849625410523</v>
+        <v>49.19243737466679</v>
       </c>
       <c r="E1193" t="s">
         <v>2094</v>
@@ -26963,7 +26963,7 @@
         <v>1</v>
       </c>
       <c r="D1194">
-        <v>47.62434450323475</v>
+        <v>47.85753245027534</v>
       </c>
       <c r="E1194" t="s">
         <v>2094</v>
@@ -26980,7 +26980,7 @@
         <v>1</v>
       </c>
       <c r="D1195">
-        <v>49.22259470004266</v>
+        <v>49.30809284872073</v>
       </c>
       <c r="E1195" t="s">
         <v>2094</v>
@@ -27031,7 +27031,7 @@
         <v>1</v>
       </c>
       <c r="D1198">
-        <v>49.10571913177094</v>
+        <v>49.27838516770208</v>
       </c>
       <c r="E1198" t="s">
         <v>2094</v>
@@ -27048,7 +27048,7 @@
         <v>1</v>
       </c>
       <c r="D1199">
-        <v>49.27738795416724</v>
+        <v>49.39732216096537</v>
       </c>
       <c r="E1199" t="s">
         <v>2094</v>
@@ -27065,7 +27065,7 @@
         <v>1</v>
       </c>
       <c r="D1200">
-        <v>49.10565666687046</v>
+        <v>49.32295006434649</v>
       </c>
       <c r="E1200" t="s">
         <v>2094</v>
@@ -27082,7 +27082,7 @@
         <v>1</v>
       </c>
       <c r="D1201">
-        <v>49.19266388781794</v>
+        <v>49.23442168968127</v>
       </c>
       <c r="E1201" t="s">
         <v>2094</v>
@@ -27099,7 +27099,7 @@
         <v>1</v>
       </c>
       <c r="D1202">
-        <v>47.6077962077802</v>
+        <v>47.80367548541766</v>
       </c>
       <c r="E1202" t="s">
         <v>2094</v>
@@ -27116,7 +27116,7 @@
         <v>1</v>
       </c>
       <c r="D1203">
-        <v>49.15598428021844</v>
+        <v>49.28073976854577</v>
       </c>
       <c r="E1203" t="s">
         <v>2094</v>
@@ -27133,7 +27133,7 @@
         <v>1</v>
       </c>
       <c r="D1204">
-        <v>49.10535057521794</v>
+        <v>49.22819480678849</v>
       </c>
       <c r="E1204" t="s">
         <v>2094</v>
@@ -27184,7 +27184,7 @@
         <v>1</v>
       </c>
       <c r="D1207">
-        <v>47.60631180743744</v>
+        <v>47.85888794871557</v>
       </c>
       <c r="E1207" t="s">
         <v>2094</v>
@@ -27201,7 +27201,7 @@
         <v>1</v>
       </c>
       <c r="D1208">
-        <v>49.29169156823787</v>
+        <v>49.37735208714771</v>
       </c>
       <c r="E1208" t="s">
         <v>2094</v>
@@ -27218,7 +27218,7 @@
         <v>1</v>
       </c>
       <c r="D1209">
-        <v>49.10568874938145</v>
+        <v>49.17332680435187</v>
       </c>
       <c r="E1209" t="s">
         <v>2094</v>
@@ -27235,7 +27235,7 @@
         <v>1</v>
       </c>
       <c r="D1210">
-        <v>52.45549242382179</v>
+        <v>52.83416739307331</v>
       </c>
       <c r="E1210" t="s">
         <v>2094</v>
@@ -27269,7 +27269,7 @@
         <v>1</v>
       </c>
       <c r="D1212">
-        <v>63.86834459161034</v>
+        <v>64.32940867292643</v>
       </c>
       <c r="E1212" t="s">
         <v>2094</v>
@@ -27303,7 +27303,7 @@
         <v>1</v>
       </c>
       <c r="D1214">
-        <v>90.96409137675415</v>
+        <v>91.62075901847172</v>
       </c>
       <c r="E1214" t="s">
         <v>2094</v>
@@ -27337,7 +27337,7 @@
         <v>1</v>
       </c>
       <c r="D1216">
-        <v>82.17626360486953</v>
+        <v>82.20995074557196</v>
       </c>
       <c r="E1216" t="s">
         <v>2094</v>
@@ -27354,7 +27354,7 @@
         <v>1</v>
       </c>
       <c r="D1217">
-        <v>79.87443366900246</v>
+        <v>79.92038407026965</v>
       </c>
       <c r="E1217" t="s">
         <v>2094</v>
@@ -27371,7 +27371,7 @@
         <v>1</v>
       </c>
       <c r="D1218">
-        <v>79.80228329078744</v>
+        <v>79.86148806484817</v>
       </c>
       <c r="E1218" t="s">
         <v>2094</v>
@@ -27388,7 +27388,7 @@
         <v>1</v>
       </c>
       <c r="D1219">
-        <v>82.22986866337345</v>
+        <v>82.2757207052925</v>
       </c>
       <c r="E1219" t="s">
         <v>2094</v>
@@ -27405,7 +27405,7 @@
         <v>1</v>
       </c>
       <c r="D1220">
-        <v>79.74103634344721</v>
+        <v>79.81542988682931</v>
       </c>
       <c r="E1220" t="s">
         <v>2094</v>
@@ -27439,7 +27439,7 @@
         <v>1</v>
       </c>
       <c r="D1222">
-        <v>81.99028709052705</v>
+        <v>82.04706352133776</v>
       </c>
       <c r="E1222" t="s">
         <v>2094</v>
@@ -27456,7 +27456,7 @@
         <v>1</v>
       </c>
       <c r="D1223">
-        <v>82.26111692831304</v>
+        <v>82.30106290434681</v>
       </c>
       <c r="E1223" t="s">
         <v>2094</v>
@@ -27473,7 +27473,7 @@
         <v>1</v>
       </c>
       <c r="D1224">
-        <v>81.97309978935888</v>
+        <v>82.05335756122545</v>
       </c>
       <c r="E1224" t="s">
         <v>2094</v>
@@ -27507,7 +27507,7 @@
         <v>1</v>
       </c>
       <c r="D1226">
-        <v>79.87622937138507</v>
+        <v>79.93773889228427</v>
       </c>
       <c r="E1226" t="s">
         <v>2094</v>
@@ -27524,7 +27524,7 @@
         <v>1</v>
       </c>
       <c r="D1227">
-        <v>81.9960809153249</v>
+        <v>82.12402494761069</v>
       </c>
       <c r="E1227" t="s">
         <v>2094</v>
@@ -28221,7 +28221,7 @@
         <v>2</v>
       </c>
       <c r="D1268">
-        <v>288.25</v>
+        <v>289.5</v>
       </c>
       <c r="E1268" t="s">
         <v>2094</v>
@@ -28544,7 +28544,7 @@
         <v>21</v>
       </c>
       <c r="D1287">
-        <v>142.25</v>
+        <v>143.5</v>
       </c>
       <c r="E1287" t="s">
         <v>2095</v>
@@ -28561,7 +28561,7 @@
         <v>1</v>
       </c>
       <c r="D1288">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="E1288" t="s">
         <v>2094</v>
@@ -29054,7 +29054,7 @@
         <v>3</v>
       </c>
       <c r="D1317">
-        <v>15.5</v>
+        <v>16.25</v>
       </c>
       <c r="E1317" t="s">
         <v>2095</v>
@@ -29071,7 +29071,7 @@
         <v>1</v>
       </c>
       <c r="D1318">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="E1318" t="s">
         <v>2094</v>
@@ -29122,7 +29122,7 @@
         <v>3</v>
       </c>
       <c r="D1321">
-        <v>14.5</v>
+        <v>15.75</v>
       </c>
       <c r="E1321" t="s">
         <v>2095</v>
@@ -29139,7 +29139,7 @@
         <v>1</v>
       </c>
       <c r="D1322">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="E1322" t="s">
         <v>2094</v>
@@ -29955,7 +29955,7 @@
         <v>3</v>
       </c>
       <c r="D1370">
-        <v>23.61136879642585</v>
+        <v>23.6113695307858</v>
       </c>
       <c r="E1370" t="s">
         <v>2095</v>
@@ -29972,7 +29972,7 @@
         <v>1</v>
       </c>
       <c r="D1371">
-        <v>283.3364255571101</v>
+        <v>283.3364343694296</v>
       </c>
       <c r="E1371" t="s">
         <v>2094</v>
@@ -29989,7 +29989,7 @@
         <v>3</v>
       </c>
       <c r="D1372">
-        <v>23.61007109691787</v>
+        <v>23.61007109691786</v>
       </c>
       <c r="E1372" t="s">
         <v>2095</v>
@@ -30142,7 +30142,7 @@
         <v>3</v>
       </c>
       <c r="D1381">
-        <v>47.62645425735654</v>
+        <v>47.62645974716589</v>
       </c>
       <c r="E1381" t="s">
         <v>2095</v>
@@ -30159,7 +30159,7 @@
         <v>1</v>
       </c>
       <c r="D1382">
-        <v>571.5174510882784</v>
+        <v>571.5175169659907</v>
       </c>
       <c r="E1382" t="s">
         <v>2094</v>
@@ -30176,7 +30176,7 @@
         <v>3</v>
       </c>
       <c r="D1383">
-        <v>47.62649601404747</v>
+        <v>47.62649771984838</v>
       </c>
       <c r="E1383" t="s">
         <v>2095</v>
@@ -30193,7 +30193,7 @@
         <v>1</v>
       </c>
       <c r="D1384">
-        <v>571.5179521685696</v>
+        <v>571.5179726381806</v>
       </c>
       <c r="E1384" t="s">
         <v>2094</v>
@@ -30244,7 +30244,7 @@
         <v>3</v>
       </c>
       <c r="D1387">
-        <v>48.19679345261149</v>
+        <v>48.1968099760669</v>
       </c>
       <c r="E1387" t="s">
         <v>2095</v>
@@ -30261,7 +30261,7 @@
         <v>1</v>
       </c>
       <c r="D1388">
-        <v>578.3615214313379</v>
+        <v>578.3617197128028</v>
       </c>
       <c r="E1388" t="s">
         <v>2094</v>
@@ -31570,7 +31570,7 @@
         <v>3</v>
       </c>
       <c r="D1465">
-        <v>88.25</v>
+        <v>89.5</v>
       </c>
       <c r="E1465" t="s">
         <v>2095</v>
@@ -31587,7 +31587,7 @@
         <v>1</v>
       </c>
       <c r="D1466">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="E1466" t="s">
         <v>2094</v>
@@ -31638,7 +31638,7 @@
         <v>1</v>
       </c>
       <c r="D1469">
-        <v>769.0936278143764</v>
+        <v>773.4145654350265</v>
       </c>
       <c r="E1469" t="s">
         <v>2094</v>
@@ -31655,7 +31655,7 @@
         <v>1</v>
       </c>
       <c r="D1470">
-        <v>765.7279228390969</v>
+        <v>772.1809653608124</v>
       </c>
       <c r="E1470" t="s">
         <v>2094</v>
@@ -31672,7 +31672,7 @@
         <v>1</v>
       </c>
       <c r="D1471">
-        <v>762.8160297247239</v>
+        <v>769.2445327598602</v>
       </c>
       <c r="E1471" t="s">
         <v>2094</v>
@@ -31842,7 +31842,7 @@
         <v>1</v>
       </c>
       <c r="D1481">
-        <v>91.91534824921987</v>
+        <v>91.95838080968417</v>
       </c>
       <c r="E1481" t="s">
         <v>2094</v>
@@ -31859,7 +31859,7 @@
         <v>1</v>
       </c>
       <c r="D1482">
-        <v>92.00047313724367</v>
+        <v>92.0012203251938</v>
       </c>
       <c r="E1482" t="s">
         <v>2094</v>
@@ -31893,7 +31893,7 @@
         <v>1</v>
       </c>
       <c r="D1484">
-        <v>88.98464440634176</v>
+        <v>88.98522429534088</v>
       </c>
       <c r="E1484" t="s">
         <v>2094</v>
@@ -31910,7 +31910,7 @@
         <v>1</v>
       </c>
       <c r="D1485">
-        <v>91.99035213882127</v>
+        <v>91.99233402194494</v>
       </c>
       <c r="E1485" t="s">
         <v>2094</v>
@@ -31944,7 +31944,7 @@
         <v>1</v>
       </c>
       <c r="D1487">
-        <v>135.3031584064465</v>
+        <v>135.3035754094091</v>
       </c>
       <c r="E1487" t="s">
         <v>2094</v>
@@ -31961,7 +31961,7 @@
         <v>1</v>
       </c>
       <c r="D1488">
-        <v>135.2947861795106</v>
+        <v>135.2953869152775</v>
       </c>
       <c r="E1488" t="s">
         <v>2094</v>
@@ -31978,7 +31978,7 @@
         <v>1</v>
       </c>
       <c r="D1489">
-        <v>135.2973721199573</v>
+        <v>135.2987893471496</v>
       </c>
       <c r="E1489" t="s">
         <v>2094</v>
@@ -31995,7 +31995,7 @@
         <v>1</v>
       </c>
       <c r="D1490">
-        <v>135.2786638967688</v>
+        <v>135.2797427815752</v>
       </c>
       <c r="E1490" t="s">
         <v>2094</v>
@@ -32454,7 +32454,7 @@
         <v>2</v>
       </c>
       <c r="D1517">
-        <v>200.7392973358305</v>
+        <v>201.0197792374023</v>
       </c>
       <c r="E1517" t="s">
         <v>2095</v>
@@ -32471,7 +32471,7 @@
         <v>1</v>
       </c>
       <c r="D1518">
-        <v>1605.914378686644</v>
+        <v>1608.158233899218</v>
       </c>
       <c r="E1518" t="s">
         <v>2094</v>
@@ -32556,7 +32556,7 @@
         <v>29</v>
       </c>
       <c r="D1523">
-        <v>521.5</v>
+        <v>525.25</v>
       </c>
       <c r="E1523" t="s">
         <v>2094</v>
@@ -32573,7 +32573,7 @@
         <v>29</v>
       </c>
       <c r="D1524">
-        <v>455.75</v>
+        <v>459.25</v>
       </c>
       <c r="E1524" t="s">
         <v>2094</v>
@@ -33304,7 +33304,7 @@
         <v>2</v>
       </c>
       <c r="D1567">
-        <v>72.5</v>
+        <v>73.25</v>
       </c>
       <c r="E1567" t="s">
         <v>2095</v>
@@ -33321,7 +33321,7 @@
         <v>1</v>
       </c>
       <c r="D1568">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E1568" t="s">
         <v>2094</v>
@@ -33338,7 +33338,7 @@
         <v>29</v>
       </c>
       <c r="D1569">
-        <v>199</v>
+        <v>200.75</v>
       </c>
       <c r="E1569" t="s">
         <v>2094</v>
@@ -33355,7 +33355,7 @@
         <v>29</v>
       </c>
       <c r="D1570">
-        <v>319.5</v>
+        <v>322.25</v>
       </c>
       <c r="E1570" t="s">
         <v>2094</v>
@@ -33372,7 +33372,7 @@
         <v>29</v>
       </c>
       <c r="D1571">
-        <v>312</v>
+        <v>315.25</v>
       </c>
       <c r="E1571" t="s">
         <v>2094</v>
@@ -33389,7 +33389,7 @@
         <v>29</v>
       </c>
       <c r="D1572">
-        <v>438.5</v>
+        <v>442.5</v>
       </c>
       <c r="E1572" t="s">
         <v>2094</v>
@@ -33406,7 +33406,7 @@
         <v>29</v>
       </c>
       <c r="D1573">
-        <v>477.5</v>
+        <v>481.75</v>
       </c>
       <c r="E1573" t="s">
         <v>2094</v>
@@ -33423,7 +33423,7 @@
         <v>29</v>
       </c>
       <c r="D1574">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E1574" t="s">
         <v>2094</v>
@@ -33440,7 +33440,7 @@
         <v>29</v>
       </c>
       <c r="D1575">
-        <v>258.25</v>
+        <v>260.5</v>
       </c>
       <c r="E1575" t="s">
         <v>2094</v>
@@ -33457,7 +33457,7 @@
         <v>29</v>
       </c>
       <c r="D1576">
-        <v>271</v>
+        <v>273.5</v>
       </c>
       <c r="E1576" t="s">
         <v>2094</v>
@@ -33474,7 +33474,7 @@
         <v>29</v>
       </c>
       <c r="D1577">
-        <v>408.25</v>
+        <v>412.25</v>
       </c>
       <c r="E1577" t="s">
         <v>2094</v>
@@ -33491,7 +33491,7 @@
         <v>25</v>
       </c>
       <c r="D1578">
-        <v>340</v>
+        <v>340.25</v>
       </c>
       <c r="E1578" t="s">
         <v>2095</v>
@@ -33508,7 +33508,7 @@
         <v>29</v>
       </c>
       <c r="D1579">
-        <v>680</v>
+        <v>680.5</v>
       </c>
       <c r="E1579" t="s">
         <v>2094</v>
@@ -33525,7 +33525,7 @@
         <v>29</v>
       </c>
       <c r="D1580">
-        <v>249.5</v>
+        <v>251.5</v>
       </c>
       <c r="E1580" t="s">
         <v>2094</v>
@@ -33542,7 +33542,7 @@
         <v>29</v>
       </c>
       <c r="D1581">
-        <v>254.5</v>
+        <v>256.5</v>
       </c>
       <c r="E1581" t="s">
         <v>2094</v>
@@ -33559,7 +33559,7 @@
         <v>29</v>
       </c>
       <c r="D1582">
-        <v>174</v>
+        <v>175.5</v>
       </c>
       <c r="E1582" t="s">
         <v>2094</v>
@@ -33576,7 +33576,7 @@
         <v>29</v>
       </c>
       <c r="D1583">
-        <v>376.25</v>
+        <v>379.5</v>
       </c>
       <c r="E1583" t="s">
         <v>2094</v>
@@ -33593,7 +33593,7 @@
         <v>29</v>
       </c>
       <c r="D1584">
-        <v>277</v>
+        <v>279.25</v>
       </c>
       <c r="E1584" t="s">
         <v>2094</v>
@@ -33610,7 +33610,7 @@
         <v>29</v>
       </c>
       <c r="D1585">
-        <v>371.75</v>
+        <v>374.75</v>
       </c>
       <c r="E1585" t="s">
         <v>2094</v>
@@ -33627,7 +33627,7 @@
         <v>29</v>
       </c>
       <c r="D1586">
-        <v>229.25</v>
+        <v>231.25</v>
       </c>
       <c r="E1586" t="s">
         <v>2094</v>
@@ -33644,7 +33644,7 @@
         <v>29</v>
       </c>
       <c r="D1587">
-        <v>216.5</v>
+        <v>218.25</v>
       </c>
       <c r="E1587" t="s">
         <v>2094</v>
@@ -33661,7 +33661,7 @@
         <v>29</v>
       </c>
       <c r="D1588">
-        <v>368</v>
+        <v>371.25</v>
       </c>
       <c r="E1588" t="s">
         <v>2094</v>
@@ -33678,7 +33678,7 @@
         <v>29</v>
       </c>
       <c r="D1589">
-        <v>358.25</v>
+        <v>361.25</v>
       </c>
       <c r="E1589" t="s">
         <v>2094</v>
@@ -33695,7 +33695,7 @@
         <v>1</v>
       </c>
       <c r="D1590">
-        <v>89.01281486091735</v>
+        <v>89.01284992044017</v>
       </c>
       <c r="E1590" t="s">
         <v>2094</v>
@@ -33746,7 +33746,7 @@
         <v>1</v>
       </c>
       <c r="D1593">
-        <v>89.01289261625844</v>
+        <v>89.01291357286743</v>
       </c>
       <c r="E1593" t="s">
         <v>2094</v>
@@ -33763,7 +33763,7 @@
         <v>1</v>
       </c>
       <c r="D1594">
-        <v>89.01294907972022</v>
+        <v>89.01294908202246</v>
       </c>
       <c r="E1594" t="s">
         <v>2094</v>
@@ -33780,7 +33780,7 @@
         <v>1</v>
       </c>
       <c r="D1595">
-        <v>89.01294438773544</v>
+        <v>89.01294577040289</v>
       </c>
       <c r="E1595" t="s">
         <v>2094</v>
@@ -33797,7 +33797,7 @@
         <v>1</v>
       </c>
       <c r="D1596">
-        <v>89.01294693473771</v>
+        <v>89.01294716426946</v>
       </c>
       <c r="E1596" t="s">
         <v>2094</v>
@@ -33814,7 +33814,7 @@
         <v>1</v>
       </c>
       <c r="D1597">
-        <v>89.01294773339939</v>
+        <v>89.01294784634985</v>
       </c>
       <c r="E1597" t="s">
         <v>2094</v>
@@ -33916,7 +33916,7 @@
         <v>1</v>
       </c>
       <c r="D1603">
-        <v>88.49240684110325</v>
+        <v>88.49240675539316</v>
       </c>
       <c r="E1603" t="s">
         <v>2094</v>
@@ -34409,7 +34409,7 @@
         <v>3</v>
       </c>
       <c r="D1632">
-        <v>48.60057656724426</v>
+        <v>48.55125235220626</v>
       </c>
       <c r="E1632" t="s">
         <v>2095</v>
@@ -34426,7 +34426,7 @@
         <v>1</v>
       </c>
       <c r="D1633">
-        <v>486.0057656724426</v>
+        <v>485.5125235220626</v>
       </c>
       <c r="E1633" t="s">
         <v>2094</v>
@@ -34511,7 +34511,7 @@
         <v>3</v>
       </c>
       <c r="D1638">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="E1638" t="s">
         <v>2095</v>
@@ -34528,7 +34528,7 @@
         <v>1</v>
       </c>
       <c r="D1639">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E1639" t="s">
         <v>2094</v>
@@ -34647,7 +34647,7 @@
         <v>29</v>
       </c>
       <c r="D1646">
-        <v>694.75</v>
+        <v>700.5</v>
       </c>
       <c r="E1646" t="s">
         <v>2094</v>
@@ -34851,7 +34851,7 @@
         <v>23</v>
       </c>
       <c r="D1658">
-        <v>40.68890925493702</v>
+        <v>40.67994149812353</v>
       </c>
       <c r="E1658" t="s">
         <v>2095</v>
@@ -34868,7 +34868,7 @@
         <v>1</v>
       </c>
       <c r="D1659">
-        <v>488.2669110592443</v>
+        <v>488.1592979774824</v>
       </c>
       <c r="E1659" t="s">
         <v>2094</v>
@@ -34885,7 +34885,7 @@
         <v>23</v>
       </c>
       <c r="D1660">
-        <v>40.78430237992637</v>
+        <v>40.77472449817044</v>
       </c>
       <c r="E1660" t="s">
         <v>2095</v>
@@ -34902,7 +34902,7 @@
         <v>1</v>
       </c>
       <c r="D1661">
-        <v>489.4116285591164</v>
+        <v>489.2966939780453</v>
       </c>
       <c r="E1661" t="s">
         <v>2094</v>
@@ -34919,7 +34919,7 @@
         <v>23</v>
       </c>
       <c r="D1662">
-        <v>40.76818751880548</v>
+        <v>40.75608188946565</v>
       </c>
       <c r="E1662" t="s">
         <v>2095</v>
@@ -34936,7 +34936,7 @@
         <v>1</v>
       </c>
       <c r="D1663">
-        <v>489.2182502256658</v>
+        <v>489.0729826735878</v>
       </c>
       <c r="E1663" t="s">
         <v>2094</v>
@@ -37112,7 +37112,7 @@
         <v>1</v>
       </c>
       <c r="D1791">
-        <v>265.25</v>
+        <v>268</v>
       </c>
       <c r="E1791" t="s">
         <v>2094</v>
@@ -37333,7 +37333,7 @@
         <v>1</v>
       </c>
       <c r="D1804">
-        <v>234.0173998213821</v>
+        <v>233.9968648320663</v>
       </c>
       <c r="E1804" t="s">
         <v>2094</v>
@@ -37843,7 +37843,7 @@
         <v>137</v>
       </c>
       <c r="D1834">
-        <v>536.25</v>
+        <v>535.75</v>
       </c>
       <c r="E1834" t="s">
         <v>2094</v>
@@ -38557,7 +38557,7 @@
         <v>1</v>
       </c>
       <c r="D1876">
-        <v>137.1072579766789</v>
+        <v>138.6840695702439</v>
       </c>
       <c r="E1876" t="s">
         <v>2094</v>
@@ -38693,7 +38693,7 @@
         <v>2</v>
       </c>
       <c r="D1884">
-        <v>104.5</v>
+        <v>105.5</v>
       </c>
       <c r="E1884" t="s">
         <v>2094</v>
@@ -38812,7 +38812,7 @@
         <v>1</v>
       </c>
       <c r="D1891">
-        <v>195.0442106958869</v>
+        <v>195.0444760804255</v>
       </c>
       <c r="E1891" t="s">
         <v>2094</v>
@@ -38863,7 +38863,7 @@
         <v>1</v>
       </c>
       <c r="D1894">
-        <v>364.75</v>
+        <v>369</v>
       </c>
       <c r="E1894" t="s">
         <v>2094</v>
@@ -38948,7 +38948,7 @@
         <v>1</v>
       </c>
       <c r="D1899">
-        <v>731.5</v>
+        <v>738</v>
       </c>
       <c r="E1899" t="s">
         <v>2094</v>
@@ -39101,7 +39101,7 @@
         <v>137</v>
       </c>
       <c r="D1908">
-        <v>634</v>
+        <v>637.5</v>
       </c>
       <c r="E1908" t="s">
         <v>2094</v>
@@ -39254,7 +39254,7 @@
         <v>3</v>
       </c>
       <c r="D1917">
-        <v>146.1982803914158</v>
+        <v>146.2166061268978</v>
       </c>
       <c r="E1917" t="s">
         <v>2095</v>
@@ -39271,7 +39271,7 @@
         <v>1</v>
       </c>
       <c r="D1918">
-        <v>1754.379364696989</v>
+        <v>1754.599273522774</v>
       </c>
       <c r="E1918" t="s">
         <v>2094</v>
@@ -39288,7 +39288,7 @@
         <v>3</v>
       </c>
       <c r="D1919">
-        <v>146.363754515582</v>
+        <v>146.3734216627905</v>
       </c>
       <c r="E1919" t="s">
         <v>2095</v>
@@ -39305,7 +39305,7 @@
         <v>1</v>
       </c>
       <c r="D1920">
-        <v>1756.365054186984</v>
+        <v>1756.481059953486</v>
       </c>
       <c r="E1920" t="s">
         <v>2094</v>
@@ -40274,7 +40274,7 @@
         <v>1</v>
       </c>
       <c r="D1977">
-        <v>414.5</v>
+        <v>426</v>
       </c>
       <c r="E1977" t="s">
         <v>2094</v>
@@ -40631,7 +40631,7 @@
         <v>2</v>
       </c>
       <c r="D1998">
-        <v>43.19656341720373</v>
+        <v>43.19311133959368</v>
       </c>
       <c r="E1998" t="s">
         <v>2095</v>
@@ -40648,7 +40648,7 @@
         <v>1</v>
       </c>
       <c r="D1999">
-        <v>691.1450146752596</v>
+        <v>691.089781433499</v>
       </c>
       <c r="E1999" t="s">
         <v>2094</v>
@@ -40937,7 +40937,7 @@
         <v>2</v>
       </c>
       <c r="D2016">
-        <v>249.0448654389194</v>
+        <v>249.1823699863681</v>
       </c>
       <c r="E2016" t="s">
         <v>2095</v>
@@ -40954,7 +40954,7 @@
         <v>1</v>
       </c>
       <c r="D2017">
-        <v>1992.358923511355</v>
+        <v>1993.458959890945</v>
       </c>
       <c r="E2017" t="s">
         <v>2094</v>
@@ -41277,7 +41277,7 @@
         <v>23</v>
       </c>
       <c r="D2036">
-        <v>58.68412554647265</v>
+        <v>58.68412870372551</v>
       </c>
       <c r="E2036" t="s">
         <v>2095</v>
@@ -41294,7 +41294,7 @@
         <v>1</v>
       </c>
       <c r="D2037">
-        <v>1408.419013115344</v>
+        <v>1408.419088889412</v>
       </c>
       <c r="E2037" t="s">
         <v>2094</v>
@@ -41379,7 +41379,7 @@
         <v>23</v>
       </c>
       <c r="D2042">
-        <v>99.01961287802064</v>
+        <v>99.02184417636576</v>
       </c>
       <c r="E2042" t="s">
         <v>2095</v>
@@ -41396,7 +41396,7 @@
         <v>1</v>
       </c>
       <c r="D2043">
-        <v>1188.235354536248</v>
+        <v>1188.262130116389</v>
       </c>
       <c r="E2043" t="s">
         <v>2094</v>
@@ -41413,7 +41413,7 @@
         <v>2</v>
       </c>
       <c r="D2044">
-        <v>192.5994259832079</v>
+        <v>192.6018423359102</v>
       </c>
       <c r="E2044" t="s">
         <v>2095</v>
@@ -41430,7 +41430,7 @@
         <v>1</v>
       </c>
       <c r="D2045">
-        <v>770.3977039328317</v>
+        <v>770.4073693436408</v>
       </c>
       <c r="E2045" t="s">
         <v>2094</v>
@@ -41651,7 +41651,7 @@
         <v>2</v>
       </c>
       <c r="D2058">
-        <v>315.2946903051011</v>
+        <v>315.2949082283377</v>
       </c>
       <c r="E2058" t="s">
         <v>2095</v>
@@ -41668,7 +41668,7 @@
         <v>1</v>
       </c>
       <c r="D2059">
-        <v>630.5893806102023</v>
+        <v>630.5898164566754</v>
       </c>
       <c r="E2059" t="s">
         <v>2094</v>
@@ -41719,7 +41719,7 @@
         <v>2</v>
       </c>
       <c r="D2062">
-        <v>315.2036288643694</v>
+        <v>315.2050133720604</v>
       </c>
       <c r="E2062" t="s">
         <v>2095</v>
@@ -41736,7 +41736,7 @@
         <v>1</v>
       </c>
       <c r="D2063">
-        <v>630.4072577287388</v>
+        <v>630.4100267441207</v>
       </c>
       <c r="E2063" t="s">
         <v>2094</v>
@@ -41787,7 +41787,7 @@
         <v>3</v>
       </c>
       <c r="D2066">
-        <v>152.386349031665</v>
+        <v>152.4004100772257</v>
       </c>
       <c r="E2066" t="s">
         <v>2095</v>
@@ -41804,7 +41804,7 @@
         <v>1</v>
       </c>
       <c r="D2067">
-        <v>1523.86349031665</v>
+        <v>1524.004100772257</v>
       </c>
       <c r="E2067" t="s">
         <v>2094</v>
@@ -42603,7 +42603,7 @@
         <v>2</v>
       </c>
       <c r="D2114">
-        <v>43.18836735083435</v>
+        <v>43.1871259593294</v>
       </c>
       <c r="E2114" t="s">
         <v>2095</v>
@@ -42620,7 +42620,7 @@
         <v>1</v>
       </c>
       <c r="D2115">
-        <v>691.0138776133497</v>
+        <v>690.9940153492704</v>
       </c>
       <c r="E2115" t="s">
         <v>2094</v>
@@ -42637,7 +42637,7 @@
         <v>2</v>
       </c>
       <c r="D2116">
-        <v>43.1889174363823</v>
+        <v>43.1874332691868</v>
       </c>
       <c r="E2116" t="s">
         <v>2095</v>
@@ -42654,7 +42654,7 @@
         <v>1</v>
       </c>
       <c r="D2117">
-        <v>691.0226789821169</v>
+        <v>690.9989323069889</v>
       </c>
       <c r="E2117" t="s">
         <v>2094</v>
@@ -42841,7 +42841,7 @@
         <v>2</v>
       </c>
       <c r="D2128">
-        <v>443</v>
+        <v>452.25</v>
       </c>
       <c r="E2128" t="s">
         <v>2094</v>
@@ -42875,7 +42875,7 @@
         <v>1</v>
       </c>
       <c r="D2130">
-        <v>69.46061753738088</v>
+        <v>70.28820885131722</v>
       </c>
       <c r="E2130" t="s">
         <v>2094</v>
@@ -43045,7 +43045,7 @@
         <v>25</v>
       </c>
       <c r="D2140">
-        <v>258</v>
+        <v>257.75</v>
       </c>
       <c r="E2140" t="s">
         <v>2095</v>
@@ -43062,7 +43062,7 @@
         <v>29</v>
       </c>
       <c r="D2141">
-        <v>774</v>
+        <v>773.25</v>
       </c>
       <c r="E2141" t="s">
         <v>2094</v>
@@ -43147,7 +43147,7 @@
         <v>3</v>
       </c>
       <c r="D2146">
-        <v>76.18887473810405</v>
+        <v>76.19167276344129</v>
       </c>
       <c r="E2146" t="s">
         <v>2095</v>
@@ -43164,7 +43164,7 @@
         <v>1</v>
       </c>
       <c r="D2147">
-        <v>609.5109979048324</v>
+        <v>609.5333821075303</v>
       </c>
       <c r="E2147" t="s">
         <v>2094</v>
@@ -43181,7 +43181,7 @@
         <v>3</v>
       </c>
       <c r="D2148">
-        <v>76.17959860466856</v>
+        <v>76.18048038184824</v>
       </c>
       <c r="E2148" t="s">
         <v>2095</v>
@@ -43198,7 +43198,7 @@
         <v>1</v>
       </c>
       <c r="D2149">
-        <v>609.4367888373484</v>
+        <v>609.4438430547859</v>
       </c>
       <c r="E2149" t="s">
         <v>2094</v>
@@ -44473,7 +44473,7 @@
         <v>2</v>
       </c>
       <c r="D2224">
-        <v>308.75</v>
+        <v>308.25</v>
       </c>
       <c r="E2224" t="s">
         <v>2094</v>
@@ -44507,7 +44507,7 @@
         <v>2</v>
       </c>
       <c r="D2226">
-        <v>308.75</v>
+        <v>308.25</v>
       </c>
       <c r="E2226" t="s">
         <v>2094</v>
@@ -44524,7 +44524,7 @@
         <v>1</v>
       </c>
       <c r="D2227">
-        <v>479.25</v>
+        <v>473.25</v>
       </c>
       <c r="E2227" t="s">
         <v>2094</v>
@@ -44677,7 +44677,7 @@
         <v>23</v>
       </c>
       <c r="D2236">
-        <v>19.80466161631711</v>
+        <v>19.80477572784987</v>
       </c>
       <c r="E2236" t="s">
         <v>2095</v>
@@ -44694,7 +44694,7 @@
         <v>1</v>
       </c>
       <c r="D2237">
-        <v>356.483909093708</v>
+        <v>356.4859631012977</v>
       </c>
       <c r="E2237" t="s">
         <v>2094</v>
@@ -44745,7 +44745,7 @@
         <v>3</v>
       </c>
       <c r="D2240">
-        <v>105.7224688194948</v>
+        <v>105.7224532024007</v>
       </c>
       <c r="E2240" t="s">
         <v>2095</v>
@@ -44762,7 +44762,7 @@
         <v>1</v>
       </c>
       <c r="D2241">
-        <v>845.7797505559581</v>
+        <v>845.7796256192059</v>
       </c>
       <c r="E2241" t="s">
         <v>2094</v>
@@ -44915,7 +44915,7 @@
         <v>3</v>
       </c>
       <c r="D2250">
-        <v>47.44258999110977</v>
+        <v>47.44259025239302</v>
       </c>
       <c r="E2250" t="s">
         <v>2095</v>
@@ -44932,7 +44932,7 @@
         <v>1</v>
       </c>
       <c r="D2251">
-        <v>284.6555399466586</v>
+        <v>284.6555415143582</v>
       </c>
       <c r="E2251" t="s">
         <v>2094</v>
@@ -45085,7 +45085,7 @@
         <v>1</v>
       </c>
       <c r="D2260">
-        <v>265.25</v>
+        <v>263.75</v>
       </c>
       <c r="E2260" t="s">
         <v>2094</v>
@@ -45510,7 +45510,7 @@
         <v>3</v>
       </c>
       <c r="D2285">
-        <v>102.75</v>
+        <v>103.25</v>
       </c>
       <c r="E2285" t="s">
         <v>2095</v>
@@ -45527,7 +45527,7 @@
         <v>1</v>
       </c>
       <c r="D2286">
-        <v>616.5</v>
+        <v>619.5</v>
       </c>
       <c r="E2286" t="s">
         <v>2094</v>
@@ -45612,7 +45612,7 @@
         <v>3</v>
       </c>
       <c r="D2291">
-        <v>53.25</v>
+        <v>53</v>
       </c>
       <c r="E2291" t="s">
         <v>2095</v>
@@ -45629,7 +45629,7 @@
         <v>1</v>
       </c>
       <c r="D2292">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E2292" t="s">
         <v>2094</v>
@@ -45646,7 +45646,7 @@
         <v>3</v>
       </c>
       <c r="D2293">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2293" t="s">
         <v>2095</v>
@@ -45663,7 +45663,7 @@
         <v>1</v>
       </c>
       <c r="D2294">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="E2294" t="s">
         <v>2094</v>
@@ -45748,7 +45748,7 @@
         <v>1</v>
       </c>
       <c r="D2299">
-        <v>594.75</v>
+        <v>595</v>
       </c>
       <c r="E2299" t="s">
         <v>2094</v>
@@ -45765,7 +45765,7 @@
         <v>3</v>
       </c>
       <c r="D2300">
-        <v>47.2123155175684</v>
+        <v>47.21232135371176</v>
       </c>
       <c r="E2300" t="s">
         <v>2095</v>
@@ -45782,7 +45782,7 @@
         <v>1</v>
       </c>
       <c r="D2301">
-        <v>566.5477862108207</v>
+        <v>566.5478562445412</v>
       </c>
       <c r="E2301" t="s">
         <v>2094</v>
@@ -45833,7 +45833,7 @@
         <v>3</v>
       </c>
       <c r="D2304">
-        <v>47.28423265858445</v>
+        <v>47.28445777627053</v>
       </c>
       <c r="E2304" t="s">
         <v>2095</v>
@@ -45850,7 +45850,7 @@
         <v>1</v>
       </c>
       <c r="D2305">
-        <v>567.4107919030134</v>
+        <v>567.4134933152463</v>
       </c>
       <c r="E2305" t="s">
         <v>2094</v>
@@ -45867,7 +45867,7 @@
         <v>3</v>
       </c>
       <c r="D2306">
-        <v>47.28754216175734</v>
+        <v>47.28774945765795</v>
       </c>
       <c r="E2306" t="s">
         <v>2095</v>
@@ -45884,7 +45884,7 @@
         <v>1</v>
       </c>
       <c r="D2307">
-        <v>567.4505059410881</v>
+        <v>567.4529934918954</v>
       </c>
       <c r="E2307" t="s">
         <v>2094</v>
@@ -46003,7 +46003,7 @@
         <v>1</v>
       </c>
       <c r="D2314">
-        <v>695.5439434423148</v>
+        <v>701.955682838839</v>
       </c>
       <c r="E2314" t="s">
         <v>2094</v>
@@ -47482,7 +47482,7 @@
         <v>7</v>
       </c>
       <c r="D2401">
-        <v>38.97061344296632</v>
+        <v>38.9709869171725</v>
       </c>
       <c r="E2401" t="s">
         <v>2095</v>
@@ -47499,7 +47499,7 @@
         <v>1</v>
       </c>
       <c r="D2402">
-        <v>467.6473613155958</v>
+        <v>467.6518430060701</v>
       </c>
       <c r="E2402" t="s">
         <v>2094</v>
@@ -47516,7 +47516,7 @@
         <v>7</v>
       </c>
       <c r="D2403">
-        <v>38.97627409649245</v>
+        <v>38.97625489486358</v>
       </c>
       <c r="E2403" t="s">
         <v>2095</v>
@@ -47533,7 +47533,7 @@
         <v>1</v>
       </c>
       <c r="D2404">
-        <v>467.7152891579094</v>
+        <v>467.7150587383629</v>
       </c>
       <c r="E2404" t="s">
         <v>2094</v>
@@ -47720,7 +47720,7 @@
         <v>3</v>
       </c>
       <c r="D2415">
-        <v>106</v>
+        <v>106.25</v>
       </c>
       <c r="E2415" t="s">
         <v>2095</v>
@@ -47737,7 +47737,7 @@
         <v>1</v>
       </c>
       <c r="D2416">
-        <v>636</v>
+        <v>637.5</v>
       </c>
       <c r="E2416" t="s">
         <v>2094</v>
@@ -47958,7 +47958,7 @@
         <v>3</v>
       </c>
       <c r="D2429">
-        <v>23.69324486835029</v>
+        <v>23.69344692640194</v>
       </c>
       <c r="E2429" t="s">
         <v>2095</v>
@@ -47975,7 +47975,7 @@
         <v>1</v>
       </c>
       <c r="D2430">
-        <v>284.3189384202034</v>
+        <v>284.3213631168232</v>
       </c>
       <c r="E2430" t="s">
         <v>2094</v>
@@ -47992,7 +47992,7 @@
         <v>3</v>
       </c>
       <c r="D2431">
-        <v>23.69236278324455</v>
+        <v>23.69255836350023</v>
       </c>
       <c r="E2431" t="s">
         <v>2095</v>
@@ -48009,7 +48009,7 @@
         <v>1</v>
       </c>
       <c r="D2432">
-        <v>284.3083533989346</v>
+        <v>284.3107003620028</v>
       </c>
       <c r="E2432" t="s">
         <v>2094</v>
@@ -48196,7 +48196,7 @@
         <v>3</v>
       </c>
       <c r="D2443">
-        <v>23.59863993481627</v>
+        <v>23.60866801219426</v>
       </c>
       <c r="E2443" t="s">
         <v>2095</v>
@@ -48213,7 +48213,7 @@
         <v>1</v>
       </c>
       <c r="D2444">
-        <v>283.1836792177953</v>
+        <v>283.3040161463311</v>
       </c>
       <c r="E2444" t="s">
         <v>2094</v>
@@ -48230,7 +48230,7 @@
         <v>3</v>
       </c>
       <c r="D2445">
-        <v>23.66539621288482</v>
+        <v>23.6667664602064</v>
       </c>
       <c r="E2445" t="s">
         <v>2095</v>
@@ -48247,7 +48247,7 @@
         <v>1</v>
       </c>
       <c r="D2446">
-        <v>283.9847545546179</v>
+        <v>284.0011975224768</v>
       </c>
       <c r="E2446" t="s">
         <v>2094</v>
@@ -48264,7 +48264,7 @@
         <v>3</v>
       </c>
       <c r="D2447">
-        <v>159.2377525685503</v>
+        <v>159.240099926545</v>
       </c>
       <c r="E2447" t="s">
         <v>2095</v>
@@ -48281,7 +48281,7 @@
         <v>1</v>
       </c>
       <c r="D2448">
-        <v>1910.853030822604</v>
+        <v>1910.88119911854</v>
       </c>
       <c r="E2448" t="s">
         <v>2094</v>
@@ -48366,7 +48366,7 @@
         <v>3</v>
       </c>
       <c r="D2453">
-        <v>93.56296464193052</v>
+        <v>93.58357422049255</v>
       </c>
       <c r="E2453" t="s">
         <v>2095</v>
@@ -48383,7 +48383,7 @@
         <v>1</v>
       </c>
       <c r="D2454">
-        <v>1122.755575703166</v>
+        <v>1123.002890645911</v>
       </c>
       <c r="E2454" t="s">
         <v>2094</v>
@@ -48400,7 +48400,7 @@
         <v>3</v>
       </c>
       <c r="D2455">
-        <v>93.62347703725753</v>
+        <v>93.62347254216739</v>
       </c>
       <c r="E2455" t="s">
         <v>2095</v>
@@ -48417,7 +48417,7 @@
         <v>1</v>
       </c>
       <c r="D2456">
-        <v>1123.48172444709</v>
+        <v>1123.481670506009</v>
       </c>
       <c r="E2456" t="s">
         <v>2094</v>
@@ -48672,7 +48672,7 @@
         <v>3</v>
       </c>
       <c r="D2471">
-        <v>47.75</v>
+        <v>47.5</v>
       </c>
       <c r="E2471" t="s">
         <v>2095</v>
@@ -48689,7 +48689,7 @@
         <v>1</v>
       </c>
       <c r="D2472">
-        <v>1432.5</v>
+        <v>1425</v>
       </c>
       <c r="E2472" t="s">
         <v>2094</v>
@@ -49046,7 +49046,7 @@
         <v>1</v>
       </c>
       <c r="D2493">
-        <v>209.984332736279</v>
+        <v>209.9637276180152</v>
       </c>
       <c r="E2493" t="s">
         <v>2094</v>
@@ -49131,7 +49131,7 @@
         <v>1</v>
       </c>
       <c r="D2498">
-        <v>320.0952999554023</v>
+        <v>320.0813744863535</v>
       </c>
       <c r="E2498" t="s">
         <v>2094</v>
@@ -49369,7 +49369,7 @@
         <v>1</v>
       </c>
       <c r="D2512">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E2512" t="s">
         <v>2094</v>
@@ -49624,7 +49624,7 @@
         <v>10</v>
       </c>
       <c r="D2527">
-        <v>141</v>
+        <v>142.75</v>
       </c>
       <c r="E2527" t="s">
         <v>2095</v>
@@ -49641,7 +49641,7 @@
         <v>1</v>
       </c>
       <c r="D2528">
-        <v>1692</v>
+        <v>1713</v>
       </c>
       <c r="E2528" t="s">
         <v>2094</v>
@@ -49743,7 +49743,7 @@
         <v>1</v>
       </c>
       <c r="D2534">
-        <v>488.5275759798151</v>
+        <v>488.5275759798152</v>
       </c>
       <c r="E2534" t="s">
         <v>2094</v>
@@ -49998,7 +49998,7 @@
         <v>1</v>
       </c>
       <c r="D2549">
-        <v>241.2056787547105</v>
+        <v>242.0738859539546</v>
       </c>
       <c r="E2549" t="s">
         <v>2094</v>
@@ -50015,7 +50015,7 @@
         <v>1</v>
       </c>
       <c r="D2550">
-        <v>241.2603772482891</v>
+        <v>242.4911805089038</v>
       </c>
       <c r="E2550" t="s">
         <v>2094</v>
@@ -50032,7 +50032,7 @@
         <v>1</v>
       </c>
       <c r="D2551">
-        <v>241.5863770321606</v>
+        <v>242.8188433988416</v>
       </c>
       <c r="E2551" t="s">
         <v>2094</v>
@@ -50049,7 +50049,7 @@
         <v>1</v>
       </c>
       <c r="D2552">
-        <v>242.0917999573888</v>
+        <v>243.0485945092882</v>
       </c>
       <c r="E2552" t="s">
         <v>2094</v>
@@ -50066,7 +50066,7 @@
         <v>1</v>
       </c>
       <c r="D2553">
-        <v>241.9605039923325</v>
+        <v>243.1948789885519</v>
       </c>
       <c r="E2553" t="s">
         <v>2094</v>
@@ -50270,7 +50270,7 @@
         <v>1</v>
       </c>
       <c r="D2565">
-        <v>699.5</v>
+        <v>706</v>
       </c>
       <c r="E2565" t="s">
         <v>2094</v>
@@ -50865,7 +50865,7 @@
         <v>1</v>
       </c>
       <c r="D2600">
-        <v>320.5</v>
+        <v>323.75</v>
       </c>
       <c r="E2600" t="s">
         <v>2094</v>
@@ -51256,7 +51256,7 @@
         <v>2</v>
       </c>
       <c r="D2623">
-        <v>1045.5</v>
+        <v>1045.25</v>
       </c>
       <c r="E2623" t="s">
         <v>2095</v>
@@ -51273,7 +51273,7 @@
         <v>1</v>
       </c>
       <c r="D2624">
-        <v>3136.5</v>
+        <v>3135.75</v>
       </c>
       <c r="E2624" t="s">
         <v>2094</v>
@@ -51290,7 +51290,7 @@
         <v>332</v>
       </c>
       <c r="D2625">
-        <v>632.5250553174263</v>
+        <v>633.25</v>
       </c>
       <c r="E2625" t="s">
         <v>2095</v>
@@ -51307,7 +51307,7 @@
         <v>1</v>
       </c>
       <c r="D2626">
-        <v>2530.100221269705</v>
+        <v>2533</v>
       </c>
       <c r="E2626" t="s">
         <v>2094</v>
@@ -51358,7 +51358,7 @@
         <v>332</v>
       </c>
       <c r="D2629">
-        <v>627.5</v>
+        <v>627.4482936918305</v>
       </c>
       <c r="E2629" t="s">
         <v>2095</v>
@@ -51375,7 +51375,7 @@
         <v>1</v>
       </c>
       <c r="D2630">
-        <v>2510</v>
+        <v>2509.793174767322</v>
       </c>
       <c r="E2630" t="s">
         <v>2094</v>
@@ -51392,7 +51392,7 @@
         <v>2</v>
       </c>
       <c r="D2631">
-        <v>713.4118420007426</v>
+        <v>713.4118420007425</v>
       </c>
       <c r="E2631" t="s">
         <v>2095</v>
@@ -52021,7 +52021,7 @@
         <v>7</v>
       </c>
       <c r="D2668">
-        <v>40.38624831257784</v>
+        <v>40.38624357322666</v>
       </c>
       <c r="E2668" t="s">
         <v>2095</v>
@@ -52038,7 +52038,7 @@
         <v>1</v>
       </c>
       <c r="D2669">
-        <v>484.6349797509341</v>
+        <v>484.6349228787199</v>
       </c>
       <c r="E2669" t="s">
         <v>2094</v>
@@ -53738,7 +53738,7 @@
         <v>1</v>
       </c>
       <c r="D2769">
-        <v>888.75</v>
+        <v>887.25</v>
       </c>
       <c r="E2769" t="s">
         <v>2094</v>
@@ -53772,7 +53772,7 @@
         <v>1</v>
       </c>
       <c r="D2771">
-        <v>646.75</v>
+        <v>645.5</v>
       </c>
       <c r="E2771" t="s">
         <v>2094</v>
@@ -54741,7 +54741,7 @@
         <v>25</v>
       </c>
       <c r="D2828">
-        <v>394.75</v>
+        <v>394.5</v>
       </c>
       <c r="E2828" t="s">
         <v>2095</v>
@@ -54758,7 +54758,7 @@
         <v>29</v>
       </c>
       <c r="D2829">
-        <v>789.5</v>
+        <v>789</v>
       </c>
       <c r="E2829" t="s">
         <v>2094</v>
@@ -54809,7 +54809,7 @@
         <v>2</v>
       </c>
       <c r="D2832">
-        <v>411</v>
+        <v>410.75</v>
       </c>
       <c r="E2832" t="s">
         <v>2095</v>
@@ -54826,7 +54826,7 @@
         <v>1</v>
       </c>
       <c r="D2833">
-        <v>822</v>
+        <v>821.5</v>
       </c>
       <c r="E2833" t="s">
         <v>2094</v>
@@ -54877,7 +54877,7 @@
         <v>2</v>
       </c>
       <c r="D2836">
-        <v>233.2828954570637</v>
+        <v>233.6470246718462</v>
       </c>
       <c r="E2836" t="s">
         <v>2095</v>
@@ -54894,7 +54894,7 @@
         <v>1</v>
       </c>
       <c r="D2837">
-        <v>933.1315818282546</v>
+        <v>934.5880986873848</v>
       </c>
       <c r="E2837" t="s">
         <v>2094</v>
@@ -54911,7 +54911,7 @@
         <v>2</v>
       </c>
       <c r="D2838">
-        <v>233.8784887528735</v>
+        <v>233.9719060114957</v>
       </c>
       <c r="E2838" t="s">
         <v>2095</v>
@@ -54928,7 +54928,7 @@
         <v>1</v>
       </c>
       <c r="D2839">
-        <v>935.513955011494</v>
+        <v>935.8876240459828</v>
       </c>
       <c r="E2839" t="s">
         <v>2094</v>
@@ -54945,7 +54945,7 @@
         <v>25</v>
       </c>
       <c r="D2840">
-        <v>281.796536358769</v>
+        <v>281.7597973374513</v>
       </c>
       <c r="E2840" t="s">
         <v>2095</v>
@@ -54962,7 +54962,7 @@
         <v>29</v>
       </c>
       <c r="D2841">
-        <v>563.593072717538</v>
+        <v>563.5195946749026</v>
       </c>
       <c r="E2841" t="s">
         <v>2094</v>
@@ -54979,7 +54979,7 @@
         <v>25</v>
       </c>
       <c r="D2842">
-        <v>280.5214187454754</v>
+        <v>280.5953986596675</v>
       </c>
       <c r="E2842" t="s">
         <v>2095</v>
@@ -54996,7 +54996,7 @@
         <v>29</v>
       </c>
       <c r="D2843">
-        <v>561.0428374909508</v>
+        <v>561.190797319335</v>
       </c>
       <c r="E2843" t="s">
         <v>2094</v>
@@ -55744,7 +55744,7 @@
         <v>3</v>
       </c>
       <c r="D2887">
-        <v>835.8918533587506</v>
+        <v>835.8918310267569</v>
       </c>
       <c r="E2887" t="s">
         <v>2095</v>
@@ -55761,7 +55761,7 @@
         <v>1</v>
       </c>
       <c r="D2888">
-        <v>5015.351120152503</v>
+        <v>5015.350986160542</v>
       </c>
       <c r="E2888" t="s">
         <v>2094</v>
@@ -55812,7 +55812,7 @@
         <v>3</v>
       </c>
       <c r="D2891">
-        <v>153.2328582199622</v>
+        <v>153.2328602627968</v>
       </c>
       <c r="E2891" t="s">
         <v>2095</v>
@@ -55829,7 +55829,7 @@
         <v>1</v>
       </c>
       <c r="D2892">
-        <v>1838.794298639546</v>
+        <v>1838.794323153562</v>
       </c>
       <c r="E2892" t="s">
         <v>2094</v>
@@ -55846,7 +55846,7 @@
         <v>3</v>
       </c>
       <c r="D2893">
-        <v>153.2328762198762</v>
+        <v>153.2328784883097</v>
       </c>
       <c r="E2893" t="s">
         <v>2095</v>
@@ -55863,7 +55863,7 @@
         <v>1</v>
       </c>
       <c r="D2894">
-        <v>1838.794514638515</v>
+        <v>1838.794541859717</v>
       </c>
       <c r="E2894" t="s">
         <v>2094</v>
@@ -56509,7 +56509,7 @@
         <v>1</v>
       </c>
       <c r="D2932">
-        <v>79.72898324249115</v>
+        <v>79.77132539456795</v>
       </c>
       <c r="E2932" t="s">
         <v>2094</v>
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="D2933">
-        <v>82.32964448452208</v>
+        <v>82.3314328701165</v>
       </c>
       <c r="E2933" t="s">
         <v>2094</v>
@@ -56543,7 +56543,7 @@
         <v>1</v>
       </c>
       <c r="D2934">
-        <v>82.18077301551462</v>
+        <v>82.20731613872327</v>
       </c>
       <c r="E2934" t="s">
         <v>2094</v>
@@ -56560,7 +56560,7 @@
         <v>1</v>
       </c>
       <c r="D2935">
-        <v>82.02614846316067</v>
+        <v>82.1504574565563</v>
       </c>
       <c r="E2935" t="s">
         <v>2094</v>
@@ -56577,7 +56577,7 @@
         <v>1</v>
       </c>
       <c r="D2936">
-        <v>81.85609085169447</v>
+        <v>82.26842190330606</v>
       </c>
       <c r="E2936" t="s">
         <v>2094</v>
@@ -56594,7 +56594,7 @@
         <v>1</v>
       </c>
       <c r="D2937">
-        <v>81.98928942469391</v>
+        <v>82.17453095536646</v>
       </c>
       <c r="E2937" t="s">
         <v>2094</v>
@@ -56679,7 +56679,7 @@
         <v>3</v>
       </c>
       <c r="D2942">
-        <v>136.2426112418836</v>
+        <v>136.242622757706</v>
       </c>
       <c r="E2942" t="s">
         <v>2095</v>
@@ -56696,7 +56696,7 @@
         <v>1</v>
       </c>
       <c r="D2943">
-        <v>3269.822669805206</v>
+        <v>3269.822946184943</v>
       </c>
       <c r="E2943" t="s">
         <v>2094</v>
@@ -56781,7 +56781,7 @@
         <v>3</v>
       </c>
       <c r="D2948">
-        <v>136.242477319963</v>
+        <v>136.2424686665906</v>
       </c>
       <c r="E2948" t="s">
         <v>2095</v>
@@ -56798,7 +56798,7 @@
         <v>1</v>
       </c>
       <c r="D2949">
-        <v>2724.84954639926</v>
+        <v>2724.849373331813</v>
       </c>
       <c r="E2949" t="s">
         <v>2094</v>
@@ -56815,7 +56815,7 @@
         <v>3</v>
       </c>
       <c r="D2950">
-        <v>136.242522626916</v>
+        <v>136.2425342090996</v>
       </c>
       <c r="E2950" t="s">
         <v>2095</v>
@@ -56832,7 +56832,7 @@
         <v>1</v>
       </c>
       <c r="D2951">
-        <v>2724.85045253832</v>
+        <v>2724.850684181993</v>
       </c>
       <c r="E2951" t="s">
         <v>2094</v>
@@ -56849,7 +56849,7 @@
         <v>3</v>
       </c>
       <c r="D2952">
-        <v>136.2424871516335</v>
+        <v>136.2424822739252</v>
       </c>
       <c r="E2952" t="s">
         <v>2095</v>
@@ -56866,7 +56866,7 @@
         <v>1</v>
       </c>
       <c r="D2953">
-        <v>2724.84974303267</v>
+        <v>2724.849645478504</v>
       </c>
       <c r="E2953" t="s">
         <v>2094</v>
@@ -57733,7 +57733,7 @@
         <v>1</v>
       </c>
       <c r="D3004">
-        <v>82.30807257431138</v>
+        <v>82.30933112210495</v>
       </c>
       <c r="E3004" t="s">
         <v>2094</v>
@@ -57767,7 +57767,7 @@
         <v>1</v>
       </c>
       <c r="D3006">
-        <v>82.01269441765395</v>
+        <v>82.07696140748912</v>
       </c>
       <c r="E3006" t="s">
         <v>2094</v>
@@ -57784,7 +57784,7 @@
         <v>1</v>
       </c>
       <c r="D3007">
-        <v>82.01738328120466</v>
+        <v>82.23439608004836</v>
       </c>
       <c r="E3007" t="s">
         <v>2094</v>
@@ -57869,7 +57869,7 @@
         <v>10</v>
       </c>
       <c r="D3012">
-        <v>120.75</v>
+        <v>121</v>
       </c>
       <c r="E3012" t="s">
         <v>2095</v>
@@ -57886,7 +57886,7 @@
         <v>1</v>
       </c>
       <c r="D3013">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E3013" t="s">
         <v>2094</v>
@@ -57903,7 +57903,7 @@
         <v>10</v>
       </c>
       <c r="D3014">
-        <v>50.75</v>
+        <v>51</v>
       </c>
       <c r="E3014" t="s">
         <v>2095</v>
@@ -57920,7 +57920,7 @@
         <v>1</v>
       </c>
       <c r="D3015">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E3015" t="s">
         <v>2094</v>
@@ -59178,7 +59178,7 @@
         <v>1</v>
       </c>
       <c r="D3089">
-        <v>321.75</v>
+        <v>325.25</v>
       </c>
       <c r="E3089" t="s">
         <v>2094</v>
@@ -59195,7 +59195,7 @@
         <v>1</v>
       </c>
       <c r="D3090">
-        <v>210.25</v>
+        <v>212.5</v>
       </c>
       <c r="E3090" t="s">
         <v>2094</v>
@@ -59297,7 +59297,7 @@
         <v>3</v>
       </c>
       <c r="D3096">
-        <v>94.25</v>
+        <v>94</v>
       </c>
       <c r="E3096" t="s">
         <v>2095</v>
@@ -59314,7 +59314,7 @@
         <v>1</v>
       </c>
       <c r="D3097">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E3097" t="s">
         <v>2094</v>
@@ -59671,7 +59671,7 @@
         <v>2</v>
       </c>
       <c r="D3118">
-        <v>308.0710755025062</v>
+        <v>310.5730935952212</v>
       </c>
       <c r="E3118" t="s">
         <v>2094</v>
@@ -59688,7 +59688,7 @@
         <v>2</v>
       </c>
       <c r="D3119">
-        <v>308.0710755025062</v>
+        <v>310.5730935952212</v>
       </c>
       <c r="E3119" t="s">
         <v>2094</v>
@@ -59722,7 +59722,7 @@
         <v>2</v>
       </c>
       <c r="D3121">
-        <v>308.0710755025062</v>
+        <v>310.5730935952212</v>
       </c>
       <c r="E3121" t="s">
         <v>2094</v>
@@ -59756,7 +59756,7 @@
         <v>29</v>
       </c>
       <c r="D3123">
-        <v>173.5</v>
+        <v>174.75</v>
       </c>
       <c r="E3123" t="s">
         <v>2094</v>
@@ -59977,7 +59977,7 @@
         <v>1</v>
       </c>
       <c r="D3136">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3136" t="s">
         <v>2094</v>
@@ -59994,7 +59994,7 @@
         <v>1</v>
       </c>
       <c r="D3137">
-        <v>152.75</v>
+        <v>157</v>
       </c>
       <c r="E3137" t="s">
         <v>2094</v>
@@ -60096,7 +60096,7 @@
         <v>2</v>
       </c>
       <c r="D3143">
-        <v>1206.75</v>
+        <v>1206.73384292724</v>
       </c>
       <c r="E3143" t="s">
         <v>2094</v>
@@ -60147,7 +60147,7 @@
         <v>1</v>
       </c>
       <c r="D3146">
-        <v>94.75</v>
+        <v>95</v>
       </c>
       <c r="E3146" t="s">
         <v>2094</v>

--- a/manual/output_1223_chunk_3.xlsx
+++ b/manual/output_1223_chunk_3.xlsx
@@ -7906,7 +7906,7 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>976.4029019535758</v>
+        <v>979.5340051985573</v>
       </c>
       <c r="E73" t="s">
         <v>2094</v>
@@ -7957,7 +7957,7 @@
         <v>80</v>
       </c>
       <c r="D76">
-        <v>139.5</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
         <v>2095</v>
@@ -7974,7 +7974,7 @@
         <v>29</v>
       </c>
       <c r="D77">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E77" t="s">
         <v>2094</v>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>342.75</v>
+        <v>338.5</v>
       </c>
       <c r="E157" t="s">
         <v>2094</v>
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>342.75</v>
+        <v>338.5</v>
       </c>
       <c r="E158" t="s">
         <v>2094</v>
@@ -9827,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="D186">
-        <v>94.85168558388038</v>
+        <v>95.46977632591907</v>
       </c>
       <c r="E186" t="s">
         <v>2095</v>
@@ -9844,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>758.8134846710431</v>
+        <v>763.7582106073526</v>
       </c>
       <c r="E187" t="s">
         <v>2094</v>
@@ -9861,7 +9861,7 @@
         <v>2</v>
       </c>
       <c r="D188">
-        <v>94.88887099971178</v>
+        <v>95.48741027582275</v>
       </c>
       <c r="E188" t="s">
         <v>2095</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>759.1109679976943</v>
+        <v>763.899282206582</v>
       </c>
       <c r="E189" t="s">
         <v>2094</v>
@@ -9895,7 +9895,7 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <v>94.85011044870497</v>
+        <v>95.46902920891606</v>
       </c>
       <c r="E190" t="s">
         <v>2095</v>
@@ -9912,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>758.8008835896397</v>
+        <v>763.7522336713284</v>
       </c>
       <c r="E191" t="s">
         <v>2094</v>
@@ -11153,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>177.75</v>
+        <v>177.5</v>
       </c>
       <c r="E264" t="s">
         <v>2094</v>
@@ -11170,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>177.75</v>
+        <v>177.5</v>
       </c>
       <c r="E265" t="s">
         <v>2094</v>
@@ -11289,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>90.25</v>
+        <v>90.5</v>
       </c>
       <c r="E272" t="s">
         <v>2094</v>
@@ -12173,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="D324">
-        <v>211.5</v>
+        <v>210.5</v>
       </c>
       <c r="E324" t="s">
         <v>2094</v>
@@ -12190,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>215.75</v>
+        <v>216.5</v>
       </c>
       <c r="E325" t="s">
         <v>2094</v>
@@ -13567,7 +13567,7 @@
         <v>3</v>
       </c>
       <c r="D406">
-        <v>33</v>
+        <v>33.25</v>
       </c>
       <c r="E406" t="s">
         <v>2095</v>
@@ -13584,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="D407">
-        <v>1188</v>
+        <v>1197</v>
       </c>
       <c r="E407" t="s">
         <v>2094</v>
@@ -13720,7 +13720,7 @@
         <v>1</v>
       </c>
       <c r="D415">
-        <v>170.25</v>
+        <v>172.75</v>
       </c>
       <c r="E415" t="s">
         <v>2094</v>
@@ -15131,7 +15131,7 @@
         <v>2</v>
       </c>
       <c r="D498">
-        <v>96.73807183788085</v>
+        <v>97.41307183788085</v>
       </c>
       <c r="E498" t="s">
         <v>2094</v>
@@ -15165,7 +15165,7 @@
         <v>2</v>
       </c>
       <c r="D500">
-        <v>96.74536992509154</v>
+        <v>97.42036992509153</v>
       </c>
       <c r="E500" t="s">
         <v>2094</v>
@@ -15352,7 +15352,7 @@
         <v>68</v>
       </c>
       <c r="D511">
-        <v>423.25</v>
+        <v>423.5</v>
       </c>
       <c r="E511" t="s">
         <v>2095</v>
@@ -15369,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="D512">
-        <v>5079</v>
+        <v>5082</v>
       </c>
       <c r="E512" t="s">
         <v>2094</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="D515">
-        <v>559</v>
+        <v>559.25</v>
       </c>
       <c r="E515" t="s">
         <v>2094</v>
@@ -18854,7 +18854,7 @@
         <v>2</v>
       </c>
       <c r="D717">
-        <v>166.5758641632568</v>
+        <v>166.6059578727993</v>
       </c>
       <c r="E717" t="s">
         <v>2094</v>
@@ -19840,7 +19840,7 @@
         <v>3</v>
       </c>
       <c r="D775">
-        <v>28.25</v>
+        <v>28.5</v>
       </c>
       <c r="E775" t="s">
         <v>2095</v>
@@ -19857,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="D776">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E776" t="s">
         <v>2094</v>
@@ -19976,7 +19976,7 @@
         <v>3</v>
       </c>
       <c r="D783">
-        <v>45.75</v>
+        <v>45.5</v>
       </c>
       <c r="E783" t="s">
         <v>2095</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="D784">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E784" t="s">
         <v>2094</v>
@@ -21982,7 +21982,7 @@
         <v>2</v>
       </c>
       <c r="D901">
-        <v>879</v>
+        <v>881.75</v>
       </c>
       <c r="E901" t="s">
         <v>2094</v>
@@ -22560,7 +22560,7 @@
         <v>1</v>
       </c>
       <c r="D935">
-        <v>284</v>
+        <v>284.75</v>
       </c>
       <c r="E935" t="s">
         <v>2094</v>
@@ -24277,7 +24277,7 @@
         <v>1</v>
       </c>
       <c r="D1036">
-        <v>233.25</v>
+        <v>234.5</v>
       </c>
       <c r="E1036" t="s">
         <v>2094</v>
@@ -24753,7 +24753,7 @@
         <v>1</v>
       </c>
       <c r="D1064">
-        <v>127.5</v>
+        <v>127.75</v>
       </c>
       <c r="E1064" t="s">
         <v>2094</v>
@@ -25586,7 +25586,7 @@
         <v>2</v>
       </c>
       <c r="D1113">
-        <v>100.4103693318763</v>
+        <v>100.5348662829049</v>
       </c>
       <c r="E1113" t="s">
         <v>2094</v>
@@ -25603,7 +25603,7 @@
         <v>2</v>
       </c>
       <c r="D1114">
-        <v>100.4103693323983</v>
+        <v>100.5348662834283</v>
       </c>
       <c r="E1114" t="s">
         <v>2094</v>
@@ -25620,7 +25620,7 @@
         <v>2</v>
       </c>
       <c r="D1115">
-        <v>100.4103693323047</v>
+        <v>100.5348662833345</v>
       </c>
       <c r="E1115" t="s">
         <v>2094</v>
@@ -28119,7 +28119,7 @@
         <v>1</v>
       </c>
       <c r="D1262">
-        <v>774</v>
+        <v>774.25</v>
       </c>
       <c r="E1262" t="s">
         <v>2094</v>
@@ -28323,7 +28323,7 @@
         <v>3</v>
       </c>
       <c r="D1274">
-        <v>111</v>
+        <v>113.75</v>
       </c>
       <c r="E1274" t="s">
         <v>2095</v>
@@ -28340,7 +28340,7 @@
         <v>1</v>
       </c>
       <c r="D1275">
-        <v>666</v>
+        <v>682.5</v>
       </c>
       <c r="E1275" t="s">
         <v>2094</v>
@@ -28527,7 +28527,7 @@
         <v>21</v>
       </c>
       <c r="D1286">
-        <v>143.5</v>
+        <v>149</v>
       </c>
       <c r="E1286" t="s">
         <v>2095</v>
@@ -28544,7 +28544,7 @@
         <v>1</v>
       </c>
       <c r="D1287">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="E1287" t="s">
         <v>2094</v>
@@ -29105,7 +29105,7 @@
         <v>3</v>
       </c>
       <c r="D1320">
-        <v>15.75</v>
+        <v>14.25</v>
       </c>
       <c r="E1320" t="s">
         <v>2095</v>
@@ -29122,7 +29122,7 @@
         <v>1</v>
       </c>
       <c r="D1321">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="E1321" t="s">
         <v>2094</v>
@@ -31553,7 +31553,7 @@
         <v>3</v>
       </c>
       <c r="D1464">
-        <v>88.25</v>
+        <v>89.5</v>
       </c>
       <c r="E1464" t="s">
         <v>2095</v>
@@ -31570,7 +31570,7 @@
         <v>1</v>
       </c>
       <c r="D1465">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="E1465" t="s">
         <v>2094</v>
@@ -31638,7 +31638,7 @@
         <v>1</v>
       </c>
       <c r="D1469">
-        <v>772.1809653608124</v>
+        <v>765.7279228390969</v>
       </c>
       <c r="E1469" t="s">
         <v>2094</v>
@@ -31655,7 +31655,7 @@
         <v>1</v>
       </c>
       <c r="D1470">
-        <v>769.2445327598602</v>
+        <v>762.8160297247239</v>
       </c>
       <c r="E1470" t="s">
         <v>2094</v>
@@ -32029,7 +32029,7 @@
         <v>1</v>
       </c>
       <c r="D1492">
-        <v>92.0566325857514</v>
+        <v>92.06945497178083</v>
       </c>
       <c r="E1492" t="s">
         <v>2094</v>
@@ -32097,7 +32097,7 @@
         <v>1</v>
       </c>
       <c r="D1496">
-        <v>88.79362561637072</v>
+        <v>88.86862561637072</v>
       </c>
       <c r="E1496" t="s">
         <v>2094</v>
@@ -36381,7 +36381,7 @@
         <v>2</v>
       </c>
       <c r="D1748">
-        <v>100.1605136436597</v>
+        <v>100.035152915181</v>
       </c>
       <c r="E1748" t="s">
         <v>2094</v>
@@ -36993,7 +36993,7 @@
         <v>1</v>
       </c>
       <c r="D1784">
-        <v>147.5</v>
+        <v>145.75</v>
       </c>
       <c r="E1784" t="s">
         <v>2094</v>
@@ -38710,7 +38710,7 @@
         <v>1</v>
       </c>
       <c r="D1885">
-        <v>605</v>
+        <v>606.75</v>
       </c>
       <c r="E1885" t="s">
         <v>2095</v>
@@ -38727,7 +38727,7 @@
         <v>2</v>
       </c>
       <c r="D1886">
-        <v>1210</v>
+        <v>1213.5</v>
       </c>
       <c r="E1886" t="s">
         <v>2094</v>
@@ -38846,7 +38846,7 @@
         <v>1</v>
       </c>
       <c r="D1893">
-        <v>364.75</v>
+        <v>368.25</v>
       </c>
       <c r="E1893" t="s">
         <v>2094</v>
@@ -40257,7 +40257,7 @@
         <v>1</v>
       </c>
       <c r="D1976">
-        <v>420</v>
+        <v>419.5</v>
       </c>
       <c r="E1976" t="s">
         <v>2094</v>
@@ -42331,7 +42331,7 @@
         <v>1</v>
       </c>
       <c r="D2098">
-        <v>808.75</v>
+        <v>806.75</v>
       </c>
       <c r="E2098" t="s">
         <v>2094</v>
@@ -42858,7 +42858,7 @@
         <v>1</v>
       </c>
       <c r="D2129">
-        <v>70.28820885131722</v>
+        <v>69.46061753738088</v>
       </c>
       <c r="E2129" t="s">
         <v>2094</v>
@@ -43232,7 +43232,7 @@
         <v>2</v>
       </c>
       <c r="D2151">
-        <v>976.402901953576</v>
+        <v>979.5340051985576</v>
       </c>
       <c r="E2151" t="s">
         <v>2094</v>
@@ -44456,7 +44456,7 @@
         <v>2</v>
       </c>
       <c r="D2223">
-        <v>307</v>
+        <v>306.5</v>
       </c>
       <c r="E2223" t="s">
         <v>2094</v>
@@ -44490,7 +44490,7 @@
         <v>2</v>
       </c>
       <c r="D2225">
-        <v>307</v>
+        <v>306.5</v>
       </c>
       <c r="E2225" t="s">
         <v>2094</v>
@@ -45374,7 +45374,7 @@
         <v>3</v>
       </c>
       <c r="D2277">
-        <v>98</v>
+        <v>98.25</v>
       </c>
       <c r="E2277" t="s">
         <v>2095</v>
@@ -45391,7 +45391,7 @@
         <v>1</v>
       </c>
       <c r="D2278">
-        <v>2352</v>
+        <v>2358</v>
       </c>
       <c r="E2278" t="s">
         <v>2094</v>
@@ -45612,7 +45612,7 @@
         <v>3</v>
       </c>
       <c r="D2291">
-        <v>109.75</v>
+        <v>110.25</v>
       </c>
       <c r="E2291" t="s">
         <v>2095</v>
@@ -45629,7 +45629,7 @@
         <v>1</v>
       </c>
       <c r="D2292">
-        <v>658.5</v>
+        <v>661.5</v>
       </c>
       <c r="E2292" t="s">
         <v>2094</v>
@@ -45969,7 +45969,7 @@
         <v>1</v>
       </c>
       <c r="D2312">
-        <v>701.955682838839</v>
+        <v>697.8259084672344</v>
       </c>
       <c r="E2312" t="s">
         <v>2094</v>
@@ -48026,7 +48026,7 @@
         <v>3</v>
       </c>
       <c r="D2433">
-        <v>23.69474234302198</v>
+        <v>23.27713382507903</v>
       </c>
       <c r="E2433" t="s">
         <v>2095</v>
@@ -48043,7 +48043,7 @@
         <v>1</v>
       </c>
       <c r="D2434">
-        <v>284.3369081162638</v>
+        <v>279.3256059009483</v>
       </c>
       <c r="E2434" t="s">
         <v>2094</v>
@@ -48094,7 +48094,7 @@
         <v>3</v>
       </c>
       <c r="D2437">
-        <v>23.69474234302198</v>
+        <v>23.27713382507903</v>
       </c>
       <c r="E2437" t="s">
         <v>2095</v>
@@ -48111,7 +48111,7 @@
         <v>1</v>
       </c>
       <c r="D2438">
-        <v>284.3369081162637</v>
+        <v>279.3256059009483</v>
       </c>
       <c r="E2438" t="s">
         <v>2094</v>
@@ -48196,7 +48196,7 @@
         <v>3</v>
       </c>
       <c r="D2443">
-        <v>23.6674884184726</v>
+        <v>23.27289785985416</v>
       </c>
       <c r="E2443" t="s">
         <v>2095</v>
@@ -48213,7 +48213,7 @@
         <v>1</v>
       </c>
       <c r="D2444">
-        <v>284.0098610216713</v>
+        <v>279.2747743182499</v>
       </c>
       <c r="E2444" t="s">
         <v>2094</v>
@@ -48638,7 +48638,7 @@
         <v>3</v>
       </c>
       <c r="D2469">
-        <v>47.75</v>
+        <v>47.5</v>
       </c>
       <c r="E2469" t="s">
         <v>2095</v>
@@ -48655,7 +48655,7 @@
         <v>1</v>
       </c>
       <c r="D2470">
-        <v>1432.5</v>
+        <v>1425</v>
       </c>
       <c r="E2470" t="s">
         <v>2094</v>
@@ -49590,7 +49590,7 @@
         <v>10</v>
       </c>
       <c r="D2525">
-        <v>142.75</v>
+        <v>142</v>
       </c>
       <c r="E2525" t="s">
         <v>2095</v>
@@ -49607,7 +49607,7 @@
         <v>1</v>
       </c>
       <c r="D2526">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="E2526" t="s">
         <v>2094</v>
@@ -49947,7 +49947,7 @@
         <v>2</v>
       </c>
       <c r="D2546">
-        <v>100.4103693323992</v>
+        <v>100.5348662834291</v>
       </c>
       <c r="E2546" t="s">
         <v>2094</v>
@@ -49964,7 +49964,7 @@
         <v>1</v>
       </c>
       <c r="D2547">
-        <v>241.4445430744017</v>
+        <v>242.0738859539546</v>
       </c>
       <c r="E2547" t="s">
         <v>2094</v>
@@ -49981,7 +49981,7 @@
         <v>1</v>
       </c>
       <c r="D2548">
-        <v>241.4875239562606</v>
+        <v>242.3281709528438</v>
       </c>
       <c r="E2548" t="s">
         <v>2094</v>
@@ -49998,7 +49998,7 @@
         <v>1</v>
       </c>
       <c r="D2549">
-        <v>241.5590945832425</v>
+        <v>242.4002408133387</v>
       </c>
       <c r="E2549" t="s">
         <v>2094</v>
@@ -50015,7 +50015,7 @@
         <v>1</v>
       </c>
       <c r="D2550">
-        <v>241.5943033725509</v>
+        <v>242.4356952524923</v>
       </c>
       <c r="E2550" t="s">
         <v>2094</v>
@@ -50032,7 +50032,7 @@
         <v>1</v>
       </c>
       <c r="D2551">
-        <v>241.5670430933432</v>
+        <v>242.4082447766251</v>
       </c>
       <c r="E2551" t="s">
         <v>2094</v>
@@ -50134,7 +50134,7 @@
         <v>1</v>
       </c>
       <c r="D2557">
-        <v>314.5</v>
+        <v>314.75</v>
       </c>
       <c r="E2557" t="s">
         <v>2094</v>
@@ -50423,7 +50423,7 @@
         <v>3</v>
       </c>
       <c r="D2574">
-        <v>51.75</v>
+        <v>51</v>
       </c>
       <c r="E2574" t="s">
         <v>2095</v>
@@ -50440,7 +50440,7 @@
         <v>1</v>
       </c>
       <c r="D2575">
-        <v>1242</v>
+        <v>1224</v>
       </c>
       <c r="E2575" t="s">
         <v>2094</v>
@@ -50831,7 +50831,7 @@
         <v>1</v>
       </c>
       <c r="D2598">
-        <v>320.5</v>
+        <v>322.75</v>
       </c>
       <c r="E2598" t="s">
         <v>2094</v>
@@ -51222,7 +51222,7 @@
         <v>2</v>
       </c>
       <c r="D2621">
-        <v>1047.25</v>
+        <v>1057.5</v>
       </c>
       <c r="E2621" t="s">
         <v>2095</v>
@@ -51239,7 +51239,7 @@
         <v>1</v>
       </c>
       <c r="D2622">
-        <v>3141.75</v>
+        <v>3172.5</v>
       </c>
       <c r="E2622" t="s">
         <v>2094</v>
@@ -53704,7 +53704,7 @@
         <v>1</v>
       </c>
       <c r="D2767">
-        <v>887.25</v>
+        <v>885</v>
       </c>
       <c r="E2767" t="s">
         <v>2094</v>
@@ -53738,7 +53738,7 @@
         <v>1</v>
       </c>
       <c r="D2769">
-        <v>645.5</v>
+        <v>644</v>
       </c>
       <c r="E2769" t="s">
         <v>2094</v>
@@ -59161,7 +59161,7 @@
         <v>1</v>
       </c>
       <c r="D3088">
-        <v>212.5</v>
+        <v>211.5</v>
       </c>
       <c r="E3088" t="s">
         <v>2094</v>
@@ -60096,7 +60096,7 @@
         <v>2</v>
       </c>
       <c r="D3143">
-        <v>1206.73384292724</v>
+        <v>1210.603565399242</v>
       </c>
       <c r="E3143" t="s">
         <v>2094</v>

--- a/manual/output_1223_chunk_3.xlsx
+++ b/manual/output_1223_chunk_3.xlsx
@@ -7923,7 +7923,7 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>48.71151293782204</v>
+        <v>48.71187339371595</v>
       </c>
       <c r="E74" t="s">
         <v>2095</v>
@@ -7940,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>584.5381552538645</v>
+        <v>584.5424807245913</v>
       </c>
       <c r="E75" t="s">
         <v>2094</v>
@@ -9011,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>167.25</v>
+        <v>167.5</v>
       </c>
       <c r="E138" t="s">
         <v>2094</v>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>338.5</v>
+        <v>342.75</v>
       </c>
       <c r="E157" t="s">
         <v>2094</v>
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>338.5</v>
+        <v>342.75</v>
       </c>
       <c r="E158" t="s">
         <v>2094</v>
@@ -10405,7 +10405,7 @@
         <v>3</v>
       </c>
       <c r="D220">
-        <v>94.30537853552443</v>
+        <v>94.30537853552445</v>
       </c>
       <c r="E220" t="s">
         <v>2095</v>
@@ -10422,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>565.8322712131466</v>
+        <v>565.8322712131467</v>
       </c>
       <c r="E221" t="s">
         <v>2094</v>
@@ -10524,7 +10524,7 @@
         <v>3</v>
       </c>
       <c r="D227">
-        <v>23.66645867203903</v>
+        <v>23.66791534178923</v>
       </c>
       <c r="E227" t="s">
         <v>2095</v>
@@ -10541,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>283.9975040644684</v>
+        <v>284.0149841014708</v>
       </c>
       <c r="E228" t="s">
         <v>2094</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>86.5</v>
+        <v>88</v>
       </c>
       <c r="E263" t="s">
         <v>2094</v>
@@ -11221,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>240.3225190091377</v>
+        <v>240.3244935450991</v>
       </c>
       <c r="E268" t="s">
         <v>2094</v>
@@ -13176,7 +13176,7 @@
         <v>2</v>
       </c>
       <c r="D383">
-        <v>235.25</v>
+        <v>235</v>
       </c>
       <c r="E383" t="s">
         <v>2094</v>
@@ -13261,7 +13261,7 @@
         <v>2</v>
       </c>
       <c r="D388">
-        <v>309.7413553526497</v>
+        <v>309.8432338830805</v>
       </c>
       <c r="E388" t="s">
         <v>2094</v>
@@ -13278,7 +13278,7 @@
         <v>2</v>
       </c>
       <c r="D389">
-        <v>308.5842444886508</v>
+        <v>309.131273372079</v>
       </c>
       <c r="E389" t="s">
         <v>2094</v>
@@ -13295,7 +13295,7 @@
         <v>2</v>
       </c>
       <c r="D390">
-        <v>309.7741750355979</v>
+        <v>309.84188988782</v>
       </c>
       <c r="E390" t="s">
         <v>2094</v>
@@ -13329,7 +13329,7 @@
         <v>332</v>
       </c>
       <c r="D392">
-        <v>70.75</v>
+        <v>70.5</v>
       </c>
       <c r="E392" t="s">
         <v>2095</v>
@@ -13346,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="E393" t="s">
         <v>2094</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="D426">
-        <v>187.0025136484954</v>
+        <v>187.0025356577498</v>
       </c>
       <c r="E426" t="s">
         <v>2094</v>
@@ -13924,7 +13924,7 @@
         <v>1</v>
       </c>
       <c r="D427">
-        <v>183.5820048447038</v>
+        <v>183.582202126486</v>
       </c>
       <c r="E427" t="s">
         <v>2094</v>
@@ -14230,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="D445">
-        <v>144.75</v>
+        <v>145.25</v>
       </c>
       <c r="E445" t="s">
         <v>2094</v>
@@ -14383,7 +14383,7 @@
         <v>1</v>
       </c>
       <c r="D454">
-        <v>667.5</v>
+        <v>666.75</v>
       </c>
       <c r="E454" t="s">
         <v>2094</v>
@@ -15131,7 +15131,7 @@
         <v>2</v>
       </c>
       <c r="D498">
-        <v>97.41307183788085</v>
+        <v>97.41306768724775</v>
       </c>
       <c r="E498" t="s">
         <v>2094</v>
@@ -15199,7 +15199,7 @@
         <v>2</v>
       </c>
       <c r="D502">
-        <v>99.75889218309607</v>
+        <v>99.75849471465405</v>
       </c>
       <c r="E502" t="s">
         <v>2094</v>
@@ -15216,7 +15216,7 @@
         <v>2</v>
       </c>
       <c r="D503">
-        <v>104.6679538866024</v>
+        <v>104.6679253188135</v>
       </c>
       <c r="E503" t="s">
         <v>2094</v>
@@ -15233,7 +15233,7 @@
         <v>2</v>
       </c>
       <c r="D504">
-        <v>104.667706792341</v>
+        <v>104.6676962012927</v>
       </c>
       <c r="E504" t="s">
         <v>2094</v>
@@ -15250,7 +15250,7 @@
         <v>2</v>
       </c>
       <c r="D505">
-        <v>104.6683889462372</v>
+        <v>104.6683576481866</v>
       </c>
       <c r="E505" t="s">
         <v>2094</v>
@@ -15267,7 +15267,7 @@
         <v>2</v>
       </c>
       <c r="D506">
-        <v>104.6678675571396</v>
+        <v>104.6678327126933</v>
       </c>
       <c r="E506" t="s">
         <v>2094</v>
@@ -15284,7 +15284,7 @@
         <v>2</v>
       </c>
       <c r="D507">
-        <v>104.6695082541922</v>
+        <v>104.6693708502656</v>
       </c>
       <c r="E507" t="s">
         <v>2094</v>
@@ -15522,7 +15522,7 @@
         <v>2</v>
       </c>
       <c r="D521">
-        <v>50.88665412018911</v>
+        <v>50.88664660436452</v>
       </c>
       <c r="E521" t="s">
         <v>2094</v>
@@ -15539,7 +15539,7 @@
         <v>2</v>
       </c>
       <c r="D522">
-        <v>50.88655291764792</v>
+        <v>50.886552812907</v>
       </c>
       <c r="E522" t="s">
         <v>2094</v>
@@ -15556,7 +15556,7 @@
         <v>2</v>
       </c>
       <c r="D523">
-        <v>50.88655332297138</v>
+        <v>50.88655325480647</v>
       </c>
       <c r="E523" t="s">
         <v>2094</v>
@@ -15607,7 +15607,7 @@
         <v>3</v>
       </c>
       <c r="D526">
-        <v>98.5963832377993</v>
+        <v>98.59638332350181</v>
       </c>
       <c r="E526" t="s">
         <v>2095</v>
@@ -15624,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="D527">
-        <v>1577.542131804789</v>
+        <v>1577.542133176029</v>
       </c>
       <c r="E527" t="s">
         <v>2094</v>
@@ -15641,7 +15641,7 @@
         <v>3</v>
       </c>
       <c r="D528">
-        <v>98.59638557202392</v>
+        <v>98.59638558501422</v>
       </c>
       <c r="E528" t="s">
         <v>2095</v>
@@ -15658,7 +15658,7 @@
         <v>1</v>
       </c>
       <c r="D529">
-        <v>1577.542169152383</v>
+        <v>1577.542169360227</v>
       </c>
       <c r="E529" t="s">
         <v>2094</v>
@@ -20095,7 +20095,7 @@
         <v>1</v>
       </c>
       <c r="D790">
-        <v>187.001976686851</v>
+        <v>187.0019766868511</v>
       </c>
       <c r="E790" t="s">
         <v>2094</v>
@@ -22271,7 +22271,7 @@
         <v>3</v>
       </c>
       <c r="D918">
-        <v>48.44423301637467</v>
+        <v>48.43898165709219</v>
       </c>
       <c r="E918" t="s">
         <v>2095</v>
@@ -22288,7 +22288,7 @@
         <v>1</v>
       </c>
       <c r="D919">
-        <v>484.4423301637466</v>
+        <v>484.3898165709219</v>
       </c>
       <c r="E919" t="s">
         <v>2094</v>
@@ -22305,7 +22305,7 @@
         <v>3</v>
       </c>
       <c r="D920">
-        <v>48.45929576627006</v>
+        <v>48.44920601640425</v>
       </c>
       <c r="E920" t="s">
         <v>2095</v>
@@ -22322,7 +22322,7 @@
         <v>1</v>
       </c>
       <c r="D921">
-        <v>484.5929576627006</v>
+        <v>484.4920601640425</v>
       </c>
       <c r="E921" t="s">
         <v>2094</v>
@@ -24158,7 +24158,7 @@
         <v>1</v>
       </c>
       <c r="D1029">
-        <v>286.5639189503962</v>
+        <v>286.5787636508699</v>
       </c>
       <c r="E1029" t="s">
         <v>2094</v>
@@ -24175,7 +24175,7 @@
         <v>1</v>
       </c>
       <c r="D1030">
-        <v>285.5809164133143</v>
+        <v>285.6601618559578</v>
       </c>
       <c r="E1030" t="s">
         <v>2094</v>
@@ -24600,7 +24600,7 @@
         <v>1</v>
       </c>
       <c r="D1055">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1055" t="s">
         <v>2094</v>
@@ -24634,7 +24634,7 @@
         <v>1</v>
       </c>
       <c r="D1057">
-        <v>127.3714214561772</v>
+        <v>127.3974450241097</v>
       </c>
       <c r="E1057" t="s">
         <v>2094</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="D1058">
-        <v>127.5362254498816</v>
+        <v>127.5510211988962</v>
       </c>
       <c r="E1058" t="s">
         <v>2094</v>
@@ -24770,7 +24770,7 @@
         <v>1</v>
       </c>
       <c r="D1065">
-        <v>344.9729438731592</v>
+        <v>345.0145246963907</v>
       </c>
       <c r="E1065" t="s">
         <v>2094</v>
@@ -29105,7 +29105,7 @@
         <v>3</v>
       </c>
       <c r="D1320">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="E1320" t="s">
         <v>2095</v>
@@ -29122,7 +29122,7 @@
         <v>1</v>
       </c>
       <c r="D1321">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E1321" t="s">
         <v>2094</v>
@@ -29938,7 +29938,7 @@
         <v>3</v>
       </c>
       <c r="D1369">
-        <v>23.61137461981902</v>
+        <v>23.61137732246943</v>
       </c>
       <c r="E1369" t="s">
         <v>2095</v>
@@ -29955,7 +29955,7 @@
         <v>1</v>
       </c>
       <c r="D1370">
-        <v>283.3364954378283</v>
+        <v>283.3365278696332</v>
       </c>
       <c r="E1370" t="s">
         <v>2094</v>
@@ -29972,7 +29972,7 @@
         <v>3</v>
       </c>
       <c r="D1371">
-        <v>23.61027466183854</v>
+        <v>23.61036953255971</v>
       </c>
       <c r="E1371" t="s">
         <v>2095</v>
@@ -29989,7 +29989,7 @@
         <v>1</v>
       </c>
       <c r="D1372">
-        <v>283.3232959420625</v>
+        <v>283.3244343907165</v>
       </c>
       <c r="E1372" t="s">
         <v>2094</v>
@@ -30125,7 +30125,7 @@
         <v>3</v>
       </c>
       <c r="D1380">
-        <v>47.62647223571543</v>
+        <v>47.62647857314347</v>
       </c>
       <c r="E1380" t="s">
         <v>2095</v>
@@ -30142,7 +30142,7 @@
         <v>1</v>
       </c>
       <c r="D1381">
-        <v>571.5176668285851</v>
+        <v>571.5177428777217</v>
       </c>
       <c r="E1381" t="s">
         <v>2094</v>
@@ -30159,7 +30159,7 @@
         <v>3</v>
       </c>
       <c r="D1382">
-        <v>47.62650077287022</v>
+        <v>47.62650277687926</v>
       </c>
       <c r="E1382" t="s">
         <v>2095</v>
@@ -30176,7 +30176,7 @@
         <v>1</v>
       </c>
       <c r="D1383">
-        <v>571.5180092744426</v>
+        <v>571.5180333225512</v>
       </c>
       <c r="E1383" t="s">
         <v>2094</v>
@@ -30227,7 +30227,7 @@
         <v>3</v>
       </c>
       <c r="D1386">
-        <v>48.19684414957693</v>
+        <v>48.19688748299689</v>
       </c>
       <c r="E1386" t="s">
         <v>2095</v>
@@ -30244,7 +30244,7 @@
         <v>1</v>
       </c>
       <c r="D1387">
-        <v>578.3621297949232</v>
+        <v>578.3626497959627</v>
       </c>
       <c r="E1387" t="s">
         <v>2094</v>
@@ -31621,7 +31621,7 @@
         <v>1</v>
       </c>
       <c r="D1468">
-        <v>773.4145654350265</v>
+        <v>773.7593849096177</v>
       </c>
       <c r="E1468" t="s">
         <v>2094</v>
@@ -31638,7 +31638,7 @@
         <v>1</v>
       </c>
       <c r="D1469">
-        <v>765.7279228390969</v>
+        <v>766.0670706226869</v>
       </c>
       <c r="E1469" t="s">
         <v>2094</v>
@@ -31655,7 +31655,7 @@
         <v>1</v>
       </c>
       <c r="D1470">
-        <v>762.8160297247239</v>
+        <v>763.1452507135721</v>
       </c>
       <c r="E1470" t="s">
         <v>2094</v>
@@ -31689,7 +31689,7 @@
         <v>1</v>
       </c>
       <c r="D1472">
-        <v>603.255403243141</v>
+        <v>603.3332843346856</v>
       </c>
       <c r="E1472" t="s">
         <v>2094</v>
@@ -34392,7 +34392,7 @@
         <v>3</v>
       </c>
       <c r="D1631">
-        <v>48.45241619253979</v>
+        <v>48.44761335293988</v>
       </c>
       <c r="E1631" t="s">
         <v>2095</v>
@@ -34409,7 +34409,7 @@
         <v>1</v>
       </c>
       <c r="D1632">
-        <v>484.5241619253979</v>
+        <v>484.4761335293987</v>
       </c>
       <c r="E1632" t="s">
         <v>2094</v>
@@ -37282,7 +37282,7 @@
         <v>1</v>
       </c>
       <c r="D1801">
-        <v>233.9779253301563</v>
+        <v>233.9778665504338</v>
       </c>
       <c r="E1801" t="s">
         <v>2094</v>
@@ -43062,7 +43062,7 @@
         <v>25</v>
       </c>
       <c r="D2141">
-        <v>307.25</v>
+        <v>306.5</v>
       </c>
       <c r="E2141" t="s">
         <v>2095</v>
@@ -43079,7 +43079,7 @@
         <v>29</v>
       </c>
       <c r="D2142">
-        <v>921.75</v>
+        <v>919.5</v>
       </c>
       <c r="E2142" t="s">
         <v>2094</v>
@@ -44694,7 +44694,7 @@
         <v>23</v>
       </c>
       <c r="D2237">
-        <v>19.79973764062051</v>
+        <v>19.80014737507129</v>
       </c>
       <c r="E2237" t="s">
         <v>2095</v>
@@ -44711,7 +44711,7 @@
         <v>1</v>
       </c>
       <c r="D2238">
-        <v>356.3952775311691</v>
+        <v>356.4026527512833</v>
       </c>
       <c r="E2238" t="s">
         <v>2094</v>
@@ -44898,7 +44898,7 @@
         <v>3</v>
       </c>
       <c r="D2249">
-        <v>47.44259054134993</v>
+        <v>47.4425905702025</v>
       </c>
       <c r="E2249" t="s">
         <v>2095</v>
@@ -44915,7 +44915,7 @@
         <v>1</v>
       </c>
       <c r="D2250">
-        <v>284.6555432480995</v>
+        <v>284.655543421215</v>
       </c>
       <c r="E2250" t="s">
         <v>2094</v>
@@ -45578,7 +45578,7 @@
         <v>3</v>
       </c>
       <c r="D2289">
-        <v>53</v>
+        <v>52.75</v>
       </c>
       <c r="E2289" t="s">
         <v>2095</v>
@@ -45595,7 +45595,7 @@
         <v>1</v>
       </c>
       <c r="D2290">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E2290" t="s">
         <v>2094</v>
@@ -45731,7 +45731,7 @@
         <v>3</v>
       </c>
       <c r="D2298">
-        <v>47.21232135371176</v>
+        <v>47.21233369778476</v>
       </c>
       <c r="E2298" t="s">
         <v>2095</v>
@@ -45748,7 +45748,7 @@
         <v>1</v>
       </c>
       <c r="D2299">
-        <v>566.5478562445412</v>
+        <v>566.5480043734171</v>
       </c>
       <c r="E2299" t="s">
         <v>2094</v>
@@ -45799,7 +45799,7 @@
         <v>3</v>
       </c>
       <c r="D2302">
-        <v>47.28470491633895</v>
+        <v>47.28493146140167</v>
       </c>
       <c r="E2302" t="s">
         <v>2095</v>
@@ -45816,7 +45816,7 @@
         <v>1</v>
       </c>
       <c r="D2303">
-        <v>567.4164589960674</v>
+        <v>567.41917753682</v>
       </c>
       <c r="E2303" t="s">
         <v>2094</v>
@@ -45935,7 +45935,7 @@
         <v>1</v>
       </c>
       <c r="D2310">
-        <v>740.0960135646458</v>
+        <v>740.1102916473301</v>
       </c>
       <c r="E2310" t="s">
         <v>2094</v>
@@ -47074,7 +47074,7 @@
         <v>3</v>
       </c>
       <c r="D2377">
-        <v>53.11724118498214</v>
+        <v>53.11724118498213</v>
       </c>
       <c r="E2377" t="s">
         <v>2095</v>
@@ -47091,7 +47091,7 @@
         <v>1</v>
       </c>
       <c r="D2378">
-        <v>637.4068942197857</v>
+        <v>637.4068942197855</v>
       </c>
       <c r="E2378" t="s">
         <v>2094</v>
@@ -47924,7 +47924,7 @@
         <v>3</v>
       </c>
       <c r="D2427">
-        <v>23.69374403219329</v>
+        <v>23.69382696878521</v>
       </c>
       <c r="E2427" t="s">
         <v>2095</v>
@@ -47941,7 +47941,7 @@
         <v>1</v>
       </c>
       <c r="D2428">
-        <v>284.3249283863195</v>
+        <v>284.3259236254225</v>
       </c>
       <c r="E2428" t="s">
         <v>2094</v>
@@ -47958,7 +47958,7 @@
         <v>3</v>
       </c>
       <c r="D2429">
-        <v>23.69281957035333</v>
+        <v>23.69298707142065</v>
       </c>
       <c r="E2429" t="s">
         <v>2095</v>
@@ -47975,7 +47975,7 @@
         <v>1</v>
       </c>
       <c r="D2430">
-        <v>284.31383484424</v>
+        <v>284.3158448570479</v>
       </c>
       <c r="E2430" t="s">
         <v>2094</v>
@@ -48196,7 +48196,7 @@
         <v>3</v>
       </c>
       <c r="D2443">
-        <v>23.27289785985416</v>
+        <v>23.27312550284328</v>
       </c>
       <c r="E2443" t="s">
         <v>2095</v>
@@ -48213,7 +48213,7 @@
         <v>1</v>
       </c>
       <c r="D2444">
-        <v>279.2747743182499</v>
+        <v>279.2775060341194</v>
       </c>
       <c r="E2444" t="s">
         <v>2094</v>
@@ -49012,7 +49012,7 @@
         <v>1</v>
       </c>
       <c r="D2491">
-        <v>208.8257247566651</v>
+        <v>208.8253742402878</v>
       </c>
       <c r="E2491" t="s">
         <v>2094</v>
@@ -50814,7 +50814,7 @@
         <v>1</v>
       </c>
       <c r="D2597">
-        <v>684.25</v>
+        <v>683.75</v>
       </c>
       <c r="E2597" t="s">
         <v>2094</v>
@@ -54605,7 +54605,7 @@
         <v>3</v>
       </c>
       <c r="D2820">
-        <v>47.99782900366021</v>
+        <v>48.02501977936429</v>
       </c>
       <c r="E2820" t="s">
         <v>2095</v>
@@ -54622,7 +54622,7 @@
         <v>1</v>
       </c>
       <c r="D2821">
-        <v>575.9739480439225</v>
+        <v>576.3002373523714</v>
       </c>
       <c r="E2821" t="s">
         <v>2094</v>
@@ -54639,7 +54639,7 @@
         <v>3</v>
       </c>
       <c r="D2822">
-        <v>48.07331704631235</v>
+        <v>48.08085479749759</v>
       </c>
       <c r="E2822" t="s">
         <v>2095</v>
@@ -54656,7 +54656,7 @@
         <v>1</v>
       </c>
       <c r="D2823">
-        <v>576.8798045557483</v>
+        <v>576.9702575699712</v>
       </c>
       <c r="E2823" t="s">
         <v>2094</v>
@@ -54673,7 +54673,7 @@
         <v>3</v>
       </c>
       <c r="D2824">
-        <v>48.0125668773551</v>
+        <v>48.03242068338935</v>
       </c>
       <c r="E2824" t="s">
         <v>2095</v>
@@ -54690,7 +54690,7 @@
         <v>1</v>
       </c>
       <c r="D2825">
-        <v>576.1508025282612</v>
+        <v>576.3890482006723</v>
       </c>
       <c r="E2825" t="s">
         <v>2094</v>
@@ -55625,7 +55625,7 @@
         <v>1</v>
       </c>
       <c r="D2880">
-        <v>764.9191361651035</v>
+        <v>765.4056336023971</v>
       </c>
       <c r="E2880" t="s">
         <v>2094</v>
@@ -55642,7 +55642,7 @@
         <v>1</v>
       </c>
       <c r="D2881">
-        <v>762.0773964564687</v>
+        <v>762.5471024505758</v>
       </c>
       <c r="E2881" t="s">
         <v>2094</v>
@@ -55659,7 +55659,7 @@
         <v>1</v>
       </c>
       <c r="D2882">
-        <v>596.5</v>
+        <v>596.75</v>
       </c>
       <c r="E2882" t="s">
         <v>2094</v>
@@ -56152,7 +56152,7 @@
         <v>2</v>
       </c>
       <c r="D2911">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="E2911" t="s">
         <v>2095</v>
@@ -56169,7 +56169,7 @@
         <v>1</v>
       </c>
       <c r="D2912">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E2912" t="s">
         <v>2094</v>
@@ -56679,7 +56679,7 @@
         <v>3</v>
       </c>
       <c r="D2942">
-        <v>136.1977421192229</v>
+        <v>136.2015968659649</v>
       </c>
       <c r="E2942" t="s">
         <v>2095</v>
@@ -56696,7 +56696,7 @@
         <v>1</v>
       </c>
       <c r="D2943">
-        <v>3268.74581086135</v>
+        <v>3268.838324783158</v>
       </c>
       <c r="E2943" t="s">
         <v>2094</v>

--- a/manual/output_1223_chunk_3.xlsx
+++ b/manual/output_1223_chunk_3.xlsx
@@ -6778,7 +6778,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>2109</v>
@@ -6795,7 +6795,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E5" t="s">
         <v>2110</v>
@@ -6812,7 +6812,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="E6" t="s">
         <v>2109</v>
@@ -6829,7 +6829,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E7" t="s">
         <v>2110</v>
@@ -6931,7 +6931,7 @@
         <v>431</v>
       </c>
       <c r="D13">
-        <v>87</v>
+        <v>86.5</v>
       </c>
       <c r="E13" t="s">
         <v>2109</v>
@@ -6948,7 +6948,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>435</v>
+        <v>432.5</v>
       </c>
       <c r="E14" t="s">
         <v>2110</v>
@@ -6982,7 +6982,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>113.6086489689654</v>
+        <v>112.496096855195</v>
       </c>
       <c r="E16" t="s">
         <v>2109</v>
@@ -6999,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>681.6518938137924</v>
+        <v>674.9765811311698</v>
       </c>
       <c r="E17" t="s">
         <v>2110</v>
@@ -7016,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>190</v>
+        <v>188.25</v>
       </c>
       <c r="E18" t="s">
         <v>2109</v>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1140</v>
+        <v>1129.5</v>
       </c>
       <c r="E19" t="s">
         <v>2110</v>
@@ -7050,7 +7050,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>157.25</v>
+        <v>155.5</v>
       </c>
       <c r="E20" t="s">
         <v>2109</v>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>943.5</v>
+        <v>933</v>
       </c>
       <c r="E21" t="s">
         <v>2110</v>
@@ -7084,7 +7084,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>60.25</v>
+        <v>59.75</v>
       </c>
       <c r="E22" t="s">
         <v>2109</v>
@@ -7101,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E23" t="s">
         <v>2110</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>61.25</v>
+        <v>60.75</v>
       </c>
       <c r="E30" t="s">
         <v>2109</v>
@@ -7237,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E31" t="s">
         <v>2110</v>
@@ -7424,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>45.75</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
         <v>2109</v>
@@ -7441,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E43" t="s">
         <v>2110</v>
@@ -7458,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
         <v>2109</v>
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E45" t="s">
         <v>2110</v>
@@ -7492,7 +7492,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>45.42476182662051</v>
+        <v>44.74101819295382</v>
       </c>
       <c r="E46" t="s">
         <v>2109</v>
@@ -7509,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>545.0971419194461</v>
+        <v>536.8922183154459</v>
       </c>
       <c r="E47" t="s">
         <v>2110</v>
@@ -7526,7 +7526,7 @@
         <v>3</v>
       </c>
       <c r="D48">
-        <v>88</v>
+        <v>86.75</v>
       </c>
       <c r="E48" t="s">
         <v>2109</v>
@@ -7543,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>528</v>
+        <v>520.5</v>
       </c>
       <c r="E49" t="s">
         <v>2110</v>
@@ -7662,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>60.38605351612536</v>
+        <v>59.89879114763399</v>
       </c>
       <c r="E56" t="s">
         <v>2109</v>
@@ -7679,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>483.0884281290029</v>
+        <v>479.1903291810719</v>
       </c>
       <c r="E57" t="s">
         <v>2110</v>
@@ -7730,7 +7730,7 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>75.25</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
         <v>2110</v>
@@ -7798,7 +7798,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>195.25</v>
+        <v>193.5</v>
       </c>
       <c r="E64" t="s">
         <v>2110</v>
@@ -7866,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>305.5</v>
+        <v>300.5</v>
       </c>
       <c r="E68" t="s">
         <v>2110</v>
@@ -7917,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="E71" t="s">
         <v>2109</v>
@@ -7934,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
         <v>2110</v>
@@ -8053,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>332.25</v>
+        <v>329.75</v>
       </c>
       <c r="E79" t="s">
         <v>2110</v>
@@ -8240,7 +8240,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
         <v>2110</v>
@@ -8257,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="D91">
-        <v>227</v>
+        <v>224.25</v>
       </c>
       <c r="E91" t="s">
         <v>2110</v>
@@ -8274,7 +8274,7 @@
         <v>2</v>
       </c>
       <c r="D92">
-        <v>219.25</v>
+        <v>217.25</v>
       </c>
       <c r="E92" t="s">
         <v>2110</v>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="E135" t="s">
         <v>2110</v>
@@ -9022,7 +9022,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="E136" t="s">
         <v>2110</v>
@@ -9039,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>63.25</v>
+        <v>62.5</v>
       </c>
       <c r="E137" t="s">
         <v>2110</v>
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>92</v>
+        <v>90.75</v>
       </c>
       <c r="E138" t="s">
         <v>2110</v>
@@ -9073,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>104.25</v>
+        <v>103.5</v>
       </c>
       <c r="E139" t="s">
         <v>2110</v>
@@ -9090,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>87.5</v>
+        <v>86.5</v>
       </c>
       <c r="E140" t="s">
         <v>2110</v>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E141" t="s">
         <v>2110</v>
@@ -9124,7 +9124,7 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>219.75</v>
+        <v>217.25</v>
       </c>
       <c r="E142" t="s">
         <v>2110</v>
@@ -9141,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>219.5</v>
+        <v>217</v>
       </c>
       <c r="E143" t="s">
         <v>2110</v>
@@ -9158,7 +9158,7 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1012.5</v>
+        <v>1000.5</v>
       </c>
       <c r="E144" t="s">
         <v>2110</v>
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>993.75</v>
+        <v>982</v>
       </c>
       <c r="E145" t="s">
         <v>2110</v>
@@ -9192,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>899.25</v>
+        <v>887.5</v>
       </c>
       <c r="E146" t="s">
         <v>2110</v>
@@ -9209,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>898</v>
+        <v>886.25</v>
       </c>
       <c r="E147" t="s">
         <v>2110</v>
@@ -9294,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="D152">
-        <v>161.5</v>
+        <v>150.25</v>
       </c>
       <c r="E152" t="s">
         <v>2110</v>
@@ -9413,7 +9413,7 @@
         <v>2</v>
       </c>
       <c r="D159">
-        <v>201.75</v>
+        <v>199.75</v>
       </c>
       <c r="E159" t="s">
         <v>2110</v>
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>169.5</v>
+        <v>167.25</v>
       </c>
       <c r="E160" t="s">
         <v>2110</v>
@@ -9447,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>166.25</v>
+        <v>163.25</v>
       </c>
       <c r="E161" t="s">
         <v>2110</v>
@@ -9685,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>308.8753592234781</v>
+        <v>308.8676293201954</v>
       </c>
       <c r="E175" t="s">
         <v>2110</v>
@@ -9702,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>308.9268209251688</v>
+        <v>308.9259816470636</v>
       </c>
       <c r="E176" t="s">
         <v>2110</v>
@@ -9719,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>309.0667751350614</v>
+        <v>309.041847316309</v>
       </c>
       <c r="E177" t="s">
         <v>2110</v>
@@ -9753,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>341.75</v>
+        <v>338.25</v>
       </c>
       <c r="E179" t="s">
         <v>2110</v>
@@ -9770,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>341.75</v>
+        <v>338.25</v>
       </c>
       <c r="E180" t="s">
         <v>2110</v>
@@ -9821,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1363.5</v>
+        <v>1348.25</v>
       </c>
       <c r="E183" t="s">
         <v>2110</v>
@@ -9855,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>805.25</v>
+        <v>799.75</v>
       </c>
       <c r="E185" t="s">
         <v>2110</v>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>546</v>
+        <v>542.5</v>
       </c>
       <c r="E186" t="s">
         <v>2110</v>
@@ -9906,7 +9906,7 @@
         <v>3</v>
       </c>
       <c r="D188">
-        <v>100.0629524877666</v>
+        <v>99.06829929134305</v>
       </c>
       <c r="E188" t="s">
         <v>2109</v>
@@ -9923,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2401.510859706399</v>
+        <v>2377.639182992233</v>
       </c>
       <c r="E189" t="s">
         <v>2110</v>
@@ -10042,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E196" t="s">
         <v>2110</v>
@@ -10059,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>89.25</v>
+        <v>88.25</v>
       </c>
       <c r="E197" t="s">
         <v>2110</v>
@@ -10076,7 +10076,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>90.25</v>
+        <v>89</v>
       </c>
       <c r="E198" t="s">
         <v>2110</v>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>141.75</v>
+        <v>140</v>
       </c>
       <c r="E199" t="s">
         <v>2110</v>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>140.1979021972961</v>
+        <v>138.4757711454149</v>
       </c>
       <c r="E200" t="s">
         <v>2110</v>
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>140.7258394764018</v>
+        <v>138.9972234688433</v>
       </c>
       <c r="E201" t="s">
         <v>2110</v>
@@ -10144,7 +10144,7 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E202" t="s">
         <v>2110</v>
@@ -10161,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>63.25</v>
+        <v>62.25</v>
       </c>
       <c r="E203" t="s">
         <v>2110</v>
@@ -10178,7 +10178,7 @@
         <v>2</v>
       </c>
       <c r="D204">
-        <v>513.75</v>
+        <v>508.75</v>
       </c>
       <c r="E204" t="s">
         <v>2110</v>
@@ -10195,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="D205">
-        <v>102.25</v>
+        <v>104.5</v>
       </c>
       <c r="E205" t="s">
         <v>2110</v>
@@ -10212,7 +10212,7 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>97.25</v>
+        <v>99.25</v>
       </c>
       <c r="E206" t="s">
         <v>2110</v>
@@ -10246,7 +10246,7 @@
         <v>2</v>
       </c>
       <c r="D208">
-        <v>96.11918166895147</v>
+        <v>95.34358436807871</v>
       </c>
       <c r="E208" t="s">
         <v>2109</v>
@@ -10263,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>768.9534533516118</v>
+        <v>762.7486749446297</v>
       </c>
       <c r="E209" t="s">
         <v>2110</v>
@@ -10280,7 +10280,7 @@
         <v>2</v>
       </c>
       <c r="D210">
-        <v>96.18411865215083</v>
+        <v>95.40799736690761</v>
       </c>
       <c r="E210" t="s">
         <v>2109</v>
@@ -10297,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>769.4729492172066</v>
+        <v>763.2639789352609</v>
       </c>
       <c r="E211" t="s">
         <v>2110</v>
@@ -10314,7 +10314,7 @@
         <v>2</v>
       </c>
       <c r="D212">
-        <v>96.0824808302514</v>
+        <v>95.30717967288444</v>
       </c>
       <c r="E212" t="s">
         <v>2109</v>
@@ -10331,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>768.6598466420112</v>
+        <v>762.4574373830756</v>
       </c>
       <c r="E213" t="s">
         <v>2110</v>
@@ -10348,7 +10348,7 @@
         <v>2</v>
       </c>
       <c r="D214">
-        <v>86.25</v>
+        <v>85.75</v>
       </c>
       <c r="E214" t="s">
         <v>2109</v>
@@ -10365,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="E215" t="s">
         <v>2110</v>
@@ -10416,7 +10416,7 @@
         <v>23</v>
       </c>
       <c r="D218">
-        <v>106.25</v>
+        <v>105</v>
       </c>
       <c r="E218" t="s">
         <v>2109</v>
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2550</v>
+        <v>2520</v>
       </c>
       <c r="E219" t="s">
         <v>2110</v>
@@ -10450,7 +10450,7 @@
         <v>23</v>
       </c>
       <c r="D220">
-        <v>107.25</v>
+        <v>105</v>
       </c>
       <c r="E220" t="s">
         <v>2109</v>
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>2574</v>
+        <v>2520</v>
       </c>
       <c r="E221" t="s">
         <v>2110</v>
@@ -10586,7 +10586,7 @@
         <v>3</v>
       </c>
       <c r="D228">
-        <v>48.10166789865661</v>
+        <v>47.3730174356035</v>
       </c>
       <c r="E228" t="s">
         <v>2109</v>
@@ -10603,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>577.2200147838793</v>
+        <v>568.476209227242</v>
       </c>
       <c r="E229" t="s">
         <v>2110</v>
@@ -10620,7 +10620,7 @@
         <v>3</v>
       </c>
       <c r="D230">
-        <v>47.5</v>
+        <v>46.75</v>
       </c>
       <c r="E230" t="s">
         <v>2109</v>
@@ -10637,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E231" t="s">
         <v>2110</v>
@@ -10688,7 +10688,7 @@
         <v>3</v>
       </c>
       <c r="D234">
-        <v>173.25</v>
+        <v>171.5</v>
       </c>
       <c r="E234" t="s">
         <v>2109</v>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>2079</v>
+        <v>2058</v>
       </c>
       <c r="E235" t="s">
         <v>2110</v>
@@ -11062,7 +11062,7 @@
         <v>3</v>
       </c>
       <c r="D256">
-        <v>118</v>
+        <v>116.25</v>
       </c>
       <c r="E256" t="s">
         <v>2109</v>
@@ -11079,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="E257" t="s">
         <v>2110</v>
@@ -11096,7 +11096,7 @@
         <v>3</v>
       </c>
       <c r="D258">
-        <v>117</v>
+        <v>115.5</v>
       </c>
       <c r="E258" t="s">
         <v>2109</v>
@@ -11113,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1404</v>
+        <v>1386</v>
       </c>
       <c r="E259" t="s">
         <v>2110</v>
@@ -11130,7 +11130,7 @@
         <v>3</v>
       </c>
       <c r="D260">
-        <v>117.75</v>
+        <v>116</v>
       </c>
       <c r="E260" t="s">
         <v>2109</v>
@@ -11147,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="E261" t="s">
         <v>2110</v>
@@ -11164,7 +11164,7 @@
         <v>3</v>
       </c>
       <c r="D262">
-        <v>78.75</v>
+        <v>77.5</v>
       </c>
       <c r="E262" t="s">
         <v>2109</v>
@@ -11181,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E263" t="s">
         <v>2110</v>
@@ -11198,7 +11198,7 @@
         <v>3</v>
       </c>
       <c r="D264">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E264" t="s">
         <v>2109</v>
@@ -11215,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E265" t="s">
         <v>2110</v>
@@ -11266,7 +11266,7 @@
         <v>3</v>
       </c>
       <c r="D268">
-        <v>74</v>
+        <v>72.75</v>
       </c>
       <c r="E268" t="s">
         <v>2109</v>
@@ -11283,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="E269" t="s">
         <v>2110</v>
@@ -11436,7 +11436,7 @@
         <v>2</v>
       </c>
       <c r="D278">
-        <v>86</v>
+        <v>85.5</v>
       </c>
       <c r="E278" t="s">
         <v>2109</v>
@@ -11453,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E279" t="s">
         <v>2110</v>
@@ -11538,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>85.5</v>
+        <v>84.5</v>
       </c>
       <c r="E284" t="s">
         <v>2110</v>
@@ -11555,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>86.5</v>
+        <v>85.25</v>
       </c>
       <c r="E285" t="s">
         <v>2110</v>
@@ -11572,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E286" t="s">
         <v>2110</v>
@@ -11589,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E287" t="s">
         <v>2110</v>
@@ -11606,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E288" t="s">
         <v>2110</v>
@@ -11623,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>240.3246798651768</v>
+        <v>237.3726343121212</v>
       </c>
       <c r="E289" t="s">
         <v>2110</v>
@@ -11640,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>240.3303714104646</v>
+        <v>237.3782559449016</v>
       </c>
       <c r="E290" t="s">
         <v>2110</v>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>239.3172333158189</v>
+        <v>236.3775628051753</v>
       </c>
       <c r="E291" t="s">
         <v>2110</v>
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>92.22766223614646</v>
+        <v>91.09477708957864</v>
       </c>
       <c r="E292" t="s">
         <v>2110</v>
@@ -11691,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>92.22766223650291</v>
+        <v>91.09477708993072</v>
       </c>
       <c r="E293" t="s">
         <v>2110</v>
@@ -11708,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>90.5</v>
+        <v>89.25</v>
       </c>
       <c r="E294" t="s">
         <v>2110</v>
@@ -11725,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>92.22766138148522</v>
+        <v>91.0947762454157</v>
       </c>
       <c r="E295" t="s">
         <v>2110</v>
@@ -11844,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>436.5</v>
+        <v>434.5</v>
       </c>
       <c r="E302" t="s">
         <v>2110</v>
@@ -11861,7 +11861,7 @@
         <v>2</v>
       </c>
       <c r="D303">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E303" t="s">
         <v>2110</v>
@@ -11878,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="D304">
-        <v>309.5</v>
+        <v>310.75</v>
       </c>
       <c r="E304" t="s">
         <v>2110</v>
@@ -12099,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>63.25</v>
+        <v>62.75</v>
       </c>
       <c r="E317" t="s">
         <v>2110</v>
@@ -12133,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>129.5</v>
+        <v>128.5</v>
       </c>
       <c r="E319" t="s">
         <v>2110</v>
@@ -12524,7 +12524,7 @@
         <v>2</v>
       </c>
       <c r="D342">
-        <v>106.9140364088119</v>
+        <v>105.3675345994875</v>
       </c>
       <c r="E342" t="s">
         <v>2110</v>
@@ -12541,7 +12541,7 @@
         <v>2</v>
       </c>
       <c r="D343">
-        <v>106.9191883372614</v>
+        <v>105.3674165784384</v>
       </c>
       <c r="E343" t="s">
         <v>2110</v>
@@ -12558,7 +12558,7 @@
         <v>2</v>
       </c>
       <c r="D344">
-        <v>106.9240477480872</v>
+        <v>105.3736932042174</v>
       </c>
       <c r="E344" t="s">
         <v>2110</v>
@@ -12575,7 +12575,7 @@
         <v>2</v>
       </c>
       <c r="D345">
-        <v>106.9664295030828</v>
+        <v>105.4062202199534</v>
       </c>
       <c r="E345" t="s">
         <v>2110</v>
@@ -12609,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>215.75</v>
+        <v>216.5</v>
       </c>
       <c r="E347" t="s">
         <v>2110</v>
@@ -13340,7 +13340,7 @@
         <v>2</v>
       </c>
       <c r="D390">
-        <v>150.1602214936366</v>
+        <v>148.9485605070706</v>
       </c>
       <c r="E390" t="s">
         <v>2109</v>
@@ -13357,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>1201.281771949093</v>
+        <v>1191.588484056565</v>
       </c>
       <c r="E391" t="s">
         <v>2110</v>
@@ -13374,7 +13374,7 @@
         <v>2</v>
       </c>
       <c r="D392">
-        <v>149.25</v>
+        <v>148</v>
       </c>
       <c r="E392" t="s">
         <v>2109</v>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="E393" t="s">
         <v>2110</v>
@@ -13408,7 +13408,7 @@
         <v>2</v>
       </c>
       <c r="D394">
-        <v>150.1512406259431</v>
+        <v>148.9396521070846</v>
       </c>
       <c r="E394" t="s">
         <v>2109</v>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="D395">
-        <v>1201.209925007545</v>
+        <v>1191.517216856677</v>
       </c>
       <c r="E395" t="s">
         <v>2110</v>
@@ -13442,7 +13442,7 @@
         <v>2</v>
       </c>
       <c r="D396">
-        <v>62.57658295264228</v>
+        <v>62.07164493722025</v>
       </c>
       <c r="E396" t="s">
         <v>2109</v>
@@ -13459,7 +13459,7 @@
         <v>1</v>
       </c>
       <c r="D397">
-        <v>750.9189954317073</v>
+        <v>744.859739246643</v>
       </c>
       <c r="E397" t="s">
         <v>2110</v>
@@ -13476,7 +13476,7 @@
         <v>2</v>
       </c>
       <c r="D398">
-        <v>62.57806648712821</v>
+        <v>62.073116500887</v>
       </c>
       <c r="E398" t="s">
         <v>2109</v>
@@ -13493,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="D399">
-        <v>750.9367978455385</v>
+        <v>744.877398010644</v>
       </c>
       <c r="E399" t="s">
         <v>2110</v>
@@ -13510,7 +13510,7 @@
         <v>2</v>
       </c>
       <c r="D400">
-        <v>62.58364394633531</v>
+        <v>62.07864895490128</v>
       </c>
       <c r="E400" t="s">
         <v>2109</v>
@@ -13527,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>751.0037273560238</v>
+        <v>744.9437874588153</v>
       </c>
       <c r="E401" t="s">
         <v>2110</v>
@@ -13595,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="D405">
-        <v>377.25</v>
+        <v>375.75</v>
       </c>
       <c r="E405" t="s">
         <v>2110</v>
@@ -13612,7 +13612,7 @@
         <v>2</v>
       </c>
       <c r="D406">
-        <v>273.75</v>
+        <v>272.5</v>
       </c>
       <c r="E406" t="s">
         <v>2110</v>
@@ -13629,7 +13629,7 @@
         <v>2</v>
       </c>
       <c r="D407">
-        <v>312</v>
+        <v>310.5</v>
       </c>
       <c r="E407" t="s">
         <v>2110</v>
@@ -13646,7 +13646,7 @@
         <v>2</v>
       </c>
       <c r="D408">
-        <v>324</v>
+        <v>322.5</v>
       </c>
       <c r="E408" t="s">
         <v>2110</v>
@@ -13663,7 +13663,7 @@
         <v>2</v>
       </c>
       <c r="D409">
-        <v>309.8432338830805</v>
+        <v>306.9453020960921</v>
       </c>
       <c r="E409" t="s">
         <v>2110</v>
@@ -13680,7 +13680,7 @@
         <v>2</v>
       </c>
       <c r="D410">
-        <v>309.131273372079</v>
+        <v>306.3464341758022</v>
       </c>
       <c r="E410" t="s">
         <v>2110</v>
@@ -13697,7 +13697,7 @@
         <v>2</v>
       </c>
       <c r="D411">
-        <v>309.84188988782</v>
+        <v>306.9199844393999</v>
       </c>
       <c r="E411" t="s">
         <v>2110</v>
@@ -13714,7 +13714,7 @@
         <v>2</v>
       </c>
       <c r="D412">
-        <v>312.25</v>
+        <v>309.25</v>
       </c>
       <c r="E412" t="s">
         <v>2110</v>
@@ -13731,7 +13731,7 @@
         <v>332</v>
       </c>
       <c r="D413">
-        <v>70.5</v>
+        <v>69.75</v>
       </c>
       <c r="E413" t="s">
         <v>2109</v>
@@ -13748,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="D414">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="E414" t="s">
         <v>2110</v>
@@ -13765,7 +13765,7 @@
         <v>332</v>
       </c>
       <c r="D415">
-        <v>52.75</v>
+        <v>52</v>
       </c>
       <c r="E415" t="s">
         <v>2109</v>
@@ -13782,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="D416">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="E416" t="s">
         <v>2110</v>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
       <c r="D436">
-        <v>190.25</v>
+        <v>190.5</v>
       </c>
       <c r="E436" t="s">
         <v>2110</v>
@@ -14309,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="D447">
-        <v>187.0026510024923</v>
+        <v>183.5401076748613</v>
       </c>
       <c r="E447" t="s">
         <v>2110</v>
@@ -14326,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="D448">
-        <v>186.9941995321744</v>
+        <v>183.5321520092956</v>
       </c>
       <c r="E448" t="s">
         <v>2110</v>
@@ -14394,7 +14394,7 @@
         <v>2</v>
       </c>
       <c r="D452">
-        <v>208.9416280093122</v>
+        <v>208.932673025463</v>
       </c>
       <c r="E452" t="s">
         <v>2110</v>
@@ -14632,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>144</v>
+        <v>142.25</v>
       </c>
       <c r="E466" t="s">
         <v>2110</v>
@@ -14649,7 +14649,7 @@
         <v>431</v>
       </c>
       <c r="D467">
-        <v>69.5</v>
+        <v>69.25</v>
       </c>
       <c r="E467" t="s">
         <v>2109</v>
@@ -14666,7 +14666,7 @@
         <v>2</v>
       </c>
       <c r="D468">
-        <v>347.5</v>
+        <v>346.25</v>
       </c>
       <c r="E468" t="s">
         <v>2110</v>
@@ -14683,7 +14683,7 @@
         <v>431</v>
       </c>
       <c r="D469">
-        <v>70.25</v>
+        <v>69.5</v>
       </c>
       <c r="E469" t="s">
         <v>2109</v>
@@ -14700,7 +14700,7 @@
         <v>2</v>
       </c>
       <c r="D470">
-        <v>351.25</v>
+        <v>347.5</v>
       </c>
       <c r="E470" t="s">
         <v>2110</v>
@@ -14751,7 +14751,7 @@
         <v>3</v>
       </c>
       <c r="D473">
-        <v>54.5</v>
+        <v>54.25</v>
       </c>
       <c r="E473" t="s">
         <v>2109</v>
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="D474">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E474" t="s">
         <v>2110</v>
@@ -14785,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="D475">
-        <v>677.75</v>
+        <v>671.25</v>
       </c>
       <c r="E475" t="s">
         <v>2110</v>
@@ -14802,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="D476">
-        <v>224.5</v>
+        <v>224</v>
       </c>
       <c r="E476" t="s">
         <v>2110</v>
@@ -14819,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>1212</v>
+        <v>1207.5</v>
       </c>
       <c r="E477" t="s">
         <v>2110</v>
@@ -14836,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="D478">
-        <v>412.25</v>
+        <v>409.75</v>
       </c>
       <c r="E478" t="s">
         <v>2110</v>
@@ -14853,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="D479">
-        <v>411.75</v>
+        <v>409.5</v>
       </c>
       <c r="E479" t="s">
         <v>2110</v>
@@ -14870,7 +14870,7 @@
         <v>1</v>
       </c>
       <c r="D480">
-        <v>774</v>
+        <v>769.5</v>
       </c>
       <c r="E480" t="s">
         <v>2110</v>
@@ -14887,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="D481">
-        <v>776.25</v>
+        <v>771.75</v>
       </c>
       <c r="E481" t="s">
         <v>2110</v>
@@ -15278,7 +15278,7 @@
         <v>3</v>
       </c>
       <c r="D504">
-        <v>187.5</v>
+        <v>185.75</v>
       </c>
       <c r="E504" t="s">
         <v>2109</v>
@@ -15295,7 +15295,7 @@
         <v>1</v>
       </c>
       <c r="D505">
-        <v>1125</v>
+        <v>1114.5</v>
       </c>
       <c r="E505" t="s">
         <v>2110</v>
@@ -15720,7 +15720,7 @@
         <v>68</v>
       </c>
       <c r="D530">
-        <v>256.25</v>
+        <v>253</v>
       </c>
       <c r="E530" t="s">
         <v>2109</v>
@@ -15737,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="D531">
-        <v>3075</v>
+        <v>3036</v>
       </c>
       <c r="E531" t="s">
         <v>2110</v>
@@ -15754,7 +15754,7 @@
         <v>68</v>
       </c>
       <c r="D532">
-        <v>423.25</v>
+        <v>418</v>
       </c>
       <c r="E532" t="s">
         <v>2109</v>
@@ -15771,7 +15771,7 @@
         <v>1</v>
       </c>
       <c r="D533">
-        <v>5079</v>
+        <v>5016</v>
       </c>
       <c r="E533" t="s">
         <v>2110</v>
@@ -15788,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="D534">
-        <v>604.75</v>
+        <v>597.25</v>
       </c>
       <c r="E534" t="s">
         <v>2110</v>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="D535">
-        <v>590.5</v>
+        <v>583.25</v>
       </c>
       <c r="E535" t="s">
         <v>2110</v>
@@ -15822,7 +15822,7 @@
         <v>1</v>
       </c>
       <c r="D536">
-        <v>559.25</v>
+        <v>552</v>
       </c>
       <c r="E536" t="s">
         <v>2110</v>
@@ -15839,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="D537">
-        <v>697.5</v>
+        <v>687</v>
       </c>
       <c r="E537" t="s">
         <v>2110</v>
@@ -15856,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="D538">
-        <v>778</v>
+        <v>766.5</v>
       </c>
       <c r="E538" t="s">
         <v>2110</v>
@@ -15873,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="D539">
-        <v>636.75</v>
+        <v>627.25</v>
       </c>
       <c r="E539" t="s">
         <v>2110</v>
@@ -15890,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="D540">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="E540" t="s">
         <v>2110</v>
@@ -16077,7 +16077,7 @@
         <v>68</v>
       </c>
       <c r="D551">
-        <v>419.5</v>
+        <v>414.25</v>
       </c>
       <c r="E551" t="s">
         <v>2109</v>
@@ -16094,7 +16094,7 @@
         <v>3</v>
       </c>
       <c r="D552">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="E552" t="s">
         <v>2110</v>
@@ -16111,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="D553">
-        <v>10068</v>
+        <v>9942</v>
       </c>
       <c r="E553" t="s">
         <v>2110</v>
@@ -16587,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="D581">
-        <v>633.25</v>
+        <v>627.25</v>
       </c>
       <c r="E581" t="s">
         <v>2110</v>
@@ -16791,7 +16791,7 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <v>1242.75</v>
+        <v>1234.25</v>
       </c>
       <c r="E593" t="s">
         <v>2110</v>
@@ -17267,7 +17267,7 @@
         <v>3</v>
       </c>
       <c r="D621">
-        <v>46.25</v>
+        <v>51.25</v>
       </c>
       <c r="E621" t="s">
         <v>2109</v>
@@ -17284,7 +17284,7 @@
         <v>1</v>
       </c>
       <c r="D622">
-        <v>1110</v>
+        <v>1230</v>
       </c>
       <c r="E622" t="s">
         <v>2110</v>
@@ -17301,7 +17301,7 @@
         <v>3</v>
       </c>
       <c r="D623">
-        <v>27.36992876468868</v>
+        <v>27.63965195858772</v>
       </c>
       <c r="E623" t="s">
         <v>2109</v>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
       <c r="D624">
-        <v>656.8782903525282</v>
+        <v>663.3516470061054</v>
       </c>
       <c r="E624" t="s">
         <v>2110</v>
@@ -17335,7 +17335,7 @@
         <v>3</v>
       </c>
       <c r="D625">
-        <v>27.38781361466582</v>
+        <v>27.66140118566845</v>
       </c>
       <c r="E625" t="s">
         <v>2109</v>
@@ -17352,7 +17352,7 @@
         <v>1</v>
       </c>
       <c r="D626">
-        <v>657.3075267519796</v>
+        <v>663.8736284560428</v>
       </c>
       <c r="E626" t="s">
         <v>2110</v>
@@ -17454,7 +17454,7 @@
         <v>2</v>
       </c>
       <c r="D632">
-        <v>262.5</v>
+        <v>259.75</v>
       </c>
       <c r="E632" t="s">
         <v>2110</v>
@@ -17471,7 +17471,7 @@
         <v>2</v>
       </c>
       <c r="D633">
-        <v>225.25</v>
+        <v>222.75</v>
       </c>
       <c r="E633" t="s">
         <v>2110</v>
@@ -17488,7 +17488,7 @@
         <v>2</v>
       </c>
       <c r="D634">
-        <v>191.5</v>
+        <v>189</v>
       </c>
       <c r="E634" t="s">
         <v>2110</v>
@@ -18253,7 +18253,7 @@
         <v>3</v>
       </c>
       <c r="D679">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="E679" t="s">
         <v>2109</v>
@@ -18270,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="D680">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E680" t="s">
         <v>2110</v>
@@ -18287,7 +18287,7 @@
         <v>3</v>
       </c>
       <c r="D681">
-        <v>103</v>
+        <v>101.75</v>
       </c>
       <c r="E681" t="s">
         <v>2109</v>
@@ -18304,7 +18304,7 @@
         <v>1</v>
       </c>
       <c r="D682">
-        <v>618</v>
+        <v>610.5</v>
       </c>
       <c r="E682" t="s">
         <v>2110</v>
@@ -18321,7 +18321,7 @@
         <v>3</v>
       </c>
       <c r="D683">
-        <v>51.75</v>
+        <v>51</v>
       </c>
       <c r="E683" t="s">
         <v>2109</v>
@@ -18338,7 +18338,7 @@
         <v>1</v>
       </c>
       <c r="D684">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E684" t="s">
         <v>2110</v>
@@ -18355,7 +18355,7 @@
         <v>3</v>
       </c>
       <c r="D685">
-        <v>100.75</v>
+        <v>99.25</v>
       </c>
       <c r="E685" t="s">
         <v>2109</v>
@@ -18372,7 +18372,7 @@
         <v>1</v>
       </c>
       <c r="D686">
-        <v>604.5</v>
+        <v>595.5</v>
       </c>
       <c r="E686" t="s">
         <v>2110</v>
@@ -18389,7 +18389,7 @@
         <v>3</v>
       </c>
       <c r="D687">
-        <v>50.75</v>
+        <v>50.5</v>
       </c>
       <c r="E687" t="s">
         <v>2109</v>
@@ -18406,7 +18406,7 @@
         <v>1</v>
       </c>
       <c r="D688">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E688" t="s">
         <v>2110</v>
@@ -18423,7 +18423,7 @@
         <v>3</v>
       </c>
       <c r="D689">
-        <v>55</v>
+        <v>54.25</v>
       </c>
       <c r="E689" t="s">
         <v>2109</v>
@@ -18440,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="D690">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="E690" t="s">
         <v>2110</v>
@@ -18457,7 +18457,7 @@
         <v>3</v>
       </c>
       <c r="D691">
-        <v>99.75</v>
+        <v>98</v>
       </c>
       <c r="E691" t="s">
         <v>2109</v>
@@ -18474,7 +18474,7 @@
         <v>1</v>
       </c>
       <c r="D692">
-        <v>598.5</v>
+        <v>588</v>
       </c>
       <c r="E692" t="s">
         <v>2110</v>
@@ -18491,7 +18491,7 @@
         <v>2</v>
       </c>
       <c r="D693">
-        <v>447.75</v>
+        <v>443.5</v>
       </c>
       <c r="E693" t="s">
         <v>2110</v>
@@ -19205,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="D735">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E735" t="s">
         <v>2110</v>
@@ -19222,7 +19222,7 @@
         <v>1</v>
       </c>
       <c r="D736">
-        <v>261.75</v>
+        <v>258.25</v>
       </c>
       <c r="E736" t="s">
         <v>2110</v>
@@ -19239,7 +19239,7 @@
         <v>1</v>
       </c>
       <c r="D737">
-        <v>246.75</v>
+        <v>243.5</v>
       </c>
       <c r="E737" t="s">
         <v>2110</v>
@@ -19256,7 +19256,7 @@
         <v>2</v>
       </c>
       <c r="D738">
-        <v>166.5758641632568</v>
+        <v>166.6059578727993</v>
       </c>
       <c r="E738" t="s">
         <v>2110</v>
@@ -19664,7 +19664,7 @@
         <v>2</v>
       </c>
       <c r="D762">
-        <v>95.24407513037423</v>
+        <v>95.22622946398627</v>
       </c>
       <c r="E762" t="s">
         <v>2109</v>
@@ -19681,7 +19681,7 @@
         <v>1</v>
       </c>
       <c r="D763">
-        <v>761.9526010429938</v>
+        <v>761.8098357118902</v>
       </c>
       <c r="E763" t="s">
         <v>2110</v>
@@ -19817,7 +19817,7 @@
         <v>2</v>
       </c>
       <c r="D771">
-        <v>169</v>
+        <v>169.25</v>
       </c>
       <c r="E771" t="s">
         <v>2110</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="D775">
-        <v>44.75</v>
+        <v>44.25</v>
       </c>
       <c r="E775" t="s">
         <v>2110</v>
@@ -20480,7 +20480,7 @@
         <v>1</v>
       </c>
       <c r="D810">
-        <v>187.0021276912867</v>
+        <v>183.5396357459077</v>
       </c>
       <c r="E810" t="s">
         <v>2110</v>
@@ -20497,7 +20497,7 @@
         <v>1</v>
       </c>
       <c r="D811">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E811" t="s">
         <v>2110</v>
@@ -21551,7 +21551,7 @@
         <v>1</v>
       </c>
       <c r="D873">
-        <v>244.25</v>
+        <v>240.25</v>
       </c>
       <c r="E873" t="s">
         <v>2110</v>
@@ -21585,7 +21585,7 @@
         <v>1</v>
       </c>
       <c r="D875">
-        <v>683.75</v>
+        <v>677.25</v>
       </c>
       <c r="E875" t="s">
         <v>2110</v>
@@ -21602,7 +21602,7 @@
         <v>25</v>
       </c>
       <c r="D876">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="E876" t="s">
         <v>2109</v>
@@ -21619,7 +21619,7 @@
         <v>15</v>
       </c>
       <c r="D877">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E877" t="s">
         <v>2110</v>
@@ -21636,7 +21636,7 @@
         <v>1</v>
       </c>
       <c r="D878">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E878" t="s">
         <v>2110</v>
@@ -21653,7 +21653,7 @@
         <v>25</v>
       </c>
       <c r="D879">
-        <v>42.25</v>
+        <v>41.75</v>
       </c>
       <c r="E879" t="s">
         <v>2109</v>
@@ -21670,7 +21670,7 @@
         <v>15</v>
       </c>
       <c r="D880">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E880" t="s">
         <v>2110</v>
@@ -21687,7 +21687,7 @@
         <v>1</v>
       </c>
       <c r="D881">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E881" t="s">
         <v>2110</v>
@@ -21704,7 +21704,7 @@
         <v>25</v>
       </c>
       <c r="D882">
-        <v>45</v>
+        <v>44.75</v>
       </c>
       <c r="E882" t="s">
         <v>2109</v>
@@ -21721,7 +21721,7 @@
         <v>15</v>
       </c>
       <c r="D883">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E883" t="s">
         <v>2110</v>
@@ -21738,7 +21738,7 @@
         <v>1</v>
       </c>
       <c r="D884">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E884" t="s">
         <v>2110</v>
@@ -21755,7 +21755,7 @@
         <v>25</v>
       </c>
       <c r="D885">
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
       <c r="E885" t="s">
         <v>2109</v>
@@ -21772,7 +21772,7 @@
         <v>15</v>
       </c>
       <c r="D886">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E886" t="s">
         <v>2110</v>
@@ -21789,7 +21789,7 @@
         <v>1</v>
       </c>
       <c r="D887">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E887" t="s">
         <v>2110</v>
@@ -21806,7 +21806,7 @@
         <v>25</v>
       </c>
       <c r="D888">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E888" t="s">
         <v>2109</v>
@@ -21823,7 +21823,7 @@
         <v>16</v>
       </c>
       <c r="D889">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E889" t="s">
         <v>2110</v>
@@ -21840,7 +21840,7 @@
         <v>1</v>
       </c>
       <c r="D890">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E890" t="s">
         <v>2110</v>
@@ -21857,7 +21857,7 @@
         <v>25</v>
       </c>
       <c r="D891">
-        <v>103.5</v>
+        <v>102.5</v>
       </c>
       <c r="E891" t="s">
         <v>2109</v>
@@ -21874,7 +21874,7 @@
         <v>16</v>
       </c>
       <c r="D892">
-        <v>310.5</v>
+        <v>307.5</v>
       </c>
       <c r="E892" t="s">
         <v>2110</v>
@@ -21891,7 +21891,7 @@
         <v>1</v>
       </c>
       <c r="D893">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E893" t="s">
         <v>2110</v>
@@ -21908,7 +21908,7 @@
         <v>25</v>
       </c>
       <c r="D894">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E894" t="s">
         <v>2109</v>
@@ -21925,7 +21925,7 @@
         <v>15</v>
       </c>
       <c r="D895">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E895" t="s">
         <v>2110</v>
@@ -21942,7 +21942,7 @@
         <v>1</v>
       </c>
       <c r="D896">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E896" t="s">
         <v>2110</v>
@@ -21959,7 +21959,7 @@
         <v>25</v>
       </c>
       <c r="D897">
-        <v>103.75</v>
+        <v>102.75</v>
       </c>
       <c r="E897" t="s">
         <v>2109</v>
@@ -21976,7 +21976,7 @@
         <v>15</v>
       </c>
       <c r="D898">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E898" t="s">
         <v>2110</v>
@@ -21993,7 +21993,7 @@
         <v>1</v>
       </c>
       <c r="D899">
-        <v>622.5</v>
+        <v>616.5</v>
       </c>
       <c r="E899" t="s">
         <v>2110</v>
@@ -22010,7 +22010,7 @@
         <v>25</v>
       </c>
       <c r="D900">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="E900" t="s">
         <v>2109</v>
@@ -22027,7 +22027,7 @@
         <v>15</v>
       </c>
       <c r="D901">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E901" t="s">
         <v>2110</v>
@@ -22044,7 +22044,7 @@
         <v>1</v>
       </c>
       <c r="D902">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E902" t="s">
         <v>2110</v>
@@ -22061,7 +22061,7 @@
         <v>3</v>
       </c>
       <c r="D903">
-        <v>46.25758857910963</v>
+        <v>45.3796164107691</v>
       </c>
       <c r="E903" t="s">
         <v>2109</v>
@@ -22078,7 +22078,7 @@
         <v>1</v>
       </c>
       <c r="D904">
-        <v>277.5455314746578</v>
+        <v>272.2776984646146</v>
       </c>
       <c r="E904" t="s">
         <v>2110</v>
@@ -22095,7 +22095,7 @@
         <v>3</v>
       </c>
       <c r="D905">
-        <v>46.85471328279117</v>
+        <v>46.43213845941297</v>
       </c>
       <c r="E905" t="s">
         <v>2109</v>
@@ -22112,7 +22112,7 @@
         <v>1</v>
       </c>
       <c r="D906">
-        <v>281.128279696747</v>
+        <v>278.5928307564778</v>
       </c>
       <c r="E906" t="s">
         <v>2110</v>
@@ -22129,7 +22129,7 @@
         <v>3</v>
       </c>
       <c r="D907">
-        <v>46.84659487878722</v>
+        <v>46.43997747047221</v>
       </c>
       <c r="E907" t="s">
         <v>2109</v>
@@ -22146,7 +22146,7 @@
         <v>1</v>
       </c>
       <c r="D908">
-        <v>281.0795692727233</v>
+        <v>278.6398648228333</v>
       </c>
       <c r="E908" t="s">
         <v>2110</v>
@@ -22163,7 +22163,7 @@
         <v>3</v>
       </c>
       <c r="D909">
-        <v>44</v>
+        <v>44.25</v>
       </c>
       <c r="E909" t="s">
         <v>2109</v>
@@ -22180,7 +22180,7 @@
         <v>1</v>
       </c>
       <c r="D910">
-        <v>264</v>
+        <v>265.5</v>
       </c>
       <c r="E910" t="s">
         <v>2110</v>
@@ -22197,7 +22197,7 @@
         <v>3</v>
       </c>
       <c r="D911">
-        <v>43.5</v>
+        <v>43.75</v>
       </c>
       <c r="E911" t="s">
         <v>2109</v>
@@ -22214,7 +22214,7 @@
         <v>1</v>
       </c>
       <c r="D912">
-        <v>261</v>
+        <v>262.5</v>
       </c>
       <c r="E912" t="s">
         <v>2110</v>
@@ -22231,7 +22231,7 @@
         <v>3</v>
       </c>
       <c r="D913">
-        <v>37.25</v>
+        <v>37</v>
       </c>
       <c r="E913" t="s">
         <v>2109</v>
@@ -22248,7 +22248,7 @@
         <v>1</v>
       </c>
       <c r="D914">
-        <v>260.75</v>
+        <v>259</v>
       </c>
       <c r="E914" t="s">
         <v>2110</v>
@@ -22265,7 +22265,7 @@
         <v>3</v>
       </c>
       <c r="D915">
-        <v>28.5</v>
+        <v>28.25</v>
       </c>
       <c r="E915" t="s">
         <v>2109</v>
@@ -22282,7 +22282,7 @@
         <v>1</v>
       </c>
       <c r="D916">
-        <v>199.5</v>
+        <v>197.75</v>
       </c>
       <c r="E916" t="s">
         <v>2110</v>
@@ -22367,7 +22367,7 @@
         <v>2</v>
       </c>
       <c r="D921">
-        <v>873.5</v>
+        <v>877.25</v>
       </c>
       <c r="E921" t="s">
         <v>2110</v>
@@ -22469,7 +22469,7 @@
         <v>2</v>
       </c>
       <c r="D927">
-        <v>220.75</v>
+        <v>219.5</v>
       </c>
       <c r="E927" t="s">
         <v>2110</v>
@@ -22690,7 +22690,7 @@
         <v>3</v>
       </c>
       <c r="D940">
-        <v>48.15616801391639</v>
+        <v>48.14646716864922</v>
       </c>
       <c r="E940" t="s">
         <v>2109</v>
@@ -22707,7 +22707,7 @@
         <v>1</v>
       </c>
       <c r="D941">
-        <v>481.5616801391639</v>
+        <v>481.4646716864922</v>
       </c>
       <c r="E941" t="s">
         <v>2110</v>
@@ -22843,7 +22843,7 @@
         <v>1</v>
       </c>
       <c r="D949">
-        <v>74.25</v>
+        <v>74</v>
       </c>
       <c r="E949" t="s">
         <v>2110</v>
@@ -22860,7 +22860,7 @@
         <v>1</v>
       </c>
       <c r="D950">
-        <v>138.75</v>
+        <v>137.5</v>
       </c>
       <c r="E950" t="s">
         <v>2110</v>
@@ -22877,7 +22877,7 @@
         <v>1</v>
       </c>
       <c r="D951">
-        <v>341</v>
+        <v>338.25</v>
       </c>
       <c r="E951" t="s">
         <v>2110</v>
@@ -22894,7 +22894,7 @@
         <v>1</v>
       </c>
       <c r="D952">
-        <v>416</v>
+        <v>412.25</v>
       </c>
       <c r="E952" t="s">
         <v>2110</v>
@@ -22911,7 +22911,7 @@
         <v>1</v>
       </c>
       <c r="D953">
-        <v>704.5</v>
+        <v>702.75</v>
       </c>
       <c r="E953" t="s">
         <v>2110</v>
@@ -22928,7 +22928,7 @@
         <v>1</v>
       </c>
       <c r="D954">
-        <v>345</v>
+        <v>341.5</v>
       </c>
       <c r="E954" t="s">
         <v>2110</v>
@@ -22945,7 +22945,7 @@
         <v>1</v>
       </c>
       <c r="D955">
-        <v>287.25</v>
+        <v>288.25</v>
       </c>
       <c r="E955" t="s">
         <v>2110</v>
@@ -24373,7 +24373,7 @@
         <v>2</v>
       </c>
       <c r="D1039">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E1039" t="s">
         <v>2110</v>
@@ -24390,7 +24390,7 @@
         <v>2</v>
       </c>
       <c r="D1040">
-        <v>531.25</v>
+        <v>528.75</v>
       </c>
       <c r="E1040" t="s">
         <v>2110</v>
@@ -24407,7 +24407,7 @@
         <v>2</v>
       </c>
       <c r="D1041">
-        <v>524.5</v>
+        <v>522</v>
       </c>
       <c r="E1041" t="s">
         <v>2110</v>
@@ -24424,7 +24424,7 @@
         <v>2</v>
       </c>
       <c r="D1042">
-        <v>691.25</v>
+        <v>688</v>
       </c>
       <c r="E1042" t="s">
         <v>2110</v>
@@ -24441,7 +24441,7 @@
         <v>2</v>
       </c>
       <c r="D1043">
-        <v>589.75</v>
+        <v>587</v>
       </c>
       <c r="E1043" t="s">
         <v>2110</v>
@@ -24526,7 +24526,7 @@
         <v>1</v>
       </c>
       <c r="D1048">
-        <v>286.5806754018943</v>
+        <v>286.9148131628835</v>
       </c>
       <c r="E1048" t="s">
         <v>2110</v>
@@ -24560,7 +24560,7 @@
         <v>1</v>
       </c>
       <c r="D1050">
-        <v>286.4909004281369</v>
+        <v>286.7985062616755</v>
       </c>
       <c r="E1050" t="s">
         <v>2110</v>
@@ -24577,7 +24577,7 @@
         <v>1</v>
       </c>
       <c r="D1051">
-        <v>459.75</v>
+        <v>460</v>
       </c>
       <c r="E1051" t="s">
         <v>2110</v>
@@ -24645,7 +24645,7 @@
         <v>1</v>
       </c>
       <c r="D1055">
-        <v>237.25</v>
+        <v>231.75</v>
       </c>
       <c r="E1055" t="s">
         <v>2110</v>
@@ -24679,7 +24679,7 @@
         <v>10</v>
       </c>
       <c r="D1057">
-        <v>46.91959400594724</v>
+        <v>46.5556953122576</v>
       </c>
       <c r="E1057" t="s">
         <v>2109</v>
@@ -24696,7 +24696,7 @@
         <v>1</v>
       </c>
       <c r="D1058">
-        <v>1126.070256142734</v>
+        <v>1117.336687494183</v>
       </c>
       <c r="E1058" t="s">
         <v>2110</v>
@@ -24713,7 +24713,7 @@
         <v>10</v>
       </c>
       <c r="D1059">
-        <v>48</v>
+        <v>47.75</v>
       </c>
       <c r="E1059" t="s">
         <v>2109</v>
@@ -24730,7 +24730,7 @@
         <v>1</v>
       </c>
       <c r="D1060">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E1060" t="s">
         <v>2110</v>
@@ -24747,7 +24747,7 @@
         <v>10</v>
       </c>
       <c r="D1061">
-        <v>46.90233338511811</v>
+        <v>46.53856856124353</v>
       </c>
       <c r="E1061" t="s">
         <v>2109</v>
@@ -24764,7 +24764,7 @@
         <v>1</v>
       </c>
       <c r="D1062">
-        <v>1125.656001242834</v>
+        <v>1116.925645469845</v>
       </c>
       <c r="E1062" t="s">
         <v>2110</v>
@@ -24781,7 +24781,7 @@
         <v>2</v>
       </c>
       <c r="D1063">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1063" t="s">
         <v>2109</v>
@@ -24798,7 +24798,7 @@
         <v>1</v>
       </c>
       <c r="D1064">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="E1064" t="s">
         <v>2110</v>
@@ -24900,7 +24900,7 @@
         <v>1</v>
       </c>
       <c r="D1070">
-        <v>371.75</v>
+        <v>367.25</v>
       </c>
       <c r="E1070" t="s">
         <v>2110</v>
@@ -24917,7 +24917,7 @@
         <v>1</v>
       </c>
       <c r="D1071">
-        <v>364.9347877108302</v>
+        <v>360.4520849030229</v>
       </c>
       <c r="E1071" t="s">
         <v>2110</v>
@@ -24934,7 +24934,7 @@
         <v>1</v>
       </c>
       <c r="D1072">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E1072" t="s">
         <v>2110</v>
@@ -24951,7 +24951,7 @@
         <v>1</v>
       </c>
       <c r="D1073">
-        <v>365.5741935593952</v>
+        <v>361.0836365636912</v>
       </c>
       <c r="E1073" t="s">
         <v>2110</v>
@@ -24968,7 +24968,7 @@
         <v>1</v>
       </c>
       <c r="D1074">
-        <v>94.75</v>
+        <v>93.5</v>
       </c>
       <c r="E1074" t="s">
         <v>2110</v>
@@ -24985,7 +24985,7 @@
         <v>1</v>
       </c>
       <c r="D1075">
-        <v>91.75</v>
+        <v>90.75</v>
       </c>
       <c r="E1075" t="s">
         <v>2110</v>
@@ -25002,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="D1076">
-        <v>127.412242331322</v>
+        <v>125.9113417927611</v>
       </c>
       <c r="E1076" t="s">
         <v>2110</v>
@@ -25019,7 +25019,7 @@
         <v>1</v>
       </c>
       <c r="D1077">
-        <v>127.5566531291663</v>
+        <v>126.0540514491743</v>
       </c>
       <c r="E1077" t="s">
         <v>2110</v>
@@ -25036,7 +25036,7 @@
         <v>1</v>
       </c>
       <c r="D1078">
-        <v>199.5</v>
+        <v>197</v>
       </c>
       <c r="E1078" t="s">
         <v>2110</v>
@@ -25053,7 +25053,7 @@
         <v>1</v>
       </c>
       <c r="D1079">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="E1079" t="s">
         <v>2110</v>
@@ -25070,7 +25070,7 @@
         <v>1</v>
       </c>
       <c r="D1080">
-        <v>39.5</v>
+        <v>40.75</v>
       </c>
       <c r="E1080" t="s">
         <v>2110</v>
@@ -25087,7 +25087,7 @@
         <v>1</v>
       </c>
       <c r="D1081">
-        <v>132.75</v>
+        <v>131.25</v>
       </c>
       <c r="E1081" t="s">
         <v>2110</v>
@@ -25104,7 +25104,7 @@
         <v>1</v>
       </c>
       <c r="D1082">
-        <v>127.75</v>
+        <v>126.25</v>
       </c>
       <c r="E1082" t="s">
         <v>2110</v>
@@ -25121,7 +25121,7 @@
         <v>1</v>
       </c>
       <c r="D1083">
-        <v>345.0145246963907</v>
+        <v>341.0319867992936</v>
       </c>
       <c r="E1083" t="s">
         <v>2110</v>
@@ -25138,7 +25138,7 @@
         <v>1</v>
       </c>
       <c r="D1084">
-        <v>344.6894317532209</v>
+        <v>340.7808918244762</v>
       </c>
       <c r="E1084" t="s">
         <v>2110</v>
@@ -25155,7 +25155,7 @@
         <v>1</v>
       </c>
       <c r="D1085">
-        <v>129.25</v>
+        <v>127.5</v>
       </c>
       <c r="E1085" t="s">
         <v>2110</v>
@@ -25172,7 +25172,7 @@
         <v>1</v>
       </c>
       <c r="D1086">
-        <v>132.75</v>
+        <v>131.25</v>
       </c>
       <c r="E1086" t="s">
         <v>2110</v>
@@ -25206,7 +25206,7 @@
         <v>1</v>
       </c>
       <c r="D1088">
-        <v>150.5</v>
+        <v>149.75</v>
       </c>
       <c r="E1088" t="s">
         <v>2110</v>
@@ -25665,7 +25665,7 @@
         <v>1</v>
       </c>
       <c r="D1115">
-        <v>43.25</v>
+        <v>42.75</v>
       </c>
       <c r="E1115" t="s">
         <v>2110</v>
@@ -25852,7 +25852,7 @@
         <v>3</v>
       </c>
       <c r="D1126">
-        <v>46.19468643194965</v>
+        <v>45.31790815062813</v>
       </c>
       <c r="E1126" t="s">
         <v>2109</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="D1127">
-        <v>277.1681185916979</v>
+        <v>271.9074489037688</v>
       </c>
       <c r="E1127" t="s">
         <v>2110</v>
@@ -25886,7 +25886,7 @@
         <v>3</v>
       </c>
       <c r="D1128">
-        <v>46.10300299600819</v>
+        <v>45.22796487251865</v>
       </c>
       <c r="E1128" t="s">
         <v>2109</v>
@@ -25903,7 +25903,7 @@
         <v>1</v>
       </c>
       <c r="D1129">
-        <v>276.6180179760491</v>
+        <v>271.3677892351119</v>
       </c>
       <c r="E1129" t="s">
         <v>2110</v>
@@ -25937,7 +25937,7 @@
         <v>2</v>
       </c>
       <c r="D1131">
-        <v>102.1551339837271</v>
+        <v>99.2650310174147</v>
       </c>
       <c r="E1131" t="s">
         <v>2110</v>
@@ -25954,7 +25954,7 @@
         <v>2</v>
       </c>
       <c r="D1132">
-        <v>102.1551339838525</v>
+        <v>99.26503101808389</v>
       </c>
       <c r="E1132" t="s">
         <v>2110</v>
@@ -25971,7 +25971,7 @@
         <v>2</v>
       </c>
       <c r="D1133">
-        <v>102.1551339838162</v>
+        <v>102.2164575272445</v>
       </c>
       <c r="E1133" t="s">
         <v>2110</v>
@@ -26073,7 +26073,7 @@
         <v>2</v>
       </c>
       <c r="D1139">
-        <v>295.5</v>
+        <v>301.75</v>
       </c>
       <c r="E1139" t="s">
         <v>2110</v>
@@ -26379,7 +26379,7 @@
         <v>2</v>
       </c>
       <c r="D1157">
-        <v>45.05969401620161</v>
+        <v>44.46163189176423</v>
       </c>
       <c r="E1157" t="s">
         <v>2109</v>
@@ -26396,7 +26396,7 @@
         <v>1</v>
       </c>
       <c r="D1158">
-        <v>540.7163281944194</v>
+        <v>533.5395827011708</v>
       </c>
       <c r="E1158" t="s">
         <v>2110</v>
@@ -26413,7 +26413,7 @@
         <v>2</v>
       </c>
       <c r="D1159">
-        <v>46.5</v>
+        <v>45.75</v>
       </c>
       <c r="E1159" t="s">
         <v>2109</v>
@@ -26430,7 +26430,7 @@
         <v>1</v>
       </c>
       <c r="D1160">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E1160" t="s">
         <v>2110</v>
@@ -26447,7 +26447,7 @@
         <v>2</v>
       </c>
       <c r="D1161">
-        <v>44.75</v>
+        <v>44</v>
       </c>
       <c r="E1161" t="s">
         <v>2109</v>
@@ -26464,7 +26464,7 @@
         <v>1</v>
       </c>
       <c r="D1162">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E1162" t="s">
         <v>2110</v>
@@ -26481,7 +26481,7 @@
         <v>2</v>
       </c>
       <c r="D1163">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="E1163" t="s">
         <v>2109</v>
@@ -26498,7 +26498,7 @@
         <v>1</v>
       </c>
       <c r="D1164">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E1164" t="s">
         <v>2110</v>
@@ -26515,7 +26515,7 @@
         <v>2</v>
       </c>
       <c r="D1165">
-        <v>45.04230648555935</v>
+        <v>44.44447513995307</v>
       </c>
       <c r="E1165" t="s">
         <v>2109</v>
@@ -26532,7 +26532,7 @@
         <v>1</v>
       </c>
       <c r="D1166">
-        <v>540.5076778267122</v>
+        <v>533.3337016794369</v>
       </c>
       <c r="E1166" t="s">
         <v>2110</v>
@@ -26549,7 +26549,7 @@
         <v>2</v>
       </c>
       <c r="D1167">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E1167" t="s">
         <v>2109</v>
@@ -26566,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="D1168">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E1168" t="s">
         <v>2110</v>
@@ -26583,7 +26583,7 @@
         <v>2</v>
       </c>
       <c r="D1169">
-        <v>41</v>
+        <v>40.25</v>
       </c>
       <c r="E1169" t="s">
         <v>2109</v>
@@ -26600,7 +26600,7 @@
         <v>1</v>
       </c>
       <c r="D1170">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E1170" t="s">
         <v>2110</v>
@@ -26617,7 +26617,7 @@
         <v>2</v>
       </c>
       <c r="D1171">
-        <v>39.25</v>
+        <v>38.5</v>
       </c>
       <c r="E1171" t="s">
         <v>2109</v>
@@ -26634,7 +26634,7 @@
         <v>1</v>
       </c>
       <c r="D1172">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E1172" t="s">
         <v>2110</v>
@@ -26651,7 +26651,7 @@
         <v>2</v>
       </c>
       <c r="D1173">
-        <v>38.75</v>
+        <v>38.25</v>
       </c>
       <c r="E1173" t="s">
         <v>2109</v>
@@ -26668,7 +26668,7 @@
         <v>1</v>
       </c>
       <c r="D1174">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E1174" t="s">
         <v>2110</v>
@@ -26685,7 +26685,7 @@
         <v>2</v>
       </c>
       <c r="D1175">
-        <v>45</v>
+        <v>44.5</v>
       </c>
       <c r="E1175" t="s">
         <v>2109</v>
@@ -26702,7 +26702,7 @@
         <v>1</v>
       </c>
       <c r="D1176">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E1176" t="s">
         <v>2110</v>
@@ -26719,7 +26719,7 @@
         <v>2</v>
       </c>
       <c r="D1177">
-        <v>44.75</v>
+        <v>44.25</v>
       </c>
       <c r="E1177" t="s">
         <v>2109</v>
@@ -26736,7 +26736,7 @@
         <v>1</v>
       </c>
       <c r="D1178">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E1178" t="s">
         <v>2110</v>
@@ -26957,7 +26957,7 @@
         <v>2</v>
       </c>
       <c r="D1191">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="E1191" t="s">
         <v>2109</v>
@@ -26974,7 +26974,7 @@
         <v>1</v>
       </c>
       <c r="D1192">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E1192" t="s">
         <v>2110</v>
@@ -26991,7 +26991,7 @@
         <v>2</v>
       </c>
       <c r="D1193">
-        <v>33.25</v>
+        <v>32.75</v>
       </c>
       <c r="E1193" t="s">
         <v>2109</v>
@@ -27008,7 +27008,7 @@
         <v>1</v>
       </c>
       <c r="D1194">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E1194" t="s">
         <v>2110</v>
@@ -27025,7 +27025,7 @@
         <v>2</v>
       </c>
       <c r="D1195">
-        <v>32.75</v>
+        <v>32.25</v>
       </c>
       <c r="E1195" t="s">
         <v>2109</v>
@@ -27042,7 +27042,7 @@
         <v>1</v>
       </c>
       <c r="D1196">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E1196" t="s">
         <v>2110</v>
@@ -27059,7 +27059,7 @@
         <v>2</v>
       </c>
       <c r="D1197">
-        <v>32.75</v>
+        <v>32.25</v>
       </c>
       <c r="E1197" t="s">
         <v>2109</v>
@@ -27076,7 +27076,7 @@
         <v>1</v>
       </c>
       <c r="D1198">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E1198" t="s">
         <v>2110</v>
@@ -27093,7 +27093,7 @@
         <v>2</v>
       </c>
       <c r="D1199">
-        <v>32</v>
+        <v>31.75</v>
       </c>
       <c r="E1199" t="s">
         <v>2109</v>
@@ -27110,7 +27110,7 @@
         <v>1</v>
       </c>
       <c r="D1200">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E1200" t="s">
         <v>2110</v>
@@ -27127,7 +27127,7 @@
         <v>2</v>
       </c>
       <c r="D1201">
-        <v>32.15998370972911</v>
+        <v>31.83818179719555</v>
       </c>
       <c r="E1201" t="s">
         <v>2109</v>
@@ -27144,7 +27144,7 @@
         <v>1</v>
       </c>
       <c r="D1202">
-        <v>385.9198045167493</v>
+        <v>382.0581815663467</v>
       </c>
       <c r="E1202" t="s">
         <v>2110</v>
@@ -27161,7 +27161,7 @@
         <v>2</v>
       </c>
       <c r="D1203">
-        <v>32.09780795637427</v>
+        <v>31.77662819205208</v>
       </c>
       <c r="E1203" t="s">
         <v>2109</v>
@@ -27178,7 +27178,7 @@
         <v>1</v>
       </c>
       <c r="D1204">
-        <v>385.1736954764912</v>
+        <v>381.319538304625</v>
       </c>
       <c r="E1204" t="s">
         <v>2110</v>
@@ -27569,7 +27569,7 @@
         <v>1</v>
       </c>
       <c r="D1227">
-        <v>53</v>
+        <v>52.25</v>
       </c>
       <c r="E1227" t="s">
         <v>2110</v>
@@ -27586,7 +27586,7 @@
         <v>1</v>
       </c>
       <c r="D1228">
-        <v>63.65499051004797</v>
+        <v>63.01828074377332</v>
       </c>
       <c r="E1228" t="s">
         <v>2110</v>
@@ -27603,7 +27603,7 @@
         <v>1</v>
       </c>
       <c r="D1229">
-        <v>64.32931656849789</v>
+        <v>63.33862972392003</v>
       </c>
       <c r="E1229" t="s">
         <v>2110</v>
@@ -27620,7 +27620,7 @@
         <v>1</v>
       </c>
       <c r="D1230">
-        <v>90.63896895255783</v>
+        <v>89.61120000296044</v>
       </c>
       <c r="E1230" t="s">
         <v>2110</v>
@@ -27637,7 +27637,7 @@
         <v>1</v>
       </c>
       <c r="D1231">
-        <v>91.62061999853886</v>
+        <v>90.20964056075842</v>
       </c>
       <c r="E1231" t="s">
         <v>2110</v>
@@ -28674,7 +28674,7 @@
         <v>3</v>
       </c>
       <c r="D1292">
-        <v>111</v>
+        <v>110.75</v>
       </c>
       <c r="E1292" t="s">
         <v>2109</v>
@@ -28691,7 +28691,7 @@
         <v>1</v>
       </c>
       <c r="D1293">
-        <v>666</v>
+        <v>664.5</v>
       </c>
       <c r="E1293" t="s">
         <v>2110</v>
@@ -28708,7 +28708,7 @@
         <v>3</v>
       </c>
       <c r="D1294">
-        <v>108.25</v>
+        <v>107.5</v>
       </c>
       <c r="E1294" t="s">
         <v>2109</v>
@@ -28725,7 +28725,7 @@
         <v>1</v>
       </c>
       <c r="D1295">
-        <v>649.5</v>
+        <v>645</v>
       </c>
       <c r="E1295" t="s">
         <v>2110</v>
@@ -28742,7 +28742,7 @@
         <v>3</v>
       </c>
       <c r="D1296">
-        <v>53.77864507215349</v>
+        <v>52.96915692699482</v>
       </c>
       <c r="E1296" t="s">
         <v>2109</v>
@@ -28759,7 +28759,7 @@
         <v>1</v>
       </c>
       <c r="D1297">
-        <v>645.3437408658418</v>
+        <v>635.6298831239378</v>
       </c>
       <c r="E1297" t="s">
         <v>2110</v>
@@ -28776,7 +28776,7 @@
         <v>3</v>
       </c>
       <c r="D1298">
-        <v>53.25</v>
+        <v>52.5</v>
       </c>
       <c r="E1298" t="s">
         <v>2109</v>
@@ -28793,7 +28793,7 @@
         <v>1</v>
       </c>
       <c r="D1299">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E1299" t="s">
         <v>2110</v>
@@ -28810,7 +28810,7 @@
         <v>3</v>
       </c>
       <c r="D1300">
-        <v>53.5</v>
+        <v>52.5</v>
       </c>
       <c r="E1300" t="s">
         <v>2109</v>
@@ -28827,7 +28827,7 @@
         <v>1</v>
       </c>
       <c r="D1301">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="E1301" t="s">
         <v>2110</v>
@@ -28844,7 +28844,7 @@
         <v>3</v>
       </c>
       <c r="D1302">
-        <v>53.77538046545303</v>
+        <v>52.99289709013525</v>
       </c>
       <c r="E1302" t="s">
         <v>2109</v>
@@ -28861,7 +28861,7 @@
         <v>1</v>
       </c>
       <c r="D1303">
-        <v>645.3045655854363</v>
+        <v>635.914765081623</v>
       </c>
       <c r="E1303" t="s">
         <v>2110</v>
@@ -28878,7 +28878,7 @@
         <v>21</v>
       </c>
       <c r="D1304">
-        <v>148.5</v>
+        <v>144.75</v>
       </c>
       <c r="E1304" t="s">
         <v>2109</v>
@@ -28895,7 +28895,7 @@
         <v>1</v>
       </c>
       <c r="D1305">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="E1305" t="s">
         <v>2110</v>
@@ -29082,7 +29082,7 @@
         <v>2</v>
       </c>
       <c r="D1316">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E1316" t="s">
         <v>2109</v>
@@ -29099,7 +29099,7 @@
         <v>1</v>
       </c>
       <c r="D1317">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E1317" t="s">
         <v>2110</v>
@@ -29116,7 +29116,7 @@
         <v>3</v>
       </c>
       <c r="D1318">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1318" t="s">
         <v>2109</v>
@@ -29133,7 +29133,7 @@
         <v>1</v>
       </c>
       <c r="D1319">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E1319" t="s">
         <v>2110</v>
@@ -29388,7 +29388,7 @@
         <v>3</v>
       </c>
       <c r="D1334">
-        <v>16.54224670937089</v>
+        <v>16.06812502741299</v>
       </c>
       <c r="E1334" t="s">
         <v>2109</v>
@@ -29405,7 +29405,7 @@
         <v>1</v>
       </c>
       <c r="D1335">
-        <v>330.8449341874177</v>
+        <v>321.3625005482598</v>
       </c>
       <c r="E1335" t="s">
         <v>2110</v>
@@ -29422,7 +29422,7 @@
         <v>3</v>
       </c>
       <c r="D1336">
-        <v>15.25</v>
+        <v>15</v>
       </c>
       <c r="E1336" t="s">
         <v>2109</v>
@@ -29439,7 +29439,7 @@
         <v>1</v>
       </c>
       <c r="D1337">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E1337" t="s">
         <v>2110</v>
@@ -29456,7 +29456,7 @@
         <v>3</v>
       </c>
       <c r="D1338">
-        <v>16.53228276470107</v>
+        <v>16.0481897545229</v>
       </c>
       <c r="E1338" t="s">
         <v>2109</v>
@@ -29473,7 +29473,7 @@
         <v>1</v>
       </c>
       <c r="D1339">
-        <v>330.6456552940215</v>
+        <v>320.9637950904579</v>
       </c>
       <c r="E1339" t="s">
         <v>2110</v>
@@ -29643,7 +29643,7 @@
         <v>3</v>
       </c>
       <c r="D1349">
-        <v>176.0515374807029</v>
+        <v>175.6035691919479</v>
       </c>
       <c r="E1349" t="s">
         <v>2109</v>
@@ -29660,7 +29660,7 @@
         <v>1</v>
       </c>
       <c r="D1350">
-        <v>1056.309224884217</v>
+        <v>1053.621415151688</v>
       </c>
       <c r="E1350" t="s">
         <v>2110</v>
@@ -29677,7 +29677,7 @@
         <v>3</v>
       </c>
       <c r="D1351">
-        <v>170</v>
+        <v>169.5</v>
       </c>
       <c r="E1351" t="s">
         <v>2109</v>
@@ -29694,7 +29694,7 @@
         <v>1</v>
       </c>
       <c r="D1352">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E1352" t="s">
         <v>2110</v>
@@ -29711,7 +29711,7 @@
         <v>3</v>
       </c>
       <c r="D1353">
-        <v>176.1472873025307</v>
+        <v>175.8860922828255</v>
       </c>
       <c r="E1353" t="s">
         <v>2109</v>
@@ -29728,7 +29728,7 @@
         <v>1</v>
       </c>
       <c r="D1354">
-        <v>1056.883723815184</v>
+        <v>1055.316553696953</v>
       </c>
       <c r="E1354" t="s">
         <v>2110</v>
@@ -29745,7 +29745,7 @@
         <v>3</v>
       </c>
       <c r="D1355">
-        <v>176.0018225553137</v>
+        <v>175.5539807676411</v>
       </c>
       <c r="E1355" t="s">
         <v>2109</v>
@@ -29762,7 +29762,7 @@
         <v>1</v>
       </c>
       <c r="D1356">
-        <v>1056.010935331882</v>
+        <v>1053.323884605847</v>
       </c>
       <c r="E1356" t="s">
         <v>2110</v>
@@ -29779,7 +29779,7 @@
         <v>3</v>
       </c>
       <c r="D1357">
-        <v>177.7474397125861</v>
+        <v>175.7481813151402</v>
       </c>
       <c r="E1357" t="s">
         <v>2109</v>
@@ -29796,7 +29796,7 @@
         <v>1</v>
       </c>
       <c r="D1358">
-        <v>1066.484638275516</v>
+        <v>1054.489087890841</v>
       </c>
       <c r="E1358" t="s">
         <v>2110</v>
@@ -29813,7 +29813,7 @@
         <v>3</v>
       </c>
       <c r="D1359">
-        <v>238.5</v>
+        <v>235.75</v>
       </c>
       <c r="E1359" t="s">
         <v>2109</v>
@@ -29830,7 +29830,7 @@
         <v>1</v>
       </c>
       <c r="D1360">
-        <v>1431</v>
+        <v>1414.5</v>
       </c>
       <c r="E1360" t="s">
         <v>2110</v>
@@ -29847,7 +29847,7 @@
         <v>3</v>
       </c>
       <c r="D1361">
-        <v>177.25</v>
+        <v>175.25</v>
       </c>
       <c r="E1361" t="s">
         <v>2109</v>
@@ -29864,7 +29864,7 @@
         <v>1</v>
       </c>
       <c r="D1362">
-        <v>1063.5</v>
+        <v>1051.5</v>
       </c>
       <c r="E1362" t="s">
         <v>2110</v>
@@ -29881,7 +29881,7 @@
         <v>3</v>
       </c>
       <c r="D1363">
-        <v>222.5</v>
+        <v>220</v>
       </c>
       <c r="E1363" t="s">
         <v>2109</v>
@@ -29898,7 +29898,7 @@
         <v>1</v>
       </c>
       <c r="D1364">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="E1364" t="s">
         <v>2110</v>
@@ -29915,7 +29915,7 @@
         <v>3</v>
       </c>
       <c r="D1365">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1365" t="s">
         <v>2109</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="D1366">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="E1366" t="s">
         <v>2110</v>
@@ -29949,7 +29949,7 @@
         <v>3</v>
       </c>
       <c r="D1367">
-        <v>177.906540350334</v>
+        <v>175.9054924290189</v>
       </c>
       <c r="E1367" t="s">
         <v>2109</v>
@@ -29966,7 +29966,7 @@
         <v>1</v>
       </c>
       <c r="D1368">
-        <v>1067.439242102004</v>
+        <v>1055.432954574113</v>
       </c>
       <c r="E1368" t="s">
         <v>2110</v>
@@ -29983,7 +29983,7 @@
         <v>3</v>
       </c>
       <c r="D1369">
-        <v>178.4995036801861</v>
+        <v>176.4917862568039</v>
       </c>
       <c r="E1369" t="s">
         <v>2109</v>
@@ -30000,7 +30000,7 @@
         <v>1</v>
       </c>
       <c r="D1370">
-        <v>1070.997022081116</v>
+        <v>1058.950717540823</v>
       </c>
       <c r="E1370" t="s">
         <v>2110</v>
@@ -30017,7 +30017,7 @@
         <v>3</v>
       </c>
       <c r="D1371">
-        <v>176.1310354774929</v>
+        <v>175.7800125098304</v>
       </c>
       <c r="E1371" t="s">
         <v>2109</v>
@@ -30034,7 +30034,7 @@
         <v>1</v>
       </c>
       <c r="D1372">
-        <v>1056.786212864957</v>
+        <v>1054.680075058982</v>
       </c>
       <c r="E1372" t="s">
         <v>2110</v>
@@ -30255,7 +30255,7 @@
         <v>3</v>
       </c>
       <c r="D1385">
-        <v>47.75</v>
+        <v>47</v>
       </c>
       <c r="E1385" t="s">
         <v>2109</v>
@@ -30272,7 +30272,7 @@
         <v>1</v>
       </c>
       <c r="D1386">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="E1386" t="s">
         <v>2110</v>
@@ -30289,7 +30289,7 @@
         <v>3</v>
       </c>
       <c r="D1387">
-        <v>23.61139144550467</v>
+        <v>23.09447258089995</v>
       </c>
       <c r="E1387" t="s">
         <v>2109</v>
@@ -30306,7 +30306,7 @@
         <v>1</v>
       </c>
       <c r="D1388">
-        <v>283.336697346056</v>
+        <v>277.1336709707994</v>
       </c>
       <c r="E1388" t="s">
         <v>2110</v>
@@ -30323,7 +30323,7 @@
         <v>3</v>
       </c>
       <c r="D1389">
-        <v>23.61079533205772</v>
+        <v>23.09391750816442</v>
       </c>
       <c r="E1389" t="s">
         <v>2109</v>
@@ -30340,7 +30340,7 @@
         <v>1</v>
       </c>
       <c r="D1390">
-        <v>283.3295439846927</v>
+        <v>277.1270100979731</v>
       </c>
       <c r="E1390" t="s">
         <v>2110</v>
@@ -30357,7 +30357,7 @@
         <v>3</v>
       </c>
       <c r="D1391">
-        <v>166</v>
+        <v>162.25</v>
       </c>
       <c r="E1391" t="s">
         <v>2109</v>
@@ -30374,7 +30374,7 @@
         <v>1</v>
       </c>
       <c r="D1392">
-        <v>996</v>
+        <v>973.5</v>
       </c>
       <c r="E1392" t="s">
         <v>2110</v>
@@ -30391,7 +30391,7 @@
         <v>3</v>
       </c>
       <c r="D1393">
-        <v>46.67666911380793</v>
+        <v>45.67147270137204</v>
       </c>
       <c r="E1393" t="s">
         <v>2109</v>
@@ -30408,7 +30408,7 @@
         <v>1</v>
       </c>
       <c r="D1394">
-        <v>560.1200293656951</v>
+        <v>548.0576724164645</v>
       </c>
       <c r="E1394" t="s">
         <v>2110</v>
@@ -30425,7 +30425,7 @@
         <v>3</v>
       </c>
       <c r="D1395">
-        <v>189.5</v>
+        <v>184.75</v>
       </c>
       <c r="E1395" t="s">
         <v>2110</v>
@@ -30442,7 +30442,7 @@
         <v>3</v>
       </c>
       <c r="D1396">
-        <v>95.75</v>
+        <v>93.75</v>
       </c>
       <c r="E1396" t="s">
         <v>2109</v>
@@ -30459,7 +30459,7 @@
         <v>1</v>
       </c>
       <c r="D1397">
-        <v>1149</v>
+        <v>1125</v>
       </c>
       <c r="E1397" t="s">
         <v>2110</v>
@@ -30476,7 +30476,7 @@
         <v>3</v>
       </c>
       <c r="D1398">
-        <v>47.62650060521362</v>
+        <v>46.58382285704933</v>
       </c>
       <c r="E1398" t="s">
         <v>2109</v>
@@ -30493,7 +30493,7 @@
         <v>1</v>
       </c>
       <c r="D1399">
-        <v>571.5180072625635</v>
+        <v>559.005874284592</v>
       </c>
       <c r="E1399" t="s">
         <v>2110</v>
@@ -30510,7 +30510,7 @@
         <v>3</v>
       </c>
       <c r="D1400">
-        <v>47.62651046936251</v>
+        <v>46.58383235639838</v>
       </c>
       <c r="E1400" t="s">
         <v>2109</v>
@@ -30527,7 +30527,7 @@
         <v>1</v>
       </c>
       <c r="D1401">
-        <v>571.5181256323501</v>
+        <v>559.0059882767806</v>
       </c>
       <c r="E1401" t="s">
         <v>2110</v>
@@ -30544,7 +30544,7 @@
         <v>3</v>
       </c>
       <c r="D1402">
-        <v>94.5</v>
+        <v>92.5</v>
       </c>
       <c r="E1402" t="s">
         <v>2109</v>
@@ -30561,7 +30561,7 @@
         <v>1</v>
       </c>
       <c r="D1403">
-        <v>1134</v>
+        <v>1110</v>
       </c>
       <c r="E1403" t="s">
         <v>2110</v>
@@ -30578,7 +30578,7 @@
         <v>3</v>
       </c>
       <c r="D1404">
-        <v>48.19704996132777</v>
+        <v>46.8022021559764</v>
       </c>
       <c r="E1404" t="s">
         <v>2109</v>
@@ -30595,7 +30595,7 @@
         <v>1</v>
       </c>
       <c r="D1405">
-        <v>578.3645995359333</v>
+        <v>561.6264258717168</v>
       </c>
       <c r="E1405" t="s">
         <v>2110</v>
@@ -30612,7 +30612,7 @@
         <v>3</v>
       </c>
       <c r="D1406">
-        <v>48.18580615148978</v>
+        <v>46.7912837478692</v>
       </c>
       <c r="E1406" t="s">
         <v>2109</v>
@@ -30629,7 +30629,7 @@
         <v>1</v>
       </c>
       <c r="D1407">
-        <v>578.2296738178774</v>
+        <v>561.4954049744304</v>
       </c>
       <c r="E1407" t="s">
         <v>2110</v>
@@ -30646,7 +30646,7 @@
         <v>3</v>
       </c>
       <c r="D1408">
-        <v>46</v>
+        <v>45.25</v>
       </c>
       <c r="E1408" t="s">
         <v>2109</v>
@@ -30663,7 +30663,7 @@
         <v>1</v>
       </c>
       <c r="D1409">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E1409" t="s">
         <v>2110</v>
@@ -30680,7 +30680,7 @@
         <v>3</v>
       </c>
       <c r="D1410">
-        <v>187.75</v>
+        <v>186</v>
       </c>
       <c r="E1410" t="s">
         <v>2109</v>
@@ -30697,7 +30697,7 @@
         <v>1</v>
       </c>
       <c r="D1411">
-        <v>1126.5</v>
+        <v>1116</v>
       </c>
       <c r="E1411" t="s">
         <v>2110</v>
@@ -31156,7 +31156,7 @@
         <v>7</v>
       </c>
       <c r="D1438">
-        <v>158.25</v>
+        <v>156.25</v>
       </c>
       <c r="E1438" t="s">
         <v>2109</v>
@@ -31173,7 +31173,7 @@
         <v>1</v>
       </c>
       <c r="D1439">
-        <v>1899</v>
+        <v>1875</v>
       </c>
       <c r="E1439" t="s">
         <v>2110</v>
@@ -31972,7 +31972,7 @@
         <v>1</v>
       </c>
       <c r="D1486">
-        <v>767.8856768524652</v>
+        <v>768.0831069084862</v>
       </c>
       <c r="E1486" t="s">
         <v>2110</v>
@@ -31989,7 +31989,7 @@
         <v>1</v>
       </c>
       <c r="D1487">
-        <v>766.6622677911702</v>
+        <v>767.2644385912843</v>
       </c>
       <c r="E1487" t="s">
         <v>2110</v>
@@ -32006,7 +32006,7 @@
         <v>1</v>
       </c>
       <c r="D1488">
-        <v>763.7348519212482</v>
+        <v>763.9938993286071</v>
       </c>
       <c r="E1488" t="s">
         <v>2110</v>
@@ -32040,7 +32040,7 @@
         <v>431</v>
       </c>
       <c r="D1490">
-        <v>31.5</v>
+        <v>31.25</v>
       </c>
       <c r="E1490" t="s">
         <v>2109</v>
@@ -32057,7 +32057,7 @@
         <v>2</v>
       </c>
       <c r="D1491">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E1491" t="s">
         <v>2110</v>
@@ -32737,7 +32737,7 @@
         <v>2</v>
       </c>
       <c r="D1531">
-        <v>197.2379282358366</v>
+        <v>196.3086271932694</v>
       </c>
       <c r="E1531" t="s">
         <v>2109</v>
@@ -32754,7 +32754,7 @@
         <v>1</v>
       </c>
       <c r="D1532">
-        <v>1577.903425886693</v>
+        <v>1570.469017546155</v>
       </c>
       <c r="E1532" t="s">
         <v>2110</v>
@@ -32771,7 +32771,7 @@
         <v>2</v>
       </c>
       <c r="D1533">
-        <v>196.2951211637325</v>
+        <v>195.3139371570563</v>
       </c>
       <c r="E1533" t="s">
         <v>2109</v>
@@ -32788,7 +32788,7 @@
         <v>1</v>
       </c>
       <c r="D1534">
-        <v>1570.36096930986</v>
+        <v>1562.51149725645</v>
       </c>
       <c r="E1534" t="s">
         <v>2110</v>
@@ -32805,7 +32805,7 @@
         <v>2</v>
       </c>
       <c r="D1535">
-        <v>196.7315127471337</v>
+        <v>195.7481474308062</v>
       </c>
       <c r="E1535" t="s">
         <v>2109</v>
@@ -32822,7 +32822,7 @@
         <v>1</v>
       </c>
       <c r="D1536">
-        <v>1573.852101977069</v>
+        <v>1565.98517944645</v>
       </c>
       <c r="E1536" t="s">
         <v>2110</v>
@@ -32839,7 +32839,7 @@
         <v>2</v>
       </c>
       <c r="D1537">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E1537" t="s">
         <v>2109</v>
@@ -32856,7 +32856,7 @@
         <v>1</v>
       </c>
       <c r="D1538">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="E1538" t="s">
         <v>2110</v>
@@ -32890,7 +32890,7 @@
         <v>29</v>
       </c>
       <c r="D1540">
-        <v>461.5</v>
+        <v>461.25</v>
       </c>
       <c r="E1540" t="s">
         <v>2110</v>
@@ -32907,7 +32907,7 @@
         <v>23</v>
       </c>
       <c r="D1541">
-        <v>124.9942765189542</v>
+        <v>124.3472967473611</v>
       </c>
       <c r="E1541" t="s">
         <v>2109</v>
@@ -32924,7 +32924,7 @@
         <v>1</v>
       </c>
       <c r="D1542">
-        <v>2999.8626364549</v>
+        <v>2984.335121936665</v>
       </c>
       <c r="E1542" t="s">
         <v>2110</v>
@@ -32941,7 +32941,7 @@
         <v>10</v>
       </c>
       <c r="D1543">
-        <v>125.033716350831</v>
+        <v>124.5979742598888</v>
       </c>
       <c r="E1543" t="s">
         <v>2109</v>
@@ -32958,7 +32958,7 @@
         <v>1</v>
       </c>
       <c r="D1544">
-        <v>3000.809192419943</v>
+        <v>2990.351382237331</v>
       </c>
       <c r="E1544" t="s">
         <v>2110</v>
@@ -32975,7 +32975,7 @@
         <v>10</v>
       </c>
       <c r="D1545">
-        <v>125.0199085993718</v>
+        <v>124.5101160152188</v>
       </c>
       <c r="E1545" t="s">
         <v>2109</v>
@@ -32992,7 +32992,7 @@
         <v>1</v>
       </c>
       <c r="D1546">
-        <v>3000.477806384923</v>
+        <v>2988.242784365251</v>
       </c>
       <c r="E1546" t="s">
         <v>2110</v>
@@ -33621,7 +33621,7 @@
         <v>2</v>
       </c>
       <c r="D1583">
-        <v>73.75</v>
+        <v>73</v>
       </c>
       <c r="E1583" t="s">
         <v>2109</v>
@@ -33638,7 +33638,7 @@
         <v>1</v>
       </c>
       <c r="D1584">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E1584" t="s">
         <v>2110</v>
@@ -33808,7 +33808,7 @@
         <v>25</v>
       </c>
       <c r="D1594">
-        <v>341</v>
+        <v>341.25</v>
       </c>
       <c r="E1594" t="s">
         <v>2109</v>
@@ -33825,7 +33825,7 @@
         <v>29</v>
       </c>
       <c r="D1595">
-        <v>682</v>
+        <v>682.5</v>
       </c>
       <c r="E1595" t="s">
         <v>2110</v>
@@ -34726,7 +34726,7 @@
         <v>3</v>
       </c>
       <c r="D1648">
-        <v>48.26046799058368</v>
+        <v>48.25229849411053</v>
       </c>
       <c r="E1648" t="s">
         <v>2109</v>
@@ -34743,7 +34743,7 @@
         <v>1</v>
       </c>
       <c r="D1649">
-        <v>482.6046799058367</v>
+        <v>482.5229849411053</v>
       </c>
       <c r="E1649" t="s">
         <v>2110</v>
@@ -34896,7 +34896,7 @@
         <v>2</v>
       </c>
       <c r="D1658">
-        <v>305.25</v>
+        <v>303.75</v>
       </c>
       <c r="E1658" t="s">
         <v>2110</v>
@@ -34913,7 +34913,7 @@
         <v>2</v>
       </c>
       <c r="D1659">
-        <v>305</v>
+        <v>303.5</v>
       </c>
       <c r="E1659" t="s">
         <v>2110</v>
@@ -34981,7 +34981,7 @@
         <v>2</v>
       </c>
       <c r="D1663">
-        <v>250</v>
+        <v>249.5</v>
       </c>
       <c r="E1663" t="s">
         <v>2110</v>
@@ -35168,7 +35168,7 @@
         <v>23</v>
       </c>
       <c r="D1674">
-        <v>39.64887656932667</v>
+        <v>39.98591300284805</v>
       </c>
       <c r="E1674" t="s">
         <v>2109</v>
@@ -35185,7 +35185,7 @@
         <v>1</v>
       </c>
       <c r="D1675">
-        <v>475.78651883192</v>
+        <v>479.8309560341766</v>
       </c>
       <c r="E1675" t="s">
         <v>2110</v>
@@ -35202,7 +35202,7 @@
         <v>23</v>
       </c>
       <c r="D1676">
-        <v>39.78646605869811</v>
+        <v>40.10958612075471</v>
       </c>
       <c r="E1676" t="s">
         <v>2109</v>
@@ -35219,7 +35219,7 @@
         <v>1</v>
       </c>
       <c r="D1677">
-        <v>477.4375927043773</v>
+        <v>481.3150334490566</v>
       </c>
       <c r="E1677" t="s">
         <v>2110</v>
@@ -35236,7 +35236,7 @@
         <v>23</v>
       </c>
       <c r="D1678">
-        <v>39.68330777121462</v>
+        <v>40.05487790231965</v>
       </c>
       <c r="E1678" t="s">
         <v>2109</v>
@@ -35253,7 +35253,7 @@
         <v>1</v>
       </c>
       <c r="D1679">
-        <v>476.1996932545754</v>
+        <v>480.6585348278358</v>
       </c>
       <c r="E1679" t="s">
         <v>2110</v>
@@ -35338,7 +35338,7 @@
         <v>2</v>
       </c>
       <c r="D1684">
-        <v>406.75</v>
+        <v>402.75</v>
       </c>
       <c r="E1684" t="s">
         <v>2110</v>
@@ -35355,7 +35355,7 @@
         <v>2</v>
       </c>
       <c r="D1685">
-        <v>406.75</v>
+        <v>402.75</v>
       </c>
       <c r="E1685" t="s">
         <v>2110</v>
@@ -35372,7 +35372,7 @@
         <v>2</v>
       </c>
       <c r="D1686">
-        <v>321.25</v>
+        <v>320.5</v>
       </c>
       <c r="E1686" t="s">
         <v>2110</v>
@@ -35389,7 +35389,7 @@
         <v>2</v>
       </c>
       <c r="D1687">
-        <v>287.75</v>
+        <v>287</v>
       </c>
       <c r="E1687" t="s">
         <v>2110</v>
@@ -36511,7 +36511,7 @@
         <v>1</v>
       </c>
       <c r="D1753">
-        <v>659.5</v>
+        <v>658</v>
       </c>
       <c r="E1753" t="s">
         <v>2110</v>
@@ -36715,7 +36715,7 @@
         <v>2</v>
       </c>
       <c r="D1765">
-        <v>101.9602216505047</v>
+        <v>103.6441998636408</v>
       </c>
       <c r="E1765" t="s">
         <v>2110</v>
@@ -37327,7 +37327,7 @@
         <v>1</v>
       </c>
       <c r="D1801">
-        <v>147.5</v>
+        <v>145.75</v>
       </c>
       <c r="E1801" t="s">
         <v>2110</v>
@@ -37616,7 +37616,7 @@
         <v>1</v>
       </c>
       <c r="D1818">
-        <v>233.9778647411888</v>
+        <v>233.9778646922036</v>
       </c>
       <c r="E1818" t="s">
         <v>2110</v>
@@ -37667,7 +37667,7 @@
         <v>7</v>
       </c>
       <c r="D1821">
-        <v>70</v>
+        <v>68.75</v>
       </c>
       <c r="E1821" t="s">
         <v>2109</v>
@@ -37684,7 +37684,7 @@
         <v>1</v>
       </c>
       <c r="D1822">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="E1822" t="s">
         <v>2110</v>
@@ -37701,7 +37701,7 @@
         <v>3</v>
       </c>
       <c r="D1823">
-        <v>47.25</v>
+        <v>46.25</v>
       </c>
       <c r="E1823" t="s">
         <v>2109</v>
@@ -37718,7 +37718,7 @@
         <v>1</v>
       </c>
       <c r="D1824">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E1824" t="s">
         <v>2110</v>
@@ -37735,7 +37735,7 @@
         <v>3</v>
       </c>
       <c r="D1825">
-        <v>47.5</v>
+        <v>46.25</v>
       </c>
       <c r="E1825" t="s">
         <v>2109</v>
@@ -37752,7 +37752,7 @@
         <v>1</v>
       </c>
       <c r="D1826">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="E1826" t="s">
         <v>2110</v>
@@ -37769,7 +37769,7 @@
         <v>3</v>
       </c>
       <c r="D1827">
-        <v>47.75</v>
+        <v>46.5</v>
       </c>
       <c r="E1827" t="s">
         <v>2109</v>
@@ -37786,7 +37786,7 @@
         <v>1</v>
       </c>
       <c r="D1828">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="E1828" t="s">
         <v>2110</v>
@@ -37854,7 +37854,7 @@
         <v>3</v>
       </c>
       <c r="D1832">
-        <v>47.25</v>
+        <v>46.25</v>
       </c>
       <c r="E1832" t="s">
         <v>2109</v>
@@ -37871,7 +37871,7 @@
         <v>1</v>
       </c>
       <c r="D1833">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E1833" t="s">
         <v>2110</v>
@@ -37956,7 +37956,7 @@
         <v>1</v>
       </c>
       <c r="D1838">
-        <v>459.25</v>
+        <v>458.25</v>
       </c>
       <c r="E1838" t="s">
         <v>2110</v>
@@ -38160,7 +38160,7 @@
         <v>137</v>
       </c>
       <c r="D1850">
-        <v>536.25</v>
+        <v>539.75</v>
       </c>
       <c r="E1850" t="s">
         <v>2110</v>
@@ -39316,7 +39316,7 @@
         <v>1</v>
       </c>
       <c r="D1918">
-        <v>277.6037424374928</v>
+        <v>274.9917379653212</v>
       </c>
       <c r="E1918" t="s">
         <v>2110</v>
@@ -39333,7 +39333,7 @@
         <v>1</v>
       </c>
       <c r="D1919">
-        <v>275.75</v>
+        <v>273</v>
       </c>
       <c r="E1919" t="s">
         <v>2110</v>
@@ -39350,7 +39350,7 @@
         <v>1</v>
       </c>
       <c r="D1920">
-        <v>278.8558091647838</v>
+        <v>276.2320238575902</v>
       </c>
       <c r="E1920" t="s">
         <v>2110</v>
@@ -39367,7 +39367,7 @@
         <v>1</v>
       </c>
       <c r="D1921">
-        <v>274</v>
+        <v>271.25</v>
       </c>
       <c r="E1921" t="s">
         <v>2110</v>
@@ -39384,7 +39384,7 @@
         <v>1</v>
       </c>
       <c r="D1922">
-        <v>289.5</v>
+        <v>286.75</v>
       </c>
       <c r="E1922" t="s">
         <v>2110</v>
@@ -39401,7 +39401,7 @@
         <v>1</v>
       </c>
       <c r="D1923">
-        <v>278.3937011231371</v>
+        <v>275.7742638418773</v>
       </c>
       <c r="E1923" t="s">
         <v>2110</v>
@@ -40047,7 +40047,7 @@
         <v>10</v>
       </c>
       <c r="D1961">
-        <v>465.5</v>
+        <v>462</v>
       </c>
       <c r="E1961" t="s">
         <v>2109</v>
@@ -40064,7 +40064,7 @@
         <v>1</v>
       </c>
       <c r="D1962">
-        <v>12568.5</v>
+        <v>12474</v>
       </c>
       <c r="E1962" t="s">
         <v>2110</v>
@@ -40081,7 +40081,7 @@
         <v>3</v>
       </c>
       <c r="D1963">
-        <v>361.75</v>
+        <v>359</v>
       </c>
       <c r="E1963" t="s">
         <v>2109</v>
@@ -40098,7 +40098,7 @@
         <v>1</v>
       </c>
       <c r="D1964">
-        <v>14470</v>
+        <v>14360</v>
       </c>
       <c r="E1964" t="s">
         <v>2110</v>
@@ -40115,7 +40115,7 @@
         <v>332</v>
       </c>
       <c r="D1965">
-        <v>801.75</v>
+        <v>792.75</v>
       </c>
       <c r="E1965" t="s">
         <v>2109</v>
@@ -40132,7 +40132,7 @@
         <v>1</v>
       </c>
       <c r="D1966">
-        <v>3207</v>
+        <v>3171</v>
       </c>
       <c r="E1966" t="s">
         <v>2110</v>
@@ -40472,7 +40472,7 @@
         <v>332</v>
       </c>
       <c r="D1986">
-        <v>801.75</v>
+        <v>792.75</v>
       </c>
       <c r="E1986" t="s">
         <v>2109</v>
@@ -40489,7 +40489,7 @@
         <v>1</v>
       </c>
       <c r="D1987">
-        <v>3207</v>
+        <v>3171</v>
       </c>
       <c r="E1987" t="s">
         <v>2110</v>
@@ -40591,7 +40591,7 @@
         <v>1</v>
       </c>
       <c r="D1993">
-        <v>430.25</v>
+        <v>432.75</v>
       </c>
       <c r="E1993" t="s">
         <v>2110</v>
@@ -40642,7 +40642,7 @@
         <v>2</v>
       </c>
       <c r="D1996">
-        <v>95.59107234525096</v>
+        <v>95.56482461179218</v>
       </c>
       <c r="E1996" t="s">
         <v>2109</v>
@@ -40659,7 +40659,7 @@
         <v>1</v>
       </c>
       <c r="D1997">
-        <v>764.7285787620077</v>
+        <v>764.5185968943374</v>
       </c>
       <c r="E1997" t="s">
         <v>2110</v>
@@ -40710,7 +40710,7 @@
         <v>2</v>
       </c>
       <c r="D2000">
-        <v>43.21106894241315</v>
+        <v>43.2095388219377</v>
       </c>
       <c r="E2000" t="s">
         <v>2109</v>
@@ -40727,7 +40727,7 @@
         <v>1</v>
       </c>
       <c r="D2001">
-        <v>691.3771030786104</v>
+        <v>691.3526211510032</v>
       </c>
       <c r="E2001" t="s">
         <v>2110</v>
@@ -40744,7 +40744,7 @@
         <v>2</v>
       </c>
       <c r="D2002">
-        <v>172.053840343929</v>
+        <v>172.0410125967575</v>
       </c>
       <c r="E2002" t="s">
         <v>2109</v>
@@ -40761,7 +40761,7 @@
         <v>1</v>
       </c>
       <c r="D2003">
-        <v>1032.323042063574</v>
+        <v>1032.246075580545</v>
       </c>
       <c r="E2003" t="s">
         <v>2110</v>
@@ -40914,7 +40914,7 @@
         <v>2</v>
       </c>
       <c r="D2012">
-        <v>171.9908549420628</v>
+        <v>171.9772503014068</v>
       </c>
       <c r="E2012" t="s">
         <v>2109</v>
@@ -40931,7 +40931,7 @@
         <v>1</v>
       </c>
       <c r="D2013">
-        <v>1031.945129652377</v>
+        <v>1031.863501808441</v>
       </c>
       <c r="E2013" t="s">
         <v>2110</v>
@@ -41016,7 +41016,7 @@
         <v>2</v>
       </c>
       <c r="D2018">
-        <v>171.736899642649</v>
+        <v>171.7272771417703</v>
       </c>
       <c r="E2018" t="s">
         <v>2109</v>
@@ -41033,7 +41033,7 @@
         <v>1</v>
       </c>
       <c r="D2019">
-        <v>1030.421397855894</v>
+        <v>1030.363662850622</v>
       </c>
       <c r="E2019" t="s">
         <v>2110</v>
@@ -41050,7 +41050,7 @@
         <v>2</v>
       </c>
       <c r="D2020">
-        <v>249.3935050400342</v>
+        <v>249.4640820772835</v>
       </c>
       <c r="E2020" t="s">
         <v>2109</v>
@@ -41067,7 +41067,7 @@
         <v>1</v>
       </c>
       <c r="D2021">
-        <v>1995.148040320273</v>
+        <v>1995.712656618268</v>
       </c>
       <c r="E2021" t="s">
         <v>2110</v>
@@ -41084,7 +41084,7 @@
         <v>2</v>
       </c>
       <c r="D2022">
-        <v>336.7903435058466</v>
+        <v>336.8890043805038</v>
       </c>
       <c r="E2022" t="s">
         <v>2109</v>
@@ -41101,7 +41101,7 @@
         <v>1</v>
       </c>
       <c r="D2023">
-        <v>2020.74206103508</v>
+        <v>2021.334026283022</v>
       </c>
       <c r="E2023" t="s">
         <v>2110</v>
@@ -41118,7 +41118,7 @@
         <v>2</v>
       </c>
       <c r="D2024">
-        <v>249.4342354040012</v>
+        <v>249.5028612860905</v>
       </c>
       <c r="E2024" t="s">
         <v>2109</v>
@@ -41135,7 +41135,7 @@
         <v>1</v>
       </c>
       <c r="D2025">
-        <v>1995.473883232009</v>
+        <v>1996.022890288724</v>
       </c>
       <c r="E2025" t="s">
         <v>2110</v>
@@ -41254,7 +41254,7 @@
         <v>2</v>
       </c>
       <c r="D2032">
-        <v>249.4164972388723</v>
+        <v>249.6052357848139</v>
       </c>
       <c r="E2032" t="s">
         <v>2109</v>
@@ -41271,7 +41271,7 @@
         <v>1</v>
       </c>
       <c r="D2033">
-        <v>1995.331977910978</v>
+        <v>1996.841886278511</v>
       </c>
       <c r="E2033" t="s">
         <v>2110</v>
@@ -41322,7 +41322,7 @@
         <v>2</v>
       </c>
       <c r="D2036">
-        <v>243.75</v>
+        <v>244.5</v>
       </c>
       <c r="E2036" t="s">
         <v>2109</v>
@@ -41339,7 +41339,7 @@
         <v>1</v>
       </c>
       <c r="D2037">
-        <v>1950</v>
+        <v>1956</v>
       </c>
       <c r="E2037" t="s">
         <v>2110</v>
@@ -41628,7 +41628,7 @@
         <v>23</v>
       </c>
       <c r="D2054">
-        <v>58.67675054231892</v>
+        <v>58.67737086469306</v>
       </c>
       <c r="E2054" t="s">
         <v>2109</v>
@@ -41645,7 +41645,7 @@
         <v>1</v>
       </c>
       <c r="D2055">
-        <v>1408.242013015654</v>
+        <v>1408.256900752634</v>
       </c>
       <c r="E2055" t="s">
         <v>2110</v>
@@ -41696,7 +41696,7 @@
         <v>23</v>
       </c>
       <c r="D2058">
-        <v>99.02365134362053</v>
+        <v>99.02462169451101</v>
       </c>
       <c r="E2058" t="s">
         <v>2109</v>
@@ -41713,7 +41713,7 @@
         <v>1</v>
       </c>
       <c r="D2059">
-        <v>1188.283816123446</v>
+        <v>1188.295460334132</v>
       </c>
       <c r="E2059" t="s">
         <v>2110</v>
@@ -41764,7 +41764,7 @@
         <v>2</v>
       </c>
       <c r="D2062">
-        <v>315.2940558243794</v>
+        <v>315.2941818762885</v>
       </c>
       <c r="E2062" t="s">
         <v>2109</v>
@@ -41781,7 +41781,7 @@
         <v>1</v>
       </c>
       <c r="D2063">
-        <v>630.5881116487587</v>
+        <v>630.588363752577</v>
       </c>
       <c r="E2063" t="s">
         <v>2110</v>
@@ -41866,7 +41866,7 @@
         <v>2</v>
       </c>
       <c r="D2068">
-        <v>192.6251389274683</v>
+        <v>192.6287596324437</v>
       </c>
       <c r="E2068" t="s">
         <v>2109</v>
@@ -41883,7 +41883,7 @@
         <v>1</v>
       </c>
       <c r="D2069">
-        <v>770.5005557098732</v>
+        <v>770.5150385297749</v>
       </c>
       <c r="E2069" t="s">
         <v>2110</v>
@@ -41900,7 +41900,7 @@
         <v>2</v>
       </c>
       <c r="D2070">
-        <v>315.294878220186</v>
+        <v>315.2951804872189</v>
       </c>
       <c r="E2070" t="s">
         <v>2109</v>
@@ -41917,7 +41917,7 @@
         <v>1</v>
       </c>
       <c r="D2071">
-        <v>630.5897564403721</v>
+        <v>630.5903609744378</v>
       </c>
       <c r="E2071" t="s">
         <v>2110</v>
@@ -41968,7 +41968,7 @@
         <v>2</v>
       </c>
       <c r="D2074">
-        <v>315.2954471973015</v>
+        <v>315.2955644960938</v>
       </c>
       <c r="E2074" t="s">
         <v>2109</v>
@@ -41985,7 +41985,7 @@
         <v>1</v>
       </c>
       <c r="D2075">
-        <v>630.590894394603</v>
+        <v>630.5911289921876</v>
       </c>
       <c r="E2075" t="s">
         <v>2110</v>
@@ -42036,7 +42036,7 @@
         <v>2</v>
       </c>
       <c r="D2078">
-        <v>315.2260646332044</v>
+        <v>315.2304262601922</v>
       </c>
       <c r="E2078" t="s">
         <v>2109</v>
@@ -42053,7 +42053,7 @@
         <v>1</v>
       </c>
       <c r="D2079">
-        <v>630.4521292664089</v>
+        <v>630.4608525203844</v>
       </c>
       <c r="E2079" t="s">
         <v>2110</v>
@@ -42070,7 +42070,7 @@
         <v>3</v>
       </c>
       <c r="D2080">
-        <v>152.7018518390336</v>
+        <v>152.7018405247654</v>
       </c>
       <c r="E2080" t="s">
         <v>2109</v>
@@ -42087,7 +42087,7 @@
         <v>1</v>
       </c>
       <c r="D2081">
-        <v>1527.018518390336</v>
+        <v>1527.018405247654</v>
       </c>
       <c r="E2081" t="s">
         <v>2110</v>
@@ -42104,7 +42104,7 @@
         <v>3</v>
       </c>
       <c r="D2082">
-        <v>152.6457514902603</v>
+        <v>152.6494359384038</v>
       </c>
       <c r="E2082" t="s">
         <v>2109</v>
@@ -42121,7 +42121,7 @@
         <v>1</v>
       </c>
       <c r="D2083">
-        <v>1526.457514902603</v>
+        <v>1526.494359384038</v>
       </c>
       <c r="E2083" t="s">
         <v>2110</v>
@@ -42682,7 +42682,7 @@
         <v>1</v>
       </c>
       <c r="D2116">
-        <v>940.5</v>
+        <v>929.5</v>
       </c>
       <c r="E2116" t="s">
         <v>2110</v>
@@ -43141,7 +43141,7 @@
         <v>2</v>
       </c>
       <c r="D2143">
-        <v>450</v>
+        <v>448.25</v>
       </c>
       <c r="E2143" t="s">
         <v>2110</v>
@@ -43209,7 +43209,7 @@
         <v>10</v>
       </c>
       <c r="D2147">
-        <v>209.75</v>
+        <v>207.25</v>
       </c>
       <c r="E2147" t="s">
         <v>2109</v>
@@ -43226,7 +43226,7 @@
         <v>1</v>
       </c>
       <c r="D2148">
-        <v>1678</v>
+        <v>1658</v>
       </c>
       <c r="E2148" t="s">
         <v>2110</v>
@@ -43515,7 +43515,7 @@
         <v>7</v>
       </c>
       <c r="D2165">
-        <v>132.75</v>
+        <v>130.75</v>
       </c>
       <c r="E2165" t="s">
         <v>2109</v>
@@ -43532,7 +43532,7 @@
         <v>1</v>
       </c>
       <c r="D2166">
-        <v>1593</v>
+        <v>1569</v>
       </c>
       <c r="E2166" t="s">
         <v>2110</v>
@@ -43991,7 +43991,7 @@
         <v>10</v>
       </c>
       <c r="D2193">
-        <v>106.25</v>
+        <v>105</v>
       </c>
       <c r="E2193" t="s">
         <v>2109</v>
@@ -44008,7 +44008,7 @@
         <v>1</v>
       </c>
       <c r="D2194">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="E2194" t="s">
         <v>2110</v>
@@ -44025,7 +44025,7 @@
         <v>10</v>
       </c>
       <c r="D2195">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E2195" t="s">
         <v>2109</v>
@@ -44042,7 +44042,7 @@
         <v>1</v>
       </c>
       <c r="D2196">
-        <v>3000</v>
+        <v>2964</v>
       </c>
       <c r="E2196" t="s">
         <v>2110</v>
@@ -44399,7 +44399,7 @@
         <v>3</v>
       </c>
       <c r="D2217">
-        <v>125</v>
+        <v>123.75</v>
       </c>
       <c r="E2217" t="s">
         <v>2109</v>
@@ -44416,7 +44416,7 @@
         <v>1</v>
       </c>
       <c r="D2218">
-        <v>1750</v>
+        <v>1732.5</v>
       </c>
       <c r="E2218" t="s">
         <v>2110</v>
@@ -44433,7 +44433,7 @@
         <v>3</v>
       </c>
       <c r="D2219">
-        <v>213</v>
+        <v>210.5</v>
       </c>
       <c r="E2219" t="s">
         <v>2109</v>
@@ -44450,7 +44450,7 @@
         <v>1</v>
       </c>
       <c r="D2220">
-        <v>2130</v>
+        <v>2105</v>
       </c>
       <c r="E2220" t="s">
         <v>2110</v>
@@ -44467,7 +44467,7 @@
         <v>3</v>
       </c>
       <c r="D2221">
-        <v>61.42732301560195</v>
+        <v>60.67301104476056</v>
       </c>
       <c r="E2221" t="s">
         <v>2109</v>
@@ -44484,7 +44484,7 @@
         <v>1</v>
       </c>
       <c r="D2222">
-        <v>1228.546460312039</v>
+        <v>1213.460220895211</v>
       </c>
       <c r="E2222" t="s">
         <v>2110</v>
@@ -44501,7 +44501,7 @@
         <v>3</v>
       </c>
       <c r="D2223">
-        <v>61.21266429923658</v>
+        <v>60.4609882830722</v>
       </c>
       <c r="E2223" t="s">
         <v>2109</v>
@@ -44518,7 +44518,7 @@
         <v>1</v>
       </c>
       <c r="D2224">
-        <v>1224.253285984732</v>
+        <v>1209.219765661444</v>
       </c>
       <c r="E2224" t="s">
         <v>2110</v>
@@ -44569,7 +44569,7 @@
         <v>2</v>
       </c>
       <c r="D2227">
-        <v>99.20851495362334</v>
+        <v>99.20851493938461</v>
       </c>
       <c r="E2227" t="s">
         <v>2110</v>
@@ -44586,7 +44586,7 @@
         <v>2</v>
       </c>
       <c r="D2228">
-        <v>99.20876962890378</v>
+        <v>99.20876337011116</v>
       </c>
       <c r="E2228" t="s">
         <v>2110</v>
@@ -44671,7 +44671,7 @@
         <v>3</v>
       </c>
       <c r="D2233">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E2233" t="s">
         <v>2109</v>
@@ -44688,7 +44688,7 @@
         <v>1</v>
       </c>
       <c r="D2234">
-        <v>4680</v>
+        <v>4620</v>
       </c>
       <c r="E2234" t="s">
         <v>2110</v>
@@ -44705,7 +44705,7 @@
         <v>3</v>
       </c>
       <c r="D2235">
-        <v>877.5</v>
+        <v>866.25</v>
       </c>
       <c r="E2235" t="s">
         <v>2109</v>
@@ -44722,7 +44722,7 @@
         <v>1</v>
       </c>
       <c r="D2236">
-        <v>7020</v>
+        <v>6930</v>
       </c>
       <c r="E2236" t="s">
         <v>2110</v>
@@ -44773,7 +44773,7 @@
         <v>2</v>
       </c>
       <c r="D2239">
-        <v>308</v>
+        <v>311.5</v>
       </c>
       <c r="E2239" t="s">
         <v>2110</v>
@@ -44790,7 +44790,7 @@
         <v>2</v>
       </c>
       <c r="D2240">
-        <v>310.5</v>
+        <v>313</v>
       </c>
       <c r="E2240" t="s">
         <v>2110</v>
@@ -44807,7 +44807,7 @@
         <v>1</v>
       </c>
       <c r="D2241">
-        <v>502.75</v>
+        <v>480.75</v>
       </c>
       <c r="E2241" t="s">
         <v>2110</v>
@@ -44824,7 +44824,7 @@
         <v>10</v>
       </c>
       <c r="D2242">
-        <v>110.75</v>
+        <v>109.75</v>
       </c>
       <c r="E2242" t="s">
         <v>2109</v>
@@ -44841,7 +44841,7 @@
         <v>1</v>
       </c>
       <c r="D2243">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="E2243" t="s">
         <v>2110</v>
@@ -44960,7 +44960,7 @@
         <v>23</v>
       </c>
       <c r="D2250">
-        <v>19.80519101354505</v>
+        <v>19.80530037635728</v>
       </c>
       <c r="E2250" t="s">
         <v>2109</v>
@@ -44977,7 +44977,7 @@
         <v>1</v>
       </c>
       <c r="D2251">
-        <v>356.4934382438109</v>
+        <v>356.495406774431</v>
       </c>
       <c r="E2251" t="s">
         <v>2110</v>
@@ -44994,7 +44994,7 @@
         <v>23</v>
       </c>
       <c r="D2252">
-        <v>19.80146878877836</v>
+        <v>19.8020371086566</v>
       </c>
       <c r="E2252" t="s">
         <v>2109</v>
@@ -45011,7 +45011,7 @@
         <v>1</v>
       </c>
       <c r="D2253">
-        <v>356.4264381980104</v>
+        <v>356.4366679558188</v>
       </c>
       <c r="E2253" t="s">
         <v>2110</v>
@@ -45028,7 +45028,7 @@
         <v>3</v>
       </c>
       <c r="D2254">
-        <v>105.7224360332974</v>
+        <v>105.7224217257113</v>
       </c>
       <c r="E2254" t="s">
         <v>2109</v>
@@ -45045,7 +45045,7 @@
         <v>1</v>
       </c>
       <c r="D2255">
-        <v>845.7794882663795</v>
+        <v>845.7793738056905</v>
       </c>
       <c r="E2255" t="s">
         <v>2110</v>
@@ -45130,7 +45130,7 @@
         <v>3</v>
       </c>
       <c r="D2260">
-        <v>105.7225666524405</v>
+        <v>105.7225376687299</v>
       </c>
       <c r="E2260" t="s">
         <v>2109</v>
@@ -45147,7 +45147,7 @@
         <v>1</v>
       </c>
       <c r="D2261">
-        <v>845.7805332195244</v>
+        <v>845.7803013498395</v>
       </c>
       <c r="E2261" t="s">
         <v>2110</v>
@@ -45198,7 +45198,7 @@
         <v>3</v>
       </c>
       <c r="D2264">
-        <v>47.45748921207786</v>
+        <v>46.55546488502505</v>
       </c>
       <c r="E2264" t="s">
         <v>2109</v>
@@ -45215,7 +45215,7 @@
         <v>1</v>
       </c>
       <c r="D2265">
-        <v>284.7449352724672</v>
+        <v>279.3327893101503</v>
       </c>
       <c r="E2265" t="s">
         <v>2110</v>
@@ -45232,7 +45232,7 @@
         <v>3</v>
       </c>
       <c r="D2266">
-        <v>48.5</v>
+        <v>47.75</v>
       </c>
       <c r="E2266" t="s">
         <v>2109</v>
@@ -45249,7 +45249,7 @@
         <v>1</v>
       </c>
       <c r="D2267">
-        <v>291</v>
+        <v>286.5</v>
       </c>
       <c r="E2267" t="s">
         <v>2110</v>
@@ -45368,7 +45368,7 @@
         <v>1</v>
       </c>
       <c r="D2274">
-        <v>264.5</v>
+        <v>262.75</v>
       </c>
       <c r="E2274" t="s">
         <v>2110</v>
@@ -45385,7 +45385,7 @@
         <v>1</v>
       </c>
       <c r="D2275">
-        <v>272.75</v>
+        <v>271</v>
       </c>
       <c r="E2275" t="s">
         <v>2110</v>
@@ -45402,7 +45402,7 @@
         <v>1</v>
       </c>
       <c r="D2276">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E2276" t="s">
         <v>2110</v>
@@ -45487,7 +45487,7 @@
         <v>1</v>
       </c>
       <c r="D2281">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E2281" t="s">
         <v>2110</v>
@@ -45606,7 +45606,7 @@
         <v>1</v>
       </c>
       <c r="D2288">
-        <v>23.74072511160544</v>
+        <v>23.4372975708502</v>
       </c>
       <c r="E2288" t="s">
         <v>2110</v>
@@ -45623,7 +45623,7 @@
         <v>1</v>
       </c>
       <c r="D2289">
-        <v>23.74072511160544</v>
+        <v>23.4372975708502</v>
       </c>
       <c r="E2289" t="s">
         <v>2110</v>
@@ -45640,7 +45640,7 @@
         <v>1</v>
       </c>
       <c r="D2290">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="E2290" t="s">
         <v>2110</v>
@@ -45793,7 +45793,7 @@
         <v>3</v>
       </c>
       <c r="D2299">
-        <v>103.75</v>
+        <v>102.25</v>
       </c>
       <c r="E2299" t="s">
         <v>2109</v>
@@ -45810,7 +45810,7 @@
         <v>1</v>
       </c>
       <c r="D2300">
-        <v>622.5</v>
+        <v>613.5</v>
       </c>
       <c r="E2300" t="s">
         <v>2110</v>
@@ -45827,7 +45827,7 @@
         <v>3</v>
       </c>
       <c r="D2301">
-        <v>108.75</v>
+        <v>107.25</v>
       </c>
       <c r="E2301" t="s">
         <v>2109</v>
@@ -45844,7 +45844,7 @@
         <v>1</v>
       </c>
       <c r="D2302">
-        <v>652.5</v>
+        <v>643.5</v>
       </c>
       <c r="E2302" t="s">
         <v>2110</v>
@@ -45861,7 +45861,7 @@
         <v>3</v>
       </c>
       <c r="D2303">
-        <v>109.75</v>
+        <v>108</v>
       </c>
       <c r="E2303" t="s">
         <v>2109</v>
@@ -45878,7 +45878,7 @@
         <v>1</v>
       </c>
       <c r="D2304">
-        <v>658.5</v>
+        <v>648</v>
       </c>
       <c r="E2304" t="s">
         <v>2110</v>
@@ -45895,7 +45895,7 @@
         <v>3</v>
       </c>
       <c r="D2305">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2305" t="s">
         <v>2109</v>
@@ -45912,7 +45912,7 @@
         <v>1</v>
       </c>
       <c r="D2306">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E2306" t="s">
         <v>2110</v>
@@ -45929,7 +45929,7 @@
         <v>3</v>
       </c>
       <c r="D2307">
-        <v>109.75</v>
+        <v>109</v>
       </c>
       <c r="E2307" t="s">
         <v>2109</v>
@@ -45946,7 +45946,7 @@
         <v>1</v>
       </c>
       <c r="D2308">
-        <v>658.5</v>
+        <v>654</v>
       </c>
       <c r="E2308" t="s">
         <v>2110</v>
@@ -45963,7 +45963,7 @@
         <v>3</v>
       </c>
       <c r="D2309">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="E2309" t="s">
         <v>2109</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="D2310">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E2310" t="s">
         <v>2110</v>
@@ -45997,7 +45997,7 @@
         <v>3</v>
       </c>
       <c r="D2311">
-        <v>275.25</v>
+        <v>270.75</v>
       </c>
       <c r="E2311" t="s">
         <v>2109</v>
@@ -46014,7 +46014,7 @@
         <v>1</v>
       </c>
       <c r="D2312">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="E2312" t="s">
         <v>2110</v>
@@ -46031,7 +46031,7 @@
         <v>1</v>
       </c>
       <c r="D2313">
-        <v>595</v>
+        <v>585.75</v>
       </c>
       <c r="E2313" t="s">
         <v>2110</v>
@@ -46048,7 +46048,7 @@
         <v>3</v>
       </c>
       <c r="D2314">
-        <v>47.2124060642405</v>
+        <v>46.17879363258979</v>
       </c>
       <c r="E2314" t="s">
         <v>2109</v>
@@ -46065,7 +46065,7 @@
         <v>1</v>
       </c>
       <c r="D2315">
-        <v>566.548872770886</v>
+        <v>554.1455235910776</v>
       </c>
       <c r="E2315" t="s">
         <v>2110</v>
@@ -46082,7 +46082,7 @@
         <v>3</v>
       </c>
       <c r="D2316">
-        <v>47.21200118164126</v>
+        <v>46.17839761401006</v>
       </c>
       <c r="E2316" t="s">
         <v>2109</v>
@@ -46099,7 +46099,7 @@
         <v>1</v>
       </c>
       <c r="D2317">
-        <v>566.5440141796952</v>
+        <v>554.1407713681207</v>
       </c>
       <c r="E2317" t="s">
         <v>2110</v>
@@ -46116,7 +46116,7 @@
         <v>3</v>
       </c>
       <c r="D2318">
-        <v>47.2864209543617</v>
+        <v>46.224727273517</v>
       </c>
       <c r="E2318" t="s">
         <v>2109</v>
@@ -46133,7 +46133,7 @@
         <v>1</v>
       </c>
       <c r="D2319">
-        <v>567.4370514523405</v>
+        <v>554.6967272822039</v>
       </c>
       <c r="E2319" t="s">
         <v>2110</v>
@@ -46150,7 +46150,7 @@
         <v>3</v>
       </c>
       <c r="D2320">
-        <v>47.2887882511906</v>
+        <v>46.22704141884842</v>
       </c>
       <c r="E2320" t="s">
         <v>2109</v>
@@ -46167,7 +46167,7 @@
         <v>1</v>
       </c>
       <c r="D2321">
-        <v>567.4654590142871</v>
+        <v>554.724497026181</v>
       </c>
       <c r="E2321" t="s">
         <v>2110</v>
@@ -46184,7 +46184,7 @@
         <v>3</v>
       </c>
       <c r="D2322">
-        <v>46.67666911380793</v>
+        <v>45.67147270137204</v>
       </c>
       <c r="E2322" t="s">
         <v>2109</v>
@@ -46201,7 +46201,7 @@
         <v>1</v>
       </c>
       <c r="D2323">
-        <v>560.1200293656951</v>
+        <v>548.0576724164645</v>
       </c>
       <c r="E2323" t="s">
         <v>2110</v>
@@ -46218,7 +46218,7 @@
         <v>3</v>
       </c>
       <c r="D2324">
-        <v>46.67666911380793</v>
+        <v>45.67147270137205</v>
       </c>
       <c r="E2324" t="s">
         <v>2109</v>
@@ -46235,7 +46235,7 @@
         <v>1</v>
       </c>
       <c r="D2325">
-        <v>560.1200293656952</v>
+        <v>548.0576724164646</v>
       </c>
       <c r="E2325" t="s">
         <v>2110</v>
@@ -46252,7 +46252,7 @@
         <v>1</v>
       </c>
       <c r="D2326">
-        <v>740.25</v>
+        <v>738</v>
       </c>
       <c r="E2326" t="s">
         <v>2110</v>
@@ -46269,7 +46269,7 @@
         <v>1</v>
       </c>
       <c r="D2327">
-        <v>701.955682838839</v>
+        <v>688.210060487279</v>
       </c>
       <c r="E2327" t="s">
         <v>2110</v>
@@ -46626,7 +46626,7 @@
         <v>68</v>
       </c>
       <c r="D2348">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E2348" t="s">
         <v>2109</v>
@@ -46643,7 +46643,7 @@
         <v>1</v>
       </c>
       <c r="D2349">
-        <v>6636</v>
+        <v>6552</v>
       </c>
       <c r="E2349" t="s">
         <v>2110</v>
@@ -46660,7 +46660,7 @@
         <v>7</v>
       </c>
       <c r="D2350">
-        <v>139.25</v>
+        <v>137.5</v>
       </c>
       <c r="E2350" t="s">
         <v>2109</v>
@@ -46677,7 +46677,7 @@
         <v>1</v>
       </c>
       <c r="D2351">
-        <v>2088.75</v>
+        <v>2062.5</v>
       </c>
       <c r="E2351" t="s">
         <v>2110</v>
@@ -46694,7 +46694,7 @@
         <v>7</v>
       </c>
       <c r="D2352">
-        <v>229.5</v>
+        <v>226.75</v>
       </c>
       <c r="E2352" t="s">
         <v>2109</v>
@@ -46711,7 +46711,7 @@
         <v>1</v>
       </c>
       <c r="D2353">
-        <v>4590</v>
+        <v>4535</v>
       </c>
       <c r="E2353" t="s">
         <v>2110</v>
@@ -46779,7 +46779,7 @@
         <v>1</v>
       </c>
       <c r="D2357">
-        <v>238.5</v>
+        <v>239</v>
       </c>
       <c r="E2357" t="s">
         <v>2110</v>
@@ -46864,7 +46864,7 @@
         <v>1</v>
       </c>
       <c r="D2362">
-        <v>402.642763715795</v>
+        <v>402.692327240024</v>
       </c>
       <c r="E2362" t="s">
         <v>2110</v>
@@ -46881,7 +46881,7 @@
         <v>1</v>
       </c>
       <c r="D2363">
-        <v>437.9783772370497</v>
+        <v>437.9842806994293</v>
       </c>
       <c r="E2363" t="s">
         <v>2110</v>
@@ -47000,7 +47000,7 @@
         <v>10</v>
       </c>
       <c r="D2370">
-        <v>34.75892206612441</v>
+        <v>34.75909242537445</v>
       </c>
       <c r="E2370" t="s">
         <v>2109</v>
@@ -47017,7 +47017,7 @@
         <v>1</v>
       </c>
       <c r="D2371">
-        <v>417.107064793493</v>
+        <v>417.1091091044934</v>
       </c>
       <c r="E2371" t="s">
         <v>2110</v>
@@ -47034,7 +47034,7 @@
         <v>10</v>
       </c>
       <c r="D2372">
-        <v>34.75879129535438</v>
+        <v>34.75911834574335</v>
       </c>
       <c r="E2372" t="s">
         <v>2109</v>
@@ -47051,7 +47051,7 @@
         <v>1</v>
       </c>
       <c r="D2373">
-        <v>417.1054955442526</v>
+        <v>417.1094201489202</v>
       </c>
       <c r="E2373" t="s">
         <v>2110</v>
@@ -47068,7 +47068,7 @@
         <v>10</v>
       </c>
       <c r="D2374">
-        <v>34.75858931500468</v>
+        <v>34.75899708602044</v>
       </c>
       <c r="E2374" t="s">
         <v>2109</v>
@@ -47085,7 +47085,7 @@
         <v>1</v>
       </c>
       <c r="D2375">
-        <v>417.1030717800561</v>
+        <v>417.1079650322453</v>
       </c>
       <c r="E2375" t="s">
         <v>2110</v>
@@ -47102,7 +47102,7 @@
         <v>10</v>
       </c>
       <c r="D2376">
-        <v>34.75923763610547</v>
+        <v>34.75924157398442</v>
       </c>
       <c r="E2376" t="s">
         <v>2109</v>
@@ -47119,7 +47119,7 @@
         <v>1</v>
       </c>
       <c r="D2377">
-        <v>417.1108516332657</v>
+        <v>417.1108988878131</v>
       </c>
       <c r="E2377" t="s">
         <v>2110</v>
@@ -47170,7 +47170,7 @@
         <v>10</v>
       </c>
       <c r="D2380">
-        <v>31.75750453648334</v>
+        <v>31.78587463399255</v>
       </c>
       <c r="E2380" t="s">
         <v>2109</v>
@@ -47187,7 +47187,7 @@
         <v>1</v>
       </c>
       <c r="D2381">
-        <v>381.0900544378</v>
+        <v>381.4304956079106</v>
       </c>
       <c r="E2381" t="s">
         <v>2110</v>
@@ -47204,7 +47204,7 @@
         <v>10</v>
       </c>
       <c r="D2382">
-        <v>31.85835525407504</v>
+        <v>31.85835943697632</v>
       </c>
       <c r="E2382" t="s">
         <v>2109</v>
@@ -47221,7 +47221,7 @@
         <v>1</v>
       </c>
       <c r="D2383">
-        <v>382.3002630489004</v>
+        <v>382.3003132437158</v>
       </c>
       <c r="E2383" t="s">
         <v>2110</v>
@@ -47238,7 +47238,7 @@
         <v>10</v>
       </c>
       <c r="D2384">
-        <v>31.85837554464571</v>
+        <v>31.85837573232496</v>
       </c>
       <c r="E2384" t="s">
         <v>2109</v>
@@ -47255,7 +47255,7 @@
         <v>1</v>
       </c>
       <c r="D2385">
-        <v>382.3005065357486</v>
+        <v>382.3005087878994</v>
       </c>
       <c r="E2385" t="s">
         <v>2110</v>
@@ -47272,7 +47272,7 @@
         <v>3</v>
       </c>
       <c r="D2386">
-        <v>89.25</v>
+        <v>88.75</v>
       </c>
       <c r="E2386" t="s">
         <v>2109</v>
@@ -47289,7 +47289,7 @@
         <v>1</v>
       </c>
       <c r="D2387">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E2387" t="s">
         <v>2110</v>
@@ -47306,7 +47306,7 @@
         <v>3</v>
       </c>
       <c r="D2388">
-        <v>53.11725772301302</v>
+        <v>52.87172427145315</v>
       </c>
       <c r="E2388" t="s">
         <v>2109</v>
@@ -47323,7 +47323,7 @@
         <v>1</v>
       </c>
       <c r="D2389">
-        <v>637.4070926761563</v>
+        <v>634.4606912574377</v>
       </c>
       <c r="E2389" t="s">
         <v>2110</v>
@@ -47340,7 +47340,7 @@
         <v>3</v>
       </c>
       <c r="D2390">
-        <v>53.11727515594357</v>
+        <v>52.87174021400109</v>
       </c>
       <c r="E2390" t="s">
         <v>2109</v>
@@ -47357,7 +47357,7 @@
         <v>1</v>
       </c>
       <c r="D2391">
-        <v>637.4073018713228</v>
+        <v>634.4608825680132</v>
       </c>
       <c r="E2391" t="s">
         <v>2110</v>
@@ -47374,7 +47374,7 @@
         <v>3</v>
       </c>
       <c r="D2392">
-        <v>53.11724945552047</v>
+        <v>52.87171380877578</v>
       </c>
       <c r="E2392" t="s">
         <v>2109</v>
@@ -47391,7 +47391,7 @@
         <v>1</v>
       </c>
       <c r="D2393">
-        <v>637.4069934662457</v>
+        <v>634.4605657053094</v>
       </c>
       <c r="E2393" t="s">
         <v>2110</v>
@@ -47408,7 +47408,7 @@
         <v>7</v>
       </c>
       <c r="D2394">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="E2394" t="s">
         <v>2109</v>
@@ -47425,7 +47425,7 @@
         <v>1</v>
       </c>
       <c r="D2395">
-        <v>352.5</v>
+        <v>345</v>
       </c>
       <c r="E2395" t="s">
         <v>2110</v>
@@ -47510,7 +47510,7 @@
         <v>7</v>
       </c>
       <c r="D2400">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="E2400" t="s">
         <v>2109</v>
@@ -47527,7 +47527,7 @@
         <v>1</v>
       </c>
       <c r="D2401">
-        <v>352.5</v>
+        <v>345</v>
       </c>
       <c r="E2401" t="s">
         <v>2110</v>
@@ -47544,7 +47544,7 @@
         <v>7</v>
       </c>
       <c r="D2402">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E2402" t="s">
         <v>2109</v>
@@ -47561,7 +47561,7 @@
         <v>1</v>
       </c>
       <c r="D2403">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E2403" t="s">
         <v>2110</v>
@@ -47578,7 +47578,7 @@
         <v>7</v>
       </c>
       <c r="D2404">
-        <v>80.25</v>
+        <v>79</v>
       </c>
       <c r="E2404" t="s">
         <v>2109</v>
@@ -47595,7 +47595,7 @@
         <v>1</v>
       </c>
       <c r="D2405">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="E2405" t="s">
         <v>2110</v>
@@ -47612,7 +47612,7 @@
         <v>7</v>
       </c>
       <c r="D2406">
-        <v>80</v>
+        <v>78.75</v>
       </c>
       <c r="E2406" t="s">
         <v>2109</v>
@@ -47629,7 +47629,7 @@
         <v>1</v>
       </c>
       <c r="D2407">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="E2407" t="s">
         <v>2110</v>
@@ -47646,7 +47646,7 @@
         <v>7</v>
       </c>
       <c r="D2408">
-        <v>80.25</v>
+        <v>79</v>
       </c>
       <c r="E2408" t="s">
         <v>2109</v>
@@ -47663,7 +47663,7 @@
         <v>1</v>
       </c>
       <c r="D2409">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="E2409" t="s">
         <v>2110</v>
@@ -47680,7 +47680,7 @@
         <v>7</v>
       </c>
       <c r="D2410">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E2410" t="s">
         <v>2109</v>
@@ -47697,7 +47697,7 @@
         <v>1</v>
       </c>
       <c r="D2411">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E2411" t="s">
         <v>2110</v>
@@ -47748,7 +47748,7 @@
         <v>7</v>
       </c>
       <c r="D2414">
-        <v>38.97203337208035</v>
+        <v>38.40153002915092</v>
       </c>
       <c r="E2414" t="s">
         <v>2109</v>
@@ -47765,7 +47765,7 @@
         <v>1</v>
       </c>
       <c r="D2415">
-        <v>467.6644004649642</v>
+        <v>460.818360349811</v>
       </c>
       <c r="E2415" t="s">
         <v>2110</v>
@@ -47782,7 +47782,7 @@
         <v>7</v>
       </c>
       <c r="D2416">
-        <v>38.97626381210277</v>
+        <v>38.40569854065779</v>
       </c>
       <c r="E2416" t="s">
         <v>2109</v>
@@ -47799,7 +47799,7 @@
         <v>1</v>
       </c>
       <c r="D2417">
-        <v>467.7151657452333</v>
+        <v>460.8683824878934</v>
       </c>
       <c r="E2417" t="s">
         <v>2110</v>
@@ -47816,7 +47816,7 @@
         <v>3</v>
       </c>
       <c r="D2418">
-        <v>75.20453978338888</v>
+        <v>74.45844401140094</v>
       </c>
       <c r="E2418" t="s">
         <v>2109</v>
@@ -47833,7 +47833,7 @@
         <v>1</v>
       </c>
       <c r="D2419">
-        <v>451.2272387003333</v>
+        <v>446.7506640684056</v>
       </c>
       <c r="E2419" t="s">
         <v>2110</v>
@@ -47850,7 +47850,7 @@
         <v>3</v>
       </c>
       <c r="D2420">
-        <v>75.20433341322914</v>
+        <v>74.45823968861632</v>
       </c>
       <c r="E2420" t="s">
         <v>2109</v>
@@ -47867,7 +47867,7 @@
         <v>1</v>
       </c>
       <c r="D2421">
-        <v>451.2260004793748</v>
+        <v>446.7494381316979</v>
       </c>
       <c r="E2421" t="s">
         <v>2110</v>
@@ -47952,7 +47952,7 @@
         <v>1</v>
       </c>
       <c r="D2426">
-        <v>439.3925518050301</v>
+        <v>439.523300727467</v>
       </c>
       <c r="E2426" t="s">
         <v>2110</v>
@@ -47969,7 +47969,7 @@
         <v>1</v>
       </c>
       <c r="D2427">
-        <v>296.0361584031736</v>
+        <v>296.0410953415592</v>
       </c>
       <c r="E2427" t="s">
         <v>2110</v>
@@ -47986,7 +47986,7 @@
         <v>3</v>
       </c>
       <c r="D2428">
-        <v>106.25</v>
+        <v>104.75</v>
       </c>
       <c r="E2428" t="s">
         <v>2109</v>
@@ -48003,7 +48003,7 @@
         <v>1</v>
       </c>
       <c r="D2429">
-        <v>637.5</v>
+        <v>628.5</v>
       </c>
       <c r="E2429" t="s">
         <v>2110</v>
@@ -48020,7 +48020,7 @@
         <v>3</v>
       </c>
       <c r="D2430">
-        <v>108.3812630106613</v>
+        <v>108.1872022018695</v>
       </c>
       <c r="E2430" t="s">
         <v>2109</v>
@@ -48037,7 +48037,7 @@
         <v>1</v>
       </c>
       <c r="D2431">
-        <v>650.2875780639679</v>
+        <v>649.123213211217</v>
       </c>
       <c r="E2431" t="s">
         <v>2110</v>
@@ -48054,7 +48054,7 @@
         <v>3</v>
       </c>
       <c r="D2432">
-        <v>108.3533839533895</v>
+        <v>106.8184550895206</v>
       </c>
       <c r="E2432" t="s">
         <v>2109</v>
@@ -48071,7 +48071,7 @@
         <v>1</v>
       </c>
       <c r="D2433">
-        <v>650.1203037203368</v>
+        <v>640.9107305371239</v>
       </c>
       <c r="E2433" t="s">
         <v>2110</v>
@@ -48088,7 +48088,7 @@
         <v>3</v>
       </c>
       <c r="D2434">
-        <v>47.39810415891262</v>
+        <v>46.49848492751964</v>
       </c>
       <c r="E2434" t="s">
         <v>2109</v>
@@ -48105,7 +48105,7 @@
         <v>1</v>
       </c>
       <c r="D2435">
-        <v>284.3886249534757</v>
+        <v>278.9909095651178</v>
       </c>
       <c r="E2435" t="s">
         <v>2110</v>
@@ -48122,7 +48122,7 @@
         <v>3</v>
       </c>
       <c r="D2436">
-        <v>47.22927004445609</v>
+        <v>46.33285529600554</v>
       </c>
       <c r="E2436" t="s">
         <v>2109</v>
@@ -48139,7 +48139,7 @@
         <v>1</v>
       </c>
       <c r="D2437">
-        <v>283.3756202667365</v>
+        <v>277.9971317760333</v>
       </c>
       <c r="E2437" t="s">
         <v>2110</v>
@@ -48326,7 +48326,7 @@
         <v>3</v>
       </c>
       <c r="D2448">
-        <v>23.69271333765334</v>
+        <v>23.48527239357178</v>
       </c>
       <c r="E2448" t="s">
         <v>2109</v>
@@ -48343,7 +48343,7 @@
         <v>1</v>
       </c>
       <c r="D2449">
-        <v>284.3125600518401</v>
+        <v>281.8232687228614</v>
       </c>
       <c r="E2449" t="s">
         <v>2110</v>
@@ -48360,7 +48360,7 @@
         <v>3</v>
       </c>
       <c r="D2450">
-        <v>47.25</v>
+        <v>44.25</v>
       </c>
       <c r="E2450" t="s">
         <v>2109</v>
@@ -48377,7 +48377,7 @@
         <v>1</v>
       </c>
       <c r="D2451">
-        <v>283.5</v>
+        <v>265.5</v>
       </c>
       <c r="E2451" t="s">
         <v>2110</v>
@@ -48394,7 +48394,7 @@
         <v>3</v>
       </c>
       <c r="D2452">
-        <v>23.69271333765334</v>
+        <v>23.48527239357178</v>
       </c>
       <c r="E2452" t="s">
         <v>2109</v>
@@ -48411,7 +48411,7 @@
         <v>1</v>
       </c>
       <c r="D2453">
-        <v>284.3125600518401</v>
+        <v>281.8232687228614</v>
       </c>
       <c r="E2453" t="s">
         <v>2110</v>
@@ -48496,7 +48496,7 @@
         <v>3</v>
       </c>
       <c r="D2458">
-        <v>23.67985876556428</v>
+        <v>23.48291858336649</v>
       </c>
       <c r="E2458" t="s">
         <v>2109</v>
@@ -48513,7 +48513,7 @@
         <v>1</v>
       </c>
       <c r="D2459">
-        <v>284.1583051867714</v>
+        <v>281.7950230003979</v>
       </c>
       <c r="E2459" t="s">
         <v>2110</v>
@@ -48530,7 +48530,7 @@
         <v>3</v>
       </c>
       <c r="D2460">
-        <v>159.2734154717238</v>
+        <v>156.9418456739954</v>
       </c>
       <c r="E2460" t="s">
         <v>2109</v>
@@ -48547,7 +48547,7 @@
         <v>1</v>
       </c>
       <c r="D2461">
-        <v>1911.280985660686</v>
+        <v>1883.302148087945</v>
       </c>
       <c r="E2461" t="s">
         <v>2110</v>
@@ -48564,7 +48564,7 @@
         <v>3</v>
       </c>
       <c r="D2462">
-        <v>159.2674042726397</v>
+        <v>156.9359224715816</v>
       </c>
       <c r="E2462" t="s">
         <v>2109</v>
@@ -48581,7 +48581,7 @@
         <v>1</v>
       </c>
       <c r="D2463">
-        <v>1911.208851271676</v>
+        <v>1883.231069658979</v>
       </c>
       <c r="E2463" t="s">
         <v>2110</v>
@@ -48598,7 +48598,7 @@
         <v>3</v>
       </c>
       <c r="D2464">
-        <v>159.5</v>
+        <v>157</v>
       </c>
       <c r="E2464" t="s">
         <v>2109</v>
@@ -48615,7 +48615,7 @@
         <v>1</v>
       </c>
       <c r="D2465">
-        <v>1914</v>
+        <v>1884</v>
       </c>
       <c r="E2465" t="s">
         <v>2110</v>
@@ -48632,7 +48632,7 @@
         <v>3</v>
       </c>
       <c r="D2466">
-        <v>93.59956757499761</v>
+        <v>92.22938332804118</v>
       </c>
       <c r="E2466" t="s">
         <v>2109</v>
@@ -48649,7 +48649,7 @@
         <v>1</v>
       </c>
       <c r="D2467">
-        <v>1123.194810899971</v>
+        <v>1106.752599936494</v>
       </c>
       <c r="E2467" t="s">
         <v>2110</v>
@@ -48666,7 +48666,7 @@
         <v>3</v>
       </c>
       <c r="D2468">
-        <v>93.62346623280339</v>
+        <v>92.25293213845667</v>
       </c>
       <c r="E2468" t="s">
         <v>2109</v>
@@ -48683,7 +48683,7 @@
         <v>1</v>
       </c>
       <c r="D2469">
-        <v>1123.481594793641</v>
+        <v>1107.03518566148</v>
       </c>
       <c r="E2469" t="s">
         <v>2110</v>
@@ -48734,7 +48734,7 @@
         <v>3</v>
       </c>
       <c r="D2472">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="E2472" t="s">
         <v>2109</v>
@@ -48751,7 +48751,7 @@
         <v>1</v>
       </c>
       <c r="D2473">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E2473" t="s">
         <v>2110</v>
@@ -48768,7 +48768,7 @@
         <v>3</v>
       </c>
       <c r="D2474">
-        <v>35.5</v>
+        <v>35.25</v>
       </c>
       <c r="E2474" t="s">
         <v>2109</v>
@@ -48785,7 +48785,7 @@
         <v>1</v>
       </c>
       <c r="D2475">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E2475" t="s">
         <v>2110</v>
@@ -48802,7 +48802,7 @@
         <v>3</v>
       </c>
       <c r="D2476">
-        <v>26.5</v>
+        <v>26.25</v>
       </c>
       <c r="E2476" t="s">
         <v>2109</v>
@@ -48819,7 +48819,7 @@
         <v>1</v>
       </c>
       <c r="D2477">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="E2477" t="s">
         <v>2110</v>
@@ -48836,7 +48836,7 @@
         <v>3</v>
       </c>
       <c r="D2478">
-        <v>52.25</v>
+        <v>51.75</v>
       </c>
       <c r="E2478" t="s">
         <v>2109</v>
@@ -48853,7 +48853,7 @@
         <v>1</v>
       </c>
       <c r="D2479">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="E2479" t="s">
         <v>2110</v>
@@ -48870,7 +48870,7 @@
         <v>3</v>
       </c>
       <c r="D2480">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="E2480" t="s">
         <v>2109</v>
@@ -48887,7 +48887,7 @@
         <v>1</v>
       </c>
       <c r="D2481">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E2481" t="s">
         <v>2110</v>
@@ -48904,7 +48904,7 @@
         <v>3</v>
       </c>
       <c r="D2482">
-        <v>36.75</v>
+        <v>36.5</v>
       </c>
       <c r="E2482" t="s">
         <v>2109</v>
@@ -48921,7 +48921,7 @@
         <v>1</v>
       </c>
       <c r="D2483">
-        <v>1102.5</v>
+        <v>1095</v>
       </c>
       <c r="E2483" t="s">
         <v>2110</v>
@@ -48938,7 +48938,7 @@
         <v>3</v>
       </c>
       <c r="D2484">
-        <v>48.25</v>
+        <v>47.5</v>
       </c>
       <c r="E2484" t="s">
         <v>2109</v>
@@ -48955,7 +48955,7 @@
         <v>1</v>
       </c>
       <c r="D2485">
-        <v>1447.5</v>
+        <v>1425</v>
       </c>
       <c r="E2485" t="s">
         <v>2110</v>
@@ -49040,7 +49040,7 @@
         <v>2</v>
       </c>
       <c r="D2490">
-        <v>409.7614059977996</v>
+        <v>406.7888040712468</v>
       </c>
       <c r="E2490" t="s">
         <v>2110</v>
@@ -49057,7 +49057,7 @@
         <v>2</v>
       </c>
       <c r="D2491">
-        <v>465.2889105611663</v>
+        <v>461.9134860050889</v>
       </c>
       <c r="E2491" t="s">
         <v>2110</v>
@@ -49074,7 +49074,7 @@
         <v>2</v>
       </c>
       <c r="D2492">
-        <v>409.7614059977996</v>
+        <v>406.7888040712468</v>
       </c>
       <c r="E2492" t="s">
         <v>2110</v>
@@ -49091,7 +49091,7 @@
         <v>2</v>
       </c>
       <c r="D2493">
-        <v>409.7614059977996</v>
+        <v>406.7888040712468</v>
       </c>
       <c r="E2493" t="s">
         <v>2110</v>
@@ -49108,7 +49108,7 @@
         <v>2</v>
       </c>
       <c r="D2494">
-        <v>361.5849392431355</v>
+        <v>358.9618320610688</v>
       </c>
       <c r="E2494" t="s">
         <v>2110</v>
@@ -49125,7 +49125,7 @@
         <v>2</v>
       </c>
       <c r="D2495">
-        <v>465.2889105611663</v>
+        <v>461.9134860050889</v>
       </c>
       <c r="E2495" t="s">
         <v>2110</v>
@@ -49142,7 +49142,7 @@
         <v>2</v>
       </c>
       <c r="D2496">
-        <v>361.5849392431354</v>
+        <v>358.9618320610687</v>
       </c>
       <c r="E2496" t="s">
         <v>2110</v>
@@ -49159,7 +49159,7 @@
         <v>2</v>
       </c>
       <c r="D2497">
-        <v>465.2889105611663</v>
+        <v>461.913486005089</v>
       </c>
       <c r="E2497" t="s">
         <v>2110</v>
@@ -49176,7 +49176,7 @@
         <v>2</v>
       </c>
       <c r="D2498">
-        <v>409.7614059977994</v>
+        <v>406.7888040712467</v>
       </c>
       <c r="E2498" t="s">
         <v>2110</v>
@@ -49193,7 +49193,7 @@
         <v>2</v>
       </c>
       <c r="D2499">
-        <v>277.75</v>
+        <v>275.75</v>
       </c>
       <c r="E2499" t="s">
         <v>2110</v>
@@ -49210,7 +49210,7 @@
         <v>2</v>
       </c>
       <c r="D2500">
-        <v>350</v>
+        <v>347.5</v>
       </c>
       <c r="E2500" t="s">
         <v>2110</v>
@@ -49227,7 +49227,7 @@
         <v>2</v>
       </c>
       <c r="D2501">
-        <v>304.75</v>
+        <v>302.75</v>
       </c>
       <c r="E2501" t="s">
         <v>2110</v>
@@ -49244,7 +49244,7 @@
         <v>1</v>
       </c>
       <c r="D2502">
-        <v>118</v>
+        <v>116.5</v>
       </c>
       <c r="E2502" t="s">
         <v>2110</v>
@@ -49261,7 +49261,7 @@
         <v>1</v>
       </c>
       <c r="D2503">
-        <v>120</v>
+        <v>118.5</v>
       </c>
       <c r="E2503" t="s">
         <v>2110</v>
@@ -49278,7 +49278,7 @@
         <v>1</v>
       </c>
       <c r="D2504">
-        <v>212</v>
+        <v>209.25</v>
       </c>
       <c r="E2504" t="s">
         <v>2110</v>
@@ -49295,7 +49295,7 @@
         <v>1</v>
       </c>
       <c r="D2505">
-        <v>208.9342196335296</v>
+        <v>208.0828502957797</v>
       </c>
       <c r="E2505" t="s">
         <v>2110</v>
@@ -49312,7 +49312,7 @@
         <v>1</v>
       </c>
       <c r="D2506">
-        <v>208.8082066111217</v>
+        <v>207.2608397494192</v>
       </c>
       <c r="E2506" t="s">
         <v>2110</v>
@@ -49329,7 +49329,7 @@
         <v>2</v>
       </c>
       <c r="D2507">
-        <v>299.25</v>
+        <v>296.75</v>
       </c>
       <c r="E2507" t="s">
         <v>2109</v>
@@ -49346,7 +49346,7 @@
         <v>1</v>
       </c>
       <c r="D2508">
-        <v>1795.5</v>
+        <v>1780.5</v>
       </c>
       <c r="E2508" t="s">
         <v>2110</v>
@@ -49363,7 +49363,7 @@
         <v>1</v>
       </c>
       <c r="D2509">
-        <v>310.3876255538462</v>
+        <v>307.9181576332325</v>
       </c>
       <c r="E2509" t="s">
         <v>2110</v>
@@ -49380,7 +49380,7 @@
         <v>1</v>
       </c>
       <c r="D2510">
-        <v>309.3216214573691</v>
+        <v>306.9225867606062</v>
       </c>
       <c r="E2510" t="s">
         <v>2110</v>
@@ -49397,7 +49397,7 @@
         <v>1</v>
       </c>
       <c r="D2511">
-        <v>310.1927123472534</v>
+        <v>307.7169891639803</v>
       </c>
       <c r="E2511" t="s">
         <v>2110</v>
@@ -49414,7 +49414,7 @@
         <v>1</v>
       </c>
       <c r="D2512">
-        <v>310.0315875994649</v>
+        <v>307.5095892317472</v>
       </c>
       <c r="E2512" t="s">
         <v>2110</v>
@@ -49431,7 +49431,7 @@
         <v>1</v>
       </c>
       <c r="D2513">
-        <v>309.2029517063582</v>
+        <v>306.7751565441049</v>
       </c>
       <c r="E2513" t="s">
         <v>2110</v>
@@ -49516,7 +49516,7 @@
         <v>2</v>
       </c>
       <c r="D2518">
-        <v>168</v>
+        <v>166.75</v>
       </c>
       <c r="E2518" t="s">
         <v>2109</v>
@@ -49533,7 +49533,7 @@
         <v>1</v>
       </c>
       <c r="D2519">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E2519" t="s">
         <v>2110</v>
@@ -49550,7 +49550,7 @@
         <v>2</v>
       </c>
       <c r="D2520">
-        <v>178.25</v>
+        <v>176.75</v>
       </c>
       <c r="E2520" t="s">
         <v>2109</v>
@@ -49567,7 +49567,7 @@
         <v>1</v>
       </c>
       <c r="D2521">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E2521" t="s">
         <v>2110</v>
@@ -49584,7 +49584,7 @@
         <v>2</v>
       </c>
       <c r="D2522">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="E2522" t="s">
         <v>2109</v>
@@ -49601,7 +49601,7 @@
         <v>1</v>
       </c>
       <c r="D2523">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E2523" t="s">
         <v>2110</v>
@@ -49652,7 +49652,7 @@
         <v>10</v>
       </c>
       <c r="D2526">
-        <v>34.75923034802662</v>
+        <v>34.7592422744079</v>
       </c>
       <c r="E2526" t="s">
         <v>2109</v>
@@ -49669,7 +49669,7 @@
         <v>1</v>
       </c>
       <c r="D2527">
-        <v>417.1107641763194</v>
+        <v>417.1109072928948</v>
       </c>
       <c r="E2527" t="s">
         <v>2110</v>
@@ -49686,7 +49686,7 @@
         <v>10</v>
       </c>
       <c r="D2528">
-        <v>34.75924103894154</v>
+        <v>34.75924225120624</v>
       </c>
       <c r="E2528" t="s">
         <v>2109</v>
@@ -49703,7 +49703,7 @@
         <v>1</v>
       </c>
       <c r="D2529">
-        <v>417.1108924672985</v>
+        <v>417.1109070144748</v>
       </c>
       <c r="E2529" t="s">
         <v>2110</v>
@@ -49720,7 +49720,7 @@
         <v>10</v>
       </c>
       <c r="D2530">
-        <v>34.75874879429566</v>
+        <v>34.75914860809613</v>
       </c>
       <c r="E2530" t="s">
         <v>2109</v>
@@ -49737,7 +49737,7 @@
         <v>1</v>
       </c>
       <c r="D2531">
-        <v>417.1049855315479</v>
+        <v>417.1097832971535</v>
       </c>
       <c r="E2531" t="s">
         <v>2110</v>
@@ -49754,7 +49754,7 @@
         <v>1</v>
       </c>
       <c r="D2532">
-        <v>211.75</v>
+        <v>209.25</v>
       </c>
       <c r="E2532" t="s">
         <v>2110</v>
@@ -49822,7 +49822,7 @@
         <v>7</v>
       </c>
       <c r="D2536">
-        <v>11.515957665981</v>
+        <v>11.3473780005899</v>
       </c>
       <c r="E2536" t="s">
         <v>2109</v>
@@ -49839,7 +49839,7 @@
         <v>1</v>
       </c>
       <c r="D2537">
-        <v>345.4787299794299</v>
+        <v>340.421340017697</v>
       </c>
       <c r="E2537" t="s">
         <v>2110</v>
@@ -49856,7 +49856,7 @@
         <v>7</v>
       </c>
       <c r="D2538">
-        <v>11.51826230127231</v>
+        <v>11.34964889881327</v>
       </c>
       <c r="E2538" t="s">
         <v>2109</v>
@@ -49873,7 +49873,7 @@
         <v>1</v>
       </c>
       <c r="D2539">
-        <v>345.5478690381694</v>
+        <v>340.4894669643982</v>
       </c>
       <c r="E2539" t="s">
         <v>2110</v>
@@ -50094,7 +50094,7 @@
         <v>10</v>
       </c>
       <c r="D2552">
-        <v>139.5</v>
+        <v>141.25</v>
       </c>
       <c r="E2552" t="s">
         <v>2109</v>
@@ -50111,7 +50111,7 @@
         <v>1</v>
       </c>
       <c r="D2553">
-        <v>3348</v>
+        <v>3390</v>
       </c>
       <c r="E2553" t="s">
         <v>2110</v>
@@ -50128,7 +50128,7 @@
         <v>2</v>
       </c>
       <c r="D2554">
-        <v>465.5</v>
+        <v>462</v>
       </c>
       <c r="E2554" t="s">
         <v>2110</v>
@@ -50145,7 +50145,7 @@
         <v>2</v>
       </c>
       <c r="D2555">
-        <v>361.75</v>
+        <v>359</v>
       </c>
       <c r="E2555" t="s">
         <v>2110</v>
@@ -50247,7 +50247,7 @@
         <v>2</v>
       </c>
       <c r="D2561">
-        <v>102.1551339838526</v>
+        <v>99.2650310180844</v>
       </c>
       <c r="E2561" t="s">
         <v>2110</v>
@@ -50264,7 +50264,7 @@
         <v>1</v>
       </c>
       <c r="D2562">
-        <v>241.5654013984444</v>
+        <v>238.9244805328844</v>
       </c>
       <c r="E2562" t="s">
         <v>2110</v>
@@ -50281,7 +50281,7 @@
         <v>1</v>
       </c>
       <c r="D2563">
-        <v>242.3281709528438</v>
+        <v>239.7034171395509</v>
       </c>
       <c r="E2563" t="s">
         <v>2110</v>
@@ -50298,7 +50298,7 @@
         <v>1</v>
       </c>
       <c r="D2564">
-        <v>242.1531793092804</v>
+        <v>239.5058325443985</v>
       </c>
       <c r="E2564" t="s">
         <v>2110</v>
@@ -50315,7 +50315,7 @@
         <v>1</v>
       </c>
       <c r="D2565">
-        <v>241.2106111536712</v>
+        <v>238.75</v>
       </c>
       <c r="E2565" t="s">
         <v>2110</v>
@@ -50332,7 +50332,7 @@
         <v>1</v>
       </c>
       <c r="D2566">
-        <v>242.3635430268594</v>
+        <v>239.9293930788791</v>
       </c>
       <c r="E2566" t="s">
         <v>2110</v>
@@ -50400,7 +50400,7 @@
         <v>1</v>
       </c>
       <c r="D2570">
-        <v>132</v>
+        <v>130.5</v>
       </c>
       <c r="E2570" t="s">
         <v>2110</v>
@@ -50417,7 +50417,7 @@
         <v>1</v>
       </c>
       <c r="D2571">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2571" t="s">
         <v>2110</v>
@@ -50434,7 +50434,7 @@
         <v>1</v>
       </c>
       <c r="D2572">
-        <v>314.5</v>
+        <v>310.5</v>
       </c>
       <c r="E2572" t="s">
         <v>2110</v>
@@ -50451,7 +50451,7 @@
         <v>1</v>
       </c>
       <c r="D2573">
-        <v>707.5240031555554</v>
+        <v>699.189457448248</v>
       </c>
       <c r="E2573" t="s">
         <v>2110</v>
@@ -50468,7 +50468,7 @@
         <v>1</v>
       </c>
       <c r="D2574">
-        <v>708.2782547312971</v>
+        <v>701.41411755562</v>
       </c>
       <c r="E2574" t="s">
         <v>2110</v>
@@ -50485,7 +50485,7 @@
         <v>1</v>
       </c>
       <c r="D2575">
-        <v>690.579046183942</v>
+        <v>680.270027585179</v>
       </c>
       <c r="E2575" t="s">
         <v>2110</v>
@@ -50502,7 +50502,7 @@
         <v>3</v>
       </c>
       <c r="D2576">
-        <v>144.5</v>
+        <v>142</v>
       </c>
       <c r="E2576" t="s">
         <v>2109</v>
@@ -50519,7 +50519,7 @@
         <v>1</v>
       </c>
       <c r="D2577">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="E2577" t="s">
         <v>2110</v>
@@ -50536,7 +50536,7 @@
         <v>1</v>
       </c>
       <c r="D2578">
-        <v>706.5</v>
+        <v>692.75</v>
       </c>
       <c r="E2578" t="s">
         <v>2110</v>
@@ -50553,7 +50553,7 @@
         <v>1</v>
       </c>
       <c r="D2579">
-        <v>609.3726097244985</v>
+        <v>601.419811796269</v>
       </c>
       <c r="E2579" t="s">
         <v>2110</v>
@@ -50570,7 +50570,7 @@
         <v>1</v>
       </c>
       <c r="D2580">
-        <v>609.3826821954967</v>
+        <v>601.4297528134979</v>
       </c>
       <c r="E2580" t="s">
         <v>2110</v>
@@ -50587,7 +50587,7 @@
         <v>1</v>
       </c>
       <c r="D2581">
-        <v>916.25</v>
+        <v>905.5</v>
       </c>
       <c r="E2581" t="s">
         <v>2110</v>
@@ -50638,7 +50638,7 @@
         <v>1</v>
       </c>
       <c r="D2584">
-        <v>537.25</v>
+        <v>538</v>
       </c>
       <c r="E2584" t="s">
         <v>2110</v>
@@ -50689,7 +50689,7 @@
         <v>3</v>
       </c>
       <c r="D2587">
-        <v>29.75</v>
+        <v>30.75</v>
       </c>
       <c r="E2587" t="s">
         <v>2109</v>
@@ -50706,7 +50706,7 @@
         <v>1</v>
       </c>
       <c r="D2588">
-        <v>892.5</v>
+        <v>922.5</v>
       </c>
       <c r="E2588" t="s">
         <v>2110</v>
@@ -50723,7 +50723,7 @@
         <v>3</v>
       </c>
       <c r="D2589">
-        <v>51.75</v>
+        <v>53</v>
       </c>
       <c r="E2589" t="s">
         <v>2109</v>
@@ -50740,7 +50740,7 @@
         <v>1</v>
       </c>
       <c r="D2590">
-        <v>1242</v>
+        <v>1272</v>
       </c>
       <c r="E2590" t="s">
         <v>2110</v>
@@ -50791,7 +50791,7 @@
         <v>3</v>
       </c>
       <c r="D2593">
-        <v>100.2999837427038</v>
+        <v>101.5866829997505</v>
       </c>
       <c r="E2593" t="s">
         <v>2109</v>
@@ -50808,7 +50808,7 @@
         <v>1</v>
       </c>
       <c r="D2594">
-        <v>1203.599804912446</v>
+        <v>1219.040195997006</v>
       </c>
       <c r="E2594" t="s">
         <v>2110</v>
@@ -50825,7 +50825,7 @@
         <v>3</v>
       </c>
       <c r="D2595">
-        <v>100.2606521460087</v>
+        <v>102.5355673057088</v>
       </c>
       <c r="E2595" t="s">
         <v>2109</v>
@@ -50842,7 +50842,7 @@
         <v>1</v>
       </c>
       <c r="D2596">
-        <v>1203.127825752104</v>
+        <v>1230.426807668505</v>
       </c>
       <c r="E2596" t="s">
         <v>2110</v>
@@ -51029,7 +51029,7 @@
         <v>2</v>
       </c>
       <c r="D2607">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2607" t="s">
         <v>2109</v>
@@ -51046,7 +51046,7 @@
         <v>1</v>
       </c>
       <c r="D2608">
-        <v>1760</v>
+        <v>1744</v>
       </c>
       <c r="E2608" t="s">
         <v>2110</v>
@@ -51063,7 +51063,7 @@
         <v>3</v>
       </c>
       <c r="D2609">
-        <v>48.75</v>
+        <v>48</v>
       </c>
       <c r="E2609" t="s">
         <v>2109</v>
@@ -51080,7 +51080,7 @@
         <v>1</v>
       </c>
       <c r="D2610">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E2610" t="s">
         <v>2110</v>
@@ -51097,7 +51097,7 @@
         <v>1</v>
       </c>
       <c r="D2611">
-        <v>645.75</v>
+        <v>640.75</v>
       </c>
       <c r="E2611" t="s">
         <v>2110</v>
@@ -51114,7 +51114,7 @@
         <v>1</v>
       </c>
       <c r="D2612">
-        <v>683.75</v>
+        <v>678.5</v>
       </c>
       <c r="E2612" t="s">
         <v>2110</v>
@@ -51131,7 +51131,7 @@
         <v>1</v>
       </c>
       <c r="D2613">
-        <v>328.75</v>
+        <v>332.75</v>
       </c>
       <c r="E2613" t="s">
         <v>2110</v>
@@ -51199,7 +51199,7 @@
         <v>2</v>
       </c>
       <c r="D2617">
-        <v>399.75</v>
+        <v>395.75</v>
       </c>
       <c r="E2617" t="s">
         <v>2110</v>
@@ -51420,7 +51420,7 @@
         <v>3</v>
       </c>
       <c r="D2630">
-        <v>40</v>
+        <v>39.75</v>
       </c>
       <c r="E2630" t="s">
         <v>2109</v>
@@ -51437,7 +51437,7 @@
         <v>1</v>
       </c>
       <c r="D2631">
-        <v>1920</v>
+        <v>1908</v>
       </c>
       <c r="E2631" t="s">
         <v>2110</v>
@@ -51454,7 +51454,7 @@
         <v>2</v>
       </c>
       <c r="D2632">
-        <v>189.25</v>
+        <v>187.5</v>
       </c>
       <c r="E2632" t="s">
         <v>2109</v>
@@ -51471,7 +51471,7 @@
         <v>1</v>
       </c>
       <c r="D2633">
-        <v>2271</v>
+        <v>2250</v>
       </c>
       <c r="E2633" t="s">
         <v>2110</v>
@@ -51522,7 +51522,7 @@
         <v>2</v>
       </c>
       <c r="D2636">
-        <v>1056.25</v>
+        <v>1062.5</v>
       </c>
       <c r="E2636" t="s">
         <v>2109</v>
@@ -51539,7 +51539,7 @@
         <v>1</v>
       </c>
       <c r="D2637">
-        <v>3168.75</v>
+        <v>3187.5</v>
       </c>
       <c r="E2637" t="s">
         <v>2110</v>
@@ -51930,7 +51930,7 @@
         <v>1</v>
       </c>
       <c r="D2660">
-        <v>525.75</v>
+        <v>527.25</v>
       </c>
       <c r="E2660" t="s">
         <v>2110</v>
@@ -52185,7 +52185,7 @@
         <v>7</v>
       </c>
       <c r="D2675">
-        <v>12.5</v>
+        <v>12.25</v>
       </c>
       <c r="E2675" t="s">
         <v>2109</v>
@@ -52202,7 +52202,7 @@
         <v>1</v>
       </c>
       <c r="D2676">
-        <v>375</v>
+        <v>367.5</v>
       </c>
       <c r="E2676" t="s">
         <v>2110</v>
@@ -52219,7 +52219,7 @@
         <v>7</v>
       </c>
       <c r="D2677">
-        <v>40.5</v>
+        <v>39.75</v>
       </c>
       <c r="E2677" t="s">
         <v>2109</v>
@@ -52236,7 +52236,7 @@
         <v>1</v>
       </c>
       <c r="D2678">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E2678" t="s">
         <v>2110</v>
@@ -52253,7 +52253,7 @@
         <v>7</v>
       </c>
       <c r="D2679">
-        <v>40.3863827697858</v>
+        <v>39.79517506555818</v>
       </c>
       <c r="E2679" t="s">
         <v>2109</v>
@@ -52270,7 +52270,7 @@
         <v>1</v>
       </c>
       <c r="D2680">
-        <v>484.6365932374297</v>
+        <v>477.5421007866981</v>
       </c>
       <c r="E2680" t="s">
         <v>2110</v>
@@ -52287,7 +52287,7 @@
         <v>7</v>
       </c>
       <c r="D2681">
-        <v>40.38629095513468</v>
+        <v>39.79508459496229</v>
       </c>
       <c r="E2681" t="s">
         <v>2109</v>
@@ -52304,7 +52304,7 @@
         <v>1</v>
       </c>
       <c r="D2682">
-        <v>484.6354914616162</v>
+        <v>477.5410151395475</v>
       </c>
       <c r="E2682" t="s">
         <v>2110</v>
@@ -52321,7 +52321,7 @@
         <v>7</v>
       </c>
       <c r="D2683">
-        <v>77.75</v>
+        <v>76.75</v>
       </c>
       <c r="E2683" t="s">
         <v>2109</v>
@@ -52338,7 +52338,7 @@
         <v>1</v>
       </c>
       <c r="D2684">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="E2684" t="s">
         <v>2110</v>
@@ -52355,7 +52355,7 @@
         <v>3</v>
       </c>
       <c r="D2685">
-        <v>155.75</v>
+        <v>153.25</v>
       </c>
       <c r="E2685" t="s">
         <v>2109</v>
@@ -52372,7 +52372,7 @@
         <v>1</v>
       </c>
       <c r="D2686">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="E2686" t="s">
         <v>2110</v>
@@ -52389,7 +52389,7 @@
         <v>3</v>
       </c>
       <c r="D2687">
-        <v>116.75</v>
+        <v>115</v>
       </c>
       <c r="E2687" t="s">
         <v>2109</v>
@@ -52406,7 +52406,7 @@
         <v>1</v>
       </c>
       <c r="D2688">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="E2688" t="s">
         <v>2110</v>
@@ -52423,7 +52423,7 @@
         <v>7</v>
       </c>
       <c r="D2689">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="E2689" t="s">
         <v>2109</v>
@@ -52440,7 +52440,7 @@
         <v>1</v>
       </c>
       <c r="D2690">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E2690" t="s">
         <v>2110</v>
@@ -52457,7 +52457,7 @@
         <v>7</v>
       </c>
       <c r="D2691">
-        <v>77.75</v>
+        <v>76.75</v>
       </c>
       <c r="E2691" t="s">
         <v>2109</v>
@@ -52474,7 +52474,7 @@
         <v>1</v>
       </c>
       <c r="D2692">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="E2692" t="s">
         <v>2110</v>
@@ -52491,7 +52491,7 @@
         <v>3</v>
       </c>
       <c r="D2693">
-        <v>119.75</v>
+        <v>118</v>
       </c>
       <c r="E2693" t="s">
         <v>2109</v>
@@ -52508,7 +52508,7 @@
         <v>1</v>
       </c>
       <c r="D2694">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="E2694" t="s">
         <v>2110</v>
@@ -54004,7 +54004,7 @@
         <v>1</v>
       </c>
       <c r="D2782">
-        <v>899.75</v>
+        <v>903.75</v>
       </c>
       <c r="E2782" t="s">
         <v>2110</v>
@@ -54038,7 +54038,7 @@
         <v>1</v>
       </c>
       <c r="D2784">
-        <v>664.75</v>
+        <v>667.75</v>
       </c>
       <c r="E2784" t="s">
         <v>2110</v>
@@ -54055,7 +54055,7 @@
         <v>1</v>
       </c>
       <c r="D2785">
-        <v>402.7558651734451</v>
+        <v>402.7651130131816</v>
       </c>
       <c r="E2785" t="s">
         <v>2110</v>
@@ -54140,7 +54140,7 @@
         <v>1</v>
       </c>
       <c r="D2790">
-        <v>296.0473311379482</v>
+        <v>296.0475637948571</v>
       </c>
       <c r="E2790" t="s">
         <v>2110</v>
@@ -54157,7 +54157,7 @@
         <v>1</v>
       </c>
       <c r="D2791">
-        <v>296.0469104308899</v>
+        <v>296.047175404177</v>
       </c>
       <c r="E2791" t="s">
         <v>2110</v>
@@ -54174,7 +54174,7 @@
         <v>22</v>
       </c>
       <c r="D2792">
-        <v>128</v>
+        <v>126.75</v>
       </c>
       <c r="E2792" t="s">
         <v>2110</v>
@@ -54225,7 +54225,7 @@
         <v>3</v>
       </c>
       <c r="D2795">
-        <v>69.03186691006317</v>
+        <v>69.00663801834411</v>
       </c>
       <c r="E2795" t="s">
         <v>2109</v>
@@ -54242,7 +54242,7 @@
         <v>1</v>
       </c>
       <c r="D2796">
-        <v>828.3824029207581</v>
+        <v>828.0796562201292</v>
       </c>
       <c r="E2796" t="s">
         <v>2110</v>
@@ -54327,7 +54327,7 @@
         <v>10</v>
       </c>
       <c r="D2801">
-        <v>27.25</v>
+        <v>26.5</v>
       </c>
       <c r="E2801" t="s">
         <v>2109</v>
@@ -54344,7 +54344,7 @@
         <v>1</v>
       </c>
       <c r="D2802">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E2802" t="s">
         <v>2110</v>
@@ -54361,7 +54361,7 @@
         <v>10</v>
       </c>
       <c r="D2803">
-        <v>25.75</v>
+        <v>24.75</v>
       </c>
       <c r="E2803" t="s">
         <v>2109</v>
@@ -54378,7 +54378,7 @@
         <v>1</v>
       </c>
       <c r="D2804">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E2804" t="s">
         <v>2110</v>
@@ -55007,7 +55007,7 @@
         <v>1</v>
       </c>
       <c r="D2841">
-        <v>146.5</v>
+        <v>144.75</v>
       </c>
       <c r="E2841" t="s">
         <v>2110</v>
@@ -55024,7 +55024,7 @@
         <v>1</v>
       </c>
       <c r="D2842">
-        <v>147.5</v>
+        <v>146</v>
       </c>
       <c r="E2842" t="s">
         <v>2110</v>
@@ -55041,7 +55041,7 @@
         <v>2</v>
       </c>
       <c r="D2843">
-        <v>402.5</v>
+        <v>398.25</v>
       </c>
       <c r="E2843" t="s">
         <v>2109</v>
@@ -55058,7 +55058,7 @@
         <v>1</v>
       </c>
       <c r="D2844">
-        <v>805</v>
+        <v>796.5</v>
       </c>
       <c r="E2844" t="s">
         <v>2110</v>
@@ -55075,7 +55075,7 @@
         <v>2</v>
       </c>
       <c r="D2845">
-        <v>394.25</v>
+        <v>390.25</v>
       </c>
       <c r="E2845" t="s">
         <v>2109</v>
@@ -55092,7 +55092,7 @@
         <v>1</v>
       </c>
       <c r="D2846">
-        <v>788.5</v>
+        <v>780.5</v>
       </c>
       <c r="E2846" t="s">
         <v>2110</v>
@@ -55109,7 +55109,7 @@
         <v>2</v>
       </c>
       <c r="D2847">
-        <v>228.8852133914473</v>
+        <v>226.4334193433791</v>
       </c>
       <c r="E2847" t="s">
         <v>2109</v>
@@ -55126,7 +55126,7 @@
         <v>1</v>
       </c>
       <c r="D2848">
-        <v>915.540853565789</v>
+        <v>905.7336773735163</v>
       </c>
       <c r="E2848" t="s">
         <v>2110</v>
@@ -55143,7 +55143,7 @@
         <v>2</v>
       </c>
       <c r="D2849">
-        <v>227.8024560503133</v>
+        <v>225.3622603836572</v>
       </c>
       <c r="E2849" t="s">
         <v>2109</v>
@@ -55160,7 +55160,7 @@
         <v>1</v>
       </c>
       <c r="D2850">
-        <v>911.2098242012534</v>
+        <v>901.4490415346289</v>
       </c>
       <c r="E2850" t="s">
         <v>2110</v>
@@ -55177,7 +55177,7 @@
         <v>25</v>
       </c>
       <c r="D2851">
-        <v>281.7452731048179</v>
+        <v>281.7313293532804</v>
       </c>
       <c r="E2851" t="s">
         <v>2109</v>
@@ -55194,7 +55194,7 @@
         <v>29</v>
       </c>
       <c r="D2852">
-        <v>563.4905462096358</v>
+        <v>563.4626587065608</v>
       </c>
       <c r="E2852" t="s">
         <v>2110</v>
@@ -55211,7 +55211,7 @@
         <v>25</v>
       </c>
       <c r="D2853">
-        <v>280.636663575335</v>
+        <v>280.6436365879185</v>
       </c>
       <c r="E2853" t="s">
         <v>2109</v>
@@ -55228,7 +55228,7 @@
         <v>29</v>
       </c>
       <c r="D2854">
-        <v>561.2733271506701</v>
+        <v>561.287273175837</v>
       </c>
       <c r="E2854" t="s">
         <v>2110</v>
@@ -55313,7 +55313,7 @@
         <v>3</v>
       </c>
       <c r="D2859">
-        <v>23.75</v>
+        <v>23.25</v>
       </c>
       <c r="E2859" t="s">
         <v>2109</v>
@@ -55330,7 +55330,7 @@
         <v>1</v>
       </c>
       <c r="D2860">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E2860" t="s">
         <v>2110</v>
@@ -55925,7 +55925,7 @@
         <v>1</v>
       </c>
       <c r="D2895">
-        <v>766.192605353198</v>
+        <v>766.7381378570551</v>
       </c>
       <c r="E2895" t="s">
         <v>2110</v>
@@ -55942,7 +55942,7 @@
         <v>1</v>
       </c>
       <c r="D2896">
-        <v>763.0001667604553</v>
+        <v>763.1800212916593</v>
       </c>
       <c r="E2896" t="s">
         <v>2110</v>
@@ -55959,7 +55959,7 @@
         <v>1</v>
       </c>
       <c r="D2897">
-        <v>596.75</v>
+        <v>597</v>
       </c>
       <c r="E2897" t="s">
         <v>2110</v>
@@ -56146,7 +56146,7 @@
         <v>3</v>
       </c>
       <c r="D2908">
-        <v>85.25</v>
+        <v>84</v>
       </c>
       <c r="E2908" t="s">
         <v>2109</v>
@@ -56163,7 +56163,7 @@
         <v>1</v>
       </c>
       <c r="D2909">
-        <v>511.5</v>
+        <v>504</v>
       </c>
       <c r="E2909" t="s">
         <v>2110</v>
@@ -56180,7 +56180,7 @@
         <v>3</v>
       </c>
       <c r="D2910">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="E2910" t="s">
         <v>2109</v>
@@ -56197,7 +56197,7 @@
         <v>1</v>
       </c>
       <c r="D2911">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E2911" t="s">
         <v>2110</v>
@@ -56214,7 +56214,7 @@
         <v>3</v>
       </c>
       <c r="D2912">
-        <v>64.25</v>
+        <v>63.5</v>
       </c>
       <c r="E2912" t="s">
         <v>2109</v>
@@ -56231,7 +56231,7 @@
         <v>1</v>
       </c>
       <c r="D2913">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E2913" t="s">
         <v>2110</v>
@@ -56248,7 +56248,7 @@
         <v>10</v>
       </c>
       <c r="D2914">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="E2914" t="s">
         <v>2109</v>
@@ -56265,7 +56265,7 @@
         <v>1</v>
       </c>
       <c r="D2915">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E2915" t="s">
         <v>2110</v>
@@ -56282,7 +56282,7 @@
         <v>10</v>
       </c>
       <c r="D2916">
-        <v>42.75</v>
+        <v>42.25</v>
       </c>
       <c r="E2916" t="s">
         <v>2109</v>
@@ -56299,7 +56299,7 @@
         <v>1</v>
       </c>
       <c r="D2917">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E2917" t="s">
         <v>2110</v>
@@ -56316,7 +56316,7 @@
         <v>10</v>
       </c>
       <c r="D2918">
-        <v>62</v>
+        <v>61.5</v>
       </c>
       <c r="E2918" t="s">
         <v>2109</v>
@@ -56333,7 +56333,7 @@
         <v>1</v>
       </c>
       <c r="D2919">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E2919" t="s">
         <v>2110</v>
@@ -56350,7 +56350,7 @@
         <v>10</v>
       </c>
       <c r="D2920">
-        <v>63.5</v>
+        <v>62.75</v>
       </c>
       <c r="E2920" t="s">
         <v>2109</v>
@@ -56367,7 +56367,7 @@
         <v>1</v>
       </c>
       <c r="D2921">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E2921" t="s">
         <v>2110</v>
@@ -56384,7 +56384,7 @@
         <v>2</v>
       </c>
       <c r="D2922">
-        <v>89.99335889997018</v>
+        <v>89.10054491858482</v>
       </c>
       <c r="E2922" t="s">
         <v>2109</v>
@@ -56401,7 +56401,7 @@
         <v>1</v>
       </c>
       <c r="D2923">
-        <v>719.9468711997614</v>
+        <v>712.8043593486785</v>
       </c>
       <c r="E2923" t="s">
         <v>2110</v>
@@ -56418,7 +56418,7 @@
         <v>2</v>
       </c>
       <c r="D2924">
-        <v>90.28451782241059</v>
+        <v>89.38881528613699</v>
       </c>
       <c r="E2924" t="s">
         <v>2109</v>
@@ -56435,7 +56435,7 @@
         <v>1</v>
       </c>
       <c r="D2925">
-        <v>722.2761425792847</v>
+        <v>715.1105222890959</v>
       </c>
       <c r="E2925" t="s">
         <v>2110</v>
@@ -56979,7 +56979,7 @@
         <v>3</v>
       </c>
       <c r="D2957">
-        <v>136</v>
+        <v>136.25</v>
       </c>
       <c r="E2957" t="s">
         <v>2109</v>
@@ -56996,7 +56996,7 @@
         <v>1</v>
       </c>
       <c r="D2958">
-        <v>2720</v>
+        <v>2725</v>
       </c>
       <c r="E2958" t="s">
         <v>2110</v>
@@ -57421,7 +57421,7 @@
         <v>3</v>
       </c>
       <c r="D2983">
-        <v>57.37781554752108</v>
+        <v>57.37781554752107</v>
       </c>
       <c r="E2983" t="s">
         <v>2109</v>
@@ -58339,7 +58339,7 @@
         <v>3</v>
       </c>
       <c r="D3037">
-        <v>83</v>
+        <v>81.25</v>
       </c>
       <c r="E3037" t="s">
         <v>2109</v>
@@ -58356,7 +58356,7 @@
         <v>1</v>
       </c>
       <c r="D3038">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="E3038" t="s">
         <v>2110</v>
@@ -58373,7 +58373,7 @@
         <v>68</v>
       </c>
       <c r="D3039">
-        <v>567.5</v>
+        <v>560.5</v>
       </c>
       <c r="E3039" t="s">
         <v>2109</v>
@@ -58390,7 +58390,7 @@
         <v>1</v>
       </c>
       <c r="D3040">
-        <v>6810</v>
+        <v>6726</v>
       </c>
       <c r="E3040" t="s">
         <v>2110</v>
@@ -58458,7 +58458,7 @@
         <v>1</v>
       </c>
       <c r="D3044">
-        <v>296.0362718838503</v>
+        <v>296.0361615045288</v>
       </c>
       <c r="E3044" t="s">
         <v>2110</v>
@@ -58475,7 +58475,7 @@
         <v>1</v>
       </c>
       <c r="D3045">
-        <v>296.0360313083959</v>
+        <v>296.0360329290943</v>
       </c>
       <c r="E3045" t="s">
         <v>2110</v>
@@ -58492,7 +58492,7 @@
         <v>1</v>
       </c>
       <c r="D3046">
-        <v>296.0362274653584</v>
+        <v>296.036280480908</v>
       </c>
       <c r="E3046" t="s">
         <v>2110</v>
@@ -58594,7 +58594,7 @@
         <v>2</v>
       </c>
       <c r="D3052">
-        <v>311.5</v>
+        <v>309.25</v>
       </c>
       <c r="E3052" t="s">
         <v>2110</v>
@@ -58611,7 +58611,7 @@
         <v>2</v>
       </c>
       <c r="D3053">
-        <v>450.5</v>
+        <v>447.25</v>
       </c>
       <c r="E3053" t="s">
         <v>2110</v>
@@ -58628,7 +58628,7 @@
         <v>2</v>
       </c>
       <c r="D3054">
-        <v>281.5</v>
+        <v>279.5</v>
       </c>
       <c r="E3054" t="s">
         <v>2110</v>
@@ -58645,7 +58645,7 @@
         <v>10</v>
       </c>
       <c r="D3055">
-        <v>72.7699570202267</v>
+        <v>72.76989311415366</v>
       </c>
       <c r="E3055" t="s">
         <v>2109</v>
@@ -58662,7 +58662,7 @@
         <v>1</v>
       </c>
       <c r="D3056">
-        <v>873.2394842427204</v>
+        <v>873.2387173698439</v>
       </c>
       <c r="E3056" t="s">
         <v>2110</v>
@@ -58679,7 +58679,7 @@
         <v>10</v>
       </c>
       <c r="D3057">
-        <v>72.76985188143652</v>
+        <v>72.769842164284</v>
       </c>
       <c r="E3057" t="s">
         <v>2109</v>
@@ -58696,7 +58696,7 @@
         <v>1</v>
       </c>
       <c r="D3058">
-        <v>873.2382225772383</v>
+        <v>873.238105971408</v>
       </c>
       <c r="E3058" t="s">
         <v>2110</v>
@@ -58781,7 +58781,7 @@
         <v>10</v>
       </c>
       <c r="D3063">
-        <v>35</v>
+        <v>35.25</v>
       </c>
       <c r="E3063" t="s">
         <v>2109</v>
@@ -58798,7 +58798,7 @@
         <v>1</v>
       </c>
       <c r="D3064">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E3064" t="s">
         <v>2110</v>
@@ -58985,7 +58985,7 @@
         <v>431</v>
       </c>
       <c r="D3075">
-        <v>122.1562857635238</v>
+        <v>122.1561982893596</v>
       </c>
       <c r="E3075" t="s">
         <v>2109</v>
@@ -59002,7 +59002,7 @@
         <v>1</v>
       </c>
       <c r="D3076">
-        <v>1465.875429162285</v>
+        <v>1465.874379472315</v>
       </c>
       <c r="E3076" t="s">
         <v>2110</v>
@@ -59087,7 +59087,7 @@
         <v>431</v>
       </c>
       <c r="D3081">
-        <v>63.747693460689</v>
+        <v>63.74769346068899</v>
       </c>
       <c r="E3081" t="s">
         <v>2109</v>
@@ -59189,7 +59189,7 @@
         <v>431</v>
       </c>
       <c r="D3087">
-        <v>63.747693460689</v>
+        <v>63.74769346068899</v>
       </c>
       <c r="E3087" t="s">
         <v>2109</v>
@@ -59376,7 +59376,7 @@
         <v>1</v>
       </c>
       <c r="D3098">
-        <v>302.1540324121909</v>
+        <v>296.8208398992086</v>
       </c>
       <c r="E3098" t="s">
         <v>2110</v>
@@ -59393,7 +59393,7 @@
         <v>1</v>
       </c>
       <c r="D3099">
-        <v>302.1540324121909</v>
+        <v>296.8208398992086</v>
       </c>
       <c r="E3099" t="s">
         <v>2110</v>
@@ -59410,7 +59410,7 @@
         <v>1</v>
       </c>
       <c r="D3100">
-        <v>302.1540324121909</v>
+        <v>296.8208398992086</v>
       </c>
       <c r="E3100" t="s">
         <v>2110</v>
@@ -59427,7 +59427,7 @@
         <v>1</v>
       </c>
       <c r="D3101">
-        <v>325.25</v>
+        <v>317.75</v>
       </c>
       <c r="E3101" t="s">
         <v>2110</v>
@@ -59444,7 +59444,7 @@
         <v>1</v>
       </c>
       <c r="D3102">
-        <v>212.5</v>
+        <v>207.75</v>
       </c>
       <c r="E3102" t="s">
         <v>2110</v>
@@ -59512,7 +59512,7 @@
         <v>3</v>
       </c>
       <c r="D3106">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="E3106" t="s">
         <v>2109</v>
@@ -59529,7 +59529,7 @@
         <v>1</v>
       </c>
       <c r="D3107">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3107" t="s">
         <v>2110</v>
@@ -59546,7 +59546,7 @@
         <v>3</v>
       </c>
       <c r="D3108">
-        <v>94</v>
+        <v>92.75</v>
       </c>
       <c r="E3108" t="s">
         <v>2109</v>
@@ -59563,7 +59563,7 @@
         <v>1</v>
       </c>
       <c r="D3109">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E3109" t="s">
         <v>2110</v>
@@ -59903,7 +59903,7 @@
         <v>2</v>
       </c>
       <c r="D3129">
-        <v>306.8158869067654</v>
+        <v>310.5730935952212</v>
       </c>
       <c r="E3129" t="s">
         <v>2110</v>
@@ -59920,7 +59920,7 @@
         <v>2</v>
       </c>
       <c r="D3130">
-        <v>306.8158869067654</v>
+        <v>310.5730935952212</v>
       </c>
       <c r="E3130" t="s">
         <v>2110</v>
@@ -59937,7 +59937,7 @@
         <v>2</v>
       </c>
       <c r="D3131">
-        <v>306.8158869067654</v>
+        <v>306.8351232489445</v>
       </c>
       <c r="E3131" t="s">
         <v>2110</v>
@@ -59954,7 +59954,7 @@
         <v>2</v>
       </c>
       <c r="D3132">
-        <v>306.8158869067654</v>
+        <v>310.5730935952212</v>
       </c>
       <c r="E3132" t="s">
         <v>2110</v>
@@ -60073,7 +60073,7 @@
         <v>7</v>
       </c>
       <c r="D3139">
-        <v>45</v>
+        <v>44.75</v>
       </c>
       <c r="E3139" t="s">
         <v>2109</v>
@@ -60090,7 +60090,7 @@
         <v>1</v>
       </c>
       <c r="D3140">
-        <v>450</v>
+        <v>447.5</v>
       </c>
       <c r="E3140" t="s">
         <v>2110</v>
@@ -60107,7 +60107,7 @@
         <v>7</v>
       </c>
       <c r="D3141">
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
       <c r="E3141" t="s">
         <v>2109</v>
@@ -60124,7 +60124,7 @@
         <v>1</v>
       </c>
       <c r="D3142">
-        <v>442.5</v>
+        <v>437.5</v>
       </c>
       <c r="E3142" t="s">
         <v>2110</v>
@@ -60141,7 +60141,7 @@
         <v>1</v>
       </c>
       <c r="D3143">
-        <v>742.6290077838381</v>
+        <v>731.5429832432307</v>
       </c>
       <c r="E3143" t="s">
         <v>2109</v>
@@ -60158,7 +60158,7 @@
         <v>16</v>
       </c>
       <c r="D3144">
-        <v>6683.661070054543</v>
+        <v>6583.886849189076</v>
       </c>
       <c r="E3144" t="s">
         <v>2110</v>
@@ -60175,7 +60175,7 @@
         <v>1</v>
       </c>
       <c r="D3145">
-        <v>742.6290077838381</v>
+        <v>731.5429832432307</v>
       </c>
       <c r="E3145" t="s">
         <v>2109</v>
@@ -60192,7 +60192,7 @@
         <v>16</v>
       </c>
       <c r="D3146">
-        <v>6683.661070054543</v>
+        <v>6583.886849189076</v>
       </c>
       <c r="E3146" t="s">
         <v>2110</v>
@@ -60209,7 +60209,7 @@
         <v>1</v>
       </c>
       <c r="D3147">
-        <v>152</v>
+        <v>150.5</v>
       </c>
       <c r="E3147" t="s">
         <v>2110</v>
@@ -60226,7 +60226,7 @@
         <v>1</v>
       </c>
       <c r="D3148">
-        <v>153.75</v>
+        <v>152.25</v>
       </c>
       <c r="E3148" t="s">
         <v>2110</v>
@@ -60243,7 +60243,7 @@
         <v>1</v>
       </c>
       <c r="D3149">
-        <v>830.25</v>
+        <v>819.5</v>
       </c>
       <c r="E3149" t="s">
         <v>2109</v>
@@ -60260,7 +60260,7 @@
         <v>16</v>
       </c>
       <c r="D3150">
-        <v>7472.25</v>
+        <v>7375.5</v>
       </c>
       <c r="E3150" t="s">
         <v>2110</v>
@@ -60345,7 +60345,7 @@
         <v>1</v>
       </c>
       <c r="D3155">
-        <v>151.5</v>
+        <v>149</v>
       </c>
       <c r="E3155" t="s">
         <v>2110</v>
@@ -60362,7 +60362,7 @@
         <v>1</v>
       </c>
       <c r="D3156">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3156" t="s">
         <v>2110</v>
@@ -60379,7 +60379,7 @@
         <v>1</v>
       </c>
       <c r="D3157">
-        <v>94.5</v>
+        <v>93.5</v>
       </c>
       <c r="E3157" t="s">
         <v>2110</v>
@@ -60396,7 +60396,7 @@
         <v>1</v>
       </c>
       <c r="D3158">
-        <v>97</v>
+        <v>95.75</v>
       </c>
       <c r="E3158" t="s">
         <v>2110</v>
@@ -60413,7 +60413,7 @@
         <v>1</v>
       </c>
       <c r="D3159">
-        <v>1004.314107830214</v>
+        <v>992.483411205263</v>
       </c>
       <c r="E3159" t="s">
         <v>2110</v>
@@ -60430,7 +60430,7 @@
         <v>1</v>
       </c>
       <c r="D3160">
-        <v>1004.314107830214</v>
+        <v>992.483411205263</v>
       </c>
       <c r="E3160" t="s">
         <v>2110</v>
@@ -60447,7 +60447,7 @@
         <v>1</v>
       </c>
       <c r="D3161">
-        <v>959.5</v>
+        <v>948</v>
       </c>
       <c r="E3161" t="s">
         <v>2110</v>
@@ -60464,7 +60464,7 @@
         <v>2</v>
       </c>
       <c r="D3162">
-        <v>504.75</v>
+        <v>499.75</v>
       </c>
       <c r="E3162" t="s">
         <v>2110</v>
@@ -60481,7 +60481,7 @@
         <v>2</v>
       </c>
       <c r="D3163">
-        <v>447.75</v>
+        <v>443.5</v>
       </c>
       <c r="E3163" t="s">
         <v>2110</v>
@@ -60498,7 +60498,7 @@
         <v>2</v>
       </c>
       <c r="D3164">
-        <v>504.75</v>
+        <v>499.75</v>
       </c>
       <c r="E3164" t="s">
         <v>2110</v>
@@ -60515,7 +60515,7 @@
         <v>2</v>
       </c>
       <c r="D3165">
-        <v>447.75</v>
+        <v>443.5</v>
       </c>
       <c r="E3165" t="s">
         <v>2110</v>
@@ -60532,7 +60532,7 @@
         <v>2</v>
       </c>
       <c r="D3166">
-        <v>398.4754547915829</v>
+        <v>394.6894341860418</v>
       </c>
       <c r="E3166" t="s">
         <v>2110</v>
@@ -60549,7 +60549,7 @@
         <v>2</v>
       </c>
       <c r="D3167">
-        <v>398.4754547915829</v>
+        <v>394.6894341860418</v>
       </c>
       <c r="E3167" t="s">
         <v>2110</v>

--- a/manual/output_1223_chunk_3.xlsx
+++ b/manual/output_1223_chunk_3.xlsx
@@ -7342,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>326.7012496345857</v>
+        <v>325.4469194228542</v>
       </c>
       <c r="E25" t="s">
         <v>2178</v>
@@ -7359,7 +7359,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>326.692386158697</v>
+        <v>325.4381238758967</v>
       </c>
       <c r="E26" t="s">
         <v>2178</v>
@@ -7767,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>258.25</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
         <v>2178</v>
@@ -7920,7 +7920,7 @@
         <v>29</v>
       </c>
       <c r="D59">
-        <v>419.3925</v>
+        <v>419.8667083673666</v>
       </c>
       <c r="E59" t="s">
         <v>2178</v>
@@ -8515,7 +8515,7 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>45.61252137097471</v>
+        <v>45.40340764842458</v>
       </c>
       <c r="E94" t="s">
         <v>2179</v>
@@ -8532,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>547.3502564516965</v>
+        <v>544.8408917810949</v>
       </c>
       <c r="E95" t="s">
         <v>2178</v>
@@ -8685,7 +8685,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>60.20585686334243</v>
+        <v>60.1975</v>
       </c>
       <c r="E104" t="s">
         <v>2179</v>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>481.6468549067395</v>
+        <v>481.58</v>
       </c>
       <c r="E105" t="s">
         <v>2178</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>304.25</v>
+        <v>304</v>
       </c>
       <c r="E116" t="s">
         <v>2178</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>181.2316628697027</v>
+        <v>181.6166989810705</v>
       </c>
       <c r="E207" t="s">
         <v>2178</v>
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>181.2198493485325</v>
+        <v>181.4303670678227</v>
       </c>
       <c r="E208" t="s">
         <v>2178</v>
@@ -10572,7 +10572,7 @@
         <v>29</v>
       </c>
       <c r="D215">
-        <v>315.25</v>
+        <v>314.5</v>
       </c>
       <c r="E215" t="s">
         <v>2178</v>
@@ -10708,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>299.24625</v>
+        <v>298.9233351092184</v>
       </c>
       <c r="E223" t="s">
         <v>2178</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>306</v>
+        <v>304.75</v>
       </c>
       <c r="E224" t="s">
         <v>2178</v>
@@ -10742,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>299.24625</v>
+        <v>298.9975</v>
       </c>
       <c r="E225" t="s">
         <v>2178</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>346.75</v>
+        <v>346</v>
       </c>
       <c r="E226" t="s">
         <v>2178</v>
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>346.25</v>
+        <v>344.75</v>
       </c>
       <c r="E227" t="s">
         <v>2178</v>
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>63.48836098541798</v>
+        <v>63.9312441623727</v>
       </c>
       <c r="E248" t="s">
         <v>2178</v>
@@ -11150,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>63.46912595467055</v>
+        <v>63.96159221435713</v>
       </c>
       <c r="E249" t="s">
         <v>2178</v>
@@ -11218,7 +11218,7 @@
         <v>2</v>
       </c>
       <c r="D253">
-        <v>96.25</v>
+        <v>96</v>
       </c>
       <c r="E253" t="s">
         <v>2179</v>
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E254" t="s">
         <v>2178</v>
@@ -11252,7 +11252,7 @@
         <v>2</v>
       </c>
       <c r="D255">
-        <v>96.25</v>
+        <v>96</v>
       </c>
       <c r="E255" t="s">
         <v>2179</v>
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E256" t="s">
         <v>2178</v>
@@ -11762,7 +11762,7 @@
         <v>3</v>
       </c>
       <c r="D285">
-        <v>95.03707015703891</v>
+        <v>95.03707910937885</v>
       </c>
       <c r="E285" t="s">
         <v>2179</v>
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>570.2224209422335</v>
+        <v>570.2224746562731</v>
       </c>
       <c r="E286" t="s">
         <v>2178</v>
@@ -11796,7 +11796,7 @@
         <v>3</v>
       </c>
       <c r="D287">
-        <v>94.87153477968074</v>
+        <v>94.88071870527568</v>
       </c>
       <c r="E287" t="s">
         <v>2179</v>
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>569.2292086780844</v>
+        <v>569.2843122316541</v>
       </c>
       <c r="E288" t="s">
         <v>2178</v>
@@ -11830,7 +11830,7 @@
         <v>3</v>
       </c>
       <c r="D289">
-        <v>24.03765502579935</v>
+        <v>24.0449341192098</v>
       </c>
       <c r="E289" t="s">
         <v>2179</v>
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>288.4518603095922</v>
+        <v>288.5392094305176</v>
       </c>
       <c r="E290" t="s">
         <v>2178</v>
@@ -11949,7 +11949,7 @@
         <v>29</v>
       </c>
       <c r="D296">
-        <v>439.75</v>
+        <v>439</v>
       </c>
       <c r="E296" t="s">
         <v>2178</v>
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="D329">
-        <v>178.5590904163105</v>
+        <v>178.144835978381</v>
       </c>
       <c r="E329" t="s">
         <v>2178</v>
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>178.2104117627528</v>
+        <v>178.0907432196805</v>
       </c>
       <c r="E330" t="s">
         <v>2178</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="D331">
-        <v>178.5472059289183</v>
+        <v>178.1429951994123</v>
       </c>
       <c r="E331" t="s">
         <v>2178</v>
@@ -12578,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="D333">
-        <v>240.3420233733476</v>
+        <v>240.3356451208399</v>
       </c>
       <c r="E333" t="s">
         <v>2178</v>
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>239.7362354343482</v>
+        <v>239.7727390287369</v>
       </c>
       <c r="E334" t="s">
         <v>2178</v>
@@ -12799,7 +12799,7 @@
         <v>2</v>
       </c>
       <c r="D346">
-        <v>295.75</v>
+        <v>296.5</v>
       </c>
       <c r="E346" t="s">
         <v>2178</v>
@@ -12816,7 +12816,7 @@
         <v>2</v>
       </c>
       <c r="D347">
-        <v>301.75</v>
+        <v>301</v>
       </c>
       <c r="E347" t="s">
         <v>2178</v>
@@ -13547,7 +13547,7 @@
         <v>2</v>
       </c>
       <c r="D390">
-        <v>108.4636646329003</v>
+        <v>109.3337228932541</v>
       </c>
       <c r="E390" t="s">
         <v>2178</v>
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>441.25</v>
+        <v>432</v>
       </c>
       <c r="E452" t="s">
         <v>2178</v>
@@ -14635,7 +14635,7 @@
         <v>2</v>
       </c>
       <c r="D454">
-        <v>363.5</v>
+        <v>359</v>
       </c>
       <c r="E454" t="s">
         <v>2178</v>
@@ -14652,7 +14652,7 @@
         <v>2</v>
       </c>
       <c r="D455">
-        <v>360</v>
+        <v>335.5</v>
       </c>
       <c r="E455" t="s">
         <v>2178</v>
@@ -14669,7 +14669,7 @@
         <v>2</v>
       </c>
       <c r="D456">
-        <v>317.75</v>
+        <v>317.5</v>
       </c>
       <c r="E456" t="s">
         <v>2178</v>
@@ -14686,7 +14686,7 @@
         <v>2</v>
       </c>
       <c r="D457">
-        <v>377.5</v>
+        <v>373</v>
       </c>
       <c r="E457" t="s">
         <v>2178</v>
@@ -14703,7 +14703,7 @@
         <v>2</v>
       </c>
       <c r="D458">
-        <v>329.25</v>
+        <v>321.5</v>
       </c>
       <c r="E458" t="s">
         <v>2178</v>
@@ -14720,7 +14720,7 @@
         <v>2</v>
       </c>
       <c r="D459">
-        <v>338.5</v>
+        <v>324.5</v>
       </c>
       <c r="E459" t="s">
         <v>2178</v>
@@ -15400,7 +15400,7 @@
         <v>2</v>
       </c>
       <c r="D499">
-        <v>208.25</v>
+        <v>207.25</v>
       </c>
       <c r="E499" t="s">
         <v>2178</v>
@@ -15434,7 +15434,7 @@
         <v>3</v>
       </c>
       <c r="D501">
-        <v>48.14201673268186</v>
+        <v>47.93247332762542</v>
       </c>
       <c r="E501" t="s">
         <v>2179</v>
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="D502">
-        <v>577.7042007921823</v>
+        <v>575.1896799315051</v>
       </c>
       <c r="E502" t="s">
         <v>2178</v>
@@ -15502,7 +15502,7 @@
         <v>3</v>
       </c>
       <c r="D505">
-        <v>48.15335200897842</v>
+        <v>47.94371013108995</v>
       </c>
       <c r="E505" t="s">
         <v>2179</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="D506">
-        <v>577.8402241077411</v>
+        <v>575.3245215730794</v>
       </c>
       <c r="E506" t="s">
         <v>2178</v>
@@ -15536,7 +15536,7 @@
         <v>3</v>
       </c>
       <c r="D507">
-        <v>47.51125</v>
+        <v>47.97957954740221</v>
       </c>
       <c r="E507" t="s">
         <v>2179</v>
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="D508">
-        <v>570.135</v>
+        <v>575.7549545688265</v>
       </c>
       <c r="E508" t="s">
         <v>2178</v>
@@ -15604,7 +15604,7 @@
         <v>3</v>
       </c>
       <c r="D511">
-        <v>47.51125</v>
+        <v>47.79193624682146</v>
       </c>
       <c r="E511" t="s">
         <v>2179</v>
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="D512">
-        <v>570.135</v>
+        <v>573.5032349618575</v>
       </c>
       <c r="E512" t="s">
         <v>2178</v>
@@ -15638,7 +15638,7 @@
         <v>3</v>
       </c>
       <c r="D513">
-        <v>47.50794630013136</v>
+        <v>47.60985455206635</v>
       </c>
       <c r="E513" t="s">
         <v>2179</v>
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="D514">
-        <v>570.0953556015763</v>
+        <v>571.3182546247963</v>
       </c>
       <c r="E514" t="s">
         <v>2178</v>
@@ -15672,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="D515">
-        <v>142.25</v>
+        <v>143</v>
       </c>
       <c r="E515" t="s">
         <v>2178</v>
@@ -15910,7 +15910,7 @@
         <v>1</v>
       </c>
       <c r="D529">
-        <v>756.7438023324562</v>
+        <v>756.7372813318135</v>
       </c>
       <c r="E529" t="s">
         <v>2178</v>
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>758.482330365075</v>
+        <v>758.4222275614032</v>
       </c>
       <c r="E530" t="s">
         <v>2178</v>
@@ -16794,7 +16794,7 @@
         <v>68</v>
       </c>
       <c r="D581">
-        <v>422.5</v>
+        <v>420.75</v>
       </c>
       <c r="E581" t="s">
         <v>2179</v>
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="D582">
-        <v>5070</v>
+        <v>5049</v>
       </c>
       <c r="E582" t="s">
         <v>2178</v>
@@ -16862,7 +16862,7 @@
         <v>1</v>
       </c>
       <c r="D585">
-        <v>557.25</v>
+        <v>556</v>
       </c>
       <c r="E585" t="s">
         <v>2178</v>
@@ -16964,7 +16964,7 @@
         <v>2</v>
       </c>
       <c r="D591">
-        <v>54.5</v>
+        <v>54.25</v>
       </c>
       <c r="E591" t="s">
         <v>2178</v>
@@ -17049,7 +17049,7 @@
         <v>3</v>
       </c>
       <c r="D596">
-        <v>98.64857835746683</v>
+        <v>98.64857836345573</v>
       </c>
       <c r="E596" t="s">
         <v>2179</v>
@@ -17066,7 +17066,7 @@
         <v>1</v>
       </c>
       <c r="D597">
-        <v>1578.377253719469</v>
+        <v>1578.377253815292</v>
       </c>
       <c r="E597" t="s">
         <v>2178</v>
@@ -17083,7 +17083,7 @@
         <v>3</v>
       </c>
       <c r="D598">
-        <v>98.64857860079628</v>
+        <v>98.64857860331068</v>
       </c>
       <c r="E598" t="s">
         <v>2179</v>
@@ -17100,7 +17100,7 @@
         <v>1</v>
       </c>
       <c r="D599">
-        <v>1578.377257612741</v>
+        <v>1578.377257652971</v>
       </c>
       <c r="E599" t="s">
         <v>2178</v>
@@ -17117,7 +17117,7 @@
         <v>68</v>
       </c>
       <c r="D600">
-        <v>417.25</v>
+        <v>417.5</v>
       </c>
       <c r="E600" t="s">
         <v>2179</v>
@@ -17134,7 +17134,7 @@
         <v>3</v>
       </c>
       <c r="D601">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E601" t="s">
         <v>2178</v>
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="D602">
-        <v>10014</v>
+        <v>10020</v>
       </c>
       <c r="E602" t="s">
         <v>2178</v>
@@ -17780,7 +17780,7 @@
         <v>1</v>
       </c>
       <c r="D639">
-        <v>757</v>
+        <v>757.25</v>
       </c>
       <c r="E639" t="s">
         <v>2178</v>
@@ -18613,7 +18613,7 @@
         <v>3</v>
       </c>
       <c r="D688">
-        <v>59.25</v>
+        <v>59.75</v>
       </c>
       <c r="E688" t="s">
         <v>2179</v>
@@ -18630,7 +18630,7 @@
         <v>1</v>
       </c>
       <c r="D689">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="E689" t="s">
         <v>2178</v>
@@ -18664,7 +18664,7 @@
         <v>3</v>
       </c>
       <c r="D691">
-        <v>75.75</v>
+        <v>76</v>
       </c>
       <c r="E691" t="s">
         <v>2179</v>
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="D692">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E692" t="s">
         <v>2178</v>
@@ -18868,7 +18868,7 @@
         <v>3</v>
       </c>
       <c r="D703">
-        <v>294.25</v>
+        <v>294</v>
       </c>
       <c r="E703" t="s">
         <v>2178</v>
@@ -19089,7 +19089,7 @@
         <v>14</v>
       </c>
       <c r="D716">
-        <v>118</v>
+        <v>118.25</v>
       </c>
       <c r="E716" t="s">
         <v>2179</v>
@@ -19106,7 +19106,7 @@
         <v>1</v>
       </c>
       <c r="D717">
-        <v>708</v>
+        <v>709.5</v>
       </c>
       <c r="E717" t="s">
         <v>2178</v>
@@ -19123,7 +19123,7 @@
         <v>3</v>
       </c>
       <c r="D718">
-        <v>233.5</v>
+        <v>233.25</v>
       </c>
       <c r="E718" t="s">
         <v>2178</v>
@@ -19140,7 +19140,7 @@
         <v>3</v>
       </c>
       <c r="D719">
-        <v>235</v>
+        <v>234.75</v>
       </c>
       <c r="E719" t="s">
         <v>2178</v>
@@ -20092,7 +20092,7 @@
         <v>4</v>
       </c>
       <c r="D775">
-        <v>209.25</v>
+        <v>212.75</v>
       </c>
       <c r="E775" t="s">
         <v>2179</v>
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="D776">
-        <v>2511</v>
+        <v>2553</v>
       </c>
       <c r="E776" t="s">
         <v>2178</v>
@@ -20330,7 +20330,7 @@
         <v>2</v>
       </c>
       <c r="D789">
-        <v>168.8461716864008</v>
+        <v>168.2187075962131</v>
       </c>
       <c r="E789" t="s">
         <v>2178</v>
@@ -20891,7 +20891,7 @@
         <v>2</v>
       </c>
       <c r="D822">
-        <v>168.862806976623</v>
+        <v>168.2352194703975</v>
       </c>
       <c r="E822" t="s">
         <v>2178</v>
@@ -20908,7 +20908,7 @@
         <v>2</v>
       </c>
       <c r="D823">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E823" t="s">
         <v>2178</v>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="D884">
-        <v>95.75</v>
+        <v>95.25</v>
       </c>
       <c r="E884" t="s">
         <v>2178</v>
@@ -22506,7 +22506,7 @@
         <v>5</v>
       </c>
       <c r="D917">
-        <v>524.25</v>
+        <v>524.5</v>
       </c>
       <c r="E917" t="s">
         <v>2178</v>
@@ -22523,7 +22523,7 @@
         <v>5</v>
       </c>
       <c r="D918">
-        <v>590.5</v>
+        <v>590.75</v>
       </c>
       <c r="E918" t="s">
         <v>2178</v>
@@ -22540,7 +22540,7 @@
         <v>5</v>
       </c>
       <c r="D919">
-        <v>256.5</v>
+        <v>256.75</v>
       </c>
       <c r="E919" t="s">
         <v>2178</v>
@@ -23492,7 +23492,7 @@
         <v>1</v>
       </c>
       <c r="D975">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E975" t="s">
         <v>2178</v>
@@ -23628,7 +23628,7 @@
         <v>3</v>
       </c>
       <c r="D983">
-        <v>246.5</v>
+        <v>246</v>
       </c>
       <c r="E983" t="s">
         <v>2179</v>
@@ -23645,7 +23645,7 @@
         <v>1</v>
       </c>
       <c r="D984">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="E984" t="s">
         <v>2178</v>
@@ -24002,7 +24002,7 @@
         <v>1</v>
       </c>
       <c r="D1005">
-        <v>679.25</v>
+        <v>679.5</v>
       </c>
       <c r="E1005" t="s">
         <v>2178</v>
@@ -24036,7 +24036,7 @@
         <v>1</v>
       </c>
       <c r="D1007">
-        <v>521.75</v>
+        <v>521.25</v>
       </c>
       <c r="E1007" t="s">
         <v>2178</v>
@@ -24053,7 +24053,7 @@
         <v>2</v>
       </c>
       <c r="D1008">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="E1008" t="s">
         <v>2178</v>
@@ -24070,7 +24070,7 @@
         <v>2</v>
       </c>
       <c r="D1009">
-        <v>52</v>
+        <v>51.75</v>
       </c>
       <c r="E1009" t="s">
         <v>2178</v>
@@ -24257,7 +24257,7 @@
         <v>2</v>
       </c>
       <c r="D1020">
-        <v>729.58375</v>
+        <v>736.2700188122243</v>
       </c>
       <c r="E1020" t="s">
         <v>2179</v>
@@ -24274,7 +24274,7 @@
         <v>1</v>
       </c>
       <c r="D1021">
-        <v>2918.335</v>
+        <v>2945.080075248897</v>
       </c>
       <c r="E1021" t="s">
         <v>2178</v>
@@ -24291,7 +24291,7 @@
         <v>2</v>
       </c>
       <c r="D1022">
-        <v>729.58375</v>
+        <v>734.8288075773673</v>
       </c>
       <c r="E1022" t="s">
         <v>2179</v>
@@ -24308,7 +24308,7 @@
         <v>1</v>
       </c>
       <c r="D1023">
-        <v>2918.335</v>
+        <v>2939.315230309469</v>
       </c>
       <c r="E1023" t="s">
         <v>2178</v>
@@ -25396,7 +25396,7 @@
         <v>2</v>
       </c>
       <c r="D1087">
-        <v>475</v>
+        <v>482.5</v>
       </c>
       <c r="E1087" t="s">
         <v>2178</v>
@@ -25430,7 +25430,7 @@
         <v>2</v>
       </c>
       <c r="D1089">
-        <v>606.75</v>
+        <v>621.5</v>
       </c>
       <c r="E1089" t="s">
         <v>2178</v>
@@ -25447,7 +25447,7 @@
         <v>2</v>
       </c>
       <c r="D1090">
-        <v>746</v>
+        <v>736.5</v>
       </c>
       <c r="E1090" t="s">
         <v>2178</v>
@@ -25549,7 +25549,7 @@
         <v>1</v>
       </c>
       <c r="D1096">
-        <v>286.7873574928834</v>
+        <v>286.31125</v>
       </c>
       <c r="E1096" t="s">
         <v>2178</v>
@@ -25583,7 +25583,7 @@
         <v>1</v>
       </c>
       <c r="D1098">
-        <v>285.5</v>
+        <v>285</v>
       </c>
       <c r="E1098" t="s">
         <v>2178</v>
@@ -25668,7 +25668,7 @@
         <v>1</v>
       </c>
       <c r="D1103">
-        <v>253.75</v>
+        <v>256.25</v>
       </c>
       <c r="E1103" t="s">
         <v>2178</v>
@@ -25702,7 +25702,7 @@
         <v>10</v>
       </c>
       <c r="D1105">
-        <v>46.88228500437161</v>
+        <v>46.765</v>
       </c>
       <c r="E1105" t="s">
         <v>2179</v>
@@ -25719,7 +25719,7 @@
         <v>1</v>
       </c>
       <c r="D1106">
-        <v>1125.174840104919</v>
+        <v>1122.36</v>
       </c>
       <c r="E1106" t="s">
         <v>2178</v>
@@ -25770,7 +25770,7 @@
         <v>10</v>
       </c>
       <c r="D1109">
-        <v>46.79997123202478</v>
+        <v>46.765</v>
       </c>
       <c r="E1109" t="s">
         <v>2179</v>
@@ -25787,7 +25787,7 @@
         <v>1</v>
       </c>
       <c r="D1110">
-        <v>1123.199309568595</v>
+        <v>1122.36</v>
       </c>
       <c r="E1110" t="s">
         <v>2178</v>
@@ -26042,7 +26042,7 @@
         <v>1</v>
       </c>
       <c r="D1125">
-        <v>127.6862288043488</v>
+        <v>127.6442797472049</v>
       </c>
       <c r="E1125" t="s">
         <v>2178</v>
@@ -26144,7 +26144,7 @@
         <v>1</v>
       </c>
       <c r="D1131">
-        <v>345.1958053389211</v>
+        <v>345.1688581067107</v>
       </c>
       <c r="E1131" t="s">
         <v>2178</v>
@@ -26977,7 +26977,7 @@
         <v>2</v>
       </c>
       <c r="D1180">
-        <v>101.058963937028</v>
+        <v>101.0676422721973</v>
       </c>
       <c r="E1180" t="s">
         <v>2178</v>
@@ -27776,7 +27776,7 @@
         <v>29</v>
       </c>
       <c r="D1227">
-        <v>279.5</v>
+        <v>278.75</v>
       </c>
       <c r="E1227" t="s">
         <v>2178</v>
@@ -27895,7 +27895,7 @@
         <v>12</v>
       </c>
       <c r="D1234">
-        <v>861.25</v>
+        <v>861</v>
       </c>
       <c r="E1234" t="s">
         <v>2178</v>
@@ -28524,7 +28524,7 @@
         <v>1</v>
       </c>
       <c r="D1271">
-        <v>52.5</v>
+        <v>52.25</v>
       </c>
       <c r="E1271" t="s">
         <v>2178</v>
@@ -28592,7 +28592,7 @@
         <v>1</v>
       </c>
       <c r="D1275">
-        <v>90.78222511917774</v>
+        <v>90.75722552629091</v>
       </c>
       <c r="E1275" t="s">
         <v>2178</v>
@@ -28915,7 +28915,7 @@
         <v>3</v>
       </c>
       <c r="D1294">
-        <v>97</v>
+        <v>96.75</v>
       </c>
       <c r="E1294" t="s">
         <v>2179</v>
@@ -28932,7 +28932,7 @@
         <v>1</v>
       </c>
       <c r="D1295">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E1295" t="s">
         <v>2178</v>
@@ -29561,7 +29561,7 @@
         <v>1</v>
       </c>
       <c r="D1332">
-        <v>779.75</v>
+        <v>779.5</v>
       </c>
       <c r="E1332" t="s">
         <v>2178</v>
@@ -29578,7 +29578,7 @@
         <v>1</v>
       </c>
       <c r="D1333">
-        <v>550.5</v>
+        <v>548.5</v>
       </c>
       <c r="E1333" t="s">
         <v>2178</v>
@@ -29595,7 +29595,7 @@
         <v>1</v>
       </c>
       <c r="D1334">
-        <v>452.75</v>
+        <v>452.25</v>
       </c>
       <c r="E1334" t="s">
         <v>2178</v>
@@ -29646,7 +29646,7 @@
         <v>2</v>
       </c>
       <c r="D1337">
-        <v>283</v>
+        <v>282.5</v>
       </c>
       <c r="E1337" t="s">
         <v>2178</v>
@@ -30241,7 +30241,7 @@
         <v>3</v>
       </c>
       <c r="D1372">
-        <v>124</v>
+        <v>123.25</v>
       </c>
       <c r="E1372" t="s">
         <v>2179</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="D1373">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E1373" t="s">
         <v>2178</v>
@@ -30275,7 +30275,7 @@
         <v>3</v>
       </c>
       <c r="D1374">
-        <v>125.75</v>
+        <v>126</v>
       </c>
       <c r="E1374" t="s">
         <v>2179</v>
@@ -30292,7 +30292,7 @@
         <v>1</v>
       </c>
       <c r="D1375">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E1375" t="s">
         <v>2178</v>
@@ -30768,7 +30768,7 @@
         <v>3</v>
       </c>
       <c r="D1403">
-        <v>174.6225</v>
+        <v>174.37375</v>
       </c>
       <c r="E1403" t="s">
         <v>2179</v>
@@ -30785,7 +30785,7 @@
         <v>1</v>
       </c>
       <c r="D1404">
-        <v>1047.735</v>
+        <v>1046.2425</v>
       </c>
       <c r="E1404" t="s">
         <v>2178</v>
@@ -31108,7 +31108,7 @@
         <v>3</v>
       </c>
       <c r="D1423">
-        <v>174.6225</v>
+        <v>174.37375</v>
       </c>
       <c r="E1423" t="s">
         <v>2179</v>
@@ -31125,7 +31125,7 @@
         <v>1</v>
       </c>
       <c r="D1424">
-        <v>1047.735</v>
+        <v>1046.2425</v>
       </c>
       <c r="E1424" t="s">
         <v>2178</v>
@@ -31346,7 +31346,7 @@
         <v>3</v>
       </c>
       <c r="D1437">
-        <v>23.67869572699163</v>
+        <v>23.67869576561714</v>
       </c>
       <c r="E1437" t="s">
         <v>2179</v>
@@ -31363,7 +31363,7 @@
         <v>1</v>
       </c>
       <c r="D1438">
-        <v>284.1443487238996</v>
+        <v>284.1443491874056</v>
       </c>
       <c r="E1438" t="s">
         <v>2178</v>
@@ -31380,7 +31380,7 @@
         <v>3</v>
       </c>
       <c r="D1439">
-        <v>23.67861898039</v>
+        <v>23.67862481988722</v>
       </c>
       <c r="E1439" t="s">
         <v>2179</v>
@@ -31397,7 +31397,7 @@
         <v>1</v>
       </c>
       <c r="D1440">
-        <v>284.14342776468</v>
+        <v>284.1434978386466</v>
       </c>
       <c r="E1440" t="s">
         <v>2178</v>
@@ -32723,7 +32723,7 @@
         <v>3</v>
       </c>
       <c r="D1518">
-        <v>23.96758975955953</v>
+        <v>23.97162412263449</v>
       </c>
       <c r="E1518" t="s">
         <v>2179</v>
@@ -32740,7 +32740,7 @@
         <v>1</v>
       </c>
       <c r="D1519">
-        <v>287.6110771147143</v>
+        <v>287.6594894716138</v>
       </c>
       <c r="E1519" t="s">
         <v>2178</v>
@@ -32910,7 +32910,7 @@
         <v>1</v>
       </c>
       <c r="D1529">
-        <v>796.24875</v>
+        <v>799.6791235895987</v>
       </c>
       <c r="E1529" t="s">
         <v>2178</v>
@@ -32978,7 +32978,7 @@
         <v>431</v>
       </c>
       <c r="D1533">
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="E1533" t="s">
         <v>2179</v>
@@ -32995,7 +32995,7 @@
         <v>2</v>
       </c>
       <c r="D1534">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E1534" t="s">
         <v>2178</v>
@@ -33284,7 +33284,7 @@
         <v>1</v>
       </c>
       <c r="D1551">
-        <v>91.64032366421546</v>
+        <v>91.84880318469959</v>
       </c>
       <c r="E1551" t="s">
         <v>2178</v>
@@ -33301,7 +33301,7 @@
         <v>1</v>
       </c>
       <c r="D1552">
-        <v>91.64064248096346</v>
+        <v>91.84912345370095</v>
       </c>
       <c r="E1552" t="s">
         <v>2178</v>
@@ -33318,7 +33318,7 @@
         <v>1</v>
       </c>
       <c r="D1553">
-        <v>91.64051089414178</v>
+        <v>91.84899126748292</v>
       </c>
       <c r="E1553" t="s">
         <v>2178</v>
@@ -33335,7 +33335,7 @@
         <v>1</v>
       </c>
       <c r="D1554">
-        <v>91.6405997502913</v>
+        <v>91.84908052838452</v>
       </c>
       <c r="E1554" t="s">
         <v>2178</v>
@@ -33352,7 +33352,7 @@
         <v>1</v>
       </c>
       <c r="D1555">
-        <v>91.63995567257314</v>
+        <v>91.84843351681194</v>
       </c>
       <c r="E1555" t="s">
         <v>2178</v>
@@ -33369,7 +33369,7 @@
         <v>1</v>
       </c>
       <c r="D1556">
-        <v>91.63921347118416</v>
+        <v>91.8476879346286</v>
       </c>
       <c r="E1556" t="s">
         <v>2178</v>
@@ -33828,7 +33828,7 @@
         <v>23</v>
       </c>
       <c r="D1583">
-        <v>125.9795089867087</v>
+        <v>127.6548020235375</v>
       </c>
       <c r="E1583" t="s">
         <v>2179</v>
@@ -33845,7 +33845,7 @@
         <v>1</v>
       </c>
       <c r="D1584">
-        <v>3023.508215681008</v>
+        <v>3063.715248564901</v>
       </c>
       <c r="E1584" t="s">
         <v>2178</v>
@@ -33862,7 +33862,7 @@
         <v>10</v>
       </c>
       <c r="D1585">
-        <v>126.018430233087</v>
+        <v>127.6947654772546</v>
       </c>
       <c r="E1585" t="s">
         <v>2179</v>
@@ -33879,7 +33879,7 @@
         <v>1</v>
       </c>
       <c r="D1586">
-        <v>3024.442325594087</v>
+        <v>3064.67437145411</v>
       </c>
       <c r="E1586" t="s">
         <v>2178</v>
@@ -33896,7 +33896,7 @@
         <v>10</v>
       </c>
       <c r="D1587">
-        <v>125.9440602788084</v>
+        <v>127.6184043793674</v>
       </c>
       <c r="E1587" t="s">
         <v>2179</v>
@@ -33913,7 +33913,7 @@
         <v>1</v>
       </c>
       <c r="D1588">
-        <v>3022.657446691402</v>
+        <v>3062.841705104818</v>
       </c>
       <c r="E1588" t="s">
         <v>2178</v>
@@ -35613,7 +35613,7 @@
         <v>3</v>
       </c>
       <c r="D1688">
-        <v>39.5</v>
+        <v>35.75</v>
       </c>
       <c r="E1688" t="s">
         <v>2179</v>
@@ -35630,7 +35630,7 @@
         <v>1</v>
       </c>
       <c r="D1689">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="E1689" t="s">
         <v>2178</v>
@@ -36905,7 +36905,7 @@
         <v>3</v>
       </c>
       <c r="D1764">
-        <v>110.4122625735463</v>
+        <v>110.19625</v>
       </c>
       <c r="E1764" t="s">
         <v>2179</v>
@@ -36922,7 +36922,7 @@
         <v>1</v>
       </c>
       <c r="D1765">
-        <v>883.2981005883706</v>
+        <v>881.5700000000001</v>
       </c>
       <c r="E1765" t="s">
         <v>2178</v>
@@ -36973,7 +36973,7 @@
         <v>3</v>
       </c>
       <c r="D1768">
-        <v>110.3681213109017</v>
+        <v>110.19625</v>
       </c>
       <c r="E1768" t="s">
         <v>2179</v>
@@ -36990,7 +36990,7 @@
         <v>1</v>
       </c>
       <c r="D1769">
-        <v>882.9449704872135</v>
+        <v>881.5700000000001</v>
       </c>
       <c r="E1769" t="s">
         <v>2178</v>
@@ -37075,7 +37075,7 @@
         <v>3</v>
       </c>
       <c r="D1774">
-        <v>213.3553159289326</v>
+        <v>212.93</v>
       </c>
       <c r="E1774" t="s">
         <v>2179</v>
@@ -37092,7 +37092,7 @@
         <v>1</v>
       </c>
       <c r="D1775">
-        <v>1706.842527431461</v>
+        <v>1703.44</v>
       </c>
       <c r="E1775" t="s">
         <v>2178</v>
@@ -37109,7 +37109,7 @@
         <v>3</v>
       </c>
       <c r="D1776">
-        <v>214.75</v>
+        <v>214.25</v>
       </c>
       <c r="E1776" t="s">
         <v>2179</v>
@@ -37126,7 +37126,7 @@
         <v>1</v>
       </c>
       <c r="D1777">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="E1777" t="s">
         <v>2178</v>
@@ -37211,7 +37211,7 @@
         <v>3</v>
       </c>
       <c r="D1782">
-        <v>213.4822884704763</v>
+        <v>212.93</v>
       </c>
       <c r="E1782" t="s">
         <v>2179</v>
@@ -37228,7 +37228,7 @@
         <v>1</v>
       </c>
       <c r="D1783">
-        <v>1707.858307763811</v>
+        <v>1703.44</v>
       </c>
       <c r="E1783" t="s">
         <v>2178</v>
@@ -37245,7 +37245,7 @@
         <v>3</v>
       </c>
       <c r="D1784">
-        <v>214.75</v>
+        <v>214.5</v>
       </c>
       <c r="E1784" t="s">
         <v>2179</v>
@@ -37262,7 +37262,7 @@
         <v>1</v>
       </c>
       <c r="D1785">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="E1785" t="s">
         <v>2178</v>
@@ -38350,7 +38350,7 @@
         <v>1</v>
       </c>
       <c r="D1849">
-        <v>235.6927123828183</v>
+        <v>237.1498157014775</v>
       </c>
       <c r="E1849" t="s">
         <v>2178</v>
@@ -38367,7 +38367,7 @@
         <v>1</v>
       </c>
       <c r="D1850">
-        <v>235.6791404958834</v>
+        <v>237.1354987449554</v>
       </c>
       <c r="E1850" t="s">
         <v>2178</v>
@@ -38384,7 +38384,7 @@
         <v>1</v>
       </c>
       <c r="D1851">
-        <v>235.6696399233387</v>
+        <v>237.1264570964413</v>
       </c>
       <c r="E1851" t="s">
         <v>2178</v>
@@ -38401,7 +38401,7 @@
         <v>1</v>
       </c>
       <c r="D1852">
-        <v>235.666324341364</v>
+        <v>237.12283931106</v>
       </c>
       <c r="E1852" t="s">
         <v>2178</v>
@@ -38418,7 +38418,7 @@
         <v>1</v>
       </c>
       <c r="D1853">
-        <v>235.6687348049541</v>
+        <v>237.1254829610654</v>
       </c>
       <c r="E1853" t="s">
         <v>2178</v>
@@ -38435,7 +38435,7 @@
         <v>1</v>
       </c>
       <c r="D1854">
-        <v>235.6698035755193</v>
+        <v>237.1257202716573</v>
       </c>
       <c r="E1854" t="s">
         <v>2178</v>
@@ -38554,7 +38554,7 @@
         <v>3</v>
       </c>
       <c r="D1861">
-        <v>47.75</v>
+        <v>47.5</v>
       </c>
       <c r="E1861" t="s">
         <v>2179</v>
@@ -38571,7 +38571,7 @@
         <v>1</v>
       </c>
       <c r="D1862">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E1862" t="s">
         <v>2178</v>
@@ -39421,7 +39421,7 @@
         <v>3</v>
       </c>
       <c r="D1912">
-        <v>42.75764424173083</v>
+        <v>42.34149732561971</v>
       </c>
       <c r="E1912" t="s">
         <v>2179</v>
@@ -39438,7 +39438,7 @@
         <v>1</v>
       </c>
       <c r="D1913">
-        <v>513.09173090077</v>
+        <v>508.0979679074366</v>
       </c>
       <c r="E1913" t="s">
         <v>2178</v>
@@ -39455,7 +39455,7 @@
         <v>3</v>
       </c>
       <c r="D1914">
-        <v>42.77659483333272</v>
+        <v>42.36008075167544</v>
       </c>
       <c r="E1914" t="s">
         <v>2179</v>
@@ -39472,7 +39472,7 @@
         <v>1</v>
       </c>
       <c r="D1915">
-        <v>513.3191379999927</v>
+        <v>508.3209690201053</v>
       </c>
       <c r="E1915" t="s">
         <v>2178</v>
@@ -39489,7 +39489,7 @@
         <v>3</v>
       </c>
       <c r="D1916">
-        <v>42.77891881401672</v>
+        <v>42.36235969446328</v>
       </c>
       <c r="E1916" t="s">
         <v>2179</v>
@@ -39506,7 +39506,7 @@
         <v>1</v>
       </c>
       <c r="D1917">
-        <v>513.3470257682006</v>
+        <v>508.3483163335594</v>
       </c>
       <c r="E1917" t="s">
         <v>2178</v>
@@ -39523,7 +39523,7 @@
         <v>1</v>
       </c>
       <c r="D1918">
-        <v>133.8507439263499</v>
+        <v>133.435781323996</v>
       </c>
       <c r="E1918" t="s">
         <v>2178</v>
@@ -39540,7 +39540,7 @@
         <v>1</v>
       </c>
       <c r="D1919">
-        <v>133.8108090567344</v>
+        <v>133.42139869916</v>
       </c>
       <c r="E1919" t="s">
         <v>2178</v>
@@ -39574,7 +39574,7 @@
         <v>1</v>
       </c>
       <c r="D1921">
-        <v>133.8108090567344</v>
+        <v>133.42139869916</v>
       </c>
       <c r="E1921" t="s">
         <v>2178</v>
@@ -39693,7 +39693,7 @@
         <v>1</v>
       </c>
       <c r="D1928">
-        <v>135.5</v>
+        <v>135</v>
       </c>
       <c r="E1928" t="s">
         <v>2178</v>
@@ -40203,7 +40203,7 @@
         <v>137</v>
       </c>
       <c r="D1958">
-        <v>640</v>
+        <v>640.25</v>
       </c>
       <c r="E1958" t="s">
         <v>2178</v>
@@ -40390,7 +40390,7 @@
         <v>3</v>
       </c>
       <c r="D1969">
-        <v>147.574542746619</v>
+        <v>147.5746296804656</v>
       </c>
       <c r="E1969" t="s">
         <v>2179</v>
@@ -40407,7 +40407,7 @@
         <v>1</v>
       </c>
       <c r="D1970">
-        <v>1770.894512959429</v>
+        <v>1770.895556165588</v>
       </c>
       <c r="E1970" t="s">
         <v>2178</v>
@@ -40424,7 +40424,7 @@
         <v>3</v>
       </c>
       <c r="D1971">
-        <v>147.75</v>
+        <v>147.5</v>
       </c>
       <c r="E1971" t="s">
         <v>2179</v>
@@ -40441,7 +40441,7 @@
         <v>1</v>
       </c>
       <c r="D1972">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="E1972" t="s">
         <v>2178</v>
@@ -40458,7 +40458,7 @@
         <v>7</v>
       </c>
       <c r="D1973">
-        <v>140.1638175607099</v>
+        <v>139.3259113501457</v>
       </c>
       <c r="E1973" t="s">
         <v>2179</v>
@@ -40475,7 +40475,7 @@
         <v>1</v>
       </c>
       <c r="D1974">
-        <v>1681.965810728519</v>
+        <v>1671.910936201749</v>
       </c>
       <c r="E1974" t="s">
         <v>2178</v>
@@ -40492,7 +40492,7 @@
         <v>7</v>
       </c>
       <c r="D1975">
-        <v>140.1652582180649</v>
+        <v>139.3273348342568</v>
       </c>
       <c r="E1975" t="s">
         <v>2179</v>
@@ -40509,7 +40509,7 @@
         <v>1</v>
       </c>
       <c r="D1976">
-        <v>1681.983098616779</v>
+        <v>1671.928018011081</v>
       </c>
       <c r="E1976" t="s">
         <v>2178</v>
@@ -40526,7 +40526,7 @@
         <v>7</v>
       </c>
       <c r="D1977">
-        <v>140.1652636128237</v>
+        <v>139.3273401647074</v>
       </c>
       <c r="E1977" t="s">
         <v>2179</v>
@@ -40543,7 +40543,7 @@
         <v>1</v>
       </c>
       <c r="D1978">
-        <v>1681.983163353884</v>
+        <v>1671.928081976489</v>
       </c>
       <c r="E1978" t="s">
         <v>2178</v>
@@ -40560,7 +40560,7 @@
         <v>7</v>
       </c>
       <c r="D1979">
-        <v>140.1652636128237</v>
+        <v>139.3273401647074</v>
       </c>
       <c r="E1979" t="s">
         <v>2179</v>
@@ -40577,7 +40577,7 @@
         <v>1</v>
       </c>
       <c r="D1980">
-        <v>1681.983163353884</v>
+        <v>1671.928081976489</v>
       </c>
       <c r="E1980" t="s">
         <v>2178</v>
@@ -40594,7 +40594,7 @@
         <v>7</v>
       </c>
       <c r="D1981">
-        <v>140.1652636128237</v>
+        <v>139.3273401647074</v>
       </c>
       <c r="E1981" t="s">
         <v>2179</v>
@@ -40611,7 +40611,7 @@
         <v>1</v>
       </c>
       <c r="D1982">
-        <v>1681.983163353884</v>
+        <v>1671.928081976489</v>
       </c>
       <c r="E1982" t="s">
         <v>2178</v>
@@ -41478,7 +41478,7 @@
         <v>1</v>
       </c>
       <c r="D2033">
-        <v>435.5</v>
+        <v>434.25</v>
       </c>
       <c r="E2033" t="s">
         <v>2178</v>
@@ -44011,7 +44011,7 @@
         <v>1</v>
       </c>
       <c r="D2182">
-        <v>69.75584239376636</v>
+        <v>69.75585419167285</v>
       </c>
       <c r="E2182" t="s">
         <v>2178</v>
@@ -44028,7 +44028,7 @@
         <v>1</v>
       </c>
       <c r="D2183">
-        <v>69.75562912967753</v>
+        <v>69.75565554414065</v>
       </c>
       <c r="E2183" t="s">
         <v>2178</v>
@@ -44266,7 +44266,7 @@
         <v>3</v>
       </c>
       <c r="D2197">
-        <v>76.09534564159199</v>
+        <v>76.09544219333092</v>
       </c>
       <c r="E2197" t="s">
         <v>2179</v>
@@ -44283,7 +44283,7 @@
         <v>1</v>
       </c>
       <c r="D2198">
-        <v>608.7627651327359</v>
+        <v>608.7635375466474</v>
       </c>
       <c r="E2198" t="s">
         <v>2178</v>
@@ -44572,7 +44572,7 @@
         <v>2</v>
       </c>
       <c r="D2215">
-        <v>456.75</v>
+        <v>456.25</v>
       </c>
       <c r="E2215" t="s">
         <v>2178</v>
@@ -45456,7 +45456,7 @@
         <v>3</v>
       </c>
       <c r="D2267">
-        <v>394.25</v>
+        <v>391.75</v>
       </c>
       <c r="E2267" t="s">
         <v>2179</v>
@@ -45473,7 +45473,7 @@
         <v>1</v>
       </c>
       <c r="D2268">
-        <v>4731</v>
+        <v>4701</v>
       </c>
       <c r="E2268" t="s">
         <v>2178</v>
@@ -45490,7 +45490,7 @@
         <v>3</v>
       </c>
       <c r="D2269">
-        <v>883.5</v>
+        <v>878.75</v>
       </c>
       <c r="E2269" t="s">
         <v>2179</v>
@@ -45507,7 +45507,7 @@
         <v>1</v>
       </c>
       <c r="D2270">
-        <v>7068</v>
+        <v>7030</v>
       </c>
       <c r="E2270" t="s">
         <v>2178</v>
@@ -45745,7 +45745,7 @@
         <v>23</v>
       </c>
       <c r="D2284">
-        <v>21.19746464580395</v>
+        <v>21.24893479539736</v>
       </c>
       <c r="E2284" t="s">
         <v>2179</v>
@@ -45762,7 +45762,7 @@
         <v>1</v>
       </c>
       <c r="D2285">
-        <v>381.5543636244711</v>
+        <v>382.4808263171524</v>
       </c>
       <c r="E2285" t="s">
         <v>2178</v>
@@ -45813,7 +45813,7 @@
         <v>3</v>
       </c>
       <c r="D2288">
-        <v>115.75</v>
+        <v>111.75</v>
       </c>
       <c r="E2288" t="s">
         <v>2179</v>
@@ -45830,7 +45830,7 @@
         <v>1</v>
       </c>
       <c r="D2289">
-        <v>926</v>
+        <v>894</v>
       </c>
       <c r="E2289" t="s">
         <v>2178</v>
@@ -45847,7 +45847,7 @@
         <v>3</v>
       </c>
       <c r="D2290">
-        <v>119</v>
+        <v>119.25</v>
       </c>
       <c r="E2290" t="s">
         <v>2179</v>
@@ -45864,7 +45864,7 @@
         <v>1</v>
       </c>
       <c r="D2291">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E2291" t="s">
         <v>2178</v>
@@ -45983,7 +45983,7 @@
         <v>3</v>
       </c>
       <c r="D2298">
-        <v>47.47603719552563</v>
+        <v>47.47634822686476</v>
       </c>
       <c r="E2298" t="s">
         <v>2179</v>
@@ -46000,7 +46000,7 @@
         <v>1</v>
       </c>
       <c r="D2299">
-        <v>284.8562231731538</v>
+        <v>284.8580893611885</v>
       </c>
       <c r="E2299" t="s">
         <v>2178</v>
@@ -46170,7 +46170,7 @@
         <v>1</v>
       </c>
       <c r="D2309">
-        <v>253.75</v>
+        <v>256.25</v>
       </c>
       <c r="E2309" t="s">
         <v>2178</v>
@@ -46748,7 +46748,7 @@
         <v>3</v>
       </c>
       <c r="D2343">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2343" t="s">
         <v>2179</v>
@@ -46765,7 +46765,7 @@
         <v>1</v>
       </c>
       <c r="D2344">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="E2344" t="s">
         <v>2178</v>
@@ -46782,7 +46782,7 @@
         <v>3</v>
       </c>
       <c r="D2345">
-        <v>108.25</v>
+        <v>107.25</v>
       </c>
       <c r="E2345" t="s">
         <v>2179</v>
@@ -46799,7 +46799,7 @@
         <v>1</v>
       </c>
       <c r="D2346">
-        <v>649.5</v>
+        <v>643.5</v>
       </c>
       <c r="E2346" t="s">
         <v>2178</v>
@@ -46884,7 +46884,7 @@
         <v>1</v>
       </c>
       <c r="D2351">
-        <v>599.75</v>
+        <v>598.5</v>
       </c>
       <c r="E2351" t="s">
         <v>2178</v>
@@ -46901,7 +46901,7 @@
         <v>3</v>
       </c>
       <c r="D2352">
-        <v>47.34700915208989</v>
+        <v>47.34700943144654</v>
       </c>
       <c r="E2352" t="s">
         <v>2179</v>
@@ -46918,7 +46918,7 @@
         <v>1</v>
       </c>
       <c r="D2353">
-        <v>568.1641098250786</v>
+        <v>568.1641131773586</v>
       </c>
       <c r="E2353" t="s">
         <v>2178</v>
@@ -47003,7 +47003,7 @@
         <v>3</v>
       </c>
       <c r="D2358">
-        <v>47.73690805569007</v>
+        <v>47.7369435338741</v>
       </c>
       <c r="E2358" t="s">
         <v>2179</v>
@@ -47020,7 +47020,7 @@
         <v>1</v>
       </c>
       <c r="D2359">
-        <v>572.8428966682809</v>
+        <v>572.8433224064893</v>
       </c>
       <c r="E2359" t="s">
         <v>2178</v>
@@ -47377,7 +47377,7 @@
         <v>10</v>
       </c>
       <c r="D2380">
-        <v>58.5</v>
+        <v>59.5</v>
       </c>
       <c r="E2380" t="s">
         <v>2179</v>
@@ -47394,7 +47394,7 @@
         <v>1</v>
       </c>
       <c r="D2381">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="E2381" t="s">
         <v>2178</v>
@@ -47445,7 +47445,7 @@
         <v>10</v>
       </c>
       <c r="D2384">
-        <v>79</v>
+        <v>78.75</v>
       </c>
       <c r="E2384" t="s">
         <v>2179</v>
@@ -47462,7 +47462,7 @@
         <v>1</v>
       </c>
       <c r="D2385">
-        <v>1422</v>
+        <v>1417.5</v>
       </c>
       <c r="E2385" t="s">
         <v>2178</v>
@@ -47530,7 +47530,7 @@
         <v>7</v>
       </c>
       <c r="D2389">
-        <v>139.5</v>
+        <v>139.25</v>
       </c>
       <c r="E2389" t="s">
         <v>2179</v>
@@ -47547,7 +47547,7 @@
         <v>1</v>
       </c>
       <c r="D2390">
-        <v>2092.5</v>
+        <v>2088.75</v>
       </c>
       <c r="E2390" t="s">
         <v>2178</v>
@@ -47564,7 +47564,7 @@
         <v>7</v>
       </c>
       <c r="D2391">
-        <v>231.5</v>
+        <v>230.75</v>
       </c>
       <c r="E2391" t="s">
         <v>2179</v>
@@ -47581,7 +47581,7 @@
         <v>1</v>
       </c>
       <c r="D2392">
-        <v>4630</v>
+        <v>4615</v>
       </c>
       <c r="E2392" t="s">
         <v>2178</v>
@@ -48210,7 +48210,7 @@
         <v>3</v>
       </c>
       <c r="D2429">
-        <v>56.75</v>
+        <v>56.5</v>
       </c>
       <c r="E2429" t="s">
         <v>2179</v>
@@ -48227,7 +48227,7 @@
         <v>1</v>
       </c>
       <c r="D2430">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E2430" t="s">
         <v>2178</v>
@@ -49060,7 +49060,7 @@
         <v>3</v>
       </c>
       <c r="D2479">
-        <v>24.09203595294738</v>
+        <v>24.09220289168631</v>
       </c>
       <c r="E2479" t="s">
         <v>2179</v>
@@ -49077,7 +49077,7 @@
         <v>1</v>
       </c>
       <c r="D2480">
-        <v>289.1044314353685</v>
+        <v>289.1064347002357</v>
       </c>
       <c r="E2480" t="s">
         <v>2178</v>
@@ -49196,7 +49196,7 @@
         <v>3</v>
       </c>
       <c r="D2487">
-        <v>23.95445170890865</v>
+        <v>23.95845780665666</v>
       </c>
       <c r="E2487" t="s">
         <v>2179</v>
@@ -49213,7 +49213,7 @@
         <v>1</v>
       </c>
       <c r="D2488">
-        <v>287.4534205069039</v>
+        <v>287.50149367988</v>
       </c>
       <c r="E2488" t="s">
         <v>2178</v>
@@ -49298,7 +49298,7 @@
         <v>3</v>
       </c>
       <c r="D2493">
-        <v>24.07192548413984</v>
+        <v>24.07387509145035</v>
       </c>
       <c r="E2493" t="s">
         <v>2179</v>
@@ -49315,7 +49315,7 @@
         <v>1</v>
       </c>
       <c r="D2494">
-        <v>288.8631058096781</v>
+        <v>288.8865010974042</v>
       </c>
       <c r="E2494" t="s">
         <v>2178</v>
@@ -49638,7 +49638,7 @@
         <v>3</v>
       </c>
       <c r="D2513">
-        <v>52</v>
+        <v>51.75</v>
       </c>
       <c r="E2513" t="s">
         <v>2179</v>
@@ -49655,7 +49655,7 @@
         <v>1</v>
       </c>
       <c r="D2514">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E2514" t="s">
         <v>2178</v>
@@ -49995,7 +49995,7 @@
         <v>2</v>
       </c>
       <c r="D2534">
-        <v>277.5</v>
+        <v>277.25</v>
       </c>
       <c r="E2534" t="s">
         <v>2178</v>
@@ -50029,7 +50029,7 @@
         <v>2</v>
       </c>
       <c r="D2536">
-        <v>304.75</v>
+        <v>304.5</v>
       </c>
       <c r="E2536" t="s">
         <v>2178</v>
@@ -50114,7 +50114,7 @@
         <v>1</v>
       </c>
       <c r="D2541">
-        <v>205.5</v>
+        <v>207.5</v>
       </c>
       <c r="E2541" t="s">
         <v>2178</v>
@@ -50332,7 +50332,7 @@
         <v>1721</v>
       </c>
       <c r="C2554">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2554">
         <v>319.5</v>
@@ -50349,7 +50349,7 @@
         <v>1721</v>
       </c>
       <c r="C2555">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2555">
         <v>319.5</v>
@@ -50369,7 +50369,7 @@
         <v>1</v>
       </c>
       <c r="D2556">
-        <v>349.5</v>
+        <v>355.75</v>
       </c>
       <c r="E2556" t="s">
         <v>2178</v>
@@ -51066,7 +51066,7 @@
         <v>1</v>
       </c>
       <c r="D2597">
-        <v>238.3013510764911</v>
+        <v>238.2836243514516</v>
       </c>
       <c r="E2597" t="s">
         <v>2178</v>
@@ -51151,7 +51151,7 @@
         <v>1</v>
       </c>
       <c r="D2602">
-        <v>92.75</v>
+        <v>93</v>
       </c>
       <c r="E2602" t="s">
         <v>2178</v>
@@ -51168,7 +51168,7 @@
         <v>1</v>
       </c>
       <c r="D2603">
-        <v>314</v>
+        <v>313.25</v>
       </c>
       <c r="E2603" t="s">
         <v>2178</v>
@@ -51185,7 +51185,7 @@
         <v>1</v>
       </c>
       <c r="D2604">
-        <v>699.6997694612312</v>
+        <v>701.1706765939507</v>
       </c>
       <c r="E2604" t="s">
         <v>2178</v>
@@ -51202,7 +51202,7 @@
         <v>1</v>
       </c>
       <c r="D2605">
-        <v>699.9825</v>
+        <v>701.3751010968621</v>
       </c>
       <c r="E2605" t="s">
         <v>2178</v>
@@ -51270,7 +51270,7 @@
         <v>1</v>
       </c>
       <c r="D2609">
-        <v>603.9632476776789</v>
+        <v>603.1533814884091</v>
       </c>
       <c r="E2609" t="s">
         <v>2178</v>
@@ -51287,7 +51287,7 @@
         <v>1</v>
       </c>
       <c r="D2610">
-        <v>604.4952351605444</v>
+        <v>604.024077268551</v>
       </c>
       <c r="E2610" t="s">
         <v>2178</v>
@@ -51457,7 +51457,7 @@
         <v>3</v>
       </c>
       <c r="D2620">
-        <v>58.5</v>
+        <v>58.25</v>
       </c>
       <c r="E2620" t="s">
         <v>2179</v>
@@ -51474,7 +51474,7 @@
         <v>1</v>
       </c>
       <c r="D2621">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="E2621" t="s">
         <v>2178</v>
@@ -51491,7 +51491,7 @@
         <v>3</v>
       </c>
       <c r="D2622">
-        <v>101.2534923173214</v>
+        <v>101.8050527742506</v>
       </c>
       <c r="E2622" t="s">
         <v>2179</v>
@@ -51508,7 +51508,7 @@
         <v>1</v>
       </c>
       <c r="D2623">
-        <v>1215.041907807857</v>
+        <v>1221.660633291007</v>
       </c>
       <c r="E2623" t="s">
         <v>2178</v>
@@ -51525,7 +51525,7 @@
         <v>3</v>
       </c>
       <c r="D2624">
-        <v>101.2019670466565</v>
+        <v>101.4743419243977</v>
       </c>
       <c r="E2624" t="s">
         <v>2179</v>
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="D2625">
-        <v>1214.423604559878</v>
+        <v>1217.692103092773</v>
       </c>
       <c r="E2625" t="s">
         <v>2178</v>
@@ -51882,7 +51882,7 @@
         <v>1</v>
       </c>
       <c r="D2645">
-        <v>348.75</v>
+        <v>348</v>
       </c>
       <c r="E2645" t="s">
         <v>2178</v>
@@ -52188,7 +52188,7 @@
         <v>2</v>
       </c>
       <c r="D2663">
-        <v>1052</v>
+        <v>1053.75</v>
       </c>
       <c r="E2663" t="s">
         <v>2179</v>
@@ -52205,7 +52205,7 @@
         <v>1</v>
       </c>
       <c r="D2664">
-        <v>3156</v>
+        <v>3161.25</v>
       </c>
       <c r="E2664" t="s">
         <v>2178</v>
@@ -52358,7 +52358,7 @@
         <v>2</v>
       </c>
       <c r="D2673">
-        <v>729.58375</v>
+        <v>735.9533207033722</v>
       </c>
       <c r="E2673" t="s">
         <v>2179</v>
@@ -52375,7 +52375,7 @@
         <v>1</v>
       </c>
       <c r="D2674">
-        <v>2918.335</v>
+        <v>2943.813282813489</v>
       </c>
       <c r="E2674" t="s">
         <v>2178</v>
@@ -52392,7 +52392,7 @@
         <v>2</v>
       </c>
       <c r="D2675">
-        <v>729.58375</v>
+        <v>737.1339458016809</v>
       </c>
       <c r="E2675" t="s">
         <v>2179</v>
@@ -52409,7 +52409,7 @@
         <v>1</v>
       </c>
       <c r="D2676">
-        <v>2918.335</v>
+        <v>2948.535783206723</v>
       </c>
       <c r="E2676" t="s">
         <v>2178</v>
@@ -52426,7 +52426,7 @@
         <v>3</v>
       </c>
       <c r="D2677">
-        <v>65.78661519294464</v>
+        <v>65.63490327218177</v>
       </c>
       <c r="E2677" t="s">
         <v>2179</v>
@@ -52443,7 +52443,7 @@
         <v>1</v>
       </c>
       <c r="D2678">
-        <v>789.4393823153357</v>
+        <v>787.6188392661813</v>
       </c>
       <c r="E2678" t="s">
         <v>2178</v>
@@ -52460,7 +52460,7 @@
         <v>3</v>
       </c>
       <c r="D2679">
-        <v>65.78661519294462</v>
+        <v>65.63490327218177</v>
       </c>
       <c r="E2679" t="s">
         <v>2179</v>
@@ -52477,7 +52477,7 @@
         <v>1</v>
       </c>
       <c r="D2680">
-        <v>789.4393823153355</v>
+        <v>787.6188392661813</v>
       </c>
       <c r="E2680" t="s">
         <v>2178</v>
@@ -52494,7 +52494,7 @@
         <v>3</v>
       </c>
       <c r="D2681">
-        <v>65.78661519294464</v>
+        <v>65.63490327218177</v>
       </c>
       <c r="E2681" t="s">
         <v>2179</v>
@@ -52511,7 +52511,7 @@
         <v>1</v>
       </c>
       <c r="D2682">
-        <v>789.4393823153357</v>
+        <v>787.6188392661813</v>
       </c>
       <c r="E2682" t="s">
         <v>2178</v>
@@ -52528,7 +52528,7 @@
         <v>3</v>
       </c>
       <c r="D2683">
-        <v>65.78661519294464</v>
+        <v>65.63490327218177</v>
       </c>
       <c r="E2683" t="s">
         <v>2179</v>
@@ -52545,7 +52545,7 @@
         <v>1</v>
       </c>
       <c r="D2684">
-        <v>789.4393823153357</v>
+        <v>787.6188392661813</v>
       </c>
       <c r="E2684" t="s">
         <v>2178</v>
@@ -52562,7 +52562,7 @@
         <v>3</v>
       </c>
       <c r="D2685">
-        <v>65.78661519294462</v>
+        <v>65.63490327218177</v>
       </c>
       <c r="E2685" t="s">
         <v>2179</v>
@@ -52579,7 +52579,7 @@
         <v>1</v>
       </c>
       <c r="D2686">
-        <v>789.4393823153355</v>
+        <v>787.6188392661813</v>
       </c>
       <c r="E2686" t="s">
         <v>2178</v>
@@ -52919,7 +52919,7 @@
         <v>7</v>
       </c>
       <c r="D2706">
-        <v>40.42273631922122</v>
+        <v>40.52199031884777</v>
       </c>
       <c r="E2706" t="s">
         <v>2179</v>
@@ -52936,7 +52936,7 @@
         <v>1</v>
       </c>
       <c r="D2707">
-        <v>485.0728358306546</v>
+        <v>486.2638838261732</v>
       </c>
       <c r="E2707" t="s">
         <v>2178</v>
@@ -52953,7 +52953,7 @@
         <v>7</v>
       </c>
       <c r="D2708">
-        <v>40.42273254784328</v>
+        <v>40.5219662116995</v>
       </c>
       <c r="E2708" t="s">
         <v>2179</v>
@@ -52970,7 +52970,7 @@
         <v>1</v>
       </c>
       <c r="D2709">
-        <v>485.0727905741194</v>
+        <v>486.263594540394</v>
       </c>
       <c r="E2709" t="s">
         <v>2178</v>
@@ -53089,7 +53089,7 @@
         <v>7</v>
       </c>
       <c r="D2716">
-        <v>39</v>
+        <v>38.75</v>
       </c>
       <c r="E2716" t="s">
         <v>2179</v>
@@ -53106,7 +53106,7 @@
         <v>1</v>
       </c>
       <c r="D2717">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E2717" t="s">
         <v>2178</v>
@@ -54330,7 +54330,7 @@
         <v>3</v>
       </c>
       <c r="D2789">
-        <v>88.61629978078835</v>
+        <v>88.61625712442097</v>
       </c>
       <c r="E2789" t="s">
         <v>2179</v>
@@ -54347,7 +54347,7 @@
         <v>1</v>
       </c>
       <c r="D2790">
-        <v>708.9303982463068</v>
+        <v>708.9300569953677</v>
       </c>
       <c r="E2790" t="s">
         <v>2178</v>
@@ -54364,7 +54364,7 @@
         <v>3</v>
       </c>
       <c r="D2791">
-        <v>88.61622665558714</v>
+        <v>88.61625712442098</v>
       </c>
       <c r="E2791" t="s">
         <v>2179</v>
@@ -54381,7 +54381,7 @@
         <v>1</v>
       </c>
       <c r="D2792">
-        <v>708.9298132446971</v>
+        <v>708.9300569953679</v>
       </c>
       <c r="E2792" t="s">
         <v>2178</v>
@@ -54432,7 +54432,7 @@
         <v>3</v>
       </c>
       <c r="D2795">
-        <v>44.30228890551665</v>
+        <v>44.30227753048535</v>
       </c>
       <c r="E2795" t="s">
         <v>2179</v>
@@ -54449,7 +54449,7 @@
         <v>1</v>
       </c>
       <c r="D2796">
-        <v>354.4183112441332</v>
+        <v>354.4182202438828</v>
       </c>
       <c r="E2796" t="s">
         <v>2178</v>
@@ -54840,7 +54840,7 @@
         <v>3</v>
       </c>
       <c r="D2819">
-        <v>67.6011979570527</v>
+        <v>66.55517866559454</v>
       </c>
       <c r="E2819" t="s">
         <v>2179</v>
@@ -54857,7 +54857,7 @@
         <v>1</v>
       </c>
       <c r="D2820">
-        <v>811.2143754846325</v>
+        <v>798.6621439871344</v>
       </c>
       <c r="E2820" t="s">
         <v>2178</v>
@@ -54874,7 +54874,7 @@
         <v>3</v>
       </c>
       <c r="D2821">
-        <v>67.61952841029533</v>
+        <v>66.57354380281993</v>
       </c>
       <c r="E2821" t="s">
         <v>2179</v>
@@ -54891,7 +54891,7 @@
         <v>1</v>
       </c>
       <c r="D2822">
-        <v>811.4343409235439</v>
+        <v>798.8825256338391</v>
       </c>
       <c r="E2822" t="s">
         <v>2178</v>
@@ -54908,7 +54908,7 @@
         <v>3</v>
       </c>
       <c r="D2823">
-        <v>67.60086235236845</v>
+        <v>66.55532211902094</v>
       </c>
       <c r="E2823" t="s">
         <v>2179</v>
@@ -54925,7 +54925,7 @@
         <v>1</v>
       </c>
       <c r="D2824">
-        <v>811.2103482284215</v>
+        <v>798.6638654282513</v>
       </c>
       <c r="E2824" t="s">
         <v>2178</v>
@@ -54942,7 +54942,7 @@
         <v>3</v>
       </c>
       <c r="D2825">
-        <v>59.25</v>
+        <v>58.25</v>
       </c>
       <c r="E2825" t="s">
         <v>2179</v>
@@ -54959,7 +54959,7 @@
         <v>1</v>
       </c>
       <c r="D2826">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="E2826" t="s">
         <v>2178</v>
@@ -55758,7 +55758,7 @@
         <v>2</v>
       </c>
       <c r="D2873">
-        <v>396</v>
+        <v>395.5</v>
       </c>
       <c r="E2873" t="s">
         <v>2179</v>
@@ -55775,7 +55775,7 @@
         <v>1</v>
       </c>
       <c r="D2874">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E2874" t="s">
         <v>2178</v>
@@ -55979,7 +55979,7 @@
         <v>2</v>
       </c>
       <c r="D2886">
-        <v>98.23108519243038</v>
+        <v>98.64917835861392</v>
       </c>
       <c r="E2886" t="s">
         <v>2178</v>
@@ -56064,7 +56064,7 @@
         <v>3</v>
       </c>
       <c r="D2891">
-        <v>112.8680997013686</v>
+        <v>112.868108232642</v>
       </c>
       <c r="E2891" t="s">
         <v>2179</v>
@@ -56081,7 +56081,7 @@
         <v>1</v>
       </c>
       <c r="D2892">
-        <v>677.2085982082114</v>
+        <v>677.2086493958523</v>
       </c>
       <c r="E2892" t="s">
         <v>2178</v>
@@ -56574,7 +56574,7 @@
         <v>1</v>
       </c>
       <c r="D2921">
-        <v>383.25</v>
+        <v>390</v>
       </c>
       <c r="E2921" t="s">
         <v>2178</v>
@@ -56608,7 +56608,7 @@
         <v>1</v>
       </c>
       <c r="D2923">
-        <v>796.24875</v>
+        <v>797.0881252091776</v>
       </c>
       <c r="E2923" t="s">
         <v>2178</v>
@@ -56659,7 +56659,7 @@
         <v>14</v>
       </c>
       <c r="D2926">
-        <v>77.0604600109138</v>
+        <v>77.06051397149545</v>
       </c>
       <c r="E2926" t="s">
         <v>2179</v>
@@ -56676,7 +56676,7 @@
         <v>1</v>
       </c>
       <c r="D2927">
-        <v>616.4836800873104</v>
+        <v>616.4841117719636</v>
       </c>
       <c r="E2927" t="s">
         <v>2178</v>
@@ -56693,7 +56693,7 @@
         <v>3</v>
       </c>
       <c r="D2928">
-        <v>836.7739504073853</v>
+        <v>834.4696757960938</v>
       </c>
       <c r="E2928" t="s">
         <v>2179</v>
@@ -56710,7 +56710,7 @@
         <v>1</v>
       </c>
       <c r="D2929">
-        <v>5020.643702444312</v>
+        <v>5006.818054776563</v>
       </c>
       <c r="E2929" t="s">
         <v>2178</v>
@@ -56727,7 +56727,7 @@
         <v>3</v>
       </c>
       <c r="D2930">
-        <v>136.5902381167285</v>
+        <v>136.5902436476489</v>
       </c>
       <c r="E2930" t="s">
         <v>2179</v>
@@ -56744,7 +56744,7 @@
         <v>1</v>
       </c>
       <c r="D2931">
-        <v>3278.165714801485</v>
+        <v>3278.165847543575</v>
       </c>
       <c r="E2931" t="s">
         <v>2178</v>
@@ -56761,7 +56761,7 @@
         <v>3</v>
       </c>
       <c r="D2932">
-        <v>152.9806602030828</v>
+        <v>152.980641828683</v>
       </c>
       <c r="E2932" t="s">
         <v>2179</v>
@@ -56778,7 +56778,7 @@
         <v>1</v>
       </c>
       <c r="D2933">
-        <v>1835.767922436994</v>
+        <v>1835.767701944196</v>
       </c>
       <c r="E2933" t="s">
         <v>2178</v>
@@ -56795,7 +56795,7 @@
         <v>3</v>
       </c>
       <c r="D2934">
-        <v>152.980685532844</v>
+        <v>152.9806877652244</v>
       </c>
       <c r="E2934" t="s">
         <v>2179</v>
@@ -56812,7 +56812,7 @@
         <v>1</v>
       </c>
       <c r="D2935">
-        <v>1835.768226394128</v>
+        <v>1835.768253182693</v>
       </c>
       <c r="E2935" t="s">
         <v>2178</v>
@@ -57594,7 +57594,7 @@
         <v>3</v>
       </c>
       <c r="D2981">
-        <v>136.5832808353928</v>
+        <v>136.5836157466959</v>
       </c>
       <c r="E2981" t="s">
         <v>2179</v>
@@ -57611,7 +57611,7 @@
         <v>1</v>
       </c>
       <c r="D2982">
-        <v>3277.998740049428</v>
+        <v>3278.006777920701</v>
       </c>
       <c r="E2982" t="s">
         <v>2178</v>
@@ -57628,7 +57628,7 @@
         <v>3</v>
       </c>
       <c r="D2983">
-        <v>136.5841207496628</v>
+        <v>136.5846820904245</v>
       </c>
       <c r="E2983" t="s">
         <v>2179</v>
@@ -57645,7 +57645,7 @@
         <v>1</v>
       </c>
       <c r="D2984">
-        <v>3278.018897991906</v>
+        <v>3278.032370170189</v>
       </c>
       <c r="E2984" t="s">
         <v>2178</v>
@@ -57662,7 +57662,7 @@
         <v>3</v>
       </c>
       <c r="D2985">
-        <v>136.590101115208</v>
+        <v>136.5901154691489</v>
       </c>
       <c r="E2985" t="s">
         <v>2179</v>
@@ -57679,7 +57679,7 @@
         <v>1</v>
       </c>
       <c r="D2986">
-        <v>2731.80202230416</v>
+        <v>2731.802309382978</v>
       </c>
       <c r="E2986" t="s">
         <v>2178</v>
@@ -57730,7 +57730,7 @@
         <v>3</v>
       </c>
       <c r="D2989">
-        <v>136.5900791003982</v>
+        <v>136.5900838363628</v>
       </c>
       <c r="E2989" t="s">
         <v>2179</v>
@@ -57747,7 +57747,7 @@
         <v>1</v>
       </c>
       <c r="D2990">
-        <v>2731.801582007964</v>
+        <v>2731.801676727256</v>
       </c>
       <c r="E2990" t="s">
         <v>2178</v>
@@ -57764,7 +57764,7 @@
         <v>3</v>
       </c>
       <c r="D2991">
-        <v>136.5900885370897</v>
+        <v>136.5900759479494</v>
       </c>
       <c r="E2991" t="s">
         <v>2179</v>
@@ -57781,7 +57781,7 @@
         <v>1</v>
       </c>
       <c r="D2992">
-        <v>2731.801770741794</v>
+        <v>2731.801518958989</v>
       </c>
       <c r="E2992" t="s">
         <v>2178</v>
@@ -58376,7 +58376,7 @@
         <v>3</v>
       </c>
       <c r="D3027">
-        <v>239.25</v>
+        <v>239</v>
       </c>
       <c r="E3027" t="s">
         <v>2179</v>
@@ -58393,7 +58393,7 @@
         <v>1</v>
       </c>
       <c r="D3028">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="E3028" t="s">
         <v>2178</v>
@@ -58784,7 +58784,7 @@
         <v>10</v>
       </c>
       <c r="D3051">
-        <v>120.25</v>
+        <v>120.5</v>
       </c>
       <c r="E3051" t="s">
         <v>2179</v>
@@ -58801,7 +58801,7 @@
         <v>1</v>
       </c>
       <c r="D3052">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E3052" t="s">
         <v>2178</v>
@@ -58818,7 +58818,7 @@
         <v>10</v>
       </c>
       <c r="D3053">
-        <v>50.5</v>
+        <v>50.75</v>
       </c>
       <c r="E3053" t="s">
         <v>2179</v>
@@ -58835,7 +58835,7 @@
         <v>1</v>
       </c>
       <c r="D3054">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E3054" t="s">
         <v>2178</v>
@@ -59056,7 +59056,7 @@
         <v>68</v>
       </c>
       <c r="D3067">
-        <v>561.25</v>
+        <v>559</v>
       </c>
       <c r="E3067" t="s">
         <v>2179</v>
@@ -59073,7 +59073,7 @@
         <v>1</v>
       </c>
       <c r="D3068">
-        <v>6735</v>
+        <v>6708</v>
       </c>
       <c r="E3068" t="s">
         <v>2178</v>
@@ -59090,7 +59090,7 @@
         <v>2</v>
       </c>
       <c r="D3069">
-        <v>270.8054522869366</v>
+        <v>270.7725378662675</v>
       </c>
       <c r="E3069" t="s">
         <v>2178</v>
@@ -59192,7 +59192,7 @@
         <v>1</v>
       </c>
       <c r="D3075">
-        <v>341.5</v>
+        <v>378.5</v>
       </c>
       <c r="E3075" t="s">
         <v>2178</v>
@@ -60076,7 +60076,7 @@
         <v>1</v>
       </c>
       <c r="D3127">
-        <v>303.9725</v>
+        <v>304.71875</v>
       </c>
       <c r="E3127" t="s">
         <v>2178</v>
@@ -60093,7 +60093,7 @@
         <v>1</v>
       </c>
       <c r="D3128">
-        <v>303.9725</v>
+        <v>304.71875</v>
       </c>
       <c r="E3128" t="s">
         <v>2178</v>
@@ -60110,7 +60110,7 @@
         <v>1</v>
       </c>
       <c r="D3129">
-        <v>303.9725</v>
+        <v>304.71875</v>
       </c>
       <c r="E3129" t="s">
         <v>2178</v>
@@ -60127,7 +60127,7 @@
         <v>1</v>
       </c>
       <c r="D3130">
-        <v>327.75</v>
+        <v>324.5</v>
       </c>
       <c r="E3130" t="s">
         <v>2178</v>
@@ -60144,7 +60144,7 @@
         <v>1</v>
       </c>
       <c r="D3131">
-        <v>207.5</v>
+        <v>207.25</v>
       </c>
       <c r="E3131" t="s">
         <v>2178</v>
@@ -60195,7 +60195,7 @@
         <v>2</v>
       </c>
       <c r="D3134">
-        <v>270.0522319488468</v>
+        <v>270.0240814531579</v>
       </c>
       <c r="E3134" t="s">
         <v>2178</v>
@@ -60365,7 +60365,7 @@
         <v>5</v>
       </c>
       <c r="D3144">
-        <v>1340</v>
+        <v>1339.75</v>
       </c>
       <c r="E3144" t="s">
         <v>2178</v>
@@ -60603,7 +60603,7 @@
         <v>3</v>
       </c>
       <c r="D3158">
-        <v>116.0011275307715</v>
+        <v>115.9762928057026</v>
       </c>
       <c r="E3158" t="s">
         <v>2179</v>
@@ -60620,7 +60620,7 @@
         <v>1</v>
       </c>
       <c r="D3159">
-        <v>1160.011275307715</v>
+        <v>1159.762928057026</v>
       </c>
       <c r="E3159" t="s">
         <v>2178</v>
@@ -60637,7 +60637,7 @@
         <v>3</v>
       </c>
       <c r="D3160">
-        <v>115.834424750749</v>
+        <v>115.7331469306447</v>
       </c>
       <c r="E3160" t="s">
         <v>2179</v>
@@ -60654,7 +60654,7 @@
         <v>1</v>
       </c>
       <c r="D3161">
-        <v>1158.344247507489</v>
+        <v>1157.331469306447</v>
       </c>
       <c r="E3161" t="s">
         <v>2178</v>
@@ -60671,7 +60671,7 @@
         <v>2</v>
       </c>
       <c r="D3162">
-        <v>304.9281833115707</v>
+        <v>304.087825024232</v>
       </c>
       <c r="E3162" t="s">
         <v>2178</v>
@@ -60688,7 +60688,7 @@
         <v>2</v>
       </c>
       <c r="D3163">
-        <v>304.9281833115707</v>
+        <v>303.9827689271801</v>
       </c>
       <c r="E3163" t="s">
         <v>2178</v>
@@ -60705,7 +60705,7 @@
         <v>2</v>
       </c>
       <c r="D3164">
-        <v>304.9281833115707</v>
+        <v>304.087825024232</v>
       </c>
       <c r="E3164" t="s">
         <v>2178</v>
@@ -60722,7 +60722,7 @@
         <v>2</v>
       </c>
       <c r="D3165">
-        <v>304.9281833115707</v>
+        <v>304.087825024232</v>
       </c>
       <c r="E3165" t="s">
         <v>2178</v>
@@ -61334,7 +61334,7 @@
         <v>1</v>
       </c>
       <c r="D3201">
-        <v>90.5</v>
+        <v>90.25</v>
       </c>
       <c r="E3201" t="s">
         <v>2178</v>
@@ -61708,7 +61708,7 @@
         <v>1</v>
       </c>
       <c r="D3223">
-        <v>95</v>
+        <v>94.75</v>
       </c>
       <c r="E3223" t="s">
         <v>2178</v>

--- a/manual/output_1223_chunk_3.xlsx
+++ b/manual/output_1223_chunk_3.xlsx
@@ -3946,13 +3946,13 @@
     <t>شامبو نيو ستار للشعر العادي 6 مل</t>
   </si>
   <si>
-    <t>شامبو نيو ستار للشعر الجاف 6 مل</t>
+    <t>1*2 شامبو نيو ستار سفن للشعر الجاف 6 مل</t>
   </si>
   <si>
     <t>شامبو نيو ستار ضد القشرة 8 مل</t>
   </si>
   <si>
-    <t>حمام كريم نيو ستار بالكرياتين 800 مل</t>
+    <t>حمام كريم نيو ستار سفن بالكرياتين 800 مل</t>
   </si>
   <si>
     <t>حمام كريم نيو ستار زبدة الشيا 800 مل</t>
@@ -6343,16 +6343,16 @@
     <t>بونكس اوتوماتيك برائحة الداوني 3*1 - 900 جم</t>
   </si>
   <si>
-    <t>كيك تاوتاو تربو كاكاو بكريمة الفانيليا - 5 جنية</t>
+    <t>كيك تاوتاو تربو كاكاو بكريمة الفانيليا - 6 قطعة - 5 جنية</t>
   </si>
   <si>
     <t>كيك تاوتاو تربو محشو كريم الفانيليا ومربى الفراولة - 5 جنية</t>
   </si>
   <si>
-    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة - 5 جنية</t>
-  </si>
-  <si>
-    <t>بسكويت باى لاك ﺑﺎﻟﺘﻤﺮ - 5 جنية</t>
+    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة- 6 قطعة - 5 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت باى لاك ﺑﺎﻟﺘﻤﺮ- 5 جنية</t>
   </si>
   <si>
     <t>كمارا شيكولاته تابلت حشو كراميل - 10 جنية</t>
@@ -7767,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>258</v>
+        <v>257.5</v>
       </c>
       <c r="E50" t="s">
         <v>2178</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>304</v>
+        <v>303.5</v>
       </c>
       <c r="E116" t="s">
         <v>2178</v>
@@ -9076,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>327.5</v>
+        <v>326.75</v>
       </c>
       <c r="E127" t="s">
         <v>2178</v>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>612.9393869048519</v>
+        <v>612.9393634669607</v>
       </c>
       <c r="E128" t="s">
         <v>2178</v>
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>591.6533469704414</v>
+        <v>591.6533389816641</v>
       </c>
       <c r="E129" t="s">
         <v>2178</v>
@@ -9246,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>238.25</v>
+        <v>239</v>
       </c>
       <c r="E137" t="s">
         <v>2178</v>
@@ -9263,7 +9263,7 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>211.25</v>
+        <v>209.5</v>
       </c>
       <c r="E138" t="s">
         <v>2178</v>
@@ -9280,7 +9280,7 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>229.75</v>
+        <v>229.25</v>
       </c>
       <c r="E139" t="s">
         <v>2178</v>
@@ -9297,7 +9297,7 @@
         <v>2</v>
       </c>
       <c r="D140">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E140" t="s">
         <v>2178</v>
@@ -9365,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>49.26097577239223</v>
+        <v>49.2695547885665</v>
       </c>
       <c r="E144" t="s">
         <v>2179</v>
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>591.1317092687068</v>
+        <v>591.2346574627981</v>
       </c>
       <c r="E145" t="s">
         <v>2178</v>
@@ -10300,7 +10300,7 @@
         <v>2</v>
       </c>
       <c r="D199">
-        <v>154</v>
+        <v>155.25</v>
       </c>
       <c r="E199" t="s">
         <v>2178</v>
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>181.4303670678227</v>
+        <v>181.9833827101082</v>
       </c>
       <c r="E208" t="s">
         <v>2178</v>
@@ -10708,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>298.9233351092184</v>
+        <v>297.75</v>
       </c>
       <c r="E223" t="s">
         <v>2178</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>304.75</v>
+        <v>303.75</v>
       </c>
       <c r="E224" t="s">
         <v>2178</v>
@@ -10742,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>298.9975</v>
+        <v>298.5</v>
       </c>
       <c r="E225" t="s">
         <v>2178</v>
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>344.75</v>
+        <v>344.5</v>
       </c>
       <c r="E227" t="s">
         <v>2178</v>
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>63.9312441623727</v>
+        <v>63.46540171264911</v>
       </c>
       <c r="E248" t="s">
         <v>2178</v>
@@ -11150,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>63.96159221435713</v>
+        <v>63.47977931272538</v>
       </c>
       <c r="E249" t="s">
         <v>2178</v>
@@ -11762,7 +11762,7 @@
         <v>3</v>
       </c>
       <c r="D285">
-        <v>95.03707910937885</v>
+        <v>94.30090496748196</v>
       </c>
       <c r="E285" t="s">
         <v>2179</v>
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>570.2224746562731</v>
+        <v>565.8054298048917</v>
       </c>
       <c r="E286" t="s">
         <v>2178</v>
@@ -11796,7 +11796,7 @@
         <v>3</v>
       </c>
       <c r="D287">
-        <v>94.88071870527568</v>
+        <v>94.27960699816509</v>
       </c>
       <c r="E287" t="s">
         <v>2179</v>
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>569.2843122316541</v>
+        <v>565.6776419889906</v>
       </c>
       <c r="E288" t="s">
         <v>2178</v>
@@ -11830,7 +11830,7 @@
         <v>3</v>
       </c>
       <c r="D289">
-        <v>24.0449341192098</v>
+        <v>24.05896420270985</v>
       </c>
       <c r="E289" t="s">
         <v>2179</v>
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>288.5392094305176</v>
+        <v>288.7075704325182</v>
       </c>
       <c r="E290" t="s">
         <v>2178</v>
@@ -11881,7 +11881,7 @@
         <v>3</v>
       </c>
       <c r="D292">
-        <v>24</v>
+        <v>23.95136051600595</v>
       </c>
       <c r="E292" t="s">
         <v>2179</v>
@@ -11898,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>288</v>
+        <v>287.4163261920714</v>
       </c>
       <c r="E293" t="s">
         <v>2178</v>
@@ -11949,7 +11949,7 @@
         <v>29</v>
       </c>
       <c r="D296">
-        <v>439</v>
+        <v>436.5</v>
       </c>
       <c r="E296" t="s">
         <v>2178</v>
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="D327">
-        <v>85.75</v>
+        <v>88.25</v>
       </c>
       <c r="E327" t="s">
         <v>2178</v>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="D328">
-        <v>87.25</v>
+        <v>85.75</v>
       </c>
       <c r="E328" t="s">
         <v>2178</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="D331">
-        <v>178.1429951994123</v>
+        <v>178.1428594938486</v>
       </c>
       <c r="E331" t="s">
         <v>2178</v>
@@ -12782,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="D345">
-        <v>430</v>
+        <v>429.5</v>
       </c>
       <c r="E345" t="s">
         <v>2178</v>
@@ -12799,7 +12799,7 @@
         <v>2</v>
       </c>
       <c r="D346">
-        <v>296.5</v>
+        <v>295.25</v>
       </c>
       <c r="E346" t="s">
         <v>2178</v>
@@ -12816,7 +12816,7 @@
         <v>2</v>
       </c>
       <c r="D347">
-        <v>301</v>
+        <v>300.75</v>
       </c>
       <c r="E347" t="s">
         <v>2178</v>
@@ -13088,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="D363">
-        <v>93</v>
+        <v>93.25</v>
       </c>
       <c r="E363" t="s">
         <v>2178</v>
@@ -13547,7 +13547,7 @@
         <v>2</v>
       </c>
       <c r="D390">
-        <v>109.3337228932541</v>
+        <v>109.5</v>
       </c>
       <c r="E390" t="s">
         <v>2178</v>
@@ -13564,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>210.5</v>
+        <v>212.25</v>
       </c>
       <c r="E391" t="s">
         <v>2178</v>
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>432</v>
+        <v>437.25</v>
       </c>
       <c r="E452" t="s">
         <v>2178</v>
@@ -14618,7 +14618,7 @@
         <v>2</v>
       </c>
       <c r="D453">
-        <v>302.25</v>
+        <v>302.5</v>
       </c>
       <c r="E453" t="s">
         <v>2178</v>
@@ -14635,7 +14635,7 @@
         <v>2</v>
       </c>
       <c r="D454">
-        <v>359</v>
+        <v>360.5</v>
       </c>
       <c r="E454" t="s">
         <v>2178</v>
@@ -14669,7 +14669,7 @@
         <v>2</v>
       </c>
       <c r="D456">
-        <v>317.5</v>
+        <v>317</v>
       </c>
       <c r="E456" t="s">
         <v>2178</v>
@@ -14686,7 +14686,7 @@
         <v>2</v>
       </c>
       <c r="D457">
-        <v>373</v>
+        <v>373.5</v>
       </c>
       <c r="E457" t="s">
         <v>2178</v>
@@ -14703,7 +14703,7 @@
         <v>2</v>
       </c>
       <c r="D458">
-        <v>321.5</v>
+        <v>319.5</v>
       </c>
       <c r="E458" t="s">
         <v>2178</v>
@@ -14720,7 +14720,7 @@
         <v>2</v>
       </c>
       <c r="D459">
-        <v>324.5</v>
+        <v>336</v>
       </c>
       <c r="E459" t="s">
         <v>2178</v>
@@ -15400,7 +15400,7 @@
         <v>2</v>
       </c>
       <c r="D499">
-        <v>207.25</v>
+        <v>207.5</v>
       </c>
       <c r="E499" t="s">
         <v>2178</v>
@@ -15417,7 +15417,7 @@
         <v>29</v>
       </c>
       <c r="D500">
-        <v>290.25</v>
+        <v>290.5</v>
       </c>
       <c r="E500" t="s">
         <v>2178</v>
@@ -15672,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="D515">
-        <v>143</v>
+        <v>142.5</v>
       </c>
       <c r="E515" t="s">
         <v>2178</v>
@@ -15791,7 +15791,7 @@
         <v>3</v>
       </c>
       <c r="D522">
-        <v>55.5</v>
+        <v>55.25</v>
       </c>
       <c r="E522" t="s">
         <v>2179</v>
@@ -15808,7 +15808,7 @@
         <v>1</v>
       </c>
       <c r="D523">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E523" t="s">
         <v>2178</v>
@@ -15842,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="D525">
-        <v>226</v>
+        <v>226.25</v>
       </c>
       <c r="E525" t="s">
         <v>2178</v>
@@ -15910,7 +15910,7 @@
         <v>1</v>
       </c>
       <c r="D529">
-        <v>756.7372813318135</v>
+        <v>756.7246194252829</v>
       </c>
       <c r="E529" t="s">
         <v>2178</v>
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>758.4222275614032</v>
+        <v>758.3657673518934</v>
       </c>
       <c r="E530" t="s">
         <v>2178</v>
@@ -16607,7 +16607,7 @@
         <v>2</v>
       </c>
       <c r="D570">
-        <v>102.75</v>
+        <v>102.5</v>
       </c>
       <c r="E570" t="s">
         <v>2178</v>
@@ -16658,7 +16658,7 @@
         <v>2</v>
       </c>
       <c r="D573">
-        <v>104.475102911856</v>
+        <v>104.3215919353234</v>
       </c>
       <c r="E573" t="s">
         <v>2178</v>
@@ -16675,7 +16675,7 @@
         <v>2</v>
       </c>
       <c r="D574">
-        <v>104.4820855574376</v>
+        <v>104.3532076964207</v>
       </c>
       <c r="E574" t="s">
         <v>2178</v>
@@ -16692,7 +16692,7 @@
         <v>2</v>
       </c>
       <c r="D575">
-        <v>104.4751382992221</v>
+        <v>104.3039380498446</v>
       </c>
       <c r="E575" t="s">
         <v>2178</v>
@@ -16709,7 +16709,7 @@
         <v>2</v>
       </c>
       <c r="D576">
-        <v>104.4911846382168</v>
+        <v>104.3541376592599</v>
       </c>
       <c r="E576" t="s">
         <v>2178</v>
@@ -16726,7 +16726,7 @@
         <v>2</v>
       </c>
       <c r="D577">
-        <v>104.4905577396575</v>
+        <v>104.3359157137172</v>
       </c>
       <c r="E577" t="s">
         <v>2178</v>
@@ -16743,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="D578">
-        <v>104.4752304290363</v>
+        <v>105</v>
       </c>
       <c r="E578" t="s">
         <v>2178</v>
@@ -16794,7 +16794,7 @@
         <v>68</v>
       </c>
       <c r="D581">
-        <v>420.75</v>
+        <v>419.5</v>
       </c>
       <c r="E581" t="s">
         <v>2179</v>
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="D582">
-        <v>5049</v>
+        <v>5034</v>
       </c>
       <c r="E582" t="s">
         <v>2178</v>
@@ -16862,7 +16862,7 @@
         <v>1</v>
       </c>
       <c r="D585">
-        <v>556</v>
+        <v>555.5</v>
       </c>
       <c r="E585" t="s">
         <v>2178</v>
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="D588">
-        <v>633.75</v>
+        <v>627.25</v>
       </c>
       <c r="E588" t="s">
         <v>2178</v>
@@ -16981,7 +16981,7 @@
         <v>2</v>
       </c>
       <c r="D592">
-        <v>52.70200765049102</v>
+        <v>52.93325176493126</v>
       </c>
       <c r="E592" t="s">
         <v>2178</v>
@@ -16998,7 +16998,7 @@
         <v>2</v>
       </c>
       <c r="D593">
-        <v>52.70368717661253</v>
+        <v>52.9478617989756</v>
       </c>
       <c r="E593" t="s">
         <v>2178</v>
@@ -17032,7 +17032,7 @@
         <v>2</v>
       </c>
       <c r="D595">
-        <v>52.25</v>
+        <v>52.5</v>
       </c>
       <c r="E595" t="s">
         <v>2178</v>
@@ -17049,7 +17049,7 @@
         <v>3</v>
       </c>
       <c r="D596">
-        <v>98.64857836345573</v>
+        <v>98.505</v>
       </c>
       <c r="E596" t="s">
         <v>2179</v>
@@ -17066,7 +17066,7 @@
         <v>1</v>
       </c>
       <c r="D597">
-        <v>1578.377253815292</v>
+        <v>1576.08</v>
       </c>
       <c r="E597" t="s">
         <v>2178</v>
@@ -17083,7 +17083,7 @@
         <v>3</v>
       </c>
       <c r="D598">
-        <v>98.64857860331068</v>
+        <v>98.505</v>
       </c>
       <c r="E598" t="s">
         <v>2179</v>
@@ -17100,7 +17100,7 @@
         <v>1</v>
       </c>
       <c r="D599">
-        <v>1578.377257652971</v>
+        <v>1576.08</v>
       </c>
       <c r="E599" t="s">
         <v>2178</v>
@@ -17117,7 +17117,7 @@
         <v>68</v>
       </c>
       <c r="D600">
-        <v>417.5</v>
+        <v>413</v>
       </c>
       <c r="E600" t="s">
         <v>2179</v>
@@ -17134,7 +17134,7 @@
         <v>3</v>
       </c>
       <c r="D601">
-        <v>1670</v>
+        <v>1652</v>
       </c>
       <c r="E601" t="s">
         <v>2178</v>
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="D602">
-        <v>10020</v>
+        <v>9912</v>
       </c>
       <c r="E602" t="s">
         <v>2178</v>
@@ -17406,7 +17406,7 @@
         <v>2</v>
       </c>
       <c r="D617">
-        <v>140.75</v>
+        <v>141</v>
       </c>
       <c r="E617" t="s">
         <v>2178</v>
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="D630">
-        <v>654.75</v>
+        <v>653.5</v>
       </c>
       <c r="E630" t="s">
         <v>2178</v>
@@ -17712,7 +17712,7 @@
         <v>1</v>
       </c>
       <c r="D635">
-        <v>386.239842754568</v>
+        <v>386.2832140562896</v>
       </c>
       <c r="E635" t="s">
         <v>2178</v>
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="D636">
-        <v>386.1397131587854</v>
+        <v>386.1980936414173</v>
       </c>
       <c r="E636" t="s">
         <v>2178</v>
@@ -17746,7 +17746,7 @@
         <v>1</v>
       </c>
       <c r="D637">
-        <v>539.75</v>
+        <v>540.25</v>
       </c>
       <c r="E637" t="s">
         <v>2178</v>
@@ -18392,7 +18392,7 @@
         <v>2</v>
       </c>
       <c r="D675">
-        <v>267.75</v>
+        <v>265.5</v>
       </c>
       <c r="E675" t="s">
         <v>2179</v>
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="D676">
-        <v>1606.5</v>
+        <v>1593</v>
       </c>
       <c r="E676" t="s">
         <v>2178</v>
@@ -18613,7 +18613,7 @@
         <v>3</v>
       </c>
       <c r="D688">
-        <v>59.75</v>
+        <v>59.25</v>
       </c>
       <c r="E688" t="s">
         <v>2179</v>
@@ -18630,7 +18630,7 @@
         <v>1</v>
       </c>
       <c r="D689">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E689" t="s">
         <v>2178</v>
@@ -18664,7 +18664,7 @@
         <v>3</v>
       </c>
       <c r="D691">
-        <v>76</v>
+        <v>76.25</v>
       </c>
       <c r="E691" t="s">
         <v>2179</v>
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="D692">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E692" t="s">
         <v>2178</v>
@@ -18919,7 +18919,7 @@
         <v>3</v>
       </c>
       <c r="D706">
-        <v>208.5</v>
+        <v>212.25</v>
       </c>
       <c r="E706" t="s">
         <v>2179</v>
@@ -18936,7 +18936,7 @@
         <v>1</v>
       </c>
       <c r="D707">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="E707" t="s">
         <v>2178</v>
@@ -19021,7 +19021,7 @@
         <v>3</v>
       </c>
       <c r="D712">
-        <v>344.25</v>
+        <v>344</v>
       </c>
       <c r="E712" t="s">
         <v>2179</v>
@@ -19038,7 +19038,7 @@
         <v>1</v>
       </c>
       <c r="D713">
-        <v>688.5</v>
+        <v>688</v>
       </c>
       <c r="E713" t="s">
         <v>2178</v>
@@ -19140,7 +19140,7 @@
         <v>3</v>
       </c>
       <c r="D719">
-        <v>234.75</v>
+        <v>234.25</v>
       </c>
       <c r="E719" t="s">
         <v>2178</v>
@@ -20092,7 +20092,7 @@
         <v>4</v>
       </c>
       <c r="D775">
-        <v>212.75</v>
+        <v>203</v>
       </c>
       <c r="E775" t="s">
         <v>2179</v>
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="D776">
-        <v>2553</v>
+        <v>2436</v>
       </c>
       <c r="E776" t="s">
         <v>2178</v>
@@ -20262,7 +20262,7 @@
         <v>2</v>
       </c>
       <c r="D785">
-        <v>165.5</v>
+        <v>167.25</v>
       </c>
       <c r="E785" t="s">
         <v>2178</v>
@@ -20364,7 +20364,7 @@
         <v>2</v>
       </c>
       <c r="D791">
-        <v>164.25</v>
+        <v>166.5</v>
       </c>
       <c r="E791" t="s">
         <v>2178</v>
@@ -20908,7 +20908,7 @@
         <v>2</v>
       </c>
       <c r="D823">
-        <v>159</v>
+        <v>158.75</v>
       </c>
       <c r="E823" t="s">
         <v>2178</v>
@@ -21401,7 +21401,7 @@
         <v>3</v>
       </c>
       <c r="D852">
-        <v>43.5</v>
+        <v>43.75</v>
       </c>
       <c r="E852" t="s">
         <v>2179</v>
@@ -21418,7 +21418,7 @@
         <v>1</v>
       </c>
       <c r="D853">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E853" t="s">
         <v>2178</v>
@@ -21435,7 +21435,7 @@
         <v>3</v>
       </c>
       <c r="D854">
-        <v>43.5</v>
+        <v>43.75</v>
       </c>
       <c r="E854" t="s">
         <v>2179</v>
@@ -21452,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="D855">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E855" t="s">
         <v>2178</v>
@@ -21469,7 +21469,7 @@
         <v>3</v>
       </c>
       <c r="D856">
-        <v>43.25</v>
+        <v>43.5</v>
       </c>
       <c r="E856" t="s">
         <v>2179</v>
@@ -21486,7 +21486,7 @@
         <v>1</v>
       </c>
       <c r="D857">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E857" t="s">
         <v>2178</v>
@@ -21877,7 +21877,7 @@
         <v>3</v>
       </c>
       <c r="D880">
-        <v>47.80697980880205</v>
+        <v>47.80406505418708</v>
       </c>
       <c r="E880" t="s">
         <v>2179</v>
@@ -21894,7 +21894,7 @@
         <v>1</v>
       </c>
       <c r="D881">
-        <v>191.2279192352082</v>
+        <v>191.2162602167483</v>
       </c>
       <c r="E881" t="s">
         <v>2178</v>
@@ -21911,7 +21911,7 @@
         <v>3</v>
       </c>
       <c r="D882">
-        <v>47.78477880751333</v>
+        <v>47.78285866380634</v>
       </c>
       <c r="E882" t="s">
         <v>2179</v>
@@ -21928,7 +21928,7 @@
         <v>1</v>
       </c>
       <c r="D883">
-        <v>191.1391152300533</v>
+        <v>191.1314346552253</v>
       </c>
       <c r="E883" t="s">
         <v>2178</v>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="D884">
-        <v>95.25</v>
+        <v>94.75</v>
       </c>
       <c r="E884" t="s">
         <v>2178</v>
@@ -22200,7 +22200,7 @@
         <v>3</v>
       </c>
       <c r="D899">
-        <v>47.85739843624074</v>
+        <v>47.85529527366162</v>
       </c>
       <c r="E899" t="s">
         <v>2179</v>
@@ -22217,7 +22217,7 @@
         <v>1</v>
       </c>
       <c r="D900">
-        <v>191.4295937449629</v>
+        <v>191.4211810946465</v>
       </c>
       <c r="E900" t="s">
         <v>2178</v>
@@ -22506,7 +22506,7 @@
         <v>5</v>
       </c>
       <c r="D917">
-        <v>524.5</v>
+        <v>524.75</v>
       </c>
       <c r="E917" t="s">
         <v>2178</v>
@@ -22523,7 +22523,7 @@
         <v>5</v>
       </c>
       <c r="D918">
-        <v>590.75</v>
+        <v>591</v>
       </c>
       <c r="E918" t="s">
         <v>2178</v>
@@ -22557,7 +22557,7 @@
         <v>5</v>
       </c>
       <c r="D920">
-        <v>217.75</v>
+        <v>218</v>
       </c>
       <c r="E920" t="s">
         <v>2178</v>
@@ -22999,7 +22999,7 @@
         <v>25</v>
       </c>
       <c r="D946">
-        <v>107</v>
+        <v>107.25</v>
       </c>
       <c r="E946" t="s">
         <v>2179</v>
@@ -23016,7 +23016,7 @@
         <v>15</v>
       </c>
       <c r="D947">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E947" t="s">
         <v>2178</v>
@@ -23033,7 +23033,7 @@
         <v>1</v>
       </c>
       <c r="D948">
-        <v>642</v>
+        <v>643.5</v>
       </c>
       <c r="E948" t="s">
         <v>2178</v>
@@ -23492,7 +23492,7 @@
         <v>1</v>
       </c>
       <c r="D975">
-        <v>522</v>
+        <v>520.25</v>
       </c>
       <c r="E975" t="s">
         <v>2178</v>
@@ -23628,7 +23628,7 @@
         <v>3</v>
       </c>
       <c r="D983">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E983" t="s">
         <v>2179</v>
@@ -23645,7 +23645,7 @@
         <v>1</v>
       </c>
       <c r="D984">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="E984" t="s">
         <v>2178</v>
@@ -23696,7 +23696,7 @@
         <v>3</v>
       </c>
       <c r="D987">
-        <v>48.45169566292841</v>
+        <v>48.47042073291101</v>
       </c>
       <c r="E987" t="s">
         <v>2179</v>
@@ -23713,7 +23713,7 @@
         <v>1</v>
       </c>
       <c r="D988">
-        <v>484.5169566292841</v>
+        <v>484.7042073291101</v>
       </c>
       <c r="E988" t="s">
         <v>2178</v>
@@ -23798,7 +23798,7 @@
         <v>3</v>
       </c>
       <c r="D993">
-        <v>77</v>
+        <v>77.25</v>
       </c>
       <c r="E993" t="s">
         <v>2179</v>
@@ -23815,7 +23815,7 @@
         <v>1</v>
       </c>
       <c r="D994">
-        <v>770</v>
+        <v>772.5</v>
       </c>
       <c r="E994" t="s">
         <v>2178</v>
@@ -23917,7 +23917,7 @@
         <v>1</v>
       </c>
       <c r="D1000">
-        <v>367.5</v>
+        <v>369.75</v>
       </c>
       <c r="E1000" t="s">
         <v>2178</v>
@@ -24002,7 +24002,7 @@
         <v>1</v>
       </c>
       <c r="D1005">
-        <v>679.5</v>
+        <v>679.75</v>
       </c>
       <c r="E1005" t="s">
         <v>2178</v>
@@ -24036,7 +24036,7 @@
         <v>1</v>
       </c>
       <c r="D1007">
-        <v>521.25</v>
+        <v>517.25</v>
       </c>
       <c r="E1007" t="s">
         <v>2178</v>
@@ -24257,7 +24257,7 @@
         <v>2</v>
       </c>
       <c r="D1020">
-        <v>736.2700188122243</v>
+        <v>733.3149999999999</v>
       </c>
       <c r="E1020" t="s">
         <v>2179</v>
@@ -24274,7 +24274,7 @@
         <v>1</v>
       </c>
       <c r="D1021">
-        <v>2945.080075248897</v>
+        <v>2933.26</v>
       </c>
       <c r="E1021" t="s">
         <v>2178</v>
@@ -24291,7 +24291,7 @@
         <v>2</v>
       </c>
       <c r="D1022">
-        <v>734.8288075773673</v>
+        <v>733.3149999999999</v>
       </c>
       <c r="E1022" t="s">
         <v>2179</v>
@@ -24308,7 +24308,7 @@
         <v>1</v>
       </c>
       <c r="D1023">
-        <v>2939.315230309469</v>
+        <v>2933.26</v>
       </c>
       <c r="E1023" t="s">
         <v>2178</v>
@@ -25396,7 +25396,7 @@
         <v>2</v>
       </c>
       <c r="D1087">
-        <v>482.5</v>
+        <v>481.25</v>
       </c>
       <c r="E1087" t="s">
         <v>2178</v>
@@ -25413,7 +25413,7 @@
         <v>2</v>
       </c>
       <c r="D1088">
-        <v>576.75</v>
+        <v>574</v>
       </c>
       <c r="E1088" t="s">
         <v>2178</v>
@@ -25430,7 +25430,7 @@
         <v>2</v>
       </c>
       <c r="D1089">
-        <v>621.5</v>
+        <v>615.25</v>
       </c>
       <c r="E1089" t="s">
         <v>2178</v>
@@ -25447,7 +25447,7 @@
         <v>2</v>
       </c>
       <c r="D1090">
-        <v>736.5</v>
+        <v>772</v>
       </c>
       <c r="E1090" t="s">
         <v>2178</v>
@@ -25464,7 +25464,7 @@
         <v>2</v>
       </c>
       <c r="D1091">
-        <v>592.5</v>
+        <v>715.5</v>
       </c>
       <c r="E1091" t="s">
         <v>2178</v>
@@ -25549,7 +25549,7 @@
         <v>1</v>
       </c>
       <c r="D1096">
-        <v>286.31125</v>
+        <v>285.31625</v>
       </c>
       <c r="E1096" t="s">
         <v>2178</v>
@@ -25668,7 +25668,7 @@
         <v>1</v>
       </c>
       <c r="D1103">
-        <v>256.25</v>
+        <v>256.5</v>
       </c>
       <c r="E1103" t="s">
         <v>2178</v>
@@ -25940,7 +25940,7 @@
         <v>1</v>
       </c>
       <c r="D1119">
-        <v>364.254776392595</v>
+        <v>364.5386247765365</v>
       </c>
       <c r="E1119" t="s">
         <v>2178</v>
@@ -25974,7 +25974,7 @@
         <v>1</v>
       </c>
       <c r="D1121">
-        <v>364.7650675748581</v>
+        <v>364.7822770482315</v>
       </c>
       <c r="E1121" t="s">
         <v>2178</v>
@@ -25991,7 +25991,7 @@
         <v>1</v>
       </c>
       <c r="D1122">
-        <v>94.25</v>
+        <v>94.06983731521477</v>
       </c>
       <c r="E1122" t="s">
         <v>2178</v>
@@ -26025,7 +26025,7 @@
         <v>1</v>
       </c>
       <c r="D1124">
-        <v>127.5910166828903</v>
+        <v>127.6180649973321</v>
       </c>
       <c r="E1124" t="s">
         <v>2178</v>
@@ -26042,7 +26042,7 @@
         <v>1</v>
       </c>
       <c r="D1125">
-        <v>127.6442797472049</v>
+        <v>127.6637732921823</v>
       </c>
       <c r="E1125" t="s">
         <v>2178</v>
@@ -26144,7 +26144,7 @@
         <v>1</v>
       </c>
       <c r="D1131">
-        <v>345.1688581067107</v>
+        <v>345.4772215346046</v>
       </c>
       <c r="E1131" t="s">
         <v>2178</v>
@@ -26212,7 +26212,7 @@
         <v>1</v>
       </c>
       <c r="D1135">
-        <v>378.5</v>
+        <v>380</v>
       </c>
       <c r="E1135" t="s">
         <v>2178</v>
@@ -26977,7 +26977,7 @@
         <v>2</v>
       </c>
       <c r="D1180">
-        <v>101.0676422721973</v>
+        <v>101.09712221065</v>
       </c>
       <c r="E1180" t="s">
         <v>2178</v>
@@ -27776,7 +27776,7 @@
         <v>29</v>
       </c>
       <c r="D1227">
-        <v>278.75</v>
+        <v>278</v>
       </c>
       <c r="E1227" t="s">
         <v>2178</v>
@@ -27827,7 +27827,7 @@
         <v>1</v>
       </c>
       <c r="D1230">
-        <v>713.5</v>
+        <v>716.75</v>
       </c>
       <c r="E1230" t="s">
         <v>2178</v>
@@ -27895,7 +27895,7 @@
         <v>12</v>
       </c>
       <c r="D1234">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E1234" t="s">
         <v>2178</v>
@@ -28286,7 +28286,7 @@
         <v>1</v>
       </c>
       <c r="D1257">
-        <v>49.94665640549654</v>
+        <v>50</v>
       </c>
       <c r="E1257" t="s">
         <v>2178</v>
@@ -28592,7 +28592,7 @@
         <v>1</v>
       </c>
       <c r="D1275">
-        <v>90.75722552629091</v>
+        <v>90.75132450596035</v>
       </c>
       <c r="E1275" t="s">
         <v>2178</v>
@@ -28915,7 +28915,7 @@
         <v>3</v>
       </c>
       <c r="D1294">
-        <v>96.75</v>
+        <v>96.5</v>
       </c>
       <c r="E1294" t="s">
         <v>2179</v>
@@ -28932,7 +28932,7 @@
         <v>1</v>
       </c>
       <c r="D1295">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E1295" t="s">
         <v>2178</v>
@@ -29646,7 +29646,7 @@
         <v>2</v>
       </c>
       <c r="D1337">
-        <v>282.5</v>
+        <v>281.75</v>
       </c>
       <c r="E1337" t="s">
         <v>2178</v>
@@ -30241,7 +30241,7 @@
         <v>3</v>
       </c>
       <c r="D1372">
-        <v>123.25</v>
+        <v>123</v>
       </c>
       <c r="E1372" t="s">
         <v>2179</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="D1373">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E1373" t="s">
         <v>2178</v>
@@ -31346,7 +31346,7 @@
         <v>3</v>
       </c>
       <c r="D1437">
-        <v>23.67869576561714</v>
+        <v>23.67869578377689</v>
       </c>
       <c r="E1437" t="s">
         <v>2179</v>
@@ -31363,7 +31363,7 @@
         <v>1</v>
       </c>
       <c r="D1438">
-        <v>284.1443491874056</v>
+        <v>284.1443494053227</v>
       </c>
       <c r="E1438" t="s">
         <v>2178</v>
@@ -31601,7 +31601,7 @@
         <v>3</v>
       </c>
       <c r="D1452">
-        <v>187</v>
+        <v>186.5</v>
       </c>
       <c r="E1452" t="s">
         <v>2179</v>
@@ -31618,7 +31618,7 @@
         <v>1</v>
       </c>
       <c r="D1453">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E1453" t="s">
         <v>2178</v>
@@ -32723,7 +32723,7 @@
         <v>3</v>
       </c>
       <c r="D1518">
-        <v>23.97162412263449</v>
+        <v>24.00120945185084</v>
       </c>
       <c r="E1518" t="s">
         <v>2179</v>
@@ -32740,7 +32740,7 @@
         <v>1</v>
       </c>
       <c r="D1519">
-        <v>287.6594894716138</v>
+        <v>288.0145134222101</v>
       </c>
       <c r="E1519" t="s">
         <v>2178</v>
@@ -32791,7 +32791,7 @@
         <v>3</v>
       </c>
       <c r="D1522">
-        <v>43.75</v>
+        <v>44</v>
       </c>
       <c r="E1522" t="s">
         <v>2179</v>
@@ -32808,7 +32808,7 @@
         <v>1</v>
       </c>
       <c r="D1523">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E1523" t="s">
         <v>2178</v>
@@ -32859,7 +32859,7 @@
         <v>3</v>
       </c>
       <c r="D1526">
-        <v>68.25</v>
+        <v>68.75</v>
       </c>
       <c r="E1526" t="s">
         <v>2179</v>
@@ -32876,7 +32876,7 @@
         <v>1</v>
       </c>
       <c r="D1527">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="E1527" t="s">
         <v>2178</v>
@@ -32893,7 +32893,7 @@
         <v>1</v>
       </c>
       <c r="D1528">
-        <v>805.75</v>
+        <v>803</v>
       </c>
       <c r="E1528" t="s">
         <v>2178</v>
@@ -32910,7 +32910,7 @@
         <v>1</v>
       </c>
       <c r="D1529">
-        <v>799.6791235895987</v>
+        <v>797.4924999999999</v>
       </c>
       <c r="E1529" t="s">
         <v>2178</v>
@@ -32978,7 +32978,7 @@
         <v>431</v>
       </c>
       <c r="D1533">
-        <v>32.5</v>
+        <v>33.25</v>
       </c>
       <c r="E1533" t="s">
         <v>2179</v>
@@ -32995,7 +32995,7 @@
         <v>2</v>
       </c>
       <c r="D1534">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E1534" t="s">
         <v>2178</v>
@@ -33811,7 +33811,7 @@
         <v>29</v>
       </c>
       <c r="D1582">
-        <v>463.75</v>
+        <v>463</v>
       </c>
       <c r="E1582" t="s">
         <v>2178</v>
@@ -33828,7 +33828,7 @@
         <v>23</v>
       </c>
       <c r="D1583">
-        <v>127.6548020235375</v>
+        <v>125.7695203679526</v>
       </c>
       <c r="E1583" t="s">
         <v>2179</v>
@@ -33845,7 +33845,7 @@
         <v>1</v>
       </c>
       <c r="D1584">
-        <v>3063.715248564901</v>
+        <v>3018.468488830862</v>
       </c>
       <c r="E1584" t="s">
         <v>2178</v>
@@ -33862,7 +33862,7 @@
         <v>10</v>
       </c>
       <c r="D1585">
-        <v>127.6947654772546</v>
+        <v>125.8083119509346</v>
       </c>
       <c r="E1585" t="s">
         <v>2179</v>
@@ -33879,7 +33879,7 @@
         <v>1</v>
       </c>
       <c r="D1586">
-        <v>3064.67437145411</v>
+        <v>3019.399486822431</v>
       </c>
       <c r="E1586" t="s">
         <v>2178</v>
@@ -33896,7 +33896,7 @@
         <v>10</v>
       </c>
       <c r="D1587">
-        <v>127.6184043793674</v>
+        <v>125.7341897201655</v>
       </c>
       <c r="E1587" t="s">
         <v>2179</v>
@@ -33913,7 +33913,7 @@
         <v>1</v>
       </c>
       <c r="D1588">
-        <v>3062.841705104818</v>
+        <v>3017.620553283973</v>
       </c>
       <c r="E1588" t="s">
         <v>2178</v>
@@ -34627,7 +34627,7 @@
         <v>29</v>
       </c>
       <c r="D1630">
-        <v>397.25</v>
+        <v>397</v>
       </c>
       <c r="E1630" t="s">
         <v>2178</v>
@@ -35545,7 +35545,7 @@
         <v>3</v>
       </c>
       <c r="D1684">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="E1684" t="s">
         <v>2179</v>
@@ -35562,7 +35562,7 @@
         <v>1</v>
       </c>
       <c r="D1685">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E1685" t="s">
         <v>2178</v>
@@ -35579,7 +35579,7 @@
         <v>3</v>
       </c>
       <c r="D1686">
-        <v>18.25</v>
+        <v>19</v>
       </c>
       <c r="E1686" t="s">
         <v>2179</v>
@@ -35596,7 +35596,7 @@
         <v>1</v>
       </c>
       <c r="D1687">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E1687" t="s">
         <v>2178</v>
@@ -35613,7 +35613,7 @@
         <v>3</v>
       </c>
       <c r="D1688">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="E1688" t="s">
         <v>2179</v>
@@ -35630,7 +35630,7 @@
         <v>1</v>
       </c>
       <c r="D1689">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E1689" t="s">
         <v>2178</v>
@@ -36871,7 +36871,7 @@
         <v>23</v>
       </c>
       <c r="D1762">
-        <v>57</v>
+        <v>58.25</v>
       </c>
       <c r="E1762" t="s">
         <v>2179</v>
@@ -36888,7 +36888,7 @@
         <v>2</v>
       </c>
       <c r="D1763">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="E1763" t="s">
         <v>2178</v>
@@ -37109,7 +37109,7 @@
         <v>3</v>
       </c>
       <c r="D1776">
-        <v>214.25</v>
+        <v>213.75</v>
       </c>
       <c r="E1776" t="s">
         <v>2179</v>
@@ -37126,7 +37126,7 @@
         <v>1</v>
       </c>
       <c r="D1777">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="E1777" t="s">
         <v>2178</v>
@@ -38350,7 +38350,7 @@
         <v>1</v>
       </c>
       <c r="D1849">
-        <v>237.1498157014775</v>
+        <v>235.0470751683799</v>
       </c>
       <c r="E1849" t="s">
         <v>2178</v>
@@ -38367,7 +38367,7 @@
         <v>1</v>
       </c>
       <c r="D1850">
-        <v>237.1354987449554</v>
+        <v>234.9412610633172</v>
       </c>
       <c r="E1850" t="s">
         <v>2178</v>
@@ -38384,7 +38384,7 @@
         <v>1</v>
       </c>
       <c r="D1851">
-        <v>237.1264570964413</v>
+        <v>234.9017438004373</v>
       </c>
       <c r="E1851" t="s">
         <v>2178</v>
@@ -38401,7 +38401,7 @@
         <v>1</v>
       </c>
       <c r="D1852">
-        <v>237.12283931106</v>
+        <v>234.8734272478379</v>
       </c>
       <c r="E1852" t="s">
         <v>2178</v>
@@ -38418,7 +38418,7 @@
         <v>1</v>
       </c>
       <c r="D1853">
-        <v>237.1254829610654</v>
+        <v>234.8899458504501</v>
       </c>
       <c r="E1853" t="s">
         <v>2178</v>
@@ -38435,7 +38435,7 @@
         <v>1</v>
       </c>
       <c r="D1854">
-        <v>237.1257202716573</v>
+        <v>234.8933344453757</v>
       </c>
       <c r="E1854" t="s">
         <v>2178</v>
@@ -39319,7 +39319,7 @@
         <v>23</v>
       </c>
       <c r="D1906">
-        <v>37.5</v>
+        <v>38.25</v>
       </c>
       <c r="E1906" t="s">
         <v>2179</v>
@@ -39336,7 +39336,7 @@
         <v>1</v>
       </c>
       <c r="D1907">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="E1907" t="s">
         <v>2178</v>
@@ -39421,7 +39421,7 @@
         <v>3</v>
       </c>
       <c r="D1912">
-        <v>42.34149732561971</v>
+        <v>42.13240822853135</v>
       </c>
       <c r="E1912" t="s">
         <v>2179</v>
@@ -39438,7 +39438,7 @@
         <v>1</v>
       </c>
       <c r="D1913">
-        <v>508.0979679074366</v>
+        <v>505.5888987423762</v>
       </c>
       <c r="E1913" t="s">
         <v>2178</v>
@@ -39455,7 +39455,7 @@
         <v>3</v>
       </c>
       <c r="D1914">
-        <v>42.36008075167544</v>
+        <v>42.15021333818193</v>
       </c>
       <c r="E1914" t="s">
         <v>2179</v>
@@ -39472,7 +39472,7 @@
         <v>1</v>
       </c>
       <c r="D1915">
-        <v>508.3209690201053</v>
+        <v>505.8025600581832</v>
       </c>
       <c r="E1915" t="s">
         <v>2178</v>
@@ -39489,7 +39489,7 @@
         <v>3</v>
       </c>
       <c r="D1916">
-        <v>42.36235969446328</v>
+        <v>42.15224603427091</v>
       </c>
       <c r="E1916" t="s">
         <v>2179</v>
@@ -39506,7 +39506,7 @@
         <v>1</v>
       </c>
       <c r="D1917">
-        <v>508.3483163335594</v>
+        <v>505.8269524112509</v>
       </c>
       <c r="E1917" t="s">
         <v>2178</v>
@@ -39693,7 +39693,7 @@
         <v>1</v>
       </c>
       <c r="D1928">
-        <v>135</v>
+        <v>134.5</v>
       </c>
       <c r="E1928" t="s">
         <v>2178</v>
@@ -39795,7 +39795,7 @@
         <v>2</v>
       </c>
       <c r="D1934">
-        <v>104.25</v>
+        <v>104</v>
       </c>
       <c r="E1934" t="s">
         <v>2178</v>
@@ -40101,7 +40101,7 @@
         <v>1</v>
       </c>
       <c r="D1952">
-        <v>281.5</v>
+        <v>279.75</v>
       </c>
       <c r="E1952" t="s">
         <v>2178</v>
@@ -40118,7 +40118,7 @@
         <v>1</v>
       </c>
       <c r="D1953">
-        <v>279.25</v>
+        <v>277.75</v>
       </c>
       <c r="E1953" t="s">
         <v>2178</v>
@@ -40135,7 +40135,7 @@
         <v>1</v>
       </c>
       <c r="D1954">
-        <v>282.75</v>
+        <v>281</v>
       </c>
       <c r="E1954" t="s">
         <v>2178</v>
@@ -40152,7 +40152,7 @@
         <v>1</v>
       </c>
       <c r="D1955">
-        <v>278.75</v>
+        <v>276</v>
       </c>
       <c r="E1955" t="s">
         <v>2178</v>
@@ -40169,7 +40169,7 @@
         <v>1</v>
       </c>
       <c r="D1956">
-        <v>293.5</v>
+        <v>291.5</v>
       </c>
       <c r="E1956" t="s">
         <v>2178</v>
@@ -40186,7 +40186,7 @@
         <v>1</v>
       </c>
       <c r="D1957">
-        <v>282.25</v>
+        <v>280.5</v>
       </c>
       <c r="E1957" t="s">
         <v>2178</v>
@@ -40203,7 +40203,7 @@
         <v>137</v>
       </c>
       <c r="D1958">
-        <v>640.25</v>
+        <v>640.5</v>
       </c>
       <c r="E1958" t="s">
         <v>2178</v>
@@ -40356,7 +40356,7 @@
         <v>3</v>
       </c>
       <c r="D1967">
-        <v>147.5734152455323</v>
+        <v>147.5735604463187</v>
       </c>
       <c r="E1967" t="s">
         <v>2179</v>
@@ -40373,7 +40373,7 @@
         <v>1</v>
       </c>
       <c r="D1968">
-        <v>1770.880982946387</v>
+        <v>1770.882725355824</v>
       </c>
       <c r="E1968" t="s">
         <v>2178</v>
@@ -40424,7 +40424,7 @@
         <v>3</v>
       </c>
       <c r="D1971">
-        <v>147.5</v>
+        <v>147</v>
       </c>
       <c r="E1971" t="s">
         <v>2179</v>
@@ -40441,7 +40441,7 @@
         <v>1</v>
       </c>
       <c r="D1972">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="E1972" t="s">
         <v>2178</v>
@@ -40458,7 +40458,7 @@
         <v>7</v>
       </c>
       <c r="D1973">
-        <v>139.3259113501457</v>
+        <v>138.696260555011</v>
       </c>
       <c r="E1973" t="s">
         <v>2179</v>
@@ -40475,7 +40475,7 @@
         <v>1</v>
       </c>
       <c r="D1974">
-        <v>1671.910936201749</v>
+        <v>1664.355126660132</v>
       </c>
       <c r="E1974" t="s">
         <v>2178</v>
@@ -40492,7 +40492,7 @@
         <v>7</v>
       </c>
       <c r="D1975">
-        <v>139.3273348342568</v>
+        <v>138.6976718422129</v>
       </c>
       <c r="E1975" t="s">
         <v>2179</v>
@@ -40509,7 +40509,7 @@
         <v>1</v>
       </c>
       <c r="D1976">
-        <v>1671.928018011081</v>
+        <v>1664.372062106555</v>
       </c>
       <c r="E1976" t="s">
         <v>2178</v>
@@ -40526,7 +40526,7 @@
         <v>7</v>
       </c>
       <c r="D1977">
-        <v>139.3273401647074</v>
+        <v>138.6976764843039</v>
       </c>
       <c r="E1977" t="s">
         <v>2179</v>
@@ -40543,7 +40543,7 @@
         <v>1</v>
       </c>
       <c r="D1978">
-        <v>1671.928081976489</v>
+        <v>1664.372117811647</v>
       </c>
       <c r="E1978" t="s">
         <v>2178</v>
@@ -40560,7 +40560,7 @@
         <v>7</v>
       </c>
       <c r="D1979">
-        <v>139.3273401647074</v>
+        <v>138.6976764843039</v>
       </c>
       <c r="E1979" t="s">
         <v>2179</v>
@@ -40577,7 +40577,7 @@
         <v>1</v>
       </c>
       <c r="D1980">
-        <v>1671.928081976489</v>
+        <v>1664.372117811647</v>
       </c>
       <c r="E1980" t="s">
         <v>2178</v>
@@ -40594,7 +40594,7 @@
         <v>7</v>
       </c>
       <c r="D1981">
-        <v>139.3273401647074</v>
+        <v>138.6976764843039</v>
       </c>
       <c r="E1981" t="s">
         <v>2179</v>
@@ -40611,7 +40611,7 @@
         <v>1</v>
       </c>
       <c r="D1982">
-        <v>1671.928081976489</v>
+        <v>1664.372117811647</v>
       </c>
       <c r="E1982" t="s">
         <v>2178</v>
@@ -40662,7 +40662,7 @@
         <v>3</v>
       </c>
       <c r="D1985">
-        <v>103.75</v>
+        <v>103.5</v>
       </c>
       <c r="E1985" t="s">
         <v>2179</v>
@@ -40679,7 +40679,7 @@
         <v>1</v>
       </c>
       <c r="D1986">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E1986" t="s">
         <v>2178</v>
@@ -41478,7 +41478,7 @@
         <v>1</v>
       </c>
       <c r="D2033">
-        <v>434.25</v>
+        <v>432.5</v>
       </c>
       <c r="E2033" t="s">
         <v>2178</v>
@@ -43450,7 +43450,7 @@
         <v>3</v>
       </c>
       <c r="D2149">
-        <v>47.86075579617051</v>
+        <v>47.84775627640507</v>
       </c>
       <c r="E2149" t="s">
         <v>2179</v>
@@ -43467,7 +43467,7 @@
         <v>1</v>
       </c>
       <c r="D2150">
-        <v>191.443023184682</v>
+        <v>191.3910251056203</v>
       </c>
       <c r="E2150" t="s">
         <v>2178</v>
@@ -43484,7 +43484,7 @@
         <v>3</v>
       </c>
       <c r="D2151">
-        <v>47.81313405354432</v>
+        <v>48</v>
       </c>
       <c r="E2151" t="s">
         <v>2179</v>
@@ -43501,7 +43501,7 @@
         <v>1</v>
       </c>
       <c r="D2152">
-        <v>191.2525362141773</v>
+        <v>192</v>
       </c>
       <c r="E2152" t="s">
         <v>2178</v>
@@ -43518,7 +43518,7 @@
         <v>3</v>
       </c>
       <c r="D2153">
-        <v>47.82401880981931</v>
+        <v>47.82081505573473</v>
       </c>
       <c r="E2153" t="s">
         <v>2179</v>
@@ -43535,7 +43535,7 @@
         <v>1</v>
       </c>
       <c r="D2154">
-        <v>191.2960752392773</v>
+        <v>191.2832602229389</v>
       </c>
       <c r="E2154" t="s">
         <v>2178</v>
@@ -43926,7 +43926,7 @@
         <v>1</v>
       </c>
       <c r="D2177">
-        <v>145.75</v>
+        <v>145.5</v>
       </c>
       <c r="E2177" t="s">
         <v>2178</v>
@@ -43943,7 +43943,7 @@
         <v>1</v>
       </c>
       <c r="D2178">
-        <v>145.75</v>
+        <v>145.5</v>
       </c>
       <c r="E2178" t="s">
         <v>2178</v>
@@ -43960,7 +43960,7 @@
         <v>1</v>
       </c>
       <c r="D2179">
-        <v>145.75</v>
+        <v>145.5</v>
       </c>
       <c r="E2179" t="s">
         <v>2178</v>
@@ -44198,7 +44198,7 @@
         <v>25</v>
       </c>
       <c r="D2193">
-        <v>255.75</v>
+        <v>255.5</v>
       </c>
       <c r="E2193" t="s">
         <v>2179</v>
@@ -44215,7 +44215,7 @@
         <v>29</v>
       </c>
       <c r="D2194">
-        <v>767.25</v>
+        <v>766.5</v>
       </c>
       <c r="E2194" t="s">
         <v>2178</v>
@@ -44232,7 +44232,7 @@
         <v>3</v>
       </c>
       <c r="D2195">
-        <v>76.09579912090676</v>
+        <v>76.05043498412678</v>
       </c>
       <c r="E2195" t="s">
         <v>2179</v>
@@ -44249,7 +44249,7 @@
         <v>1</v>
       </c>
       <c r="D2196">
-        <v>608.7663929672541</v>
+        <v>608.4034798730142</v>
       </c>
       <c r="E2196" t="s">
         <v>2178</v>
@@ -44266,7 +44266,7 @@
         <v>3</v>
       </c>
       <c r="D2197">
-        <v>76.09544219333092</v>
+        <v>76.05037600433668</v>
       </c>
       <c r="E2197" t="s">
         <v>2179</v>
@@ -44283,7 +44283,7 @@
         <v>1</v>
       </c>
       <c r="D2198">
-        <v>608.7635375466474</v>
+        <v>608.4030080346935</v>
       </c>
       <c r="E2198" t="s">
         <v>2178</v>
@@ -45354,7 +45354,7 @@
         <v>2</v>
       </c>
       <c r="D2261">
-        <v>99.78991631868077</v>
+        <v>99.78991631227541</v>
       </c>
       <c r="E2261" t="s">
         <v>2178</v>
@@ -45371,7 +45371,7 @@
         <v>2</v>
       </c>
       <c r="D2262">
-        <v>99.79004259861998</v>
+        <v>99.79003853989455</v>
       </c>
       <c r="E2262" t="s">
         <v>2178</v>
@@ -45388,7 +45388,7 @@
         <v>3</v>
       </c>
       <c r="D2263">
-        <v>779</v>
+        <v>777.5</v>
       </c>
       <c r="E2263" t="s">
         <v>2179</v>
@@ -45405,7 +45405,7 @@
         <v>1</v>
       </c>
       <c r="D2264">
-        <v>9348</v>
+        <v>9330</v>
       </c>
       <c r="E2264" t="s">
         <v>2178</v>
@@ -45456,7 +45456,7 @@
         <v>3</v>
       </c>
       <c r="D2267">
-        <v>391.75</v>
+        <v>390.5</v>
       </c>
       <c r="E2267" t="s">
         <v>2179</v>
@@ -45473,7 +45473,7 @@
         <v>1</v>
       </c>
       <c r="D2268">
-        <v>4701</v>
+        <v>4686</v>
       </c>
       <c r="E2268" t="s">
         <v>2178</v>
@@ -45490,7 +45490,7 @@
         <v>3</v>
       </c>
       <c r="D2269">
-        <v>878.75</v>
+        <v>872</v>
       </c>
       <c r="E2269" t="s">
         <v>2179</v>
@@ -45507,7 +45507,7 @@
         <v>1</v>
       </c>
       <c r="D2270">
-        <v>7030</v>
+        <v>6976</v>
       </c>
       <c r="E2270" t="s">
         <v>2178</v>
@@ -45558,7 +45558,7 @@
         <v>2</v>
       </c>
       <c r="D2273">
-        <v>311</v>
+        <v>310.75</v>
       </c>
       <c r="E2273" t="s">
         <v>2178</v>
@@ -45575,7 +45575,7 @@
         <v>2</v>
       </c>
       <c r="D2274">
-        <v>318.75</v>
+        <v>322.25</v>
       </c>
       <c r="E2274" t="s">
         <v>2178</v>
@@ -45813,7 +45813,7 @@
         <v>3</v>
       </c>
       <c r="D2288">
-        <v>111.75</v>
+        <v>111.5</v>
       </c>
       <c r="E2288" t="s">
         <v>2179</v>
@@ -45830,7 +45830,7 @@
         <v>1</v>
       </c>
       <c r="D2289">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E2289" t="s">
         <v>2178</v>
@@ -45881,7 +45881,7 @@
         <v>3</v>
       </c>
       <c r="D2292">
-        <v>114</v>
+        <v>113.25</v>
       </c>
       <c r="E2292" t="s">
         <v>2179</v>
@@ -45898,7 +45898,7 @@
         <v>1</v>
       </c>
       <c r="D2293">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E2293" t="s">
         <v>2178</v>
@@ -45915,7 +45915,7 @@
         <v>3</v>
       </c>
       <c r="D2294">
-        <v>117.75</v>
+        <v>116.75</v>
       </c>
       <c r="E2294" t="s">
         <v>2179</v>
@@ -45932,7 +45932,7 @@
         <v>1</v>
       </c>
       <c r="D2295">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E2295" t="s">
         <v>2178</v>
@@ -45983,7 +45983,7 @@
         <v>3</v>
       </c>
       <c r="D2298">
-        <v>47.47634822686476</v>
+        <v>47.47656819097361</v>
       </c>
       <c r="E2298" t="s">
         <v>2179</v>
@@ -46000,7 +46000,7 @@
         <v>1</v>
       </c>
       <c r="D2299">
-        <v>284.8580893611885</v>
+        <v>284.8594091458417</v>
       </c>
       <c r="E2299" t="s">
         <v>2178</v>
@@ -46170,7 +46170,7 @@
         <v>1</v>
       </c>
       <c r="D2309">
-        <v>256.25</v>
+        <v>256.5</v>
       </c>
       <c r="E2309" t="s">
         <v>2178</v>
@@ -46782,7 +46782,7 @@
         <v>3</v>
       </c>
       <c r="D2345">
-        <v>107.25</v>
+        <v>106.5</v>
       </c>
       <c r="E2345" t="s">
         <v>2179</v>
@@ -46799,7 +46799,7 @@
         <v>1</v>
       </c>
       <c r="D2346">
-        <v>643.5</v>
+        <v>639</v>
       </c>
       <c r="E2346" t="s">
         <v>2178</v>
@@ -46816,7 +46816,7 @@
         <v>7</v>
       </c>
       <c r="D2347">
-        <v>46.25</v>
+        <v>46</v>
       </c>
       <c r="E2347" t="s">
         <v>2179</v>
@@ -46833,7 +46833,7 @@
         <v>1</v>
       </c>
       <c r="D2348">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E2348" t="s">
         <v>2178</v>
@@ -46884,7 +46884,7 @@
         <v>1</v>
       </c>
       <c r="D2351">
-        <v>598.5</v>
+        <v>594.5</v>
       </c>
       <c r="E2351" t="s">
         <v>2178</v>
@@ -47003,7 +47003,7 @@
         <v>3</v>
       </c>
       <c r="D2358">
-        <v>47.7369435338741</v>
+        <v>47.73695894228251</v>
       </c>
       <c r="E2358" t="s">
         <v>2179</v>
@@ -47020,7 +47020,7 @@
         <v>1</v>
       </c>
       <c r="D2359">
-        <v>572.8433224064893</v>
+        <v>572.84350730739</v>
       </c>
       <c r="E2359" t="s">
         <v>2178</v>
@@ -47377,7 +47377,7 @@
         <v>10</v>
       </c>
       <c r="D2380">
-        <v>59.5</v>
+        <v>59.75</v>
       </c>
       <c r="E2380" t="s">
         <v>2179</v>
@@ -47394,7 +47394,7 @@
         <v>1</v>
       </c>
       <c r="D2381">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E2381" t="s">
         <v>2178</v>
@@ -47411,7 +47411,7 @@
         <v>10</v>
       </c>
       <c r="D2382">
-        <v>84.25</v>
+        <v>84</v>
       </c>
       <c r="E2382" t="s">
         <v>2179</v>
@@ -47428,7 +47428,7 @@
         <v>1</v>
       </c>
       <c r="D2383">
-        <v>1516.5</v>
+        <v>1512</v>
       </c>
       <c r="E2383" t="s">
         <v>2178</v>
@@ -47530,7 +47530,7 @@
         <v>7</v>
       </c>
       <c r="D2389">
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
       <c r="E2389" t="s">
         <v>2179</v>
@@ -47547,7 +47547,7 @@
         <v>1</v>
       </c>
       <c r="D2390">
-        <v>2088.75</v>
+        <v>2073.75</v>
       </c>
       <c r="E2390" t="s">
         <v>2178</v>
@@ -47564,7 +47564,7 @@
         <v>7</v>
       </c>
       <c r="D2391">
-        <v>230.75</v>
+        <v>229.5</v>
       </c>
       <c r="E2391" t="s">
         <v>2179</v>
@@ -47581,7 +47581,7 @@
         <v>1</v>
       </c>
       <c r="D2392">
-        <v>4615</v>
+        <v>4590</v>
       </c>
       <c r="E2392" t="s">
         <v>2178</v>
@@ -48958,7 +48958,7 @@
         <v>3</v>
       </c>
       <c r="D2473">
-        <v>47.83387073142472</v>
+        <v>47.82502366818436</v>
       </c>
       <c r="E2473" t="s">
         <v>2179</v>
@@ -48975,7 +48975,7 @@
         <v>1</v>
       </c>
       <c r="D2474">
-        <v>191.3354829256989</v>
+        <v>191.3000946727375</v>
       </c>
       <c r="E2474" t="s">
         <v>2178</v>
@@ -49060,7 +49060,7 @@
         <v>3</v>
       </c>
       <c r="D2479">
-        <v>24.09220289168631</v>
+        <v>24.09236888190967</v>
       </c>
       <c r="E2479" t="s">
         <v>2179</v>
@@ -49077,7 +49077,7 @@
         <v>1</v>
       </c>
       <c r="D2480">
-        <v>289.1064347002357</v>
+        <v>289.1084265829161</v>
       </c>
       <c r="E2480" t="s">
         <v>2178</v>
@@ -49128,7 +49128,7 @@
         <v>3</v>
       </c>
       <c r="D2483">
-        <v>24</v>
+        <v>23.97034473790634</v>
       </c>
       <c r="E2483" t="s">
         <v>2179</v>
@@ -49145,7 +49145,7 @@
         <v>1</v>
       </c>
       <c r="D2484">
-        <v>288</v>
+        <v>287.6441368548761</v>
       </c>
       <c r="E2484" t="s">
         <v>2178</v>
@@ -49196,7 +49196,7 @@
         <v>3</v>
       </c>
       <c r="D2487">
-        <v>23.95845780665666</v>
+        <v>23.99316303848432</v>
       </c>
       <c r="E2487" t="s">
         <v>2179</v>
@@ -49213,7 +49213,7 @@
         <v>1</v>
       </c>
       <c r="D2488">
-        <v>287.50149367988</v>
+        <v>287.9179564618119</v>
       </c>
       <c r="E2488" t="s">
         <v>2178</v>
@@ -49230,7 +49230,7 @@
         <v>3</v>
       </c>
       <c r="D2489">
-        <v>43</v>
+        <v>43.25</v>
       </c>
       <c r="E2489" t="s">
         <v>2179</v>
@@ -49247,7 +49247,7 @@
         <v>1</v>
       </c>
       <c r="D2490">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E2490" t="s">
         <v>2178</v>
@@ -49298,7 +49298,7 @@
         <v>3</v>
       </c>
       <c r="D2493">
-        <v>24.07387509145035</v>
+        <v>24.07550377574677</v>
       </c>
       <c r="E2493" t="s">
         <v>2179</v>
@@ -49315,7 +49315,7 @@
         <v>1</v>
       </c>
       <c r="D2494">
-        <v>288.8865010974042</v>
+        <v>288.9060453089612</v>
       </c>
       <c r="E2494" t="s">
         <v>2178</v>
@@ -49995,7 +49995,7 @@
         <v>2</v>
       </c>
       <c r="D2534">
-        <v>277.25</v>
+        <v>276.75</v>
       </c>
       <c r="E2534" t="s">
         <v>2178</v>
@@ -50012,7 +50012,7 @@
         <v>2</v>
       </c>
       <c r="D2535">
-        <v>349.5</v>
+        <v>349.75</v>
       </c>
       <c r="E2535" t="s">
         <v>2178</v>
@@ -50029,7 +50029,7 @@
         <v>2</v>
       </c>
       <c r="D2536">
-        <v>304.5</v>
+        <v>303.5</v>
       </c>
       <c r="E2536" t="s">
         <v>2178</v>
@@ -50114,7 +50114,7 @@
         <v>1</v>
       </c>
       <c r="D2541">
-        <v>207.5</v>
+        <v>208.25</v>
       </c>
       <c r="E2541" t="s">
         <v>2178</v>
@@ -50332,10 +50332,10 @@
         <v>1721</v>
       </c>
       <c r="C2554">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2554">
-        <v>319.5</v>
+        <v>325.25</v>
       </c>
       <c r="E2554" t="s">
         <v>2179</v>
@@ -50349,10 +50349,10 @@
         <v>1721</v>
       </c>
       <c r="C2555">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2555">
-        <v>319.5</v>
+        <v>325.25</v>
       </c>
       <c r="E2555" t="s">
         <v>2178</v>
@@ -50692,7 +50692,7 @@
         <v>10</v>
       </c>
       <c r="D2575">
-        <v>53.75</v>
+        <v>53.25</v>
       </c>
       <c r="E2575" t="s">
         <v>2179</v>
@@ -50709,7 +50709,7 @@
         <v>1</v>
       </c>
       <c r="D2576">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E2576" t="s">
         <v>2178</v>
@@ -50726,7 +50726,7 @@
         <v>10</v>
       </c>
       <c r="D2577">
-        <v>40.70495503454412</v>
+        <v>40.54625</v>
       </c>
       <c r="E2577" t="s">
         <v>2179</v>
@@ -50743,7 +50743,7 @@
         <v>1</v>
       </c>
       <c r="D2578">
-        <v>488.4594604145294</v>
+        <v>486.555</v>
       </c>
       <c r="E2578" t="s">
         <v>2178</v>
@@ -50760,7 +50760,7 @@
         <v>10</v>
       </c>
       <c r="D2579">
-        <v>40.70493594774516</v>
+        <v>40.54625</v>
       </c>
       <c r="E2579" t="s">
         <v>2179</v>
@@ -50777,7 +50777,7 @@
         <v>1</v>
       </c>
       <c r="D2580">
-        <v>488.4592313729419</v>
+        <v>486.555</v>
       </c>
       <c r="E2580" t="s">
         <v>2178</v>
@@ -50794,7 +50794,7 @@
         <v>10</v>
       </c>
       <c r="D2581">
-        <v>40.70493414572671</v>
+        <v>40.54625</v>
       </c>
       <c r="E2581" t="s">
         <v>2179</v>
@@ -50811,7 +50811,7 @@
         <v>1</v>
       </c>
       <c r="D2582">
-        <v>488.4592097487205</v>
+        <v>486.555</v>
       </c>
       <c r="E2582" t="s">
         <v>2178</v>
@@ -50998,7 +50998,7 @@
         <v>1</v>
       </c>
       <c r="D2593">
-        <v>238.6729962935537</v>
+        <v>238.3522121711243</v>
       </c>
       <c r="E2593" t="s">
         <v>2178</v>
@@ -51015,7 +51015,7 @@
         <v>1</v>
       </c>
       <c r="D2594">
-        <v>238.3477277401938</v>
+        <v>238.0537034764305</v>
       </c>
       <c r="E2594" t="s">
         <v>2178</v>
@@ -51032,7 +51032,7 @@
         <v>1</v>
       </c>
       <c r="D2595">
-        <v>238.1494519914889</v>
+        <v>237.9359584428359</v>
       </c>
       <c r="E2595" t="s">
         <v>2178</v>
@@ -51066,7 +51066,7 @@
         <v>1</v>
       </c>
       <c r="D2597">
-        <v>238.2836243514516</v>
+        <v>238.0406574263783</v>
       </c>
       <c r="E2597" t="s">
         <v>2178</v>
@@ -51151,7 +51151,7 @@
         <v>1</v>
       </c>
       <c r="D2602">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2602" t="s">
         <v>2178</v>
@@ -51168,7 +51168,7 @@
         <v>1</v>
       </c>
       <c r="D2603">
-        <v>313.25</v>
+        <v>313</v>
       </c>
       <c r="E2603" t="s">
         <v>2178</v>
@@ -51185,7 +51185,7 @@
         <v>1</v>
       </c>
       <c r="D2604">
-        <v>701.1706765939507</v>
+        <v>696.9974999999999</v>
       </c>
       <c r="E2604" t="s">
         <v>2178</v>
@@ -51202,7 +51202,7 @@
         <v>1</v>
       </c>
       <c r="D2605">
-        <v>701.3751010968621</v>
+        <v>696.9974999999999</v>
       </c>
       <c r="E2605" t="s">
         <v>2178</v>
@@ -51219,7 +51219,7 @@
         <v>1</v>
       </c>
       <c r="D2606">
-        <v>696.5</v>
+        <v>693.25</v>
       </c>
       <c r="E2606" t="s">
         <v>2178</v>
@@ -51287,7 +51287,7 @@
         <v>1</v>
       </c>
       <c r="D2610">
-        <v>604.024077268551</v>
+        <v>603.052636700943</v>
       </c>
       <c r="E2610" t="s">
         <v>2178</v>
@@ -51304,7 +51304,7 @@
         <v>1</v>
       </c>
       <c r="D2611">
-        <v>911.5</v>
+        <v>911.25</v>
       </c>
       <c r="E2611" t="s">
         <v>2178</v>
@@ -51389,7 +51389,7 @@
         <v>3</v>
       </c>
       <c r="D2616">
-        <v>32.5</v>
+        <v>32.25</v>
       </c>
       <c r="E2616" t="s">
         <v>2179</v>
@@ -51406,7 +51406,7 @@
         <v>1</v>
       </c>
       <c r="D2617">
-        <v>975</v>
+        <v>967.5</v>
       </c>
       <c r="E2617" t="s">
         <v>2178</v>
@@ -51423,7 +51423,7 @@
         <v>3</v>
       </c>
       <c r="D2618">
-        <v>53.25</v>
+        <v>52.75</v>
       </c>
       <c r="E2618" t="s">
         <v>2179</v>
@@ -51440,7 +51440,7 @@
         <v>1</v>
       </c>
       <c r="D2619">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="E2619" t="s">
         <v>2178</v>
@@ -51457,7 +51457,7 @@
         <v>3</v>
       </c>
       <c r="D2620">
-        <v>58.25</v>
+        <v>58</v>
       </c>
       <c r="E2620" t="s">
         <v>2179</v>
@@ -51474,7 +51474,7 @@
         <v>1</v>
       </c>
       <c r="D2621">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="E2621" t="s">
         <v>2178</v>
@@ -51848,7 +51848,7 @@
         <v>1</v>
       </c>
       <c r="D2643">
-        <v>114</v>
+        <v>114.25</v>
       </c>
       <c r="E2643" t="s">
         <v>2178</v>
@@ -51865,7 +51865,7 @@
         <v>1</v>
       </c>
       <c r="D2644">
-        <v>116</v>
+        <v>116.25</v>
       </c>
       <c r="E2644" t="s">
         <v>2178</v>
@@ -51882,7 +51882,7 @@
         <v>1</v>
       </c>
       <c r="D2645">
-        <v>348</v>
+        <v>348.75</v>
       </c>
       <c r="E2645" t="s">
         <v>2178</v>
@@ -52358,7 +52358,7 @@
         <v>2</v>
       </c>
       <c r="D2673">
-        <v>735.9533207033722</v>
+        <v>733.3149999999999</v>
       </c>
       <c r="E2673" t="s">
         <v>2179</v>
@@ -52375,7 +52375,7 @@
         <v>1</v>
       </c>
       <c r="D2674">
-        <v>2943.813282813489</v>
+        <v>2933.26</v>
       </c>
       <c r="E2674" t="s">
         <v>2178</v>
@@ -52392,7 +52392,7 @@
         <v>2</v>
       </c>
       <c r="D2675">
-        <v>737.1339458016809</v>
+        <v>733.3149999999999</v>
       </c>
       <c r="E2675" t="s">
         <v>2179</v>
@@ -52409,7 +52409,7 @@
         <v>1</v>
       </c>
       <c r="D2676">
-        <v>2948.535783206723</v>
+        <v>2933.26</v>
       </c>
       <c r="E2676" t="s">
         <v>2178</v>
@@ -52681,7 +52681,7 @@
         <v>3</v>
       </c>
       <c r="D2692">
-        <v>97.5610894103133</v>
+        <v>97.57301086744323</v>
       </c>
       <c r="E2692" t="s">
         <v>2179</v>
@@ -52698,7 +52698,7 @@
         <v>1</v>
       </c>
       <c r="D2693">
-        <v>585.3665364618798</v>
+        <v>585.4380652046593</v>
       </c>
       <c r="E2693" t="s">
         <v>2178</v>
@@ -52885,7 +52885,7 @@
         <v>7</v>
       </c>
       <c r="D2704">
-        <v>40.5</v>
+        <v>40.25</v>
       </c>
       <c r="E2704" t="s">
         <v>2179</v>
@@ -52902,7 +52902,7 @@
         <v>1</v>
       </c>
       <c r="D2705">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E2705" t="s">
         <v>2178</v>
@@ -53123,7 +53123,7 @@
         <v>7</v>
       </c>
       <c r="D2718">
-        <v>78</v>
+        <v>77.25</v>
       </c>
       <c r="E2718" t="s">
         <v>2179</v>
@@ -53140,7 +53140,7 @@
         <v>1</v>
       </c>
       <c r="D2719">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="E2719" t="s">
         <v>2178</v>
@@ -53157,7 +53157,7 @@
         <v>3</v>
       </c>
       <c r="D2720">
-        <v>120</v>
+        <v>119.75</v>
       </c>
       <c r="E2720" t="s">
         <v>2179</v>
@@ -53174,7 +53174,7 @@
         <v>1</v>
       </c>
       <c r="D2721">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E2721" t="s">
         <v>2178</v>
@@ -53259,7 +53259,7 @@
         <v>3</v>
       </c>
       <c r="D2726">
-        <v>49.05592600184078</v>
+        <v>49.06313223228373</v>
       </c>
       <c r="E2726" t="s">
         <v>2179</v>
@@ -53276,7 +53276,7 @@
         <v>1</v>
       </c>
       <c r="D2727">
-        <v>588.6711120220893</v>
+        <v>588.7575867874048</v>
       </c>
       <c r="E2727" t="s">
         <v>2178</v>
@@ -53293,7 +53293,7 @@
         <v>3</v>
       </c>
       <c r="D2728">
-        <v>48.83932072794994</v>
+        <v>49</v>
       </c>
       <c r="E2728" t="s">
         <v>2179</v>
@@ -53310,7 +53310,7 @@
         <v>1</v>
       </c>
       <c r="D2729">
-        <v>586.0718487353993</v>
+        <v>588</v>
       </c>
       <c r="E2729" t="s">
         <v>2178</v>
@@ -53463,7 +53463,7 @@
         <v>3</v>
       </c>
       <c r="D2738">
-        <v>98.9996210663459</v>
+        <v>98.99962106634588</v>
       </c>
       <c r="E2738" t="s">
         <v>2179</v>
@@ -53480,7 +53480,7 @@
         <v>1</v>
       </c>
       <c r="D2739">
-        <v>593.9977263980754</v>
+        <v>593.9977263980753</v>
       </c>
       <c r="E2739" t="s">
         <v>2178</v>
@@ -53633,7 +53633,7 @@
         <v>3</v>
       </c>
       <c r="D2748">
-        <v>47.78683380423497</v>
+        <v>47.78368333271303</v>
       </c>
       <c r="E2748" t="s">
         <v>2179</v>
@@ -53650,7 +53650,7 @@
         <v>1</v>
       </c>
       <c r="D2749">
-        <v>191.1473352169399</v>
+        <v>191.1347333308521</v>
       </c>
       <c r="E2749" t="s">
         <v>2178</v>
@@ -53667,7 +53667,7 @@
         <v>3</v>
       </c>
       <c r="D2750">
-        <v>47.9493515145501</v>
+        <v>47.92617034389144</v>
       </c>
       <c r="E2750" t="s">
         <v>2179</v>
@@ -53684,7 +53684,7 @@
         <v>1</v>
       </c>
       <c r="D2751">
-        <v>191.7974060582004</v>
+        <v>191.7046813755658</v>
       </c>
       <c r="E2751" t="s">
         <v>2178</v>
@@ -53701,7 +53701,7 @@
         <v>3</v>
       </c>
       <c r="D2752">
-        <v>48.07306723439868</v>
+        <v>48.05297965638062</v>
       </c>
       <c r="E2752" t="s">
         <v>2179</v>
@@ -53718,7 +53718,7 @@
         <v>1</v>
       </c>
       <c r="D2753">
-        <v>192.2922689375947</v>
+        <v>192.2119186255225</v>
       </c>
       <c r="E2753" t="s">
         <v>2178</v>
@@ -54194,7 +54194,7 @@
         <v>1</v>
       </c>
       <c r="D2781">
-        <v>503</v>
+        <v>502.7579795475674</v>
       </c>
       <c r="E2781" t="s">
         <v>2178</v>
@@ -54211,7 +54211,7 @@
         <v>1</v>
       </c>
       <c r="D2782">
-        <v>503</v>
+        <v>502.7579795475674</v>
       </c>
       <c r="E2782" t="s">
         <v>2178</v>
@@ -54330,7 +54330,7 @@
         <v>3</v>
       </c>
       <c r="D2789">
-        <v>88.61625712442097</v>
+        <v>88.61624589906114</v>
       </c>
       <c r="E2789" t="s">
         <v>2179</v>
@@ -54347,7 +54347,7 @@
         <v>1</v>
       </c>
       <c r="D2790">
-        <v>708.9300569953677</v>
+        <v>708.9299671924891</v>
       </c>
       <c r="E2790" t="s">
         <v>2178</v>
@@ -54364,7 +54364,7 @@
         <v>3</v>
       </c>
       <c r="D2791">
-        <v>88.61625712442098</v>
+        <v>88.61624859314752</v>
       </c>
       <c r="E2791" t="s">
         <v>2179</v>
@@ -54381,7 +54381,7 @@
         <v>1</v>
       </c>
       <c r="D2792">
-        <v>708.9300569953679</v>
+        <v>708.9299887451801</v>
       </c>
       <c r="E2792" t="s">
         <v>2178</v>
@@ -54432,7 +54432,7 @@
         <v>3</v>
       </c>
       <c r="D2795">
-        <v>44.30227753048535</v>
+        <v>44.30228213068182</v>
       </c>
       <c r="E2795" t="s">
         <v>2179</v>
@@ -54449,7 +54449,7 @@
         <v>1</v>
       </c>
       <c r="D2796">
-        <v>354.4182202438828</v>
+        <v>354.4182570454546</v>
       </c>
       <c r="E2796" t="s">
         <v>2178</v>
@@ -54466,7 +54466,7 @@
         <v>3</v>
       </c>
       <c r="D2797">
-        <v>44.30235471819774</v>
+        <v>44.30229885866903</v>
       </c>
       <c r="E2797" t="s">
         <v>2179</v>
@@ -54483,7 +54483,7 @@
         <v>1</v>
       </c>
       <c r="D2798">
-        <v>354.4188377455819</v>
+        <v>354.4183908693523</v>
       </c>
       <c r="E2798" t="s">
         <v>2178</v>
@@ -54500,7 +54500,7 @@
         <v>3</v>
       </c>
       <c r="D2799">
-        <v>44.30226331169622</v>
+        <v>44.30228395187399</v>
       </c>
       <c r="E2799" t="s">
         <v>2179</v>
@@ -54517,7 +54517,7 @@
         <v>1</v>
       </c>
       <c r="D2800">
-        <v>354.4181064935698</v>
+        <v>354.4182716149919</v>
       </c>
       <c r="E2800" t="s">
         <v>2178</v>
@@ -54840,7 +54840,7 @@
         <v>3</v>
       </c>
       <c r="D2819">
-        <v>66.55517866559454</v>
+        <v>66.55471343211094</v>
       </c>
       <c r="E2819" t="s">
         <v>2179</v>
@@ -54857,7 +54857,7 @@
         <v>1</v>
       </c>
       <c r="D2820">
-        <v>798.6621439871344</v>
+        <v>798.6565611853314</v>
       </c>
       <c r="E2820" t="s">
         <v>2178</v>
@@ -54874,7 +54874,7 @@
         <v>3</v>
       </c>
       <c r="D2821">
-        <v>66.57354380281993</v>
+        <v>66.57081211645233</v>
       </c>
       <c r="E2821" t="s">
         <v>2179</v>
@@ -54891,7 +54891,7 @@
         <v>1</v>
       </c>
       <c r="D2822">
-        <v>798.8825256338391</v>
+        <v>798.849745397428</v>
       </c>
       <c r="E2822" t="s">
         <v>2178</v>
@@ -54908,7 +54908,7 @@
         <v>3</v>
       </c>
       <c r="D2823">
-        <v>66.55532211902094</v>
+        <v>66.55477610979015</v>
       </c>
       <c r="E2823" t="s">
         <v>2179</v>
@@ -54925,7 +54925,7 @@
         <v>1</v>
       </c>
       <c r="D2824">
-        <v>798.6638654282513</v>
+        <v>798.6573133174818</v>
       </c>
       <c r="E2824" t="s">
         <v>2178</v>
@@ -54942,7 +54942,7 @@
         <v>3</v>
       </c>
       <c r="D2825">
-        <v>58.25</v>
+        <v>58.75</v>
       </c>
       <c r="E2825" t="s">
         <v>2179</v>
@@ -54959,7 +54959,7 @@
         <v>1</v>
       </c>
       <c r="D2826">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E2826" t="s">
         <v>2178</v>
@@ -55554,7 +55554,7 @@
         <v>3</v>
       </c>
       <c r="D2861">
-        <v>48.5103830114387</v>
+        <v>48.53106401583541</v>
       </c>
       <c r="E2861" t="s">
         <v>2179</v>
@@ -55571,7 +55571,7 @@
         <v>1</v>
       </c>
       <c r="D2862">
-        <v>582.1245961372643</v>
+        <v>582.372768190025</v>
       </c>
       <c r="E2862" t="s">
         <v>2178</v>
@@ -55588,7 +55588,7 @@
         <v>3</v>
       </c>
       <c r="D2863">
-        <v>48.69460410836525</v>
+        <v>48.70734357989278</v>
       </c>
       <c r="E2863" t="s">
         <v>2179</v>
@@ -55605,7 +55605,7 @@
         <v>1</v>
       </c>
       <c r="D2864">
-        <v>584.335249300383</v>
+        <v>584.4881229587133</v>
       </c>
       <c r="E2864" t="s">
         <v>2178</v>
@@ -55622,7 +55622,7 @@
         <v>3</v>
       </c>
       <c r="D2865">
-        <v>48.57984756153505</v>
+        <v>48.60125973021742</v>
       </c>
       <c r="E2865" t="s">
         <v>2179</v>
@@ -55639,7 +55639,7 @@
         <v>1</v>
       </c>
       <c r="D2866">
-        <v>582.9581707384206</v>
+        <v>583.2151167626091</v>
       </c>
       <c r="E2866" t="s">
         <v>2178</v>
@@ -55758,7 +55758,7 @@
         <v>2</v>
       </c>
       <c r="D2873">
-        <v>395.5</v>
+        <v>394.5</v>
       </c>
       <c r="E2873" t="s">
         <v>2179</v>
@@ -55775,7 +55775,7 @@
         <v>1</v>
       </c>
       <c r="D2874">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E2874" t="s">
         <v>2178</v>
@@ -55979,7 +55979,7 @@
         <v>2</v>
       </c>
       <c r="D2886">
-        <v>98.64917835861392</v>
+        <v>98.23108519243038</v>
       </c>
       <c r="E2886" t="s">
         <v>2178</v>
@@ -56064,7 +56064,7 @@
         <v>3</v>
       </c>
       <c r="D2891">
-        <v>112.868108232642</v>
+        <v>112.8681276218999</v>
       </c>
       <c r="E2891" t="s">
         <v>2179</v>
@@ -56081,7 +56081,7 @@
         <v>1</v>
       </c>
       <c r="D2892">
-        <v>677.2086493958523</v>
+        <v>677.2087657313997</v>
       </c>
       <c r="E2892" t="s">
         <v>2178</v>
@@ -56625,7 +56625,7 @@
         <v>1</v>
       </c>
       <c r="D2924">
-        <v>772.5</v>
+        <v>770.75</v>
       </c>
       <c r="E2924" t="s">
         <v>2178</v>
@@ -56659,7 +56659,7 @@
         <v>14</v>
       </c>
       <c r="D2926">
-        <v>77.06051397149545</v>
+        <v>77.06053933909442</v>
       </c>
       <c r="E2926" t="s">
         <v>2179</v>
@@ -56676,7 +56676,7 @@
         <v>1</v>
       </c>
       <c r="D2927">
-        <v>616.4841117719636</v>
+        <v>616.4843147127553</v>
       </c>
       <c r="E2927" t="s">
         <v>2178</v>
@@ -56693,7 +56693,7 @@
         <v>3</v>
       </c>
       <c r="D2928">
-        <v>834.4696757960938</v>
+        <v>834.0504612850946</v>
       </c>
       <c r="E2928" t="s">
         <v>2179</v>
@@ -56710,7 +56710,7 @@
         <v>1</v>
       </c>
       <c r="D2929">
-        <v>5006.818054776563</v>
+        <v>5004.302767710567</v>
       </c>
       <c r="E2929" t="s">
         <v>2178</v>
@@ -56761,7 +56761,7 @@
         <v>3</v>
       </c>
       <c r="D2932">
-        <v>152.980641828683</v>
+        <v>152.9806473269008</v>
       </c>
       <c r="E2932" t="s">
         <v>2179</v>
@@ -56778,7 +56778,7 @@
         <v>1</v>
       </c>
       <c r="D2933">
-        <v>1835.767701944196</v>
+        <v>1835.76776792281</v>
       </c>
       <c r="E2933" t="s">
         <v>2178</v>
@@ -58376,7 +58376,7 @@
         <v>3</v>
       </c>
       <c r="D3027">
-        <v>239</v>
+        <v>238.75</v>
       </c>
       <c r="E3027" t="s">
         <v>2179</v>
@@ -58393,7 +58393,7 @@
         <v>1</v>
       </c>
       <c r="D3028">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="E3028" t="s">
         <v>2178</v>
@@ -58784,7 +58784,7 @@
         <v>10</v>
       </c>
       <c r="D3051">
-        <v>120.5</v>
+        <v>120.25</v>
       </c>
       <c r="E3051" t="s">
         <v>2179</v>
@@ -58801,7 +58801,7 @@
         <v>1</v>
       </c>
       <c r="D3052">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E3052" t="s">
         <v>2178</v>
@@ -58818,7 +58818,7 @@
         <v>10</v>
       </c>
       <c r="D3053">
-        <v>50.75</v>
+        <v>50.5</v>
       </c>
       <c r="E3053" t="s">
         <v>2179</v>
@@ -58835,7 +58835,7 @@
         <v>1</v>
       </c>
       <c r="D3054">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E3054" t="s">
         <v>2178</v>
@@ -59056,7 +59056,7 @@
         <v>68</v>
       </c>
       <c r="D3067">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E3067" t="s">
         <v>2179</v>
@@ -59073,7 +59073,7 @@
         <v>1</v>
       </c>
       <c r="D3068">
-        <v>6708</v>
+        <v>6648</v>
       </c>
       <c r="E3068" t="s">
         <v>2178</v>
@@ -59090,7 +59090,7 @@
         <v>2</v>
       </c>
       <c r="D3069">
-        <v>270.7725378662675</v>
+        <v>270.740681787099</v>
       </c>
       <c r="E3069" t="s">
         <v>2178</v>
@@ -59124,7 +59124,7 @@
         <v>2</v>
       </c>
       <c r="D3071">
-        <v>272.2060639372424</v>
+        <v>272.1383065127335</v>
       </c>
       <c r="E3071" t="s">
         <v>2178</v>
@@ -59192,7 +59192,7 @@
         <v>1</v>
       </c>
       <c r="D3075">
-        <v>378.5</v>
+        <v>396.5</v>
       </c>
       <c r="E3075" t="s">
         <v>2178</v>
@@ -60076,7 +60076,7 @@
         <v>1</v>
       </c>
       <c r="D3127">
-        <v>304.71875</v>
+        <v>301.6903963783391</v>
       </c>
       <c r="E3127" t="s">
         <v>2178</v>
@@ -60093,7 +60093,7 @@
         <v>1</v>
       </c>
       <c r="D3128">
-        <v>304.71875</v>
+        <v>301.6903963783391</v>
       </c>
       <c r="E3128" t="s">
         <v>2178</v>
@@ -60110,7 +60110,7 @@
         <v>1</v>
       </c>
       <c r="D3129">
-        <v>304.71875</v>
+        <v>301.6903963783391</v>
       </c>
       <c r="E3129" t="s">
         <v>2178</v>
@@ -60127,7 +60127,7 @@
         <v>1</v>
       </c>
       <c r="D3130">
-        <v>324.5</v>
+        <v>325.5</v>
       </c>
       <c r="E3130" t="s">
         <v>2178</v>
@@ -60144,7 +60144,7 @@
         <v>1</v>
       </c>
       <c r="D3131">
-        <v>207.25</v>
+        <v>206.75</v>
       </c>
       <c r="E3131" t="s">
         <v>2178</v>
@@ -60314,7 +60314,7 @@
         <v>137</v>
       </c>
       <c r="D3141">
-        <v>1167.25</v>
+        <v>1152.25</v>
       </c>
       <c r="E3141" t="s">
         <v>2178</v>
@@ -60399,7 +60399,7 @@
         <v>3</v>
       </c>
       <c r="D3146">
-        <v>46</v>
+        <v>45.75</v>
       </c>
       <c r="E3146" t="s">
         <v>2179</v>
@@ -60416,7 +60416,7 @@
         <v>1</v>
       </c>
       <c r="D3147">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E3147" t="s">
         <v>2178</v>
@@ -60603,7 +60603,7 @@
         <v>3</v>
       </c>
       <c r="D3158">
-        <v>115.9762928057026</v>
+        <v>115.9367029439203</v>
       </c>
       <c r="E3158" t="s">
         <v>2179</v>
@@ -60620,7 +60620,7 @@
         <v>1</v>
       </c>
       <c r="D3159">
-        <v>1159.762928057026</v>
+        <v>1159.367029439203</v>
       </c>
       <c r="E3159" t="s">
         <v>2178</v>
@@ -60637,7 +60637,7 @@
         <v>3</v>
       </c>
       <c r="D3160">
-        <v>115.7331469306447</v>
+        <v>115.6652632036576</v>
       </c>
       <c r="E3160" t="s">
         <v>2179</v>
@@ -60654,7 +60654,7 @@
         <v>1</v>
       </c>
       <c r="D3161">
-        <v>1157.331469306447</v>
+        <v>1156.652632036576</v>
       </c>
       <c r="E3161" t="s">
         <v>2178</v>
@@ -60671,7 +60671,7 @@
         <v>2</v>
       </c>
       <c r="D3162">
-        <v>304.087825024232</v>
+        <v>303.4569983136594</v>
       </c>
       <c r="E3162" t="s">
         <v>2178</v>
@@ -60688,7 +60688,7 @@
         <v>2</v>
       </c>
       <c r="D3163">
-        <v>303.9827689271801</v>
+        <v>302.75</v>
       </c>
       <c r="E3163" t="s">
         <v>2178</v>
@@ -60705,7 +60705,7 @@
         <v>2</v>
       </c>
       <c r="D3164">
-        <v>304.087825024232</v>
+        <v>303.4569983136594</v>
       </c>
       <c r="E3164" t="s">
         <v>2178</v>
@@ -60722,7 +60722,7 @@
         <v>2</v>
       </c>
       <c r="D3165">
-        <v>304.087825024232</v>
+        <v>303.4261610287493</v>
       </c>
       <c r="E3165" t="s">
         <v>2178</v>
@@ -61300,7 +61300,7 @@
         <v>1</v>
       </c>
       <c r="D3199">
-        <v>152.25</v>
+        <v>151.75</v>
       </c>
       <c r="E3199" t="s">
         <v>2178</v>
@@ -61317,7 +61317,7 @@
         <v>1</v>
       </c>
       <c r="D3200">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="E3200" t="s">
         <v>2178</v>
@@ -61334,7 +61334,7 @@
         <v>1</v>
       </c>
       <c r="D3201">
-        <v>90.25</v>
+        <v>89.25</v>
       </c>
       <c r="E3201" t="s">
         <v>2178</v>
@@ -61708,7 +61708,7 @@
         <v>1</v>
       </c>
       <c r="D3223">
-        <v>94.75</v>
+        <v>94.20863203252675</v>
       </c>
       <c r="E3223" t="s">
         <v>2178</v>
@@ -62031,7 +62031,7 @@
         <v>2</v>
       </c>
       <c r="D3242">
-        <v>404.5</v>
+        <v>397.5</v>
       </c>
       <c r="E3242" t="s">
         <v>2178</v>
